--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20835" windowHeight="10005" tabRatio="721" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20835" windowHeight="10005" tabRatio="721" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="1. Introduction" sheetId="10" r:id="rId1"/>
-    <sheet name="2. Preview" sheetId="1" r:id="rId2"/>
-    <sheet name="3. Processing YAML Information" sheetId="2" r:id="rId3"/>
-    <sheet name="4. Syntax Conventions" sheetId="3" r:id="rId4"/>
-    <sheet name="5. Characters" sheetId="4" r:id="rId5"/>
-    <sheet name="6. Basic Structures" sheetId="5" r:id="rId6"/>
-    <sheet name="7. Flow Styles" sheetId="6" r:id="rId7"/>
-    <sheet name="8. Block Styles" sheetId="7" r:id="rId8"/>
-    <sheet name="9. YAML Character Stream" sheetId="8" r:id="rId9"/>
-    <sheet name="10. Recommended Schemas" sheetId="9" r:id="rId10"/>
+    <sheet name="Table of Contents" sheetId="11" r:id="rId1"/>
+    <sheet name="1. Introduction" sheetId="10" r:id="rId2"/>
+    <sheet name="2. Preview" sheetId="1" r:id="rId3"/>
+    <sheet name="3. Processing YAML Information" sheetId="2" r:id="rId4"/>
+    <sheet name="4. Syntax Conventions" sheetId="3" r:id="rId5"/>
+    <sheet name="5. Characters" sheetId="4" r:id="rId6"/>
+    <sheet name="6. Basic Structures" sheetId="5" r:id="rId7"/>
+    <sheet name="7. Flow Styles" sheetId="6" r:id="rId8"/>
+    <sheet name="8. Block Styles" sheetId="7" r:id="rId9"/>
+    <sheet name="9. YAML Character Stream" sheetId="8" r:id="rId10"/>
+    <sheet name="10. Recommended Schemas" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="897">
   <si>
     <t>This section provides a quick glimpse into the expressive power of YAML. It is not expected that the first-time reader grok all of the examples. Rather, these selections are used as motivation for the remainder of the specification.</t>
   </si>
@@ -9618,20 +9619,6665 @@
   <si>
     <t>The tag repository is intentionally left out of the scope of this specification. This allows it to evolve to better support YAML applications. Hence, developers are encouraged to submit new “universal” types to the repository. The yaml-core mailing list at http://lists.sourceforge.net/lists/listinfo/yaml-core is the preferred method for such submissions, as well as raising any questions regarding this draft.</t>
   </si>
+  <si>
+    <t>6.1. Indentation Spaces</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In YAML block styles, structure is determined by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In general, indentation is defined as a zero or more space characters at the start of a line.</t>
+    </r>
+  </si>
+  <si>
+    <t>To maintain portability, tab characters must not be used in indentation, since different systems treat tabs differently. Note that most modern editors may be configured so that pressing the tab key results in the insertion of an appropriate number of spaces.</t>
+  </si>
+  <si>
+    <t>The amount of indentation is a presentation detail and must not be used to convey content information.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[63] s-indent(n) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-space × n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A block style construct is terminated when encountering a line which is less indented than the construct. The productions use the notation “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>s-indent(&lt;n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>s-indent(≤n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” to express this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[64] s-indent(&lt;n) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-space × </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /* Where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[65] s-indent(≤n) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-space × </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /* Where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≤ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> */</t>
+    </r>
+  </si>
+  <si>
+    <t>Each node must be indented further than its parent node. All sibling nodes must use the exact same indentation level. However the content of each sibling node may be further indented independently.</t>
+  </si>
+  <si>
+    <t>Example 6.1. Indentation Spaces</t>
+  </si>
+  <si>
+    <r>
+      <t>The “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” characters used to denote block collection entries are perceived by people to be part of the indentation. This is handled on a case-by-case basis by the relevant productions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.2. Indentation Indicators</t>
+  </si>
+  <si>
+    <t>6.2. Separation Spaces</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Outside indentation and scalar content, YAML uses white space characters for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between tokens within a line. Note that such white space may safely include tab characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>Separation spaces are a presentation detail and must not be used to convey content information.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[66] s-separate-in-line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-white+ | /* Start of line */</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.3. Separation Spaces</t>
+  </si>
+  <si>
+    <t>6.3. Line Prefixes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inside scalar content, each line begins with a non-content </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line prefix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This prefix always includes the indentation. For flow scalar styles it additionally includes all leading white space, which may contain tab characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>Line prefixes are a presentation detail and must not be used to convey content information.</t>
+  </si>
+  <si>
+    <t>[67]   s-line-prefix(n,c)    ::=     c = block-out ⇒ s-block-line-prefix(n)
+c = block-in  ⇒ s-block-line-prefix(n)
+c = flow-out  ⇒ s-flow-line-prefix(n)
+c = flow-in   ⇒ s-flow-line-prefix(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[68] s-block-line-prefix(n) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-indent(n)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[69] s-flow-line-prefix(n) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-indent(n) s-separate-in-line?</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.4. Line Prefixes</t>
+  </si>
+  <si>
+    <t>6.4. Empty Lines</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line consists of the non-content prefix followed by a line break.</t>
+    </r>
+  </si>
+  <si>
+    <t>[70]   l-empty(n,c)    ::=     ( s-line-prefix(n,c)  | s-indent(&lt;n)  )
+b-as-line-feed</t>
+  </si>
+  <si>
+    <t>The semantics of empty lines depend on the scalar style they appear in. This is handled on a case-by-case basis by the relevant productions.</t>
+  </si>
+  <si>
+    <t>Example 6.5. Empty Lines</t>
+  </si>
+  <si>
+    <t>6.5. Line Folding</t>
+  </si>
+  <si>
+    <r>
+      <t>Line folding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allows long lines to be broken for readability, while retaining the semantics of the original long line. If a line break is followed by an empty line, it is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trimmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; the first line break is discarded and the rest are retained as content.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[71] b-l-trimmed(n,c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b-non-content l-empty(n,c)+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Otherwise (the following line is not empty), the line break is converted to a single space (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>#x20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[72] b-as-space </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b-break</t>
+    </r>
+  </si>
+  <si>
+    <t>A folded non-empty line may end with either of the above line breaks.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[73] b-l-folded(n,c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b-l-trimmed(n,c) | b-as-space</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.6. Line Folding</t>
+  </si>
+  <si>
+    <t>The above rules are common to both the folded block style and the scalar flow styles. Folding does distinguish between these cases in the following way:</t>
+  </si>
+  <si>
+    <t>Block Folding</t>
+  </si>
+  <si>
+    <t>In the folded block style, the final line break and trailing empty lines are subject to chomping, and are never folded. In addition, folding does not apply to line breaks surrounding text lines that contain leading white space. Note that such a more-indented line may consist only of such leading white space.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The combined effect of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block line folding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rules is that each “paragraph” is interpreted as a line, empty lines are interpreted as a line feed, and the formatting of more-indented lines is preserved.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.7. Block Folding</t>
+  </si>
+  <si>
+    <t>Flow Folding</t>
+  </si>
+  <si>
+    <t>Folding in flow styles provides more relaxed semantics. Flow styles typically depend on explicit indicators rather than indentation to convey structure. Hence spaces preceding or following the text in a line are a presentation detail and must not be used to convey content information. Once all such spaces have been discarded, all line breaks are folded, without exception.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The combined effect of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow line folding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rules is that each “paragraph” is interpreted as a line, empty lines are interpreted as line feeds, and text can be freely more-indented without affecting the content information.</t>
+    </r>
+  </si>
+  <si>
+    <t>[74]   s-flow-folded(n)    ::=     s-separate-in-line? b-l-folded(n,flow-in)
+s-flow-line-prefix(n)</t>
+  </si>
+  <si>
+    <t>Example 6.8. Flow Folding</t>
+  </si>
+  <si>
+    <t>6.6. Comments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An explicit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is marked by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Comments are a presentation detail and must not be used to convey content information.</t>
+    </r>
+  </si>
+  <si>
+    <t>Comments must be separated from other tokens by white space characters. To ensure JSON compatibility, YAML processors must allow for the omission of the final comment line break of the input stream. However, as this confuses many tools, YAML processors should terminate the stream with an explicit line break on output.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[75] c-nb-comment-text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “#” nb-char*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[76] b-comment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b-non-content | /* End of file */</t>
+    </r>
+  </si>
+  <si>
+    <t>[77]   s-b-comment    ::=     ( s-separate-in-line  c-nb-comment-text? )?
+b-comment</t>
+  </si>
+  <si>
+    <t>Example 6.9. Separated Comment</t>
+  </si>
+  <si>
+    <t>Outside scalar content, comments may appear on a line of their own, independent of the indentation level. Note that outside scalar content, a line containing only white space characters is taken to be a comment line.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[78] l-comment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-separate-in-line c-nb-comment-text? b-comment</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.10. Comment Lines</t>
+  </si>
+  <si>
+    <t>In most cases, when a line may end with a comment, YAML allows it to be followed by additional comment lines. The only exception is a comment ending a block scalar header.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[79]   s-l-comments    ::=     ( s-b-comment  | /* Start of line */ )
+l-comment* </t>
+  </si>
+  <si>
+    <t>Example 6.11. Multi-Line Comments</t>
+  </si>
+  <si>
+    <t>6.7. Separation Lines</t>
+  </si>
+  <si>
+    <t>Implicit keys are restricted to a single line. In all other cases, YAML allows tokens to be separated by multi-line (possibly empty) comments.</t>
+  </si>
+  <si>
+    <t>Note that structures following multi-line comment separation must be properly indented, even though there is no such restriction on the separation comment lines themselves.</t>
+  </si>
+  <si>
+    <t>[80]   s-separate(n,c)    ::=     c = block-out ⇒ s-separate-lines(n)
+c = block-in  ⇒ s-separate-lines(n)
+c = flow-out  ⇒ s-separate-lines(n)
+c = flow-in   ⇒ s-separate-lines(n)
+c = block-key ⇒ s-separate-in-line
+c = flow-key  ⇒ s-separate-in-line</t>
+  </si>
+  <si>
+    <t>[81]   s-separate-lines(n)    ::=       ( s-l-comments  s-flow-line-prefix(n)  )
+| s-separate-in-line</t>
+  </si>
+  <si>
+    <t>Example 6.12. Separation Spaces</t>
+  </si>
+  <si>
+    <t>6.8. Directives</t>
+  </si>
+  <si>
+    <r>
+      <t>Directives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are instructions to the YAML processor. This specification defines two directives, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">”, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reserves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all other directives for future use. There is no way to define private directives. This is intentional.</t>
+    </r>
+  </si>
+  <si>
+    <t>Directives are a presentation detail and must not be used to convey content information.</t>
+  </si>
+  <si>
+    <t>[82]   l-directive    ::=     “%”
+( ns-yaml-directive
+| ns-tag-directive
+| ns-reserved-directive )
+s-l-comments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each directive is specified on a separate non-indented line starting with the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, followed by the directive name and a list of parameters. The semantics of these parameters depends on the specific directive. A YAML processor should ignore unknown directives with an appropriate warning.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[83]   ns-reserved-directive    ::=     ns-directive-name
+( s-separate-in-line ns-directive-parameter )* </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[84] ns-directive-name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-char+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[85] ns-directive-parameter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-char+</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.13. Reserved Directives</t>
+  </si>
+  <si>
+    <r>
+      <t>6.8.1. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” Directives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> specifies the version of YAML the document conforms to. This specification defines version “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">”, including recommendations for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YAML 1.1 processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A version 1.2 YAML processor must accept documents with an explicit “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%YAML 1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive, as well as documents lacking a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive. Such documents are assumed to conform to the 1.2 version specification. Documents with a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive specifying a higher minor version (e.g. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%YAML 1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”) should be processed with an appropriate warning. Documents with a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive specifying a higher major version (e.g. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%YAML 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”) should be rejected with an appropriate error message.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A version 1.2 YAML processor must also accept documents with an explicit “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%YAML 1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">” directive. Note that version 1.2 is mostly a superset of version 1.1, defined for the purpose of ensuring </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON compatibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Hence a version 1.2 processor should process version 1.1 documents as if they were version 1.2, giving a warning on points of incompatibility (handling of non-ASCII line breaks, as described above).</t>
+    </r>
+  </si>
+  <si>
+    <t>[86]   ns-yaml-directive    ::=     “Y” “A” “M” “L”
+s-separate-in-line ns-yaml-version</t>
+  </si>
+  <si>
+    <t>[87]   ns-yaml-version    ::=     ns-dec-digit+ “.” ns-dec-digit+</t>
+  </si>
+  <si>
+    <r>
+      <t>Example 6.14. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is an error to specify more than one “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>YAML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive for the same document, even if both occurrences give the same version number.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.15. Invalid Repeated YAML directive</t>
+  </si>
+  <si>
+    <r>
+      <t>6.8.2. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” Directives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> establishes a tag shorthand notation for specifying node tags. Each “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive associates a handle with a prefix. This allows for compact and readable tag notation.</t>
+    </r>
+  </si>
+  <si>
+    <t>[88]   ns-tag-directive    ::=     “T” “A” “G”
+s-separate-in-line c-tag-handle
+s-separate-in-line ns-tag-prefix</t>
+  </si>
+  <si>
+    <r>
+      <t>Example 6.16. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is an error to specify more than one “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive for the same handle in the same document, even if both occurrences give the same prefix.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.17. Invalid Repeated TAG directive</t>
+  </si>
+  <si>
+    <t>6.8.2.1. Tag Handles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> exactly matches the prefix of the affected tag shorthand. There are three tag handle variants:</t>
+    </r>
+  </si>
+  <si>
+    <t>[89]   c-tag-handle    ::=       c-named-tag-handle
+| c-secondary-tag-handle
+| c-primary-tag-handle</t>
+  </si>
+  <si>
+    <t>Primary Handle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary tag handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a single </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> character. This allows using the most compact possible notation for a single “primary” name space. By default, the prefix associated with this handle is “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”. Thus, by default, shorthands using this handle are interpreted as local tags.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is possible to override the default behavior by providing an explicit “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive, associating a different prefix for this handle. This provides smooth migration from using local tags to using global tags, by the simple addition of a single “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[90] c-primary-tag-handle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “!”</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.18. Primary Tag Handle</t>
+  </si>
+  <si>
+    <t>Secondary Handle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>secondary tag handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is written as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This allows using a compact notation for a single “secondary” name space. By default, the prefix associated with this handle is “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tag:yaml.org,2002:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”. This prefix is used by the YAML tag repository.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is possible to override this default behavior by providing an explicit “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive associating a different prefix for this handle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[91] c-secondary-tag-handle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “!” “!”</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.19. Secondary Tag Handle</t>
+  </si>
+  <si>
+    <t>Named Handles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>named tag handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> surrounds a non-empty name with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> characters. A handle name must not be used in a tag shorthand unless an explicit “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive has associated some prefix with it.</t>
+    </r>
+  </si>
+  <si>
+    <t>The name of the handle is a presentation detail and must not be used to convey content information. In particular, the YAML processor need not preserve the handle name once parsing is completed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[92] c-named-tag-handle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “!” ns-word-char+ “!”</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.20. Tag Handles</t>
+  </si>
+  <si>
+    <t>6.8.2.2. Tag Prefixes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are two </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag prefix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variants:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[93] ns-tag-prefix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c-ns-local-tag-prefix | ns-global-tag-prefix</t>
+    </r>
+  </si>
+  <si>
+    <t>Local Tag Prefix</t>
+  </si>
+  <si>
+    <r>
+      <t>If the prefix begins with a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character, shorthands using the handle are expanded to a local tag. Note that such a tag is intentionally not a valid URI, and its semantics are specific to the application. In particular, two documents in the same stream may assign different semantics to the same local tag.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[94] c-ns-local-tag-prefix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “!” ns-uri-char*</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.21. Local Tag Prefix</t>
+  </si>
+  <si>
+    <t>Global Tag Prefix</t>
+  </si>
+  <si>
+    <r>
+      <t>If the prefix begins with a character other than “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, it must to be a valid URI prefix, and should contain at least the scheme and the authority. Shorthands using the associated handle are expanded to globally unique URI tags, and their semantics is consistent across applications. In particular, every documents in every stream must assign the same semantics to the same global tag.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[95] ns-global-tag-prefix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-tag-char ns-uri-char*</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.22. Global Tag Prefix</t>
+  </si>
+  <si>
+    <t>6.9. Node Properties</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each node may have two optional </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, anchor and tag, in addition to its content. Node properties may be specified in any order before the node’s content. Either or both may be omitted.</t>
+    </r>
+  </si>
+  <si>
+    <t>[96]   c-ns-properties(n,c)    ::=       ( c-ns-tag-property
+    ( s-separate(n,c) c-ns-anchor-property )? )
+| ( c-ns-anchor-property
+    ( s-separate(n,c) c-ns-tag-property )? )</t>
+  </si>
+  <si>
+    <t>Example 6.23. Node Properties</t>
+  </si>
+  <si>
+    <t>6.9.1. Node Tags</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> identifies the type of the native data structure presented by the node. A tag is denoted by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>[97]   c-ns-tag-property    ::=       c-verbatim-tag
+| c-ns-shorthand-tag
+| c-non-specific-tag</t>
+  </si>
+  <si>
+    <t>Verbatim Tags</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A tag may be written </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verbatim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by surrounding it with the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> characters. In this case, the YAML processor must deliver the verbatim tag as-is to the application. In particular, verbatim tags are not subject to tag resolution. A verbatim tag must either begin with a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” (a local tag) or be a valid URI (a global tag).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[98] c-verbatim-tag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “!” “&lt;” ns-uri-char+ “&gt;”</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.24. Verbatim Tags</t>
+  </si>
+  <si>
+    <t>Example 6.25. Invalid Verbatim Tags</t>
+  </si>
+  <si>
+    <t>Tag Shorthands</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag shorthand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consists of a valid tag handle followed by a non-empty suffix. The tag handle must be associated with a prefix, either by default or by using a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” directive. The resulting parsed tag is the concatenation of the prefix and the suffix, and must either begin with “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” (a local tag) or be a valid URI (a global tag).</t>
+    </r>
+  </si>
+  <si>
+    <t>The choice of tag handle is a presentation detail and must not be used to convey content information. In particular, the tag handle may be discarded once parsing is completed.</t>
+  </si>
+  <si>
+    <r>
+      <t>The suffix must not contain any “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character. This would cause the tag shorthand to be interpreted as having a named tag handle. In addition, the suffix must not contain the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” characters. These characters would cause ambiguity with flow collection structures. If the suffix needs to specify any of the above restricted characters, they must be escaped using the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character. This behavior is consistent with the URI character escaping rules (specifically, section 2.3 of RFC2396).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[99] c-ns-shorthand-tag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c-tag-handle ns-tag-char+</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.26. Tag Shorthands</t>
+  </si>
+  <si>
+    <t>Example 6.27. Invalid Tag Shorthands</t>
+  </si>
+  <si>
+    <t>Non-Specific Tags</t>
+  </si>
+  <si>
+    <r>
+      <t>If a node has no tag property, it is assigned a non-specific tag that needs to be resolved to a specific one. This non-specific tag is “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” for non-plain scalars and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” for all other nodes. This is the only case where the node style has any effect on the content information.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is possible for the tag property to be explicitly set to the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” non-specific tag. By convention, this “disables” tag resolution, forcing the node to be interpreted as “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tag:yaml.org,2002:seq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tag:yaml.org,2002:map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, or “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tag:yaml.org,2002:str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, according to its kind.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>There is no way to explicitly specify the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” non-specific tag. This is intentional.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[100] c-non-specific-tag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “!”</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.28. Non-Specific Tags</t>
+  </si>
+  <si>
+    <t>6.9.2. Node Anchors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An anchor is denoted by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It marks a node for future reference. An alias node can then be used to indicate additional inclusions of the anchored node. An anchored node need not be referenced by any alias nodes; in particular, it is valid for all nodes to be anchored.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[101] c-ns-anchor-property </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “&amp;” ns-anchor-name</t>
+    </r>
+  </si>
+  <si>
+    <t>Note that as a serialization detail, the anchor name is preserved in the serialization tree. However, it is not reflected in the representation graph and must not be used to convey content information. In particular, the YAML processor need not preserve the anchor name once the representation is composed.</t>
+  </si>
+  <si>
+    <r>
+      <t>Anchor names must not contain the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” characters. These characters would cause ambiguity with flow collection structures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[102] ns-anchor-char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-char - c-flow-indicator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[103] ns-anchor-name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-anchor-char+</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 6.29. Node Anchors</t>
+  </si>
+  <si>
+    <t>Chapter 7. Flow Styles</t>
+  </si>
+  <si>
+    <t>Chapter 8. Block Styles</t>
+  </si>
+  <si>
+    <t>Chapter 1. Introduction</t>
+  </si>
+  <si>
+    <t>“YAML Ain’t Markup Language” (abbreviated YAML) is a data serialization language designed to be human-friendly and work well with modern programming languages for common everyday tasks. This specification is both an introduction to the YAML language and the concepts supporting it, and also a complete specification of the information needed to develop applications for processing YAML.</t>
+  </si>
+  <si>
+    <t>Open, interoperable and readily understandable tools have advanced computing immensely. YAML was designed from the start to be useful and friendly to people working with data. It uses Unicode printable characters, some of which provide structural information and the rest containing the data itself. YAML achieves a unique cleanness by minimizing the amount of structural characters and allowing the data to show itself in a natural and meaningful way. For example, indentation may be used for structure, colons separate key: value pairs, and dashes are used to create “bullet” lists.</t>
+  </si>
+  <si>
+    <t>There are myriad flavors of data structures, but they can all be adequately represented with three basic primitives: mappings (hashes/dictionaries), sequences (arrays/lists) and scalars (strings/numbers). YAML leverages these primitives, and adds a simple typing system and aliasing mechanism to form a complete language for serializing any native data structure. While most programming languages can use YAML for data serialization, YAML excels in working with those languages that are fundamentally built around the three basic primitives. These include the new wave of agile languages such as Perl, Python, PHP, Ruby, and Javascript.</t>
+  </si>
+  <si>
+    <t>There are hundreds of different languages for programming, but only a handful of languages for storing and transferring data. Even though its potential is virtually boundless, YAML was specifically created to work well for common use cases such as: configuration files, log files, interprocess messaging, cross-language data sharing, object persistence, and debugging of complex data structures. When data is easy to view and understand, programming becomes a simpler task.</t>
+  </si>
+  <si>
+    <t>1.1. Goals</t>
+  </si>
+  <si>
+    <t>The design goals for YAML are, in decreasing priority:</t>
+  </si>
+  <si>
+    <t>1. YAML is easily readable by humans.</t>
+  </si>
+  <si>
+    <t>2. YAML data is portable between programming languages.</t>
+  </si>
+  <si>
+    <t>3. YAML matches the native data structures of agile languages.</t>
+  </si>
+  <si>
+    <t>4. YAML has a consistent model to support generic tools.</t>
+  </si>
+  <si>
+    <t>5. YAML supports one-pass processing.</t>
+  </si>
+  <si>
+    <t>6. YAML is expressive and extensible.</t>
+  </si>
+  <si>
+    <t>7. YAML is easy to implement and use.</t>
+  </si>
+  <si>
+    <t>1.2. Prior Art</t>
+  </si>
+  <si>
+    <t>YAML’s initial direction was set by the data serialization and markup language discussions among SML-DEV members. Later on, it directly incorporated experience from Ingy döt Net’s Perl module Data::Denter. Since then, YAML has matured through ideas and support from its user community.</t>
+  </si>
+  <si>
+    <t>YAML integrates and builds upon concepts described by C, Java, Perl, Python, Ruby, RFC0822 (MAIL), RFC1866 (HTML), RFC2045 (MIME), RFC2396 (URI), XML, SAX, SOAP, and JSON.</t>
+  </si>
+  <si>
+    <t>The syntax of YAML was motivated by Internet Mail (RFC0822) and remains partially compatible with that standard. Further, borrowing from MIME (RFC2045), YAML’s top-level production is a stream of independent documents, ideal for message-based distributed processing systems.</t>
+  </si>
+  <si>
+    <t>YAML’s indentation-based scoping is similar to Python’s (without the ambiguities caused by tabs). Indented blocks facilitate easy inspection of the data’s structure. YAML’s literal style leverages this by enabling formatted text to be cleanly mixed within an indented structure without troublesome escaping. YAML also allows the use of traditional indicator-based scoping similar to JSON’s and Perl’s. Such flow content can be freely nested inside indented blocks.</t>
+  </si>
+  <si>
+    <r>
+      <t>YAML’s double-quoted style uses familiar C-style escape sequences. This enables ASCII encoding of non-printable or 8-bit (ISO 8859-1) characters such as “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\x3B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”. Non-printable 16-bit Unicode and 32-bit (ISO/IEC 10646) characters are supported with escape sequences such as “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\u003B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\U0000003B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”.</t>
+    </r>
+  </si>
+  <si>
+    <t>Motivated by HTML’s end-of-line normalization, YAML’s line folding employs an intuitive method of handling line breaks. A single line break is folded into a single space, while empty lines are interpreted as line break characters. This technique allows for paragraphs to be word-wrapped without affecting the canonical form of the scalar content.</t>
+  </si>
+  <si>
+    <t>YAML’s core type system is based on the requirements of agile languages such as Perl, Python, and Ruby. YAML directly supports both collections (mappings, sequences) and scalars. Support for these common types enables programmers to use their language’s native data structures for YAML manipulation, instead of requiring a special document object model (DOM).</t>
+  </si>
+  <si>
+    <t>Like XML’s SOAP, YAML supports serializing a graph of native data structures through an aliasing mechanism. Also like SOAP, YAML provides for application-defined types. This allows YAML to represent rich data structures required for modern distributed computing. YAML provides globally unique type names using a namespace mechanism inspired by Java’s DNS-based package naming convention and XML’s URI-based namespaces. In addition, YAML allows for private types specific to a single application.</t>
+  </si>
+  <si>
+    <r>
+      <t>YAML was designed to support incremental interfaces that include both input (“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>getNextEvent()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”) and output (“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>sendNextEvent()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”) one-pass interfaces. Together, these enable YAML to support the processing of large documents (e.g. transaction logs) or continuous streams (e.g. feeds from a production machine).</t>
+    </r>
+  </si>
+  <si>
+    <t>1.3. Relation to JSON</t>
+  </si>
+  <si>
+    <t>Both JSON and YAML aim to be human readable data interchange formats. However, JSON and YAML have different priorities. JSON’s foremost design goal is simplicity and universality. Thus, JSON is trivial to generate and parse, at the cost of reduced human readability. It also uses a lowest common denominator information model, ensuring any JSON data can be easily processed by every modern programming environment.</t>
+  </si>
+  <si>
+    <t>In contrast, YAML’s foremost design goals are human readability and support for serializing arbitrary native data structures. Thus, YAML allows for extremely readable files, but is more complex to generate and parse. In addition, YAML ventures beyond the lowest common denominator data types, requiring more complex processing when crossing between different programming environments.</t>
+  </si>
+  <si>
+    <t>YAML can therefore be viewed as a natural superset of JSON, offering improved human readability and a more complete information model. This is also the case in practice; every JSON file is also a valid YAML file. This makes it easy to migrate from JSON to YAML if/when the additional features are required.</t>
+  </si>
+  <si>
+    <t>JSON's RFC4627 requires that mappings keys merely “SHOULD” be unique, while YAML insists they “MUST” be. Technically, YAML therefore complies with the JSON spec, choosing to treat duplicates as an error. In practice, since JSON is silent on the semantics of such duplicates, the only portable JSON files are those with unique keys, which are therefore valid YAML files.</t>
+  </si>
+  <si>
+    <t>It may be useful to define a intermediate format between YAML and JSON. Such a format would be trivial to parse (but not very human readable), like JSON. At the same time, it would allow for serializing arbitrary native data structures, like YAML. Such a format might also serve as YAML’s "canonical format". Defining such a “YSON” format (YSON is a Serialized Object Notation) can be done either by enhancing the JSON specification or by restricting the YAML specification. Such a definition is beyond the scope of this specification.</t>
+  </si>
+  <si>
+    <t>1.4. Relation to XML</t>
+  </si>
+  <si>
+    <t>Newcomers to YAML often search for its correlation to the eXtensible Markup Language (XML). Although the two languages may actually compete in several application domains, there is no direct correlation between them.</t>
+  </si>
+  <si>
+    <t>YAML is primarily a data serialization language. XML was designed to be backwards compatible with the Standard Generalized Markup Language (SGML), which was designed to support structured documentation. XML therefore had many design constraints placed on it that YAML does not share. XML is a pioneer in many domains, YAML is the result of lessons learned from XML and other technologies.</t>
+  </si>
+  <si>
+    <t>It should be mentioned that there are ongoing efforts to define standard XML/YAML mappings. This generally requires that a subset of each language be used. For more information on using both XML and YAML, please visit http://yaml.org/xml.</t>
+  </si>
+  <si>
+    <t>1.5. Terminology</t>
+  </si>
+  <si>
+    <t>This specification uses key words based on RFC2119 to indicate requirement level. In particular, the following words are used to describe the actions of a YAML processor:</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The word </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>may</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or the adjective </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, mean that conforming YAML processors are permitted to, but </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>need not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> behave as described.</t>
+    </r>
+  </si>
+  <si>
+    <t>Should</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The word </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or the adjective </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recommended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, mean that there could be reasons for a YAML processor to deviate from the behavior described, but that such deviation could hurt interoperability and should therefore be advertised with appropriate notice.</t>
+    </r>
+  </si>
+  <si>
+    <t>Must</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The word </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or the term </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, mean that the behavior described is an absolute requirement of the specification.</t>
+    </r>
+  </si>
+  <si>
+    <t>The rest of this document is arranged as follows. Chapter 2 provides a short preview of the main YAML features. Chapter 3 describes the YAML information model, and the processes for converting from and to this model and the YAML text format. The bulk of the document, chapters 4 through 9, formally define this text format. Finally, chapter 10 recommends basic YAML schemas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. Goals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2. Prior Art </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3. Relation to JSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4. Relation to XML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5. Terminology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Preview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1. Collections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. Structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3. Scalars </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4. Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5. Full Length Example </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Processing YAML Information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1. Processes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1. Dump </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.2. Load </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2. Information Models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1. Representation Graph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1.1. Nodes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1.2. Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1.3. Node Comparison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.2. Serialization Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.2.1. Keys Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.2.2. Anchors and Aliases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3. Presentation Stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.1. Node Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.2. Scalar Formats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.3. Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.4. Directives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3. Loading Failure Points </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1. Well-Formed Streams and Identified Aliases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2. Resolved Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3. Recognized and Valid Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.4. Available Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Syntax Conventions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1. Production Parameters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2. Production Naming Conventions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1. Character Set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2. Character Encodings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3. Indicator Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4. Line Break Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5. White Space Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6. Miscellaneous Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7. Escaped Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Basic Structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1. Indentation Spaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2. Separation Spaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3. Line Prefixes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4. Empty Lines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5. Line Folding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6. Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7. Separation Lines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8. Directives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8.1. “YAML” Directives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8.2. “TAG” Directives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8.2.1. Tag Handles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8.2.2. Tag Prefixes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9. Node Properties </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9.1. Node Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9.2. Node Anchors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Flow Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1. Alias Nodes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2. Empty Nodes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3. Flow Scalar Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.1. Double-Quoted Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.2. Single-Quoted Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.3. Plain Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4. Flow Collection Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.1. Flow Sequences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.2. Flow Mappings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5. Flow Nodes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Block Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1. Block Scalar Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.1. Block Scalar Headers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.1.1. Block Indentation Indicator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.1.2. Block Chomping Indicator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.2. Literal Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.3. Folded Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2. Block Collection Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.1. Block Sequences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.2. Block Mappings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.3. Block Nodes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. YAML Character Stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1. Documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.1. Document Prefix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.2. Document Markers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.3. Bare Documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.4. Explicit Documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.5. Directives Documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2. Streams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Recommended Schemas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1. Failsafe Schema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1. Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.1. Generic Mapping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.2. Generic Sequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.3. Generic String </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.2. Tag Resolution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2. JSON Schema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.1. Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.1.1. Null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.1.2. Boolean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.1.3. Integer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.1.4. Floating Point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.2. Tag Resolution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3. Core Schema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3.1. Tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3.2. Tag Resolution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4. Other Schemas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML’s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be thought of as the natural extension of JSON to cover folding long content lines for readability, tagging nodes to control construction of native data structures, and using anchors and aliases to reuse constructed object instances.</t>
+    </r>
+  </si>
+  <si>
+    <t>7.1. Alias Nodes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Subsequent occurrences of a previously serialized node are presented as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alias nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The first occurrence of the node must be marked by an anchor to allow subsequent occurrences to be presented as alias nodes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An alias node is denoted by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The alias refers to the most recent preceding node having the same anchor. It is an error for an alias node to use an anchor that does not previously occur in the document. It is not an error to specify an anchor that is not used by any alias node.</t>
+    </r>
+  </si>
+  <si>
+    <t>Note that an alias node must not specify any properties or content, as these were already specified at the first occurrence of the node.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[104] c-ns-alias-node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “*” ns-anchor-name</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.1. Alias Nodes</t>
+  </si>
+  <si>
+    <t>7.2. Empty Nodes</t>
+  </si>
+  <si>
+    <r>
+      <t>YAML allows the node content to be omitted in many cases. Nodes with empty content are interpreted as if they were plain scalars with an empty value. Such nodes are commonly resolved to a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In the examples, empty scalars are sometimes displayed as the glyph “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” for clarity. Note that this glyph corresponds to a position in the characters stream rather than to an actual character.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.2. Empty Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[105]   e-scalar    ::=     /* Empty */ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Both the node’s properties and node content are optional. This allows for a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completely empty node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Completely empty nodes are only valid when following some explicit indication for their existence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[106] e-node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e-scalar</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.3. Completely Empty Flow Nodes</t>
+  </si>
+  <si>
+    <t>7.3. Flow Scalar Styles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML provides three </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow scalar styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: double-quoted, single-quoted and plain (unquoted). Each provides a different trade-off between readability and expressive power.</t>
+    </r>
+  </si>
+  <si>
+    <t>The scalar style is a presentation detail and must not be used to convey content information, with the exception that plain scalars are distinguished for the purpose of tag resolution.</t>
+  </si>
+  <si>
+    <t>7.3.1. Double-Quoted Style</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>double-quoted style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is specified by surrounding </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This is the only style capable of expressing arbitrary strings, by using “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” escape sequences. This comes at the cost of having to escape the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>[107]   nb-double-char    ::=     c-ns-esc-char  | ( nb-json  - “\”  - “"” )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[108] ns-double-char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nb-double-char - s-white</t>
+    </r>
+  </si>
+  <si>
+    <t>Double-quoted scalars are restricted to a single line when contained inside an implicit key.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[109] c-double-quoted(n,c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “"” nb-double-text(n,c) “"”</t>
+    </r>
+  </si>
+  <si>
+    <t>[110]   nb-double-text(n,c)    ::=     c = flow-out  ⇒ nb-double-multi-line(n)
+c = flow-in   ⇒ nb-double-multi-line(n)
+c = block-key ⇒ nb-double-one-line
+c = flow-key  ⇒ nb-double-one-line</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[111] nb-double-one-line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nb-double-char*</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.4. Double Quoted Implicit Keys</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In a multi-line double-quoted scalar, line breaks are are subject to flow line folding, which discards any trailing white space characters. It is also possible to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the line break character. In this case, the line break is excluded from the content, and the trailing white space characters are preserved. Combined with the ability to escape white space characters, this allows double-quoted lines to be broken at arbitrary positions.</t>
+    </r>
+  </si>
+  <si>
+    <t>[112]   s-double-escaped(n)    ::=     s-white* “\”  b-non-content
+l-empty(n,flow-in)* s-flow-line-prefix(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[113] s-double-break(n) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-double-escaped(n) | s-flow-folded(n)</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.5. Double Quoted Line Breaks</t>
+  </si>
+  <si>
+    <t>All leading and trailing white space characters are excluded from the content. Each continuation line must therefore contain at least one non-space character. Empty lines, if any, are consumed as part of the line folding.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[114] nb-ns-double-in-line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( s-white* ns-double-char )*</t>
+    </r>
+  </si>
+  <si>
+    <t>[115]   s-double-next-line(n)    ::=     s-double-break(n)
+( ns-double-char nb-ns-double-in-line
+  ( s-double-next-line(n) | s-white* ) )?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[116]   nb-double-multi-line(n)    ::=     nb-ns-double-in-line
+( s-double-next-line(n) | s-white* ) </t>
+  </si>
+  <si>
+    <t>Example 7.6. Double Quoted Lines</t>
+  </si>
+  <si>
+    <t>7.3.2. Single-Quoted Style</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single-quoted style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is specified by surrounding </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Therefore, within a single-quoted scalar, such characters need to be repeated. This is the only form of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escaping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performed in single-quoted scalars. In particular, the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” characters may be freely used. This restricts single-quoted scalars to printable characters. In addition, it is only possible to break a long single-quoted line where a space character is surrounded by non-spaces.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[117] c-quoted-quote </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “'” “'”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[118] nb-single-char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c-quoted-quote | ( nb-json - “'” )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[119] ns-single-char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nb-single-char - s-white</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.7. Single Quoted Characters</t>
+  </si>
+  <si>
+    <t>Single-quoted scalars are restricted to a single line when contained inside a implicit key.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[120] c-single-quoted(n,c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “'” nb-single-text(n,c) “'”</t>
+    </r>
+  </si>
+  <si>
+    <t>[121]   nb-single-text(n,c)    ::=     c = flow-out  ⇒ nb-single-multi-line(n)
+c = flow-in   ⇒ nb-single-multi-line(n)
+c = block-key ⇒ nb-single-one-line
+c = flow-key  ⇒ nb-single-one-line</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[122] nb-single-one-line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nb-single-char*</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.8. Single Quoted Implicit Keys</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[123] nb-ns-single-in-line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( s-white* ns-single-char )*</t>
+    </r>
+  </si>
+  <si>
+    <t>[124]   s-single-next-line(n)    ::=     s-flow-folded(n)
+( ns-single-char nb-ns-single-in-line
+  ( s-single-next-line(n) | s-white* ) )?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[125]   nb-single-multi-line(n)    ::=     nb-ns-single-in-line
+( s-single-next-line(n) | s-white* ) </t>
+  </si>
+  <si>
+    <t>Example 7.9. Single Quoted Lines</t>
+  </si>
+  <si>
+    <t>7.3.3. Plain Style</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (unquoted) style has no identifying indicators and provides no form of escaping. It is therefore the most readable, most limited and most context sensitive style. In addition to a restricted character set, a plain scalar must not be empty, or contain leading or trailing white space characters. It is only possible to break a long plain line where a space character is surrounded by non-spaces.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Plain scalars must not begin with most indicators, as this would cause ambiguity with other YAML constructs. However, the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicators may be used as the first character if followed by a non-space “safe” character, as this causes no ambiguity.</t>
+    </r>
+  </si>
+  <si>
+    <t>[126]   ns-plain-first(c)    ::=       ( ns-char  - c-indicator  )
+| ( ( “?” | “:” | “-” )
+    /* Followed by an ns-plain-safe(c)) */ )</t>
+  </si>
+  <si>
+    <r>
+      <t>Plain scalars must never contain the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character combinations. Such combinations would cause ambiguity with mapping key: value pairs and comments. In addition, inside flow collections, or when used as implicit keys, plain scalars must not contain the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” characters. These characters would cause ambiguity with flow collection structures.</t>
+    </r>
+  </si>
+  <si>
+    <t>[127]   ns-plain-safe(c)    ::=     c = flow-out  ⇒ ns-plain-safe-out
+c = flow-in   ⇒ ns-plain-safe-in
+c = block-key ⇒ ns-plain-safe-out
+c = flow-key  ⇒ ns-plain-safe-in</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[128] ns-plain-safe-out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-char</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[129] ns-plain-safe-in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-char - c-flow-indicator</t>
+    </r>
+  </si>
+  <si>
+    <t>[130]   ns-plain-char(c)    ::=       ( ns-plain-safe(c)  - “:”  - “#” )
+| ( /* An ns-char preceding */ “#” )
+| ( “:” /* Followed by an ns-plain-safe(c) */ )</t>
+  </si>
+  <si>
+    <t>Example 7.10. Plain Characters</t>
+  </si>
+  <si>
+    <t>Plain scalars are further restricted to a single line when contained inside an implicit key.</t>
+  </si>
+  <si>
+    <t>[131]   ns-plain(n,c)    ::=     c = flow-out  ⇒ ns-plain-multi-line(n,c)
+c = flow-in   ⇒ ns-plain-multi-line(n,c)
+c = block-key ⇒ ns-plain-one-line(c)
+c = flow-key  ⇒ ns-plain-one-line©</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[132] nb-ns-plain-in-line(c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( s-white* ns-plain-char(c) )*</t>
+    </r>
+  </si>
+  <si>
+    <t>[133] ns-plain-one-line(c) ::= ns-plain-first(c) nb-ns-plain-in-line(c)</t>
+  </si>
+  <si>
+    <t>Example 7.11. Plain Implicit Keys</t>
+  </si>
+  <si>
+    <t>[134]   s-ns-plain-next-line(n,c)    ::=     s-flow-folded(n)
+ns-plain-char(c) nb-ns-plain-in-line©</t>
+  </si>
+  <si>
+    <t>[135]   ns-plain-multi-line(n,c)    ::=     ns-plain-one-line(c)
+s-ns-plain-next-line(n,c)*</t>
+  </si>
+  <si>
+    <t>Example 7.12. Plain Lines</t>
+  </si>
+  <si>
+    <t>7.4. Flow Collection Styles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow collection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> may be nested within a block collection (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>flow-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> context), nested within another flow collection (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>flow-in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> context), or be a part of an implicit key (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>flow-key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> context or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>block-key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> context). Flow collection entries are terminated by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The final “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” may be omitted. This does not cause ambiguity because flow collection entries can never be completely empty.</t>
+    </r>
+  </si>
+  <si>
+    <t>[136]   in-flow(c)    ::=     c = flow-out  ⇒ flow-in
+c = flow-in   ⇒ flow-in
+c = block-key ⇒ flow-key
+c = flow-key  ⇒ flow-key</t>
+  </si>
+  <si>
+    <t>7.4.1. Flow Sequences</t>
+  </si>
+  <si>
+    <r>
+      <t>Flow sequence content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is denoted by surrounding </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>[137]   c-flow-sequence(n,c)    ::=     “[”  s-separate(n,c)?
+ns-s-flow-seq-entries(n,in-flow(c))? “]”</t>
+  </si>
+  <si>
+    <r>
+      <t>Sequence entries are separated by a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[138]   ns-s-flow-seq-entries(n,c)    ::=     ns-flow-seq-entry(n,c)  s-separate(n,c)?
+( “,” s-separate(n,c)?
+  ns-s-flow-seq-entries(n,c)? )? </t>
+  </si>
+  <si>
+    <t>Example 7.13. Flow Sequence</t>
+  </si>
+  <si>
+    <t>Any flow node may be used as a flow sequence entry. In addition, YAML provides a compact notation for the case where a flow sequence entry is a mapping with a single key: value pair.</t>
+  </si>
+  <si>
+    <t>[139]   ns-flow-seq-entry(n,c)    ::=     ns-flow-pair(n,c)  | ns-flow-node(n,c)</t>
+  </si>
+  <si>
+    <t>Example 7.14. Flow Sequence Entries</t>
+  </si>
+  <si>
+    <t>7.4.2. Flow Mappings</t>
+  </si>
+  <si>
+    <r>
+      <t>Flow mappings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are denoted by surrounding </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>[140]   c-flow-mapping(n,c)    ::=     “{”  s-separate(n,c)?
+ns-s-flow-map-entries(n,in-flow(c))? “}”</t>
+  </si>
+  <si>
+    <r>
+      <t>Mapping entries are separated by a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character.</t>
+    </r>
+  </si>
+  <si>
+    <t>[141]   ns-s-flow-map-entries(n,c)    ::=     ns-flow-map-entry(n,c)  s-separate(n,c)?
+( “,” s-separate(n,c)?
+  ns-s-flow-map-entries(n,c)? )?</t>
+  </si>
+  <si>
+    <t>Example 7.15. Flow Mappings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the optional </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” mapping key indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is specified, the rest of the entry may be completely empty.</t>
+    </r>
+  </si>
+  <si>
+    <t>[142]   ns-flow-map-entry(n,c)    ::=       ( “?”  s-separate(n,c)
+    ns-flow-map-explicit-entry(n,c) )
+| ns-flow-map-implicit-entry(n,c)</t>
+  </si>
+  <si>
+    <t>[143]   ns-flow-map-explicit-entry(n,c)    ::=       ns-flow-map-implicit-entry(n,c)
+| ( e-node /* Key */
+    e-node /* Value */ )</t>
+  </si>
+  <si>
+    <t>Example 7.16. Flow Mapping Entries</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Normally, YAML insists the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” mapping value indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be separated from the value by white space. A benefit of this restriction is that the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character can be used inside plain scalars, as long as it is not followed by white space. This allows for unquoted URLs and timestamps. It is also a potential source for confusion as “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” is a plain scalar and not a key: value pair.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Note that the value may be completely empty since its existence is indicated by the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”.</t>
+    </r>
+  </si>
+  <si>
+    <t>[144]   ns-flow-map-implicit-entry(n,c)    ::=       ns-flow-map-yaml-key-entry(n,c)
+| c-ns-flow-map-empty-key-entry(n,c)
+| c-ns-flow-map-json-key-entry(n,c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[145]   ns-flow-map-yaml-key-entry(n,c)    ::=     ns-flow-yaml-node(n,c)
+( ( s-separate(n,c)?
+    c-ns-flow-map-separate-value(n,c) )
+| e-node ) </t>
+  </si>
+  <si>
+    <t>[146]   c-ns-flow-map-empty-key-entry(n,c)    ::=     e-node  /* Key */
+c-ns-flow-map-separate-value(n,c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[147]   c-ns-flow-map-separate-value(n,c)    ::=     “:”  /* Not followed by an
+       ns-plain-safe(c) */
+( ( s-separate(n,c) ns-flow-node(n,c) )
+| e-node /* Value */ ) </t>
+  </si>
+  <si>
+    <t>Example 7.17. Flow Mapping Separate Values</t>
+  </si>
+  <si>
+    <r>
+      <t>To ensure JSON compatibility, if a key inside a flow mapping is JSON-like, YAML allows the following value to be specified adjacent to the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”. This causes no ambiguity, as all JSON-like keys are surrounded by indicators. However, as this greatly reduces readability, YAML processors should separate the value from the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” on output, even in this case.</t>
+    </r>
+  </si>
+  <si>
+    <t>[148]   c-ns-flow-map-json-key-entry(n,c)    ::=     c-flow-json-node(n,c)
+( ( s-separate(n,c)?
+    c-ns-flow-map-adjacent-value(n,c) )
+| e-node )</t>
+  </si>
+  <si>
+    <t>[149]   c-ns-flow-map-adjacent-value(n,c)    ::=     “:”  ( ( s-separate(n,c)?
+        ns-flow-node(n,c) )
+    | e-node ) /* Value */</t>
+  </si>
+  <si>
+    <t>Example 7.18. Flow Mapping Adjacent Values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A more compact notation is usable inside flow sequences, if the mapping contains a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single key: value pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This notation does not require the surrounding “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” characters. Note that it is not possible to specify any node properties for the mapping in this case.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.19. Single Pair Flow Mappings</t>
+  </si>
+  <si>
+    <r>
+      <t>If the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator is explicitly specified, parsing is unambiguous, and the syntax is identical to the general case.</t>
+    </r>
+  </si>
+  <si>
+    <t>[150]   ns-flow-pair(n,c)    ::=       ( “?”  s-separate(n,c)
+    ns-flow-map-explicit-entry(n,c) )
+| ns-flow-pair-entry(n,c)</t>
+  </si>
+  <si>
+    <t>Example 7.20. Single Pair Explicit Entry</t>
+  </si>
+  <si>
+    <r>
+      <t>If the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">” indicator is omitted, parsing needs to see past the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>implicit key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to recognize it as such. To limit the amount of lookahead required, the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator must appear at most 1024 Unicode characters beyond the start of the key. In addition, the key is restricted to a single line.</t>
+    </r>
+  </si>
+  <si>
+    <t>Note that YAML allows arbitrary nodes to be used as keys. In particular, a key may be a sequence or a mapping. Thus, without the above restrictions, practical one-pass parsing would have been impossible to implement.</t>
+  </si>
+  <si>
+    <t>[151]   ns-flow-pair-entry(n,c)    ::=       ns-flow-pair-yaml-key-entry(n,c)
+| c-ns-flow-map-empty-key-entry(n,c)
+| c-ns-flow-pair-json-key-entry(n,c)</t>
+  </si>
+  <si>
+    <t>[152]   ns-flow-pair-yaml-key-entry(n,c)    ::=     ns-s-implicit-yaml-key(flow-key)
+c-ns-flow-map-separate-value(n,c)</t>
+  </si>
+  <si>
+    <t>[153]   c-ns-flow-pair-json-key-entry(n,c)    ::=     c-s-implicit-json-key(flow-key)
+c-ns-flow-map-adjacent-value(n,c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[154]   ns-s-implicit-yaml-key(c)    ::=     ns-flow-yaml-node(n/a,c)  s-separate-in-line?
+/* At most 1024 characters altogether */ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[155]   c-s-implicit-json-key(c)    ::=     c-flow-json-node(n/a,c)  s-separate-in-line?
+/* At most 1024 characters altogether */ </t>
+  </si>
+  <si>
+    <t>Example 7.21. Single Pair Implicit Entries</t>
+  </si>
+  <si>
+    <t>Example 7.22. Invalid Implicit Keys</t>
+  </si>
+  <si>
+    <t>7.5. Flow Nodes</t>
+  </si>
+  <si>
+    <r>
+      <t>JSON-like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flow styles all have explicit start and end indicators. The only flow style that does not have this property is the plain scalar. Note that none of the “JSON-like” styles is actually acceptable by JSON. Even the double-quoted style is a superset of the JSON string format.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[156] ns-flow-yaml-content(n,c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-plain(n,c)</t>
+    </r>
+  </si>
+  <si>
+    <t>[157]   c-flow-json-content(n,c)    ::=       c-flow-sequence(n,c)  | c-flow-mapping(n,c)
+| c-single-quoted(n,c) | c-double-quoted(n,c)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[158] ns-flow-content(n,c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ns-flow-yaml-content(n,c) | c-flow-json-content(n,c)</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 7.23. Flow Content</t>
+  </si>
+  <si>
+    <t>A complete flow node also has optional node properties, except for alias nodes which refer to the anchored node properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[159]   ns-flow-yaml-node(n,c)    ::=       c-ns-alias-node
+| ns-flow-yaml-content(n,c)
+| ( c-ns-properties(n,c)
+    ( ( s-separate(n,c)
+        ns-flow-yaml-content(n,c) )
+      | e-scalar ) ) </t>
+  </si>
+  <si>
+    <t>[160]   c-flow-json-node(n,c)    ::=     ( c-ns-properties(n,c)  s-separate(n,c)  )?
+c-flow-json-content(n,c)</t>
+  </si>
+  <si>
+    <t>[161]   ns-flow-node(n,c)    ::=       c-ns-alias-node
+| ns-flow-content(n,c)
+| ( c-ns-properties(n,c)
+    ( ( s-separate(n,c)
+        ns-flow-content(n,c) )
+      | e-scalar ) )</t>
+  </si>
+  <si>
+    <t>Example 7.24. Flow Nodes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9744,29 +16390,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9775,20 +16421,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10085,7 +16753,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="19" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="18" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="20" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="20" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="21" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="21" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="21" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="20" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="21" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="21" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="20" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="21" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="21" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="21" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="20" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="20" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="18" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="19" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="18" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="19" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="18" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="19" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="19" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="19" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="19" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="20" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="20" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="21" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="21" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="20" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="20" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="19" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="20" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="20" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="20" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="20" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="21" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="20" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="20" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="20" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="20" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="20" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="20" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="18" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="20" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="21" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="20" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="21" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="21" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="20" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="18" t="s">
+        <v>769</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="Introduction" display="http://www.yaml.org/spec/1.2/spec.html - Introduction"/>
+    <hyperlink ref="A2" r:id="rId2" location="id2708649" display="http://www.yaml.org/spec/1.2/spec.html - id2708649"/>
+    <hyperlink ref="A3" r:id="rId3" location="id2708710" display="http://www.yaml.org/spec/1.2/spec.html - id2708710"/>
+    <hyperlink ref="A4" r:id="rId4" location="id2759572" display="http://www.yaml.org/spec/1.2/spec.html - id2759572"/>
+    <hyperlink ref="A5" r:id="rId5" location="id2759732" display="http://www.yaml.org/spec/1.2/spec.html - id2759732"/>
+    <hyperlink ref="A6" r:id="rId6" location="id2759768" display="http://www.yaml.org/spec/1.2/spec.html - id2759768"/>
+    <hyperlink ref="A7" r:id="rId7" location="Preview" display="http://www.yaml.org/spec/1.2/spec.html - Preview"/>
+    <hyperlink ref="A8" r:id="rId8" location="id2759963" display="http://www.yaml.org/spec/1.2/spec.html - id2759963"/>
+    <hyperlink ref="A9" r:id="rId9" location="id2760395" display="http://www.yaml.org/spec/1.2/spec.html - id2760395"/>
+    <hyperlink ref="A10" r:id="rId10" location="id2760844" display="http://www.yaml.org/spec/1.2/spec.html - id2760844"/>
+    <hyperlink ref="A11" r:id="rId11" location="id2761292" display="http://www.yaml.org/spec/1.2/spec.html - id2761292"/>
+    <hyperlink ref="A12" r:id="rId12" location="id2761803" display="http://www.yaml.org/spec/1.2/spec.html - id2761803"/>
+    <hyperlink ref="A13" r:id="rId13" location="Processing" display="http://www.yaml.org/spec/1.2/spec.html - Processing"/>
+    <hyperlink ref="A14" r:id="rId14" location="id2762107" display="http://www.yaml.org/spec/1.2/spec.html - id2762107"/>
+    <hyperlink ref="A15" r:id="rId15" location="id2762313" display="http://www.yaml.org/spec/1.2/spec.html - id2762313"/>
+    <hyperlink ref="A16" r:id="rId16" location="id2763035" display="http://www.yaml.org/spec/1.2/spec.html - id2763035"/>
+    <hyperlink ref="A17" r:id="rId17" location="id2763452" display="http://www.yaml.org/spec/1.2/spec.html - id2763452"/>
+    <hyperlink ref="A18" r:id="rId18" location="id2763754" display="http://www.yaml.org/spec/1.2/spec.html - id2763754"/>
+    <hyperlink ref="A19" r:id="rId19" location="id2764044" display="http://www.yaml.org/spec/1.2/spec.html - id2764044"/>
+    <hyperlink ref="A20" r:id="rId20" location="id2764295" display="http://www.yaml.org/spec/1.2/spec.html - id2764295"/>
+    <hyperlink ref="A21" r:id="rId21" location="id2764652" display="http://www.yaml.org/spec/1.2/spec.html - id2764652"/>
+    <hyperlink ref="A22" r:id="rId22" location="id2765410" display="http://www.yaml.org/spec/1.2/spec.html - id2765410"/>
+    <hyperlink ref="A23" r:id="rId23" location="id2765608" display="http://www.yaml.org/spec/1.2/spec.html - id2765608"/>
+    <hyperlink ref="A24" r:id="rId24" location="id2765878" display="http://www.yaml.org/spec/1.2/spec.html - id2765878"/>
+    <hyperlink ref="A25" r:id="rId25" location="id2766150" display="http://www.yaml.org/spec/1.2/spec.html - id2766150"/>
+    <hyperlink ref="A26" r:id="rId26" location="id2766446" display="http://www.yaml.org/spec/1.2/spec.html - id2766446"/>
+    <hyperlink ref="A27" r:id="rId27" location="id2766934" display="http://www.yaml.org/spec/1.2/spec.html - id2766934"/>
+    <hyperlink ref="A28" r:id="rId28" location="id2767100" display="http://www.yaml.org/spec/1.2/spec.html - id2767100"/>
+    <hyperlink ref="A29" r:id="rId29" location="id2767222" display="http://www.yaml.org/spec/1.2/spec.html - id2767222"/>
+    <hyperlink ref="A30" r:id="rId30" location="id2767381" display="http://www.yaml.org/spec/1.2/spec.html - id2767381"/>
+    <hyperlink ref="A31" r:id="rId31" location="id2767852" display="http://www.yaml.org/spec/1.2/spec.html - id2767852"/>
+    <hyperlink ref="A32" r:id="rId32" location="id2768011" display="http://www.yaml.org/spec/1.2/spec.html - id2768011"/>
+    <hyperlink ref="A33" r:id="rId33" location="id2769212" display="http://www.yaml.org/spec/1.2/spec.html - id2769212"/>
+    <hyperlink ref="A34" r:id="rId34" location="id2769542" display="http://www.yaml.org/spec/1.2/spec.html - id2769542"/>
+    <hyperlink ref="A35" r:id="rId35" location="Syntax" display="http://www.yaml.org/spec/1.2/spec.html - Syntax"/>
+    <hyperlink ref="A36" r:id="rId36" location="id2769866" display="http://www.yaml.org/spec/1.2/spec.html - id2769866"/>
+    <hyperlink ref="A37" r:id="rId37" location="id2770517" display="http://www.yaml.org/spec/1.2/spec.html - id2770517"/>
+    <hyperlink ref="A38" r:id="rId38" location="Characters" display="http://www.yaml.org/spec/1.2/spec.html - Characters"/>
+    <hyperlink ref="A39" r:id="rId39" location="id2770814" display="http://www.yaml.org/spec/1.2/spec.html - id2770814"/>
+    <hyperlink ref="A40" r:id="rId40" location="id2771184" display="http://www.yaml.org/spec/1.2/spec.html - id2771184"/>
+    <hyperlink ref="A41" r:id="rId41" location="id2772075" display="http://www.yaml.org/spec/1.2/spec.html - id2772075"/>
+    <hyperlink ref="A42" r:id="rId42" location="id2774608" display="http://www.yaml.org/spec/1.2/spec.html - id2774608"/>
+    <hyperlink ref="A43" r:id="rId43" location="id2775170" display="http://www.yaml.org/spec/1.2/spec.html - id2775170"/>
+    <hyperlink ref="A44" r:id="rId44" location="id2775468" display="http://www.yaml.org/spec/1.2/spec.html - id2775468"/>
+    <hyperlink ref="A45" r:id="rId45" location="id2776092" display="http://www.yaml.org/spec/1.2/spec.html - id2776092"/>
+    <hyperlink ref="A46" r:id="rId46" location="Basic" display="http://www.yaml.org/spec/1.2/spec.html - Basic"/>
+    <hyperlink ref="A47" r:id="rId47" location="id2777534" display="http://www.yaml.org/spec/1.2/spec.html - id2777534"/>
+    <hyperlink ref="A48" r:id="rId48" location="id2778241" display="http://www.yaml.org/spec/1.2/spec.html - id2778241"/>
+    <hyperlink ref="A49" r:id="rId49" location="id2778481" display="http://www.yaml.org/spec/1.2/spec.html - id2778481"/>
+    <hyperlink ref="A50" r:id="rId50" location="id2778853" display="http://www.yaml.org/spec/1.2/spec.html - id2778853"/>
+    <hyperlink ref="A51" r:id="rId51" location="id2779048" display="http://www.yaml.org/spec/1.2/spec.html - id2779048"/>
+    <hyperlink ref="A52" r:id="rId52" location="id2780069" display="http://www.yaml.org/spec/1.2/spec.html - id2780069"/>
+    <hyperlink ref="A53" r:id="rId53" location="id2780810" display="http://www.yaml.org/spec/1.2/spec.html - id2780810"/>
+    <hyperlink ref="A54" r:id="rId54" location="id2781147" display="http://www.yaml.org/spec/1.2/spec.html - id2781147"/>
+    <hyperlink ref="A55" r:id="rId55" location="id2781553" display="http://www.yaml.org/spec/1.2/spec.html - id2781553"/>
+    <hyperlink ref="A56" r:id="rId56" location="id2782090" display="http://www.yaml.org/spec/1.2/spec.html - id2782090"/>
+    <hyperlink ref="A57" r:id="rId57" location="id2782457" display="http://www.yaml.org/spec/1.2/spec.html - id2782457"/>
+    <hyperlink ref="A58" r:id="rId58" location="id2783273" display="http://www.yaml.org/spec/1.2/spec.html - id2783273"/>
+    <hyperlink ref="A59" r:id="rId59" location="id2783797" display="http://www.yaml.org/spec/1.2/spec.html - id2783797"/>
+    <hyperlink ref="A60" r:id="rId60" location="id2784064" display="http://www.yaml.org/spec/1.2/spec.html - id2784064"/>
+    <hyperlink ref="A61" r:id="rId61" location="id2785586" display="http://www.yaml.org/spec/1.2/spec.html - id2785586"/>
+    <hyperlink ref="A62" r:id="rId62" location="Flow" display="http://www.yaml.org/spec/1.2/spec.html - Flow"/>
+    <hyperlink ref="A63" r:id="rId63" location="id2786196" display="http://www.yaml.org/spec/1.2/spec.html - id2786196"/>
+    <hyperlink ref="A64" r:id="rId64" location="id2786563" display="http://www.yaml.org/spec/1.2/spec.html - id2786563"/>
+    <hyperlink ref="A65" r:id="rId65" location="id2786942" display="http://www.yaml.org/spec/1.2/spec.html - id2786942"/>
+    <hyperlink ref="A66" r:id="rId66" location="id2787109" display="http://www.yaml.org/spec/1.2/spec.html - id2787109"/>
+    <hyperlink ref="A67" r:id="rId67" location="id2788097" display="http://www.yaml.org/spec/1.2/spec.html - id2788097"/>
+    <hyperlink ref="A68" r:id="rId68" location="id2788859" display="http://www.yaml.org/spec/1.2/spec.html - id2788859"/>
+    <hyperlink ref="A69" r:id="rId69" location="id2790088" display="http://www.yaml.org/spec/1.2/spec.html - id2790088"/>
+    <hyperlink ref="A70" r:id="rId70" location="id2790320" display="http://www.yaml.org/spec/1.2/spec.html - id2790320"/>
+    <hyperlink ref="A71" r:id="rId71" location="id2790832" display="http://www.yaml.org/spec/1.2/spec.html - id2790832"/>
+    <hyperlink ref="A72" r:id="rId72" location="id2792977" display="http://www.yaml.org/spec/1.2/spec.html - id2792977"/>
+    <hyperlink ref="A73" r:id="rId73" location="Block" display="http://www.yaml.org/spec/1.2/spec.html - Block"/>
+    <hyperlink ref="A74" r:id="rId74" location="id2793652" display="http://www.yaml.org/spec/1.2/spec.html - id2793652"/>
+    <hyperlink ref="A75" r:id="rId75" location="id2793718" display="http://www.yaml.org/spec/1.2/spec.html - id2793718"/>
+    <hyperlink ref="A76" r:id="rId76" location="id2793979" display="http://www.yaml.org/spec/1.2/spec.html - id2793979"/>
+    <hyperlink ref="A77" r:id="rId77" location="id2794534" display="http://www.yaml.org/spec/1.2/spec.html - id2794534"/>
+    <hyperlink ref="A78" r:id="rId78" location="id2795688" display="http://www.yaml.org/spec/1.2/spec.html - id2795688"/>
+    <hyperlink ref="A79" r:id="rId79" location="id2796251" display="http://www.yaml.org/spec/1.2/spec.html - id2796251"/>
+    <hyperlink ref="A80" r:id="rId80" location="id2797293" display="http://www.yaml.org/spec/1.2/spec.html - id2797293"/>
+    <hyperlink ref="A81" r:id="rId81" location="id2797382" display="http://www.yaml.org/spec/1.2/spec.html - id2797382"/>
+    <hyperlink ref="A82" r:id="rId82" location="id2798057" display="http://www.yaml.org/spec/1.2/spec.html - id2798057"/>
+    <hyperlink ref="A83" r:id="rId83" location="id2799181" display="http://www.yaml.org/spec/1.2/spec.html - id2799181"/>
+    <hyperlink ref="A84" r:id="rId84" location="YAML" display="http://www.yaml.org/spec/1.2/spec.html - YAML"/>
+    <hyperlink ref="A85" r:id="rId85" location="id2800132" display="http://www.yaml.org/spec/1.2/spec.html - id2800132"/>
+    <hyperlink ref="A86" r:id="rId86" location="id2800168" display="http://www.yaml.org/spec/1.2/spec.html - id2800168"/>
+    <hyperlink ref="A87" r:id="rId87" location="id2800401" display="http://www.yaml.org/spec/1.2/spec.html - id2800401"/>
+    <hyperlink ref="A88" r:id="rId88" location="id2800967" display="http://www.yaml.org/spec/1.2/spec.html - id2800967"/>
+    <hyperlink ref="A89" r:id="rId89" location="id2801301" display="http://www.yaml.org/spec/1.2/spec.html - id2801301"/>
+    <hyperlink ref="A90" r:id="rId90" location="id2801522" display="http://www.yaml.org/spec/1.2/spec.html - id2801522"/>
+    <hyperlink ref="A91" r:id="rId91" location="id2801681" display="http://www.yaml.org/spec/1.2/spec.html - id2801681"/>
+    <hyperlink ref="A92" r:id="rId92" location="Schema" display="http://www.yaml.org/spec/1.2/spec.html - Schema"/>
+    <hyperlink ref="A93" r:id="rId93" location="id2802346" display="http://www.yaml.org/spec/1.2/spec.html - id2802346"/>
+    <hyperlink ref="A94" r:id="rId94" location="id2802427" display="http://www.yaml.org/spec/1.2/spec.html - id2802427"/>
+    <hyperlink ref="A95" r:id="rId95" location="id2802432" display="http://www.yaml.org/spec/1.2/spec.html - id2802432"/>
+    <hyperlink ref="A96" r:id="rId96" location="id2802662" display="http://www.yaml.org/spec/1.2/spec.html - id2802662"/>
+    <hyperlink ref="A97" r:id="rId97" location="id2802842" display="http://www.yaml.org/spec/1.2/spec.html - id2802842"/>
+    <hyperlink ref="A98" r:id="rId98" location="id2803036" display="http://www.yaml.org/spec/1.2/spec.html - id2803036"/>
+    <hyperlink ref="A99" r:id="rId99" location="id2803231" display="http://www.yaml.org/spec/1.2/spec.html - id2803231"/>
+    <hyperlink ref="A100" r:id="rId100" location="id2803311" display="http://www.yaml.org/spec/1.2/spec.html - id2803311"/>
+    <hyperlink ref="A101" r:id="rId101" location="id2803362" display="http://www.yaml.org/spec/1.2/spec.html - id2803362"/>
+    <hyperlink ref="A102" r:id="rId102" location="id2803629" display="http://www.yaml.org/spec/1.2/spec.html - id2803629"/>
+    <hyperlink ref="A103" r:id="rId103" location="id2803828" display="http://www.yaml.org/spec/1.2/spec.html - id2803828"/>
+    <hyperlink ref="A104" r:id="rId104" location="id2804092" display="http://www.yaml.org/spec/1.2/spec.html - id2804092"/>
+    <hyperlink ref="A105" r:id="rId105" location="id2804356" display="http://www.yaml.org/spec/1.2/spec.html - id2804356"/>
+    <hyperlink ref="A106" r:id="rId106" location="id2804923" display="http://www.yaml.org/spec/1.2/spec.html - id2804923"/>
+    <hyperlink ref="A107" r:id="rId107" location="id2805019" display="http://www.yaml.org/spec/1.2/spec.html - id2805019"/>
+    <hyperlink ref="A108" r:id="rId108" location="id2805071" display="http://www.yaml.org/spec/1.2/spec.html - id2805071"/>
+    <hyperlink ref="A109" r:id="rId109" location="id2805770" display="http://www.yaml.org/spec/1.2/spec.html - id2805770"/>
+    <hyperlink ref="A110" r:id="rId110" location="id2806177" display="http://www.yaml.org/spec/1.2/spec.html - id2806177"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10093,12 +17439,243 @@
   <cols>
     <col min="1" max="2" width="80.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25">
+      <c r="A1" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="23.25">
+      <c r="A2" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18">
+      <c r="A4" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="60">
+      <c r="A5" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18">
+      <c r="A10" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="61.5">
+      <c r="A11" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30">
+      <c r="A12" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="46.5">
+      <c r="A13" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75">
+      <c r="A18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75">
+      <c r="A19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="45.75">
+      <c r="A24" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="45">
+      <c r="A25" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30">
+      <c r="A26" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18">
+      <c r="A29" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="45">
+      <c r="A30" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18">
+      <c r="A33" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30">
+      <c r="A35" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="23.25">
+      <c r="A38" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="60">
+      <c r="A39" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="30">
+      <c r="A40" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="45">
+      <c r="A41" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="45">
+      <c r="A42" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="30.75">
+      <c r="A45" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="45">
+      <c r="A48" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="90">
+      <c r="A50" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="75">
+      <c r="A52" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A115"/>
   <sheetViews>
@@ -10651,6 +18228,242 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25">
+      <c r="A1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="75">
+      <c r="A2" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="105">
+      <c r="A3" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="120">
+      <c r="A4" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="90">
+      <c r="A5" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="23.25">
+      <c r="A6" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="23.25">
+      <c r="A15" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="60">
+      <c r="A16" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="60">
+      <c r="A18" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="90">
+      <c r="A19" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="61.5">
+      <c r="A20" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="75">
+      <c r="A21" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="75">
+      <c r="A22" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="90">
+      <c r="A23" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="60.75">
+      <c r="A24" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="23.25">
+      <c r="A25" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="75">
+      <c r="A26" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="75">
+      <c r="A27" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="60">
+      <c r="A28" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="75">
+      <c r="A29" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="105">
+      <c r="A30" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="23.25">
+      <c r="A31" s="13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="45">
+      <c r="A32" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="75">
+      <c r="A33" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="45">
+      <c r="A34" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="23.25">
+      <c r="A35" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30">
+      <c r="A36" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30">
+      <c r="A38" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="45">
+      <c r="A40" s="12" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="30">
+      <c r="A42" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="75">
+      <c r="A43" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1" display="http://yaml.org/xml"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -10677,7 +18490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="77.25">
+    <row r="4" spans="1:1" ht="62.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -10755,7 +18568,7 @@
     <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" ht="45.75">
+    <row r="24" spans="1:1" ht="30.75">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -10808,7 +18621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="30">
+    <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
         <v>24</v>
       </c>
@@ -10838,7 +18651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="78">
+    <row r="50" spans="1:1" ht="62.25">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
@@ -10914,7 +18727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A101"/>
   <sheetViews>
@@ -11400,7 +19213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A37"/>
   <sheetViews>
@@ -11604,7 +19417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A176"/>
   <sheetViews>
@@ -12441,7 +20254,1459 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25">
+      <c r="A1" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="23.25">
+      <c r="A2" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="45">
+      <c r="A4" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75">
+      <c r="A6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="46.5">
+      <c r="A7" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75">
+      <c r="A8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75">
+      <c r="A9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="45">
+      <c r="A10" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="45.75">
+      <c r="A13" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="23.25">
+      <c r="A16" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30">
+      <c r="A18" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75">
+      <c r="A19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="23.25">
+      <c r="A22" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="45">
+      <c r="A23" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="30">
+      <c r="A24" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="60">
+      <c r="A25" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75">
+      <c r="A26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75">
+      <c r="A27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="23.25">
+      <c r="A30" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="30">
+      <c r="A32" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30">
+      <c r="A33" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="23.25">
+      <c r="A36" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="45">
+      <c r="A37" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75">
+      <c r="A38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30.75">
+      <c r="A39" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75">
+      <c r="A40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75">
+      <c r="A42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="30">
+      <c r="A45" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="60">
+      <c r="A47" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="45">
+      <c r="A48" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="75">
+      <c r="A52" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="45">
+      <c r="A53" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="30">
+      <c r="A54" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="23.25">
+      <c r="A57" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="30.75">
+      <c r="A58" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="60">
+      <c r="A59" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75">
+      <c r="A60" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75">
+      <c r="A61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30">
+      <c r="A62" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="45">
+      <c r="A65" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75">
+      <c r="A66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="45">
+      <c r="A69" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="30">
+      <c r="A70" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="23.25">
+      <c r="A73" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="30">
+      <c r="A74" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="45">
+      <c r="A75" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="90">
+      <c r="A76" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="30">
+      <c r="A77" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="23.25">
+      <c r="A80" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="45.75">
+      <c r="A81" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="30">
+      <c r="A82" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="75">
+      <c r="A83" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="60.75">
+      <c r="A84" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="30">
+      <c r="A85" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.75">
+      <c r="A86" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75">
+      <c r="A87" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18">
+      <c r="A90" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="46.5">
+      <c r="A91" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="109.5">
+      <c r="A92" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="76.5">
+      <c r="A93" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="30">
+      <c r="A94" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15.75">
+      <c r="A96" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="30.75">
+      <c r="A98" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18">
+      <c r="A101" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="1" customFormat="1" ht="46.5">
+      <c r="A102" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="45">
+      <c r="A103" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.75">
+      <c r="A104" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="30.75">
+      <c r="A106" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.75">
+      <c r="A109" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="1" customFormat="1" ht="30">
+      <c r="A110" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="45">
+      <c r="A111" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="61.5">
+      <c r="A113" s="15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="61.5">
+      <c r="A114" s="15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.75">
+      <c r="A115" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="46.5">
+      <c r="A119" s="15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="30.75">
+      <c r="A120" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.75">
+      <c r="A121" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="46.5">
+      <c r="A125" s="15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="45">
+      <c r="A126" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15.75">
+      <c r="A127" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.75">
+      <c r="A130" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15.75">
+      <c r="A132" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="60.75">
+      <c r="A134" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15.75">
+      <c r="A135" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="75.75">
+      <c r="A139" s="15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.75">
+      <c r="A140" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="23.25">
+      <c r="A143" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="1" customFormat="1" ht="45">
+      <c r="A144" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="60">
+      <c r="A145" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="18">
+      <c r="A148" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" s="1" customFormat="1" ht="30.75">
+      <c r="A149" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="45">
+      <c r="A150" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="61.5">
+      <c r="A152" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.75">
+      <c r="A153" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="61.5">
+      <c r="A159" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="45">
+      <c r="A160" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="92.25">
+      <c r="A161" s="15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.75">
+      <c r="A162" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="60.75">
+      <c r="A168" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="61.5">
+      <c r="A169" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.75">
+      <c r="A170" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.75">
+      <c r="A171" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="18">
+      <c r="A174" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="60.75">
+      <c r="A175" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15.75">
+      <c r="A176" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="60">
+      <c r="A177" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="30.75">
+      <c r="A178" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15.75">
+      <c r="A179" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15.75">
+      <c r="A180" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25">
+      <c r="A1" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25">
+      <c r="A3" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60.75">
+      <c r="A5" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25">
+      <c r="A10" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45.75">
+      <c r="A11" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="45.75">
+      <c r="A13" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
+      <c r="A16" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="23.25">
+      <c r="A20" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="45">
+      <c r="A21" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="45">
+      <c r="A22" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="47.25">
+      <c r="A24" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75">
+      <c r="A26" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="30">
+      <c r="A27" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75">
+      <c r="A28" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="60">
+      <c r="A29" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75">
+      <c r="A30" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="90">
+      <c r="A33" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75">
+      <c r="A35" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="45">
+      <c r="A38" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75">
+      <c r="A39" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="45">
+      <c r="A40" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18">
+      <c r="A44" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" s="1" customFormat="1" ht="91.5">
+      <c r="A45" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75">
+      <c r="A46" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75">
+      <c r="A47" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75">
+      <c r="A48" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75">
+      <c r="A52" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="60">
+      <c r="A53" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75">
+      <c r="A54" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="45">
+      <c r="A57" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75">
+      <c r="A58" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="45">
+      <c r="A59" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18">
+      <c r="A63" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="75">
+      <c r="A64" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="45.75">
+      <c r="A65" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="45">
+      <c r="A66" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="76.5">
+      <c r="A67" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="60">
+      <c r="A68" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75">
+      <c r="A69" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75">
+      <c r="A70" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="45">
+      <c r="A71" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="60">
+      <c r="A75" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75">
+      <c r="A76" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="45">
+      <c r="A80" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="30">
+      <c r="A81" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="30">
+      <c r="A82" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="23.25">
+      <c r="A85" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" s="1" customFormat="1" ht="78">
+      <c r="A86" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="60">
+      <c r="A87" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18">
+      <c r="A88" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75">
+      <c r="A89" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="30">
+      <c r="A90" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75">
+      <c r="A91" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="45">
+      <c r="A92" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="45">
+      <c r="A95" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18">
+      <c r="A99" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.75">
+      <c r="A100" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="30">
+      <c r="A101" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.75">
+      <c r="A102" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="45">
+      <c r="A103" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="30.75">
+      <c r="A106" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="45">
+      <c r="A107" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="45">
+      <c r="A108" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="77.25">
+      <c r="A111" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75">
+      <c r="A112" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="45">
+      <c r="A113" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="60">
+      <c r="A114" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="30">
+      <c r="A115" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="60">
+      <c r="A116" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="76.5">
+      <c r="A119" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="60">
+      <c r="A120" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="45">
+      <c r="A121" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="60.75">
+      <c r="A124" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="30.75">
+      <c r="A127" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="45">
+      <c r="A128" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="61.5">
+      <c r="A131" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="45">
+      <c r="A132" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="45">
+      <c r="A133" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="30">
+      <c r="A134" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="30">
+      <c r="A135" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="30">
+      <c r="A136" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="30">
+      <c r="A137" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="23.25">
+      <c r="A142" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" s="1" customFormat="1" ht="60">
+      <c r="A143" s="8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.75">
+      <c r="A144" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="30">
+      <c r="A145" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.75">
+      <c r="A146" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="30">
+      <c r="A149" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="90">
+      <c r="A150" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="30">
+      <c r="A151" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="90">
+      <c r="A152" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12454,283 +21719,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
-      <c r="A1" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="23.25">
-      <c r="A2" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18">
-      <c r="A4" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="60">
-      <c r="A5" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30">
-      <c r="A6" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18">
-      <c r="A10" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="61.5">
-      <c r="A11" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="30">
-      <c r="A12" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="46.5">
-      <c r="A13" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="45">
-      <c r="A20" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18">
-      <c r="A23" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="45.75">
-      <c r="A24" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="45">
-      <c r="A25" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="30">
-      <c r="A26" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18">
-      <c r="A29" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="45">
-      <c r="A30" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18">
-      <c r="A33" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="30">
-      <c r="A34" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="30">
-      <c r="A35" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="23.25">
-      <c r="A38" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="60">
-      <c r="A39" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="30">
-      <c r="A40" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="45">
-      <c r="A41" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="45">
-      <c r="A42" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="30.75">
-      <c r="A45" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="45">
-      <c r="A48" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="90">
-      <c r="A50" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="75">
-      <c r="A52" s="12" t="s">
-        <v>385</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20835" windowHeight="10005" tabRatio="721" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="10005" tabRatio="721" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1010">
   <si>
     <t>This section provides a quick glimpse into the expressive power of YAML. It is not expected that the first-time reader grok all of the examples. Rather, these selections are used as motivation for the remainder of the specification.</t>
   </si>
@@ -16271,6 +16271,1301 @@
   </si>
   <si>
     <t>Example 7.24. Flow Nodes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML’s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> employ indentation rather than indicators to denote structure. This results in a more human readable (though less compact) notation.</t>
+    </r>
+  </si>
+  <si>
+    <t>8.1. Block Scalar Styles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML provides two </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block scalar styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, literal and folded. Each provides a different trade-off between readability and expressive power.</t>
+    </r>
+  </si>
+  <si>
+    <t>8.1.1. Block Scalar Headers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Block scalars are controlled by a few indicators given in a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> preceding the content itself. This header is followed by a non-content line break with an optional comment. This is the only case where a comment must not be followed by additional comment lines.</t>
+    </r>
+  </si>
+  <si>
+    <t>[162]   c-b-block-header(m,t)    ::=     ( ( c-indentation-indicator(m)
+    c-chomping-indicator(t) )
+| ( c-chomping-indicator(t)
+    c-indentation-indicator(m) ) )
+s-b-comment</t>
+  </si>
+  <si>
+    <t>Example 8.1. Block Scalar Header</t>
+  </si>
+  <si>
+    <t>8.1.1.1. Block Indentation Indicator</t>
+  </si>
+  <si>
+    <t>Typically, the indentation level of a block scalar is detected from its first non-empty line. It is an error for any of the leading empty lines to contain more spaces than the first non-empty line.</t>
+  </si>
+  <si>
+    <r>
+      <t>Detection fails when the first non-empty line contains leading content space characters. Content may safely start with a tab or a “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When detection would fail, YAML requires that the indentation level for the content be given using an explicit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indentation indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This level is specified as the integer number of the additional indentation spaces used for the content, relative to its parent node.</t>
+    </r>
+  </si>
+  <si>
+    <t>It is always valid to specify an indentation indicator for a block scalar node, though a YAML processor should only emit an explicit indentation indicator for cases where detection will fail.</t>
+  </si>
+  <si>
+    <t>[163]   c-indentation-indicator(m)    ::=     ns-dec-digit  ⇒ m = ns-dec-digit  - #x30
+/* Empty */  ⇒ m = auto-detect()</t>
+  </si>
+  <si>
+    <t>Example 8.2. Block Indentation Indicator</t>
+  </si>
+  <si>
+    <t>Example 8.3. Invalid Block Scalar Indentation Indicators</t>
+  </si>
+  <si>
+    <t>8.1.1.2. Block Chomping Indicator</t>
+  </si>
+  <si>
+    <r>
+      <t>Chomping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> controls how final line breaks and trailing empty lines are interpreted. YAML provides three chomping methods:</t>
+    </r>
+  </si>
+  <si>
+    <t>Strip</t>
+  </si>
+  <si>
+    <r>
+      <t>Stripping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is specified by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” chomping indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In this case, the final line break and any trailing empty lines are excluded from the scalar’s content.</t>
+    </r>
+  </si>
+  <si>
+    <t>Clip</t>
+  </si>
+  <si>
+    <r>
+      <t>Clipping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the default behavior used if no explicit chomping indicator is specified. In this case, the final line break character is preserved in the scalar’s content. However, any trailing empty lines are excluded from the scalar’s content.</t>
+    </r>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <r>
+      <t>Keeping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is specified by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” chomping indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In this case, the final line break and any trailing empty lines are considered to be part of the scalar’s content. These additional lines are not subject to folding.</t>
+    </r>
+  </si>
+  <si>
+    <t>The chomping method used is a presentation detail and must not be used to convey content information.</t>
+  </si>
+  <si>
+    <t>[164]   c-chomping-indicator(t)    ::=     “-”         ⇒ t = strip
+“+”         ⇒ t = keep
+/* Empty */ ⇒ t = clip</t>
+  </si>
+  <si>
+    <t>The interpretation of the final line break of a block scalar is controlled by the chomping indicator specified in the block scalar header.</t>
+  </si>
+  <si>
+    <t>[165]   b-chomped-last(t)    ::=     t = strip ⇒ b-non-content  | /* End of file */
+t = clip  ⇒ b-as-line-feed | /* End of file */
+t = keep  ⇒ b-as-line-feed | /* End of file */</t>
+  </si>
+  <si>
+    <t>Example 8.4. Chomping Final Line Break</t>
+  </si>
+  <si>
+    <t>The interpretation of the trailing empty lines following a block scalar is also controlled by the chomping indicator specified in the block scalar header.</t>
+  </si>
+  <si>
+    <t>[166]   l-chomped-empty(n,t)    ::=     t = strip ⇒ l-strip-empty(n)
+t = clip  ⇒ l-strip-empty(n)
+t = keep  ⇒ l-keep-empty(n)</t>
+  </si>
+  <si>
+    <t>[167]   l-strip-empty(n)    ::=     ( s-indent(≤n)  b-non-content  )*
+l-trail-comments(n)?</t>
+  </si>
+  <si>
+    <t>[168]   l-keep-empty(n)    ::=     l-empty(n,block-in)*
+l-trail-comments(n)?</t>
+  </si>
+  <si>
+    <t>Explicit comment lines may follow the trailing empty lines. To prevent ambiguity, the first such comment line must be less indented than the block scalar content. Additional comment lines, if any, are not so restricted. This is the only case where the indentation of comment lines is constrained.</t>
+  </si>
+  <si>
+    <t>[169]   l-trail-comments(n)    ::=     s-indent(&lt;n)  c-nb-comment-text  b-comment
+l-comment*</t>
+  </si>
+  <si>
+    <t>Example 8.5. Chomping Trailing Lines</t>
+  </si>
+  <si>
+    <t>If a block scalar consists only of empty lines, then these lines are considered as trailing lines and hence are affected by chomping.</t>
+  </si>
+  <si>
+    <t>Example 8.6. Empty Scalar Chomping</t>
+  </si>
+  <si>
+    <t>8.1.2. Literal Style</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>literal style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is denoted by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It is the simplest, most restricted, and most readable scalar style.</t>
+    </r>
+  </si>
+  <si>
+    <t>[170]   c-l+literal(n)    ::=     “|”  c-b-block-header(m,t)
+l-literal-content(n+m,t)</t>
+  </si>
+  <si>
+    <t>Example 8.7. Literal Scalar</t>
+  </si>
+  <si>
+    <t>Inside literal scalars, all (indented) characters are considered to be content, including white space characters. Note that all line break characters are normalized. In addition, empty lines are not folded, though final line breaks and trailing empty lines are chomped.</t>
+  </si>
+  <si>
+    <t>There is no way to escape characters inside literal scalars. This restricts them to printable characters. In addition, there is no way to break a long literal line.</t>
+  </si>
+  <si>
+    <t>[171]   l-nb-literal-text(n)    ::=     l-empty(n,block-in)*
+s-indent(n) nb-char+</t>
+  </si>
+  <si>
+    <t>[172]   b-nb-literal-next(n)    ::=     b-as-line-feed
+l-nb-literal-text(n)</t>
+  </si>
+  <si>
+    <t>[173]   l-literal-content(n,t)    ::=     ( l-nb-literal-text(n)  b-nb-literal-next(n)*
+  b-chomped-last(t) )?
+l-chomped-empty(n,t)</t>
+  </si>
+  <si>
+    <t>Example 8.8. Literal Content</t>
+  </si>
+  <si>
+    <t>8.1.3. Folded Style</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>folded style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is denoted by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It is similar to the literal style; however, folded scalars are subject to line folding.</t>
+    </r>
+  </si>
+  <si>
+    <t>[174]   c-l+folded(n)    ::=     “&gt;”  c-b-block-header(m,t)
+l-folded-content(n+m,t)</t>
+  </si>
+  <si>
+    <t>Example 8.9. Folded Scalar</t>
+  </si>
+  <si>
+    <t>Folding allows long lines to be broken anywhere a single space character separates two non-space characters.</t>
+  </si>
+  <si>
+    <t>[175]   s-nb-folded-text(n)    ::=     s-indent(n)  ns-char  nb-char*</t>
+  </si>
+  <si>
+    <t>[176]   l-nb-folded-lines(n)    ::=     s-nb-folded-text(n)
+( b-l-folded(n,block-in) s-nb-folded-text(n) )*</t>
+  </si>
+  <si>
+    <t>Example 8.10. Folded Lines</t>
+  </si>
+  <si>
+    <t>(The following three examples duplicate this example, each highlighting different productions.)</t>
+  </si>
+  <si>
+    <r>
+      <t>Lines starting with white space characters (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more-indented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lines) are not folded.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[177] s-nb-spaced-text(n) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-indent(n) s-white nb-char*</t>
+    </r>
+  </si>
+  <si>
+    <t>[178]   b-l-spaced(n)    ::=     b-as-line-feed
+l-empty(n,block-in)*</t>
+  </si>
+  <si>
+    <t>[179]   l-nb-spaced-lines(n)    ::=     s-nb-spaced-text(n)
+( b-l-spaced(n) s-nb-spaced-text(n) )*</t>
+  </si>
+  <si>
+    <t>Example 8.11. More Indented Lines</t>
+  </si>
+  <si>
+    <t>Line breaks and empty lines separating folded and more-indented lines are also not folded.</t>
+  </si>
+  <si>
+    <t>[180]   l-nb-same-lines(n)    ::=     l-empty(n,block-in)*
+( l-nb-folded-lines(n) | l-nb-spaced-lines(n) )</t>
+  </si>
+  <si>
+    <t>[181]   l-nb-diff-lines(n)    ::=     l-nb-same-lines(n)
+( b-as-line-feed l-nb-same-lines(n) )*</t>
+  </si>
+  <si>
+    <t>Example 8.12. Empty Separation Lines</t>
+  </si>
+  <si>
+    <t>The final line break, and trailing empty lines if any, are subject to chomping and are never folded.</t>
+  </si>
+  <si>
+    <t>[182]   l-folded-content(n,t)    ::=     ( l-nb-diff-lines(n)  b-chomped-last(t)  )?
+l-chomped-empty(n,t)</t>
+  </si>
+  <si>
+    <t>Example 8.13. Final Empty Lines</t>
+  </si>
+  <si>
+    <t>8.2. Block Collection Styles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For readability, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block collections styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are not denoted by any indicator. Instead, YAML uses a lookahead method, where a block collection is distinguished from a plain scalar only when a key: value pair or a sequence entry is seen.</t>
+    </r>
+  </si>
+  <si>
+    <t>8.2.1. Block Sequences</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block sequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is simply a series of nodes, each denoted by a leading </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator must be separated from the node by white space. This allows “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” to be used as the first character in a plain scalar if followed by a non-space character (e.g. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”).</t>
+    </r>
+  </si>
+  <si>
+    <t>[183]   l+block-sequence(n)    ::=     ( s-indent(n+m)  c-l-block-seq-entry(n+m)  )+
+/* For some fixed auto-detected m &gt; 0 */</t>
+  </si>
+  <si>
+    <t>[184]   c-l-block-seq-entry(n)    ::=     “-” /* Not followed by an ns-char */
+s-l+block-indented(n,block-in)</t>
+  </si>
+  <si>
+    <t>Example 8.14. Block Sequence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The entry node may be either completely empty, be a nested block node, or use a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compact in-line notation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The compact notation may be used when the entry is itself a nested block collection. In this case, both the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator and the following spaces are considered to be part of the indentation of the nested collection. Note that it is not possible to specify node properties for such a collection.</t>
+    </r>
+  </si>
+  <si>
+    <t>[185]   s-l+block-indented(n,c)    ::=       ( s-indent(m)
+    ( ns-l-compact-sequence(n+1+m)
+    | ns-l-compact-mapping(n+1+m) ) )
+| s-l+block-node(n,c)
+| ( e-node s-l-comments )</t>
+  </si>
+  <si>
+    <t>[186]   ns-l-compact-sequence(n)    ::=     c-l-block-seq-entry(n)
+( s-indent(n) c-l-block-seq-entry(n) )*</t>
+  </si>
+  <si>
+    <t>Example 8.15. Block Sequence Entry Types</t>
+  </si>
+  <si>
+    <t>8.2.2. Block Mappings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Block mapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a series of entries, each presenting a key: value pair.</t>
+    </r>
+  </si>
+  <si>
+    <t>[187]   l+block-mapping(n)    ::=     ( s-indent(n+m)  ns-l-block-map-entry(n+m)  )+
+/* For some fixed auto-detected m &gt; 0 */</t>
+  </si>
+  <si>
+    <t>Example 8.16. Block Mappings</t>
+  </si>
+  <si>
+    <r>
+      <t>If the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator is specified, the optional value node must be specified on a separate line, denoted by the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator. Note that YAML allows here the same compact in-line notation described above for block sequence entries.</t>
+    </r>
+  </si>
+  <si>
+    <t>[188]   ns-l-block-map-entry(n)    ::=       c-l-block-map-explicit-entry(n)
+| ns-l-block-map-implicit-entry(n)</t>
+  </si>
+  <si>
+    <t>[189]   c-l-block-map-explicit-entry(n)    ::=     c-l-block-map-explicit-key(n)
+( l-block-map-explicit-value(n)
+| e-node )</t>
+  </si>
+  <si>
+    <t>[190]   c-l-block-map-explicit-key(n)    ::=     “?”  s-l+block-indented(n,block-out)</t>
+  </si>
+  <si>
+    <t>[191]   l-block-map-explicit-value(n)    ::=     s-indent(n)
+“:” s-l+block-indented(n,block-out)</t>
+  </si>
+  <si>
+    <t>Example 8.17. Explicit Block Mapping Entries</t>
+  </si>
+  <si>
+    <r>
+      <t>If the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator is omitted, parsing needs to see past the implicit key, in the same way as in the single key: value pair flow mapping. Hence, such keys are subject to the same restrictions; they are limited to a single line and must not span more than 1024 Unicode characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>[192]   ns-l-block-map-implicit-entry(n)    ::=     ( ns-s-block-map-implicit-key
+| e-node )
+c-l-block-map-implicit-value(n)</t>
+  </si>
+  <si>
+    <t>[193]   ns-s-block-map-implicit-key    ::=       c-s-implicit-json-key(block-key)
+| ns-s-implicit-yaml-key(block-key)</t>
+  </si>
+  <si>
+    <r>
+      <t>In this case, the value may be specified on the same line as the implicit key. Note however that in block mappings the value must never be adjacent to the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, as this greatly reduces readability and is not required for JSON compatibility (unlike the case in flow mappings).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>There is no compact notation for in-line values. Also, while both the implicit key and the value following it may be empty, the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator is mandatory. This prevents a potential ambiguity with multi-line plain scalars.</t>
+    </r>
+  </si>
+  <si>
+    <t>[194]   c-l-block-map-implicit-value(n)    ::=     “:”  ( s-l+block-node(n,block-out)
+    | ( e-node s-l-comments ) )</t>
+  </si>
+  <si>
+    <t>Example 8.18. Implicit Block Mapping Entries</t>
+  </si>
+  <si>
+    <t>A compact in-line notation is also available. This compact notation may be nested inside block sequences and explicit block mapping entries. Note that it is not possible to specify node properties for such a nested mapping.</t>
+  </si>
+  <si>
+    <t>[195]   ns-l-compact-mapping(n)    ::=     ns-l-block-map-entry(n)
+( s-indent(n) ns-l-block-map-entry(n) )*</t>
+  </si>
+  <si>
+    <t>Example 8.19. Compact Block Mappings</t>
+  </si>
+  <si>
+    <t>8.2.3. Block Nodes</t>
+  </si>
+  <si>
+    <t>YAML allows flow nodes to be embedded inside block collections (but not vice-versa). Flow nodes must be indented by at least one more space than the parent block collection. Note that flow nodes may begin on a following line.</t>
+  </si>
+  <si>
+    <t>It is at this point that parsing needs to distinguish between a plain scalar and an implicit key starting a nested block mapping.</t>
+  </si>
+  <si>
+    <t>[196]   s-l+block-node(n,c)    ::=     s-l+block-in-block(n,c)  | s-l+flow-in-block(n)</t>
+  </si>
+  <si>
+    <t>[197]   s-l+flow-in-block(n)    ::=     s-separate(n+1,flow-out)
+ns-flow-node(n+1,flow-out) s-l-comments</t>
+  </si>
+  <si>
+    <t>Example 8.20. Block Node Types</t>
+  </si>
+  <si>
+    <t>The block node’s properties may span across several lines. In this case, they must be indented by at least one more space than the block collection, regardless of the indentation of the block collection entries.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[198] s-l+block-in-block(n,c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>::=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s-l+block-scalar(n,c) | s-l+block-collection(n,c)</t>
+    </r>
+  </si>
+  <si>
+    <t>[199]   s-l+block-scalar(n,c)    ::=     s-separate(n+1,c)
+( c-ns-properties(n+1,c) s-separate(n+1,c) )?
+( c-l+literal(n) | c-l+folded(n) )</t>
+  </si>
+  <si>
+    <t>Example 8.21. Block Scalar Nodes</t>
+  </si>
+  <si>
+    <r>
+      <t>Since people perceive the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” indicator as indentation, nested block sequences may be indented by one less space to compensate, except, of course, if nested inside another block sequence (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>block-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> context vs. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>block-in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> context).</t>
+    </r>
+  </si>
+  <si>
+    <t>[200]   s-l+block-collection(n,c)    ::=     ( s-separate(n+1,c)  c-ns-properties(n+1,c)  )?
+s-l-comments
+( l+block-sequence(seq-spaces(n,c))
+| l+block-mapping(n) )</t>
+  </si>
+  <si>
+    <t>[201]   seq-spaces(n,c)    ::=     c = block-out ⇒ n-1
+c = block-in  ⇒ n</t>
+  </si>
+  <si>
+    <t>Example 8.22. Block Collection Nodes</t>
   </si>
 </sst>
 </file>
@@ -16395,7 +17690,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -16457,6 +17752,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18467,7 +19765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21708,9 +23006,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21722,7 +23020,573 @@
         <v>616</v>
       </c>
     </row>
+    <row r="2" spans="1:1" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.25">
+      <c r="A3" s="13" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18">
+      <c r="A5" s="17" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="60">
+      <c r="A6" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="75">
+      <c r="A7" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75">
+      <c r="A10" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30.75">
+      <c r="A12" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="60">
+      <c r="A13" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="45">
+      <c r="A14" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75">
+      <c r="A20" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30">
+      <c r="A21" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30.75">
+      <c r="A23" s="26" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="45">
+      <c r="A25" s="26" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="45.75">
+      <c r="A27" s="26" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="30">
+      <c r="A28" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="45">
+      <c r="A29" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="45">
+      <c r="A31" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="45">
+      <c r="A35" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30">
+      <c r="A36" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30">
+      <c r="A37" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="60">
+      <c r="A38" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30">
+      <c r="A39" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="30">
+      <c r="A42" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18">
+      <c r="A45" s="6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="1" customFormat="1" ht="30.75">
+      <c r="A46" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="30">
+      <c r="A47" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="60">
+      <c r="A50" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30">
+      <c r="A51" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="30">
+      <c r="A52" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="30">
+      <c r="A53" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="45">
+      <c r="A54" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18">
+      <c r="A57" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="1" customFormat="1" ht="30.75">
+      <c r="A58" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="30">
+      <c r="A63" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30">
+      <c r="A65" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="30">
+      <c r="A68" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75">
+      <c r="A70" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="30">
+      <c r="A71" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="30">
+      <c r="A72" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="30">
+      <c r="A75" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="30">
+      <c r="A76" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="30">
+      <c r="A77" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="30">
+      <c r="A80" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="30">
+      <c r="A81" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="23.25">
+      <c r="A84" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="45">
+      <c r="A85" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18">
+      <c r="A86" s="17" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="63">
+      <c r="A87" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="30">
+      <c r="A88" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="30">
+      <c r="A89" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="75.75">
+      <c r="A92" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="75">
+      <c r="A93" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="30">
+      <c r="A94" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18">
+      <c r="A97" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="30">
+      <c r="A99" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="46.5">
+      <c r="A102" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="30">
+      <c r="A103" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="45">
+      <c r="A104" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="30">
+      <c r="A106" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="60.75">
+      <c r="A109" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="45">
+      <c r="A110" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="30">
+      <c r="A111" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="60.75">
+      <c r="A112" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="45.75">
+      <c r="A113" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="30">
+      <c r="A114" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="45">
+      <c r="A117" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="30">
+      <c r="A118" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18">
+      <c r="A121" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="45">
+      <c r="A122" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="30">
+      <c r="A123" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="30">
+      <c r="A125" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="45">
+      <c r="A128" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.75">
+      <c r="A129" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="45">
+      <c r="A130" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="46.5">
+      <c r="A133" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="60">
+      <c r="A134" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="30">
+      <c r="A135" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="1021">
   <si>
     <t>This section provides a quick glimpse into the expressive power of YAML. It is not expected that the first-time reader grok all of the examples. Rather, these selections are used as motivation for the remainder of the specification.</t>
   </si>
@@ -17566,6 +17566,39 @@
   </si>
   <si>
     <t>Example 8.22. Block Collection Nodes</t>
+  </si>
+  <si>
+    <t>Данный раздел предоставляет быстрый взгляд на выразительную силу YAML. Не ожидается, что сначала читатель обратит внимание на все примеры. Скорее, эти выбор используются в качестве мотивации для оставшейся части спецификации.</t>
+  </si>
+  <si>
+    <t>2.1. Коллекции</t>
+  </si>
+  <si>
+    <t>YAML блоки коллекций используют отступ для области и начала каждой записи на отдельной строке. Блок последовательностей начинается с тире и пробела ("- "). Сопоставления используют двоеточие и пробел (": "), чтобы отметить каждую пару ключ: значение. Комментарии начинаются со знака числа (также называемого "хэш", "диез", "фунт", или "числовой знак" - "#").</t>
+  </si>
+  <si>
+    <t>Пример 2.1. Последовательности скаляров (футболисты)</t>
+  </si>
+  <si>
+    <t>Пример 2.3. Сопоставление скаляров к последовательности (футбольные клубы в каждой лиге)</t>
+  </si>
+  <si>
+    <t>Пример 2.4. Последовательность сопоставлений (статистика игроков)</t>
+  </si>
+  <si>
+    <t>Пример 2.2. Сопоставление скаляров к скалярам (статистика игрока)</t>
+  </si>
+  <si>
+    <t>YAML имеет поток стилей, использующий определенные индикаторы, а не отступ для обозначения области видимости. Поток последовательности записывается в квадратных скобках через запятую. Аналогичным образом, поток сопоставлений использует фигурные скобки.</t>
+  </si>
+  <si>
+    <t>Пример 2.5. Последовательность последовательностей</t>
+  </si>
+  <si>
+    <t>Пример 2.6. Сопоставление сопоставлений</t>
+  </si>
+  <si>
+    <t>2.2. Структуры</t>
   </si>
 </sst>
 </file>
@@ -17690,7 +17723,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -17755,6 +17788,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19765,7 +19801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19773,128 +19811,161 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="23.25">
+      <c r="B2" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="62.25">
+      <c r="B3" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75.75">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B5" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
+      <c r="A6" s="27"/>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:1" ht="45">
+    <row r="13" spans="1:2" ht="60">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B14" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="23.25">
+      <c r="B16" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="61.5">
+      <c r="B18" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="61.5">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" ht="30.75">
+    <row r="24" spans="1:2" ht="30.75">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="45.75">
+    <row r="29" spans="1:2" ht="45.75">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>

--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="10005" tabRatio="721" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="10005" tabRatio="721" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1054">
   <si>
     <t>This section provides a quick glimpse into the expressive power of YAML. It is not expected that the first-time reader grok all of the examples. Rather, these selections are used as motivation for the remainder of the specification.</t>
   </si>
@@ -17600,12 +17600,379 @@
   <si>
     <t>2.2. Структуры</t>
   </si>
+  <si>
+    <t>YAML использует три тире ("---") для разделения директив от содержимого документа. Это также служит сигналом начала документа, если никакие директивы не присутствуют. Три точки ("...") обозначают конец документа без запуска нового, для использования в каналах связи.</t>
+  </si>
+  <si>
+    <t>Пример 2.7. Два документа в потоке (каждый начинается с комментария)</t>
+  </si>
+  <si>
+    <t>Пример 2.8. Подачи в игре</t>
+  </si>
+  <si>
+    <t>Повторные узлы (объекты) первые идентифицированые ссылкой (отмеченный амперсандом - “&amp;”), и затем связаные (отмечены звездочкой - “*”) после этого.</t>
+  </si>
+  <si>
+    <t>Пример 2.9. Единственный документ с двумя комментариями</t>
+  </si>
+  <si>
+    <t>Пример 2.10. Узел для "Sammy Sosa" входит дважды в этот документ</t>
+  </si>
+  <si>
+    <t>Вопросительный знак и пробел ("? ") определяют комплексный ключ сопоставления. Внутри блока коллекции пары ключ: значение могут немедленно начаться после тире, двоеточия или вопросительного знака.</t>
+  </si>
+  <si>
+    <t>Пример 2.11. Сопоставления между последовательностями</t>
+  </si>
+  <si>
+    <t>Пример 2.12. Компактно вложенные сопоставления</t>
+  </si>
+  <si>
+    <t>2.3. Скаляры</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Скалярное наполнение может быть описано в блоке примечания, используя буквальный стиль (обозначенный как “|”), где важны все окончания строк. Альтернативно, они могут быть описаны со свернутым стилем (обозначенный как “&gt;”), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>где каждый конец строки свернут к пространству, если это не заканчивает пустое или более выровненную строку.</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример 2.13. Переводы строк сохраняются</t>
+  </si>
+  <si>
+    <t>Пример 2.14. В свернутом стиле, переводы строк заменены на пробелы</t>
+  </si>
+  <si>
+    <t>Пример 2.15. Сложенные строк сохраняются в "более отступ" и пустые строки</t>
+  </si>
+  <si>
+    <t>Пример 2.16. Отступы определяют область видимости</t>
+  </si>
+  <si>
+    <t>Скаляры потока YAML включают простой стиль (большинство примеров к настоящему времени) и два стиля цитирования. Стиль двойных кавычек обеспечивает escape-последовательности. Стиль одинарных кавычек полезен, когда выход не нужен. Весь поток скаляров может охватить множественные строки; концы строк всегда сворачиваются.</t>
+  </si>
+  <si>
+    <t>Пример 2.17. Цитированные скаляры</t>
+  </si>
+  <si>
+    <t>Пример 2.18. Многострочные скаляры потока</t>
+  </si>
+  <si>
+    <t>2.4. Теги</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В YAML нетеговым узлам дают тип в зависимости от приложения. Примеры в этой спецификации главным образом используют </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и типы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>от схемы сейфа сбоя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Несколько примеров также используют </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> типы из схемы JSON. Репозиторий включает дополнительные типы, такие как </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и другие.</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример 2.19. Integers</t>
+  </si>
+  <si>
+    <t>Пример 2.20. Floating Point</t>
+  </si>
+  <si>
+    <t>Пример 2.21. Miscellaneous</t>
+  </si>
+  <si>
+    <t>Пример 2.22. Timestamps</t>
+  </si>
+  <si>
+    <r>
+      <t>Явное приведение типов обозначено тэгом, использующим символ восклицательного знака ("!").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Глобальные тэги URI, могут быть определены в примечании стенографии тэга, используя маркер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Специфические для приложения локальные тэги также могут использоваться.</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример 2.23. Различные явные теги</t>
+  </si>
+  <si>
+    <t>Пример 2.24. Глобальные теги</t>
+  </si>
+  <si>
+    <t>Пример 2.25. Неупорядоченные наборы</t>
+  </si>
+  <si>
+    <t>Пример 2.26. Упорядоченные сопоставления</t>
+  </si>
+  <si>
+    <t>2.5. Большие примеры</t>
+  </si>
+  <si>
+    <t>Ниже приведены два больших примера на YAML. Слева пример типового счет; справа типовой лог-файл.</t>
+  </si>
+  <si>
+    <t>Пример 2.27. Счет</t>
+  </si>
+  <si>
+    <t>Пример 2.28. Лог-файл</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17698,6 +18065,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -17723,7 +18107,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -17789,8 +18173,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19801,293 +20197,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="80.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="80.7109375" style="25" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="25" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="27" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="75">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="25" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="28" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="28" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="28"/>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="30" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="28" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="28"/>
     </row>
     <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="25" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="28" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="28" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="61.5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="25" t="s">
         <v>11</v>
       </c>
+      <c r="B19" s="25" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="28" t="s">
         <v>12</v>
       </c>
+      <c r="B20" s="28" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="28" t="s">
         <v>13</v>
       </c>
+      <c r="B22" s="28" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="28"/>
     </row>
     <row r="24" spans="1:2" ht="30.75">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="25" t="s">
         <v>14</v>
       </c>
+      <c r="B24" s="25" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
+      <c r="B25" s="28" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="30" t="s">
         <v>16</v>
       </c>
+      <c r="B27" s="30" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="45.75">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
+      <c r="B29" s="25" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="28" t="s">
         <v>18</v>
       </c>
+      <c r="B30" s="28" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="23.25">
-      <c r="A34" s="2" t="s">
+      <c r="B32" s="28" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="23.25">
+      <c r="A34" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="61.5">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="27" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="25" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
+      <c r="B36" s="30" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
+      <c r="B38" s="30" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+      <c r="B40" s="31" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="60">
-      <c r="A44" s="1" t="s">
+      <c r="B42" s="30" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
+      <c r="B44" s="25" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+      <c r="B45" s="30" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="23.25">
-      <c r="A49" s="2" t="s">
+      <c r="B47" s="30" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="23.25">
+      <c r="A49" s="27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="62.25">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="27" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="62.25">
+      <c r="A50" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
+      <c r="B50" s="25" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
+      <c r="B51" s="28" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
+      <c r="B53" s="30" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
+      <c r="B55" s="30" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="45.75">
-      <c r="A59" s="1" t="s">
+      <c r="B57" s="30" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="60">
+      <c r="A59" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
+      <c r="B59" s="25" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
+      <c r="B60" s="30" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
+      <c r="B62" s="30" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
+      <c r="B64" s="30" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="23.25">
-      <c r="A68" s="2" t="s">
+      <c r="B66" s="30" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="23.25">
+      <c r="A68" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="30">
-      <c r="A69" s="1" t="s">
+      <c r="B68" s="27" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
+      <c r="B69" s="25" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
+      <c r="B70" s="28" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="28" t="s">
         <v>43</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -20100,7 +20595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -5604,9 +5604,6 @@
     <t>Глава 4. Синтаксические соглашения</t>
   </si>
   <si>
-    <t>Конечный процесс вывода представляет последовательные упорядочения YAML как символьный поток человечески-благоприятным способом. Чтобы развернуть человеческую удобочитаемость, YAML предлагает богатый набор стилистических опций, которые идут далеко вне минимальных функциональных потребностей простого хранения данных. Поэтому процессор YAML обязан вводить различные подробности представления, создавая поток, такой как выбор стилей узла, как форматировать скалярное информационное наполнение, количество сдвига, которые отмечают маркеры, чтобы использовать, тэги узла, чтобы оставить неопределенным, набор директив, чтобы обеспечить и возможно даже что комментарии добавить. В то время как часть этого может быть сделана с помощью приложения, вообще этот процесс должен управляться персональными настройками пользователя.</t>
-  </si>
-  <si>
     <t>3.1.2. Загрузка</t>
   </si>
   <si>
@@ -5616,24 +5613,12 @@
     <t>Парсинг потока представления</t>
   </si>
   <si>
-    <t>Составление графа представления</t>
-  </si>
-  <si>
-    <t>Создание берет прогрессию событий последовательного упорядочения и производит граф представления. Создание отказывается от всех подробностей, введенных в процессе последовательного упорядочения, производя только граф представления. Создание может терпеть неудачу из-за любой из нескольких причин, детализированных ниже.</t>
-  </si>
-  <si>
     <t>Построение родных структур данных</t>
   </si>
   <si>
-    <t>Конечный входной процесс создает родные структуры данных из представления YAML. Конструкция должна базироваться только на информации, доступной в представлении, а не на дополнительных подробностях последовательного упорядочения или представления, таких как комментарии, директивы, отображая ключевой заказ, стили узла, скалярный формат информационного наполнения, стандартные уровни и т.д., Конструкция может терпеть неудачу из-за неработоспособности необходимых родных типов данных.</t>
-  </si>
-  <si>
     <t>3.2. Информационные модели</t>
   </si>
   <si>
-    <t>Этот раздел определяет формальные подробности результатов вышеупомянутых процессов. Чтобы развернуть мобильность данных между языками программирования и реализациями, пользователи YAML должны помнить различие между свойствами последовательного упорядочения или представления и теми, которые являются частью представления YAML. Таким образом, в то время как наложение заказа относительно отображения клавиш необходимо для того, чтобы сгладить представления YAML передающей среде последовательного доступа, эти детали последовательного упорядочения не должны использоваться, чтобы передать информацию прикладного уровня. Подобным способом, в то время как стандартная методика и выбор стиля узла необходимы для человеческой удобочитаемости, они, подробности представления не ни часть последовательного упорядочения YAML, ни представление YAML. Тщательно отделяя свойства, необходимые для последовательного упорядочения и представления, представления YAML информации по применению будут непротиворечивыми и переносными между различными средами программирования.</t>
-  </si>
-  <si>
     <t>Следующая диаграмма суммирует три информационных модели. Полные стрелки обозначают оформление закономерностей, полые стрелки обозначают, что наследование, “1” и “*” обозначает "один" и "много" отношения. Сингл “+” обозначает подробности последовательного упорядочения, двойной “++” обозначает подробности представления.</t>
   </si>
   <si>
@@ -5815,18 +5800,6 @@
   </si>
   <si>
     <t>YAML представляет информацию типа родных структур данных с простым идентификатором, названным тэгом. Глобальные тэги - URIs и следовательно глобально уникальный через все приложения. “Тэг:” схема ТУРОВ рекомендуется для всех глобальных тэгов YAML. Напротив, местные тэги являются определенными для единственного приложения. Местные тэги начинаются с “!”, не URIs и, как ожидают, не будет глобально уникален. YAML обеспечивает директиву "ТЭГА", чтобы сделать примечание тэга менее подробным; это также предлагает простую миграцию от местного до глобальных тэгов. Чтобы гарантировать этому, местные тэги ограничены кодировке ТУРОВ и используют выход символа URI.</t>
-  </si>
-  <si>
-    <t>Когда приспособлено, удобно рассмотреть последовательности и отображения вместе, как коллекции. В этом представлении последовательности обработаны как отображения с целочисленными клавишами, начинающимися в нуле. Наличие объединенного представления коллекций для последовательностей и отображений полезно и для теоретического анализа и для того, чтобы создать практические инструментальные средства YAML и API. Эта стратегия также используется языком программирования Javascript.</t>
-  </si>
-  <si>
-    <t>Информационное наполнение узла отображения - незаказанный набор клавиши: пары узла значения, с ограничением, что каждая из клавиш уникальна. YAML не устанавливает дальнейших ограничений для узлов. В частности клавиши могут быть произвольными узлами, тот же самый узел может использоваться как значение нескольких клавиш: оцените пар, и отображение могло даже содержать себя как клавиша или значение (прямо или косвенно).</t>
-  </si>
-  <si>
-    <t>Информационное наполнение узла последовательности - заказанная прогрессия нуля или большего количества узлов. В частности последовательность может содержать тот же самый узел не раз. Это могло даже содержать себя (прямо или косвенно).</t>
-  </si>
-  <si>
-    <t>Информационное наполнение скалярного узла - непрозрачная данная величина, которая может быть представлена как прогрессия нуля или большего количества символов Unicode.</t>
   </si>
   <si>
     <t>Узел YAML представляет единственную родную структуру данных. У таких узлов есть информационное наполнение одного из трех видов: скаляр, последовательность, или отображение. Кроме того, у каждого узла есть тэг, который служит, чтобы ограничить набор возможных значений, которые может иметь информационное наполнение.</t>
@@ -18519,14 +18492,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Парсинг является обратным процессом представления, </t>
+      <t xml:space="preserve">YAML процессор не нужно подвергать сериализации или представлению этапов. Он может переводить непосредственно между родными структурами данных и символьным потоком (дамп и загрузка в диаграмме выше). Однако, такой прямой перевод должен иметь место так, чтобы родные структуры данных были созданы только из информации, доступной в представлении. В частности, порядок отображения ключей, комментарии, </t>
     </r>
     <r>
       <rPr>
@@ -18537,12 +18503,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>это берет поток символов и производит прогрессию событий. Парсинг отказывается от всех подробностей, введенных в процессе представления, сообщая только о событиях последовательного упорядочения. Синтаксический анализ может терпеть неудачу из-за плохо сформированного ввода.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">YAML процессор не нужно подвергать сериализации или представлению этапов. Он может переводить непосредственно между родными структурами данных и символьным потоком (дамп и загрузка в диаграмме выше). Однако, такой прямой перевод должен иметь место так, чтобы родные структуры данных были созданы только из информации, доступной в представлении. В частности, порядок отображения ключей, комментарии, </t>
+      <t>и маркеры тэга не должны ссылаться во время оформления закономерностей.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Явное приведение типов обозначено тэгом, использующим символ восклицательного знака ("!").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -18553,8 +18530,164 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>и маркеры тэга не должны ссылаться во время оформления закономерностей.</t>
-    </r>
+      <t>Глобальные тэги URI, могут быть определены в примечании стенографии тэга, используя маркер.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Специфические для приложения локальные тэги также могут использоваться.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.5. Полнометражные примеры</t>
+  </si>
+  <si>
+    <t>Ниже приведены два полнометражных примера на YAML. Слева пример типового счет; справа типовой лог-файл.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Скалярное наполнение может быть описано в блоке примечания, используя буквальный стиль (обозначенный как “|”), где важны все окончания строк. Альтернативно, они могут быть описаны со свернутым стилем (обозначенный как “&gt;”), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>где каждый конец строки свернут к пространству, если это не заканчивает пустое или более выровненную строку.</t>
+    </r>
+  </si>
+  <si>
+    <t>“YAML Не Язык Разметки” (сокращал YAML), язык последовательного упорядочения данных, проектированный, чтобы быть человечески-благоприятным и работа хорошо с современными языками программирования для общих каждодневных задач. Эта спецификация - и введение в язык YAML и понятия, поддерживающие это, и также законченная спецификация информации должна была разработать приложения для того, чтобы обработать YAML.</t>
+  </si>
+  <si>
+    <t>Откройтесь, взаимодействующие и с готовностью понятные инструментальные средства продвинули вычисление очень. YAML был проектирован от начала, чтобы быть полезным и дружить людям, работающим с данными. Это использует Уникод печатаемые символы, некоторые из которых предоставляют структурную информацию и остальных содержащих данные непосредственно. YAML достигает уникальной чистоты, сворачивая количество структурных символов и позволяя данные показать себе естественным и значимым способом. Например, сдвиг может использоваться для структуры, двоеточия отделяют клавишу: оцените пар, и черточки используются, чтобы создать списки "маркера".</t>
+  </si>
+  <si>
+    <t>Есть бесчисленные разновидности структур данных, но они могут все быть соответственно представлены с тремя основными примитивами: отображения (мешанины/словари), последовательности (массивы/списки) и скаляры (строки/числа). YAML усиливает эти примитивы, и добавляет простую систему типов и механизм ступенчатости, чтобы сформировать законченный язык для того, чтобы преобразовать любую родную структуру данных в последовательный режим. В то время как большинство языков программирования может использовать YAML для последовательного упорядочения данных, Excel YAML в работе с теми языками, которые существенно встроены вокруг трех основных примитивов. Они включают новую волну проворных языков, таких как Язык Perl, Питон, PHP, Рубин, и Javascript.</t>
+  </si>
+  <si>
+    <t>Есть сотни различных языков для того, чтобы запрограммировать, но только горстка языков для сохранения и передачи данных. Даже при том, что его потенциал фактически безграничен, YAML был определенно создан, чтобы работать хорошо для случаев обычного использования, таких как: файлы конфигурации, журналы регистрации, межпроцессорный обмен сообщениями, совместное использование поперечной лингвистической информации, возражают постоянству, и отладке сложных структур данных. Когда данные просты рассмотреть и понять, программирование становится более простой задачей.</t>
+  </si>
+  <si>
+    <t>1.1. Цели</t>
+  </si>
+  <si>
+    <t>Цели дизайна для YAML, в уменьшении приоритета:</t>
+  </si>
+  <si>
+    <t>1. YAML легко читаем людьми.</t>
+  </si>
+  <si>
+    <t>2. Данные YAML являются переносными между языками программирования.</t>
+  </si>
+  <si>
+    <t>3. YAML соответствует родным структурам данных проворных языков.</t>
+  </si>
+  <si>
+    <t>4. У YAML есть непротиворечивая модель, чтобы поддержать универсальные инструментальные средства.</t>
+  </si>
+  <si>
+    <t>5. YAML поддерживает однопроходную обработку.</t>
+  </si>
+  <si>
+    <t>6. YAML выразителен и расширяем.</t>
+  </si>
+  <si>
+    <t>7. YAML прост осуществить и использовать.</t>
+  </si>
+  <si>
+    <t>1.2. Предшествующее Искусство</t>
+  </si>
+  <si>
+    <t>Начальное руководство YAML было установлено по условию последовательное упорядочение и языковые обсуждения разметки среди участников SML-DEV. Позже, это непосредственно включило опыт от Ingy döt Данные модуля Языка Perl Сети:: Denter. С тех пор, YAML созрел через идеи и поддержку от ее пользовательского семейства.</t>
+  </si>
+  <si>
+    <t>YAML интегрирует и полагается на понятия, описанные C, Java, Языком Perl, Питоном, Рубином, RFC0822 (ПОЧТА), RFC1866 (HTML), RFC2045 (MIME), RFC2396 (ТУРЫ), XML, САКСОФОН, МЫЛО, и JSON.</t>
+  </si>
+  <si>
+    <t>Синтаксис YAML был мотивирован интернет-Почтой (RFC0822) и остается частично совместимым с тем стандартом. Далее, заимствуя от MIME (RFC2045), продукция YAML верхнего уровня - поток независимых документов, идеала для основанных на сообщении систем распределенной обработки.</t>
+  </si>
+  <si>
+    <t>Основанный на сдвиге обзор YAML подобен Питону (без двусмысленностей, вызванных позициями табуляции). Выровненные блоки облегчают простой осмотр структуры данных. Буквальный стиль YAML усиливает, это, допуская форматировало текст, чтобы быть чисто смешанным в пределах выровненной структуры без неприятного выхода. YAML также позволяет использование традиционного основанного на индикаторе обзора, подобного JSON’s и Языку Perl. Такое информационное наполнение потока может быть свободно вложено в выровненных блоках.</t>
+  </si>
+  <si>
+    <t>Двойной цитированный стиль YAML использует знакомые escape-последовательности C-стиля. Это допускает кодированию ASCII непечатаемых или 8-битовых (Международная организация по стандартизации 8859-1) символы, такие как “\x3B”. Непечатаемый 16-разрядный Уникод и 32-разрядный (ISO/IEC 10646) символы поддержан с escape-последовательностями, такими как “\u003B” и “\U0000003B”.</t>
+  </si>
+  <si>
+    <t>Мотивированный нормализацией конца строки HTML, перенос строк YAML использует интуитивный метод обработки концов строки. Разрыв одиночной линии свернут в единственное пространство, в то время как пустые строки интерпретируются как символы конца строки. Эта методика учитывает параграфы, которые будут обернуты словом, не затрагивая каноническую форму скалярного информационного наполнения.</t>
+  </si>
+  <si>
+    <t>Система типа ядра YAML основана на требованиях проворных языков, таких как Язык Perl, Питон, и Рубин. YAML непосредственно поддерживает обе коллекции (отображения, последовательности) и скаляры. Поддержка этих общих типов дает возможность программистам использовать родные структуры данных своего языка для манипуляции YAML, вместо того, чтобы требовать специальной объектной модели документов (ДОМ).</t>
+  </si>
+  <si>
+    <t>Как МЫЛО XML, поддержки YAML, преобразовывающие граф в последовательный режим родных данных, структурируют через механизм ступенчатости. Также как МЫЛО, YAML предусматривает определенные приложением типы. Это позволяет YAML представлять богатые структуры данных, требуемые для современных распределенных вычислений. YAML обеспечивает глобально уникальные названия типа, используя механизм пространства имен, вдохновленный основанным на сервере имен доменов соглашением об именах пакета Java и ОСНОВАННЫМИ НА ТУРАХ пространствами имен XML. Кроме того, YAML учитывает частные типы, определенные для единственного приложения.</t>
+  </si>
+  <si>
+    <t>YAML был проектирован, чтобы поддержать возрастающие интерфейсы, которые включают оба ввода (“getNextEvent ()”) и выводят (“sendNextEvent ()”) однопроходные интерфейсы. Вместе, они дают возможность YAML поддержать обработку больших документов (например, журналы транзакций) или непрерывные потоки (например, подачи от промышленной машины).</t>
+  </si>
+  <si>
+    <t>1.3. Отношение к JSON</t>
+  </si>
+  <si>
+    <t>И JSON и YAML стремятся быть человеческими читаемыми форматами обмена данными. Однако, у JSON и YAML есть различные приоритеты. Передовая цель дизайна JSON - простота и универсальность. Таким образом, JSON тривиален, чтобы генерировать и анализировать, за счет уменьшенной человеческой удобочитаемости. Это также использует информационную модель наименьшего общего знаменателя, гарантируя, что любые данные JSON могут быть легко обработаны каждой современной средой программирования.</t>
+  </si>
+  <si>
+    <t>Напротив, передовые цели дизайна YAML - человеческая удобочитаемость и поддержка преобразования в последовательную форму произвольных родных структур данных. Таким образом, YAML учитывает чрезвычайно читаемые файлы, но более сложен, чтобы генерировать и анализировать. Кроме того, YAML рискует вне типов данных наименьшего общего знаменателя, требуя более сложной обработки, пересекаясь между различными средами программирования.</t>
+  </si>
+  <si>
+    <t>YAML может поэтому быть рассмотрен как естественное надмножество JSON, предлагая улучшенную человеческую удобочитаемость и более законченную информационную модель. Это также имеет место практически; каждый файл JSON - также правильный файл YAML. Это облегчает перемещаться от JSON до YAML, если/когда дополнительные особенности требуются.</t>
+  </si>
+  <si>
+    <t>RFC4627 JSON требует, чтобы клавиши отображений просто были уникальны, в то время как YAML настаивает, чтобы они были. Технически, YAML поэтому выполняет спецификации JSON, хотя обрабатывать дубликаты как ошибку. Практически, так как JSON тих на семантике таких дубликатов, единственные переносные файлы JSON - те с уникальными клавишами, которые являются поэтому правильными файлами YAML.</t>
+  </si>
+  <si>
+    <t>Может быть полезно определить промежуточный формат между YAML и JSON. Такой формат был бы тривиален, чтобы анализировать (но не очень человеческий читаемый), как JSON. В то же самое время, это учло бы преобразование в последовательную форму произвольных родных структур данных, как YAML. Такой формат мог бы также служить "каноническим форматом YAML". Определение такого формата “YSON” (YSON - Преобразованное в последовательный режим Объектное Примечание) может быть сделано или увеличивая спецификацию JSON или ограничивая спецификацию YAML. Такое определение вне области видимости этой спецификации.</t>
+  </si>
+  <si>
+    <t>1.4. Отношение к XML</t>
+  </si>
+  <si>
+    <t>Вновь прибывшие к YAML часто ищут его корреляцию на расширяемый Язык Разметки (XML). Хотя эти два языка могут фактически конкурировать в нескольких прикладных областях, нет никакой прямой корреляции между ними.</t>
+  </si>
+  <si>
+    <t>YAML - прежде всего язык последовательного упорядочения данных. XML был проектирован, чтобы быть назад совместимым со Стандартным языком обобщенной разметки (SGML), который был проектирован, чтобы поддержать структурированную документацию. У XML поэтому было много ограничений дизайна, помещенных в это, что YAML не совместно использует. XML - пионер во многих доменах, YAML - результат уроков, изученных из XML и других технологий.</t>
+  </si>
+  <si>
+    <t>Нужно упомянуть, что есть продолжающиеся усилия определить стандартные отображения XML/YAML. Это вообще требует, чтобы подмножество каждого языка использовалось. Для получения дополнительной информации при использовании и XML и YAML, пожалуйста посетите http://yaml.org/xml.</t>
+  </si>
+  <si>
+    <t>1.5. Терминология</t>
+  </si>
+  <si>
+    <t>Эта спецификация использует ключевые слова, основанные на RFC2119, чтобы указать уровень требования. В частности следующие слова используются, чтобы описать действия процессора YAML:</t>
+  </si>
+  <si>
+    <t>Может</t>
+  </si>
+  <si>
+    <t>Слово, или дополнительное прилагательное, может означать, что приспосабливание к процессорам YAML разрешают, но не должны вести себя как описано.</t>
+  </si>
+  <si>
+    <t>Должен</t>
+  </si>
+  <si>
+    <t>Слово, или рекомендуемое прилагательное, должно означать, что могли быть причины для процессора YAML, чтобы отклониться от описанного поведения, но что такое отклонение могло повредить функциональную совместимость и должно поэтому рекламироваться с соответствующим примечанием.</t>
+  </si>
+  <si>
+    <t>Слово, или требуемый термин или должно быть, должен означать, что описанное поведение является абсолютным требованием спецификации.</t>
+  </si>
+  <si>
+    <t>Остальная часть этого документа упорядочена следующим образом. Глава 2 обеспечивает короткий предварительный просмотр основных особенностей YAML. Глава 3 описывает информационную модель YAML, и процессы для того, чтобы преобразовать от и до этой модели и формата текста YAML. Объем документа, главы 4 - 9, формально определяет этот текстовый формат. Наконец, глава 10 рекомендует основные схемы YAML.</t>
   </si>
   <si>
     <r>
@@ -18585,204 +18718,50 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Эта глава описывает информационные структуры, к которым процессор YAML должен обеспечить или получить из приложения.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Явное приведение типов обозначено тэгом, использующим символ восклицательного знака ("!").</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Глобальные тэги URI, могут быть определены в примечании стенографии тэга, используя маркер.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Специфические для приложения локальные тэги также могут использоваться.</t>
-    </r>
-  </si>
-  <si>
-    <t>2.5. Полнометражные примеры</t>
-  </si>
-  <si>
-    <t>Ниже приведены два полнометражных примера на YAML. Слева пример типового счет; справа типовой лог-файл.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Скалярное наполнение может быть описано в блоке примечания, используя буквальный стиль (обозначенный как “|”), где важны все окончания строк. Альтернативно, они могут быть описаны со свернутым стилем (обозначенный как “&gt;”), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>где каждый конец строки свернут к пространству, если это не заканчивает пустое или более выровненную строку.</t>
-    </r>
-  </si>
-  <si>
-    <t>“YAML Не Язык Разметки” (сокращал YAML), язык последовательного упорядочения данных, проектированный, чтобы быть человечески-благоприятным и работа хорошо с современными языками программирования для общих каждодневных задач. Эта спецификация - и введение в язык YAML и понятия, поддерживающие это, и также законченная спецификация информации должна была разработать приложения для того, чтобы обработать YAML.</t>
-  </si>
-  <si>
-    <t>Откройтесь, взаимодействующие и с готовностью понятные инструментальные средства продвинули вычисление очень. YAML был проектирован от начала, чтобы быть полезным и дружить людям, работающим с данными. Это использует Уникод печатаемые символы, некоторые из которых предоставляют структурную информацию и остальных содержащих данные непосредственно. YAML достигает уникальной чистоты, сворачивая количество структурных символов и позволяя данные показать себе естественным и значимым способом. Например, сдвиг может использоваться для структуры, двоеточия отделяют клавишу: оцените пар, и черточки используются, чтобы создать списки "маркера".</t>
-  </si>
-  <si>
-    <t>Есть бесчисленные разновидности структур данных, но они могут все быть соответственно представлены с тремя основными примитивами: отображения (мешанины/словари), последовательности (массивы/списки) и скаляры (строки/числа). YAML усиливает эти примитивы, и добавляет простую систему типов и механизм ступенчатости, чтобы сформировать законченный язык для того, чтобы преобразовать любую родную структуру данных в последовательный режим. В то время как большинство языков программирования может использовать YAML для последовательного упорядочения данных, Excel YAML в работе с теми языками, которые существенно встроены вокруг трех основных примитивов. Они включают новую волну проворных языков, таких как Язык Perl, Питон, PHP, Рубин, и Javascript.</t>
-  </si>
-  <si>
-    <t>Есть сотни различных языков для того, чтобы запрограммировать, но только горстка языков для сохранения и передачи данных. Даже при том, что его потенциал фактически безграничен, YAML был определенно создан, чтобы работать хорошо для случаев обычного использования, таких как: файлы конфигурации, журналы регистрации, межпроцессорный обмен сообщениями, совместное использование поперечной лингвистической информации, возражают постоянству, и отладке сложных структур данных. Когда данные просты рассмотреть и понять, программирование становится более простой задачей.</t>
-  </si>
-  <si>
-    <t>1.1. Цели</t>
-  </si>
-  <si>
-    <t>Цели дизайна для YAML, в уменьшении приоритета:</t>
-  </si>
-  <si>
-    <t>1. YAML легко читаем людьми.</t>
-  </si>
-  <si>
-    <t>2. Данные YAML являются переносными между языками программирования.</t>
-  </si>
-  <si>
-    <t>3. YAML соответствует родным структурам данных проворных языков.</t>
-  </si>
-  <si>
-    <t>4. У YAML есть непротиворечивая модель, чтобы поддержать универсальные инструментальные средства.</t>
-  </si>
-  <si>
-    <t>5. YAML поддерживает однопроходную обработку.</t>
-  </si>
-  <si>
-    <t>6. YAML выразителен и расширяем.</t>
-  </si>
-  <si>
-    <t>7. YAML прост осуществить и использовать.</t>
-  </si>
-  <si>
-    <t>1.2. Предшествующее Искусство</t>
-  </si>
-  <si>
-    <t>Начальное руководство YAML было установлено по условию последовательное упорядочение и языковые обсуждения разметки среди участников SML-DEV. Позже, это непосредственно включило опыт от Ingy döt Данные модуля Языка Perl Сети:: Denter. С тех пор, YAML созрел через идеи и поддержку от ее пользовательского семейства.</t>
-  </si>
-  <si>
-    <t>YAML интегрирует и полагается на понятия, описанные C, Java, Языком Perl, Питоном, Рубином, RFC0822 (ПОЧТА), RFC1866 (HTML), RFC2045 (MIME), RFC2396 (ТУРЫ), XML, САКСОФОН, МЫЛО, и JSON.</t>
-  </si>
-  <si>
-    <t>Синтаксис YAML был мотивирован интернет-Почтой (RFC0822) и остается частично совместимым с тем стандартом. Далее, заимствуя от MIME (RFC2045), продукция YAML верхнего уровня - поток независимых документов, идеала для основанных на сообщении систем распределенной обработки.</t>
-  </si>
-  <si>
-    <t>Основанный на сдвиге обзор YAML подобен Питону (без двусмысленностей, вызванных позициями табуляции). Выровненные блоки облегчают простой осмотр структуры данных. Буквальный стиль YAML усиливает, это, допуская форматировало текст, чтобы быть чисто смешанным в пределах выровненной структуры без неприятного выхода. YAML также позволяет использование традиционного основанного на индикаторе обзора, подобного JSON’s и Языку Perl. Такое информационное наполнение потока может быть свободно вложено в выровненных блоках.</t>
-  </si>
-  <si>
-    <t>Двойной цитированный стиль YAML использует знакомые escape-последовательности C-стиля. Это допускает кодированию ASCII непечатаемых или 8-битовых (Международная организация по стандартизации 8859-1) символы, такие как “\x3B”. Непечатаемый 16-разрядный Уникод и 32-разрядный (ISO/IEC 10646) символы поддержан с escape-последовательностями, такими как “\u003B” и “\U0000003B”.</t>
-  </si>
-  <si>
-    <t>Мотивированный нормализацией конца строки HTML, перенос строк YAML использует интуитивный метод обработки концов строки. Разрыв одиночной линии свернут в единственное пространство, в то время как пустые строки интерпретируются как символы конца строки. Эта методика учитывает параграфы, которые будут обернуты словом, не затрагивая каноническую форму скалярного информационного наполнения.</t>
-  </si>
-  <si>
-    <t>Система типа ядра YAML основана на требованиях проворных языков, таких как Язык Perl, Питон, и Рубин. YAML непосредственно поддерживает обе коллекции (отображения, последовательности) и скаляры. Поддержка этих общих типов дает возможность программистам использовать родные структуры данных своего языка для манипуляции YAML, вместо того, чтобы требовать специальной объектной модели документов (ДОМ).</t>
-  </si>
-  <si>
-    <t>Как МЫЛО XML, поддержки YAML, преобразовывающие граф в последовательный режим родных данных, структурируют через механизм ступенчатости. Также как МЫЛО, YAML предусматривает определенные приложением типы. Это позволяет YAML представлять богатые структуры данных, требуемые для современных распределенных вычислений. YAML обеспечивает глобально уникальные названия типа, используя механизм пространства имен, вдохновленный основанным на сервере имен доменов соглашением об именах пакета Java и ОСНОВАННЫМИ НА ТУРАХ пространствами имен XML. Кроме того, YAML учитывает частные типы, определенные для единственного приложения.</t>
-  </si>
-  <si>
-    <t>YAML был проектирован, чтобы поддержать возрастающие интерфейсы, которые включают оба ввода (“getNextEvent ()”) и выводят (“sendNextEvent ()”) однопроходные интерфейсы. Вместе, они дают возможность YAML поддержать обработку больших документов (например, журналы транзакций) или непрерывные потоки (например, подачи от промышленной машины).</t>
-  </si>
-  <si>
-    <t>1.3. Отношение к JSON</t>
-  </si>
-  <si>
-    <t>И JSON и YAML стремятся быть человеческими читаемыми форматами обмена данными. Однако, у JSON и YAML есть различные приоритеты. Передовая цель дизайна JSON - простота и универсальность. Таким образом, JSON тривиален, чтобы генерировать и анализировать, за счет уменьшенной человеческой удобочитаемости. Это также использует информационную модель наименьшего общего знаменателя, гарантируя, что любые данные JSON могут быть легко обработаны каждой современной средой программирования.</t>
-  </si>
-  <si>
-    <t>Напротив, передовые цели дизайна YAML - человеческая удобочитаемость и поддержка преобразования в последовательную форму произвольных родных структур данных. Таким образом, YAML учитывает чрезвычайно читаемые файлы, но более сложен, чтобы генерировать и анализировать. Кроме того, YAML рискует вне типов данных наименьшего общего знаменателя, требуя более сложной обработки, пересекаясь между различными средами программирования.</t>
-  </si>
-  <si>
-    <t>YAML может поэтому быть рассмотрен как естественное надмножество JSON, предлагая улучшенную человеческую удобочитаемость и более законченную информационную модель. Это также имеет место практически; каждый файл JSON - также правильный файл YAML. Это облегчает перемещаться от JSON до YAML, если/когда дополнительные особенности требуются.</t>
-  </si>
-  <si>
-    <t>RFC4627 JSON требует, чтобы клавиши отображений просто были уникальны, в то время как YAML настаивает, чтобы они были. Технически, YAML поэтому выполняет спецификации JSON, хотя обрабатывать дубликаты как ошибку. Практически, так как JSON тих на семантике таких дубликатов, единственные переносные файлы JSON - те с уникальными клавишами, которые являются поэтому правильными файлами YAML.</t>
-  </si>
-  <si>
-    <t>Может быть полезно определить промежуточный формат между YAML и JSON. Такой формат был бы тривиален, чтобы анализировать (но не очень человеческий читаемый), как JSON. В то же самое время, это учло бы преобразование в последовательную форму произвольных родных структур данных, как YAML. Такой формат мог бы также служить "каноническим форматом YAML". Определение такого формата “YSON” (YSON - Преобразованное в последовательный режим Объектное Примечание) может быть сделано или увеличивая спецификацию JSON или ограничивая спецификацию YAML. Такое определение вне области видимости этой спецификации.</t>
-  </si>
-  <si>
-    <t>1.4. Отношение к XML</t>
-  </si>
-  <si>
-    <t>Вновь прибывшие к YAML часто ищут его корреляцию на расширяемый Язык Разметки (XML). Хотя эти два языка могут фактически конкурировать в нескольких прикладных областях, нет никакой прямой корреляции между ними.</t>
-  </si>
-  <si>
-    <t>YAML - прежде всего язык последовательного упорядочения данных. XML был проектирован, чтобы быть назад совместимым со Стандартным языком обобщенной разметки (SGML), который был проектирован, чтобы поддержать структурированную документацию. У XML поэтому было много ограничений дизайна, помещенных в это, что YAML не совместно использует. XML - пионер во многих доменах, YAML - результат уроков, изученных из XML и других технологий.</t>
-  </si>
-  <si>
-    <t>Нужно упомянуть, что есть продолжающиеся усилия определить стандартные отображения XML/YAML. Это вообще требует, чтобы подмножество каждого языка использовалось. Для получения дополнительной информации при использовании и XML и YAML, пожалуйста посетите http://yaml.org/xml.</t>
-  </si>
-  <si>
-    <t>1.5. Терминология</t>
-  </si>
-  <si>
-    <t>Эта спецификация использует ключевые слова, основанные на RFC2119, чтобы указать уровень требования. В частности следующие слова используются, чтобы описать действия процессора YAML:</t>
-  </si>
-  <si>
-    <t>Может</t>
-  </si>
-  <si>
-    <t>Слово, или дополнительное прилагательное, может означать, что приспосабливание к процессорам YAML разрешают, но не должны вести себя как описано.</t>
-  </si>
-  <si>
-    <t>Должен</t>
-  </si>
-  <si>
-    <t>Слово, или рекомендуемое прилагательное, должно означать, что могли быть причины для процессора YAML, чтобы отклониться от описанного поведения, но что такое отклонение могло повредить функциональную совместимость и должно поэтому рекламироваться с соответствующим примечанием.</t>
-  </si>
-  <si>
-    <t>Слово, или требуемый термин или должно быть, должен означать, что описанное поведение является абсолютным требованием спецификации.</t>
-  </si>
-  <si>
-    <t>Остальная часть этого документа упорядочена следующим образом. Глава 2 обеспечивает короткий предварительный просмотр основных особенностей YAML. Глава 3 описывает информационную модель YAML, и процессы для того, чтобы преобразовать от и до этой модели и формата текста YAML. Объем документа, главы 4 - 9, формально определяет этот текстовый формат. Наконец, глава 10 рекомендует основные схемы YAML.</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Эта глава описывает информационные структуры, которые процессор YAML должен создавать или получать из приложения.</t>
+    </r>
+  </si>
+  <si>
+    <t>Конечный процесс вывода представляет сериализацию YAML как символьный поток в человекочитаемом формате. Чтобы достичь максимальной удобочитаемости для человека, YAML предлагает богатый набор стилистических опций, которые идут далеко вне минимальных функциональных потребностей простого хранения данных. Поэтому процессор YAML требует ввода различных подробностей представления, создавая поток, такой как выбор стилей узла, как форматировать скалярное информационное наполнение, количество отступов, которые отмечают маркеры, чтобы использовать, тэги узла, чтобы оставить неопределенным, набор директив, чтобы обеспечить и возможно даже что комментарии добавить. В то время как часть этого может быть сделана с помощью приложения, вообще этот процесс должен управляться персональными настройками пользователя.</t>
+  </si>
+  <si>
+    <t>Парсинг является обратным процессом представления, он берет поток символов и создает набор событий. Парсинг отказывается от всех подробностей, введенных в процессе представления, сообщая только о событиях последовательного упорядочения. Парсинг может потерпеть неудачу из-за плохо сформированного ввода.</t>
+  </si>
+  <si>
+    <t>Создание графа представления</t>
+  </si>
+  <si>
+    <t>Создание берет набор сериализованных событий и создает граф представления. Создание отказывается от всех подробностей, введенных в процессе сериализации, производя только граф представления. Создание может терпеть неудачу из-за любой из нескольких причин, детализированных ниже.</t>
+  </si>
+  <si>
+    <t>Конечный входной процесс создает родные структуры данных из YAML представления. Конструкция должна базироваться только на информации, доступной в представлении, а не на дополнительных сериализациях или представлениях, таких как комментарии, директивы, сопоставления ключей, стили узла, скалярный формат контента, уровни отступов и т.д. Конструкция может терпеть неудачу из-за недоступности необходимых родных типов данных.</t>
+  </si>
+  <si>
+    <t>Этот раздел определяет формальные подробности результатов вышеупомянутых процессов. Чтобы данные были максимально портабельны между языками программирования и реализациями, пользователи YAML должны помнить различие между свойствами сериализации или представлением свойств и теми, которые являются частью представления YAML. Таким образом, в то время как наложение заказа относительно отображения клавиш необходимых для сглаживания YAML представлений передающей среде последовательного доступа, эти детали последовательного упорядочения не должны использоваться, чтобы передать информацию прикладного уровня. Подобным способом, в то время как стандартная методика и выбор стиля узла необходимы для человеческой удобочитаемости, подробности представления ни часть последовательного упорядочения YAML, ни представление YAML. Тщательно отделяя свойства, необходимые для сериализации и представления, представления YAML информации по применению будут непротиворечивыми и переносными между различными средами программирования.</t>
+  </si>
+  <si>
+    <t>Информационное наполнение узла последовательности - это набор из нуля или большего количества узлов. В частности, последовательность может содержать один и тот же узел только один раз. Последовательность может даже содержать себя (прямо или косвенно).</t>
+  </si>
+  <si>
+    <t>Информационное наполнение скалярного узла - непрозрачная данная величина, которая может быть представлена нулем или большим количеством символов Unicode.</t>
+  </si>
+  <si>
+    <t>Информационное наполнение узла отображения - неупорядоченный набор пар "ключ: значение", с ограничением, что каждый ключ уникален. YAML не устанавливает других ограничений для узлов. В частности, ключи могут быть произвольными узлами, узел может использоваться как значение нескольких пар (составной ключ), и сопоставление может даже содержать себя как ключ или значение (прямо или косвенно).</t>
+  </si>
+  <si>
+    <t>Когда приспособлено, удобно рассмотривать последовательности и сопоставления вместе, как коллекции. В этом виде последовательности обработаны как сопоставления с целочисленными клавишами, начинающимися в нуле. Наличие объединенного представления коллекций для последовательностей и отображений полезно и для теоретического анализа и для того, чтобы создать практические инструментальные средства YAML и API. Эта стратегия также используется языком программирования Javascript.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18998,6 +18977,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -19023,7 +19010,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -19159,6 +19146,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20163,7 +20159,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75">
@@ -20173,7 +20169,7 @@
     </row>
     <row r="5" spans="1:2" ht="63">
       <c r="A5" s="10" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -20183,7 +20179,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20201,27 +20197,27 @@
     </row>
     <row r="11" spans="1:2" ht="50.25">
       <c r="A11" s="10" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5">
       <c r="A12" s="10" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="50.25">
       <c r="A13" s="10" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
       <c r="A14" s="10" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5">
       <c r="A15" s="10" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20231,17 +20227,17 @@
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25">
       <c r="A18" s="11" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="47.25">
@@ -20264,7 +20260,7 @@
     </row>
     <row r="24" spans="1:1" ht="48.75">
       <c r="A24" s="10" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="47.25">
@@ -20292,7 +20288,7 @@
     </row>
     <row r="30" spans="1:1" ht="31.5">
       <c r="A30" s="10" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -20310,7 +20306,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.5">
@@ -20333,7 +20329,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="31.5">
@@ -20361,7 +20357,7 @@
     </row>
     <row r="45" spans="1:1" ht="34.5">
       <c r="A45" s="10" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -20429,7 +20425,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -20439,7 +20435,7 @@
     </row>
     <row r="4" spans="1:2" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -20484,7 +20480,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="7" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20527,7 +20523,7 @@
     </row>
     <row r="22" spans="1:1" ht="17.25">
       <c r="A22" s="7" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -20580,7 +20576,7 @@
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="7" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -20593,12 +20589,12 @@
     </row>
     <row r="36" spans="1:1" ht="50.25">
       <c r="A36" s="10" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="33">
       <c r="A37" s="10" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23.25">
@@ -20608,7 +20604,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75">
@@ -20653,7 +20649,7 @@
     </row>
     <row r="48" spans="1:1" ht="50.25">
       <c r="A48" s="16" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -20663,12 +20659,12 @@
     </row>
     <row r="50" spans="1:1" ht="17.25">
       <c r="A50" s="32" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17.25">
       <c r="A51" s="7" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -20716,12 +20712,12 @@
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="33" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="7" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -20779,12 +20775,12 @@
     </row>
     <row r="74" spans="1:1" ht="34.5">
       <c r="A74" s="16" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17.25">
       <c r="A75" s="7" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -20842,12 +20838,12 @@
     </row>
     <row r="87" spans="1:1" ht="34.5">
       <c r="A87" s="16" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="7" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -20865,17 +20861,17 @@
     </row>
     <row r="92" spans="1:1" ht="50.25">
       <c r="A92" s="10" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="34.5">
       <c r="A93" s="10" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="66">
       <c r="A94" s="10" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="94.5">
@@ -20898,7 +20894,7 @@
     </row>
     <row r="99" spans="1:1" ht="47.25">
       <c r="A99" s="10" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75">
@@ -20923,17 +20919,17 @@
     </row>
     <row r="104" spans="1:1" ht="50.25">
       <c r="A104" s="10" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="34.5">
       <c r="A105" s="10" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="50.25">
       <c r="A106" s="10" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="173.25">
@@ -20956,7 +20952,7 @@
     </row>
     <row r="111" spans="1:1" ht="48.75">
       <c r="A111" s="10" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="31.5">
@@ -20971,7 +20967,7 @@
     </row>
     <row r="114" spans="1:1" ht="63">
       <c r="A114" s="10" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="63">
@@ -21009,7 +21005,7 @@
         <v>340</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="126">
@@ -21017,7 +21013,7 @@
         <v>341</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="141.75">
@@ -21025,7 +21021,7 @@
         <v>342</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="110.25">
@@ -21033,7 +21029,7 @@
         <v>343</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -21041,7 +21037,7 @@
         <v>344</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21049,7 +21045,7 @@
         <v>345</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21057,7 +21053,7 @@
         <v>346</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21065,7 +21061,7 @@
         <v>347</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21073,7 +21069,7 @@
         <v>348</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5">
@@ -21081,7 +21077,7 @@
         <v>349</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21089,7 +21085,7 @@
         <v>350</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21097,7 +21093,7 @@
         <v>351</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21105,7 +21101,7 @@
         <v>352</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25">
@@ -21113,7 +21109,7 @@
         <v>353</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="63">
@@ -21121,7 +21117,7 @@
         <v>354</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
@@ -21129,7 +21125,7 @@
         <v>355</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63">
@@ -21137,7 +21133,7 @@
         <v>356</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="110.25">
@@ -21145,7 +21141,7 @@
         <v>357</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="78.75">
@@ -21153,7 +21149,7 @@
         <v>750</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="78.75">
@@ -21161,7 +21157,7 @@
         <v>358</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="78.75">
@@ -21169,7 +21165,7 @@
         <v>359</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="126">
@@ -21177,7 +21173,7 @@
         <v>360</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="66">
@@ -21185,7 +21181,7 @@
         <v>751</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25">
@@ -21193,7 +21189,7 @@
         <v>361</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="94.5">
@@ -21201,7 +21197,7 @@
         <v>362</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="94.5">
@@ -21209,7 +21205,7 @@
         <v>363</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="63">
@@ -21217,7 +21213,7 @@
         <v>364</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="78.75">
@@ -21225,7 +21221,7 @@
         <v>365</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="126">
@@ -21233,7 +21229,7 @@
         <v>366</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23.25">
@@ -21241,7 +21237,7 @@
         <v>367</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="47.25">
@@ -21249,7 +21245,7 @@
         <v>368</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="94.5">
@@ -21257,7 +21253,7 @@
         <v>369</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="63">
@@ -21265,7 +21261,7 @@
         <v>370</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25">
@@ -21273,7 +21269,7 @@
         <v>371</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="47.25">
@@ -21281,7 +21277,7 @@
         <v>372</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -21289,7 +21285,7 @@
         <v>373</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.5">
@@ -21297,7 +21293,7 @@
         <v>752</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -21305,7 +21301,7 @@
         <v>374</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="63">
@@ -21313,7 +21309,7 @@
         <v>753</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -21321,7 +21317,7 @@
         <v>375</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5">
@@ -21329,7 +21325,7 @@
         <v>754</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="78.75">
@@ -21337,7 +21333,7 @@
         <v>376</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -21586,7 +21582,7 @@
         <v>746</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
@@ -21738,7 +21734,7 @@
         <v>749</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
@@ -21794,7 +21790,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5">
@@ -21802,7 +21798,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75">
@@ -21839,7 +21835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -21860,7 +21858,7 @@
         <v>700</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1186</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="141.75">
@@ -21903,7 +21901,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75">
@@ -21975,7 +21973,7 @@
         <v>705</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>775</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75">
@@ -21983,7 +21981,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5">
@@ -21991,7 +21989,7 @@
         <v>706</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -21999,15 +21997,15 @@
         <v>48</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63">
       <c r="A21" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>1184</v>
+      <c r="B21" s="48" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -22015,15 +22013,15 @@
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>779</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="63">
       <c r="A23" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>780</v>
+      <c r="B23" s="48" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -22031,15 +22029,15 @@
         <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="94.5">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="78.75">
       <c r="A25" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>782</v>
+      <c r="B25" s="49" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
@@ -22047,15 +22045,15 @@
         <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="220.5">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="204.75">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>784</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="63">
@@ -22063,7 +22061,7 @@
         <v>710</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -22071,7 +22069,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75">
@@ -22079,7 +22077,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="94.5">
@@ -22087,7 +22085,7 @@
         <v>711</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="63">
@@ -22095,7 +22093,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -22103,7 +22101,7 @@
         <v>56</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -22111,7 +22109,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="63">
@@ -22119,7 +22117,7 @@
         <v>712</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -22127,31 +22125,31 @@
         <v>58</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="31.5">
       <c r="A39" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>849</v>
+      <c r="B39" s="48" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>793</v>
+      <c r="B40" s="50" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="47.25">
       <c r="A41" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>848</v>
+      <c r="B41" s="48" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -22159,15 +22157,15 @@
         <v>60</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="78.75">
       <c r="A43" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>847</v>
+      <c r="B43" s="49" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="94.5">
@@ -22175,7 +22173,7 @@
         <v>716</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>846</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -22183,7 +22181,7 @@
         <v>61</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="126">
@@ -22191,7 +22189,7 @@
         <v>717</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="157.5">
@@ -22199,7 +22197,7 @@
         <v>718</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="126">
@@ -22207,7 +22205,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22215,7 +22213,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="110.25">
@@ -22223,7 +22221,7 @@
         <v>719</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22231,7 +22229,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="110.25">
@@ -22239,7 +22237,7 @@
         <v>720</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22247,7 +22245,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="141.75">
@@ -22255,7 +22253,7 @@
         <v>721</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="94.5">
@@ -22263,7 +22261,7 @@
         <v>722</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22271,7 +22269,7 @@
         <v>66</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="78.75">
@@ -22279,7 +22277,7 @@
         <v>723</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75">
@@ -22287,7 +22285,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="126">
@@ -22295,7 +22293,7 @@
         <v>724</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22303,7 +22301,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -22316,7 +22314,7 @@
         <v>725</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -22324,7 +22322,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="173.25">
@@ -22332,7 +22330,7 @@
         <v>726</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75">
@@ -22340,7 +22338,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="141.75">
@@ -22348,7 +22346,7 @@
         <v>727</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -22356,7 +22354,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -22364,7 +22362,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="63">
@@ -22372,7 +22370,7 @@
         <v>728</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="63">
@@ -22380,7 +22378,7 @@
         <v>729</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="94.5">
@@ -22388,7 +22386,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -22396,7 +22394,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -22407,7 +22405,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="94.5">
@@ -22415,7 +22413,7 @@
         <v>730</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -22423,7 +22421,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="94.5">
@@ -22431,7 +22429,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -22439,7 +22437,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="80.25">
@@ -22447,7 +22445,7 @@
         <v>731</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="23.25">
@@ -22455,7 +22453,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="78.75">
@@ -22463,7 +22461,7 @@
         <v>732</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="110.25">
@@ -22471,7 +22469,7 @@
         <v>733</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -22479,7 +22477,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18.75">
@@ -22487,7 +22485,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="110.25">
@@ -22495,7 +22493,7 @@
         <v>734</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18.75">
@@ -22509,7 +22507,7 @@
         <v>735</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="78.75">
@@ -22517,7 +22515,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="110.25">
@@ -22525,7 +22523,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="94.5">
@@ -22533,7 +22531,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="94.5">
@@ -22541,7 +22539,7 @@
         <v>736</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="126">
@@ -22549,7 +22547,7 @@
         <v>737</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="47.25">
@@ -22557,7 +22555,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="47.25">
@@ -22565,7 +22563,7 @@
         <v>738</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75">
@@ -22573,7 +22571,7 @@
         <v>88</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="126">
@@ -22581,7 +22579,7 @@
         <v>739</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18.75">
@@ -22589,7 +22587,7 @@
         <v>89</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="78.75">
@@ -22597,7 +22595,7 @@
         <v>740</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -22631,7 +22629,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="78.75">
@@ -22639,7 +22637,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25">
@@ -22647,7 +22645,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="47.25">
@@ -22655,7 +22653,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -22663,7 +22661,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="47.25">
@@ -22671,7 +22669,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="63">
@@ -22679,7 +22677,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -22687,15 +22685,15 @@
         <v>99</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="14" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="47.25">
@@ -22703,47 +22701,47 @@
         <v>100</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="14" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5">
       <c r="A13" s="16" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="64.5">
       <c r="A14" s="16" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
       <c r="A15" s="16" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="14" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
@@ -22751,7 +22749,7 @@
         <v>101</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
@@ -22759,7 +22757,7 @@
         <v>102</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
@@ -22767,15 +22765,15 @@
         <v>103</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="41" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
@@ -22783,15 +22781,15 @@
         <v>104</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="41" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
@@ -22799,15 +22797,15 @@
         <v>105</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="41" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
@@ -22815,15 +22813,15 @@
         <v>106</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="41" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
@@ -22831,15 +22829,15 @@
         <v>107</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="41" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
@@ -22847,15 +22845,15 @@
         <v>108</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="41" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
@@ -22863,15 +22861,15 @@
         <v>109</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
       <c r="A32" s="41" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
@@ -22879,39 +22877,39 @@
         <v>110</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="41" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="33">
       <c r="A35" s="16" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="41" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="33">
       <c r="A37" s="16" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -22946,7 +22944,7 @@
     </row>
     <row r="3" spans="1:2" ht="67.5">
       <c r="A3" s="10" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -22971,7 +22969,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.25">
@@ -22981,7 +22979,7 @@
     </row>
     <row r="10" spans="1:2" ht="48.75">
       <c r="A10" s="10" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -22996,7 +22994,7 @@
     </row>
     <row r="13" spans="1:2" ht="48.75">
       <c r="A13" s="10" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -23031,12 +23029,12 @@
     </row>
     <row r="20" spans="1:1" ht="17.25">
       <c r="A20" s="11" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25">
       <c r="A21" s="11" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -23062,37 +23060,37 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="30" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25">
       <c r="A29" s="11" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.25">
       <c r="A31" s="11" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17.25">
       <c r="A32" s="11" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="11" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -23105,52 +23103,52 @@
     </row>
     <row r="36" spans="1:1" ht="17.25">
       <c r="A36" s="11" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17.25">
       <c r="A37" s="11" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17.25">
       <c r="A41" s="11" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25">
       <c r="A43" s="11" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25">
       <c r="A44" s="11" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17.25">
       <c r="A45" s="11" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -23163,12 +23161,12 @@
     </row>
     <row r="48" spans="1:1" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25">
       <c r="A49" s="11" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -23181,32 +23179,32 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17.25">
       <c r="A53" s="11" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25">
       <c r="A55" s="11" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17.25">
       <c r="A56" s="11" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="48.75">
       <c r="A57" s="10" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -23219,22 +23217,22 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="11" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17.25">
       <c r="A63" s="11" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -23247,22 +23245,22 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17.25">
       <c r="A67" s="11" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17.25">
       <c r="A68" s="11" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -23275,12 +23273,12 @@
     </row>
     <row r="72" spans="1:1" ht="17.25">
       <c r="A72" s="11" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17.25">
       <c r="A73" s="11" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -23293,12 +23291,12 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.25">
       <c r="A77" s="11" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -23321,12 +23319,12 @@
     </row>
     <row r="82" spans="1:1" ht="48.75">
       <c r="A82" s="10" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17.25">
       <c r="A83" s="11" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="23.25">
@@ -23336,27 +23334,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="11" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="11" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="51.75">
       <c r="A89" s="10" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="78.75">
@@ -23366,7 +23364,7 @@
     </row>
     <row r="91" spans="1:1" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -23381,12 +23379,12 @@
     </row>
     <row r="94" spans="1:1" ht="47.25">
       <c r="A94" s="10" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17.25">
       <c r="A95" s="11" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -23396,7 +23394,7 @@
     </row>
     <row r="97" spans="1:1" ht="17.25">
       <c r="A97" s="11" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="31.5">
@@ -23406,7 +23404,7 @@
     </row>
     <row r="99" spans="1:1" ht="17.25">
       <c r="A99" s="10" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -23424,22 +23422,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="11" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.25">
       <c r="A104" s="11" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.25">
       <c r="A105" s="11" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="11" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -23449,12 +23447,12 @@
     </row>
     <row r="108" spans="1:1" ht="17.25">
       <c r="A108" s="11" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="34.5">
       <c r="A109" s="10" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -23477,12 +23475,12 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="11" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -23502,7 +23500,7 @@
     </row>
     <row r="119" spans="1:1" ht="17.25">
       <c r="A119" s="11" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -23512,17 +23510,17 @@
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="33">
       <c r="A122" s="16" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="64.5">
       <c r="A123" s="16" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="47.25">
@@ -23532,12 +23530,12 @@
     </row>
     <row r="125" spans="1:1" ht="50.25">
       <c r="A125" s="10" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.25">
       <c r="A126" s="11" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="23.25">
@@ -23547,17 +23545,17 @@
     </row>
     <row r="128" spans="1:1" ht="64.5">
       <c r="A128" s="10" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="33">
       <c r="A129" s="10" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.25">
       <c r="A130" s="11" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -23567,172 +23565,172 @@
     </row>
     <row r="132" spans="1:1" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17.25">
       <c r="A133" s="11" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17.25">
       <c r="A134" s="11" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17.25">
       <c r="A136" s="11" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17.25">
       <c r="A137" s="11" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17.25">
       <c r="A138" s="11" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="33">
       <c r="A139" s="10" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17.25">
       <c r="A141" s="11" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17.25">
       <c r="A142" s="11" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17.25">
       <c r="A143" s="11" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17.25">
       <c r="A145" s="11" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17.25">
       <c r="A147" s="11" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17.25">
       <c r="A148" s="11" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17.25">
       <c r="A149" s="11" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17.25">
       <c r="A150" s="11" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="33">
       <c r="A151" s="10" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17.25">
       <c r="A152" s="11" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17.25">
       <c r="A154" s="11" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17.25">
       <c r="A155" s="11" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17.25">
       <c r="A156" s="11" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17.25">
       <c r="A157" s="11" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17.25">
       <c r="A158" s="11" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.25">
       <c r="A159" s="11" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17.25">
       <c r="A160" s="11" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17.25">
       <c r="A161" s="11" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17.25">
       <c r="A163" s="11" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17.25">
       <c r="A164" s="11" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17.25">
       <c r="A165" s="11" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="31.5">
@@ -23823,7 +23821,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25">
@@ -23838,22 +23836,22 @@
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="11" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33">
       <c r="A7" s="10" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="11" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5">
@@ -23871,7 +23869,7 @@
     </row>
     <row r="13" spans="1:2" ht="33">
       <c r="A13" s="10" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -23889,7 +23887,7 @@
     </row>
     <row r="17" spans="1:1" ht="31.5">
       <c r="A17" s="10" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -23899,7 +23897,7 @@
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -23917,7 +23915,7 @@
     </row>
     <row r="23" spans="1:1" ht="47.25">
       <c r="A23" s="10" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -23932,12 +23930,12 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25">
       <c r="A27" s="11" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -23955,7 +23953,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="11" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="31.5">
@@ -23983,23 +23981,23 @@
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A37" s="12" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="10" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24009,7 +24007,7 @@
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24037,7 +24035,7 @@
     </row>
     <row r="48" spans="1:2" ht="31.5">
       <c r="A48" s="16" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24060,7 +24058,7 @@
     </row>
     <row r="53" spans="1:1" ht="47.25">
       <c r="A53" s="16" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="31.5">
@@ -24083,7 +24081,7 @@
     </row>
     <row r="58" spans="1:1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="63">
@@ -24093,12 +24091,12 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="31.5">
@@ -24121,7 +24119,7 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -24190,7 +24188,7 @@
     </row>
     <row r="81" spans="1:1" ht="50.25">
       <c r="A81" s="12" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -24205,7 +24203,7 @@
     </row>
     <row r="84" spans="1:1" ht="48.75">
       <c r="A84" s="10" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="31.5">
@@ -24215,12 +24213,12 @@
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -24233,22 +24231,22 @@
     </row>
     <row r="90" spans="1:1" ht="20.25">
       <c r="A90" s="18" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="34.5">
       <c r="A91" s="10" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="102">
       <c r="A92" s="10" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="80.25">
       <c r="A93" s="10" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="31.5">
@@ -24263,7 +24261,7 @@
     </row>
     <row r="96" spans="1:1" ht="17.25">
       <c r="A96" s="7" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24271,7 +24269,7 @@
     </row>
     <row r="98" spans="1:2" ht="33">
       <c r="A98" s="10" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24284,12 +24282,12 @@
     </row>
     <row r="101" spans="1:2" ht="20.25">
       <c r="A101" s="18" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A102" s="10" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B102" s="22"/>
     </row>
@@ -24300,7 +24298,7 @@
     </row>
     <row r="104" spans="1:2" ht="17.25">
       <c r="A104" s="7" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -24308,7 +24306,7 @@
     </row>
     <row r="106" spans="1:2" ht="33">
       <c r="A106" s="10" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -24326,7 +24324,7 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A110" s="10" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B110" s="22"/>
     </row>
@@ -24342,17 +24340,17 @@
     </row>
     <row r="113" spans="1:1" ht="50.25">
       <c r="A113" s="16" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="50.25">
       <c r="A114" s="16" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -24370,17 +24368,17 @@
     </row>
     <row r="119" spans="1:1" ht="50.25">
       <c r="A119" s="16" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="33">
       <c r="A120" s="16" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -24398,7 +24396,7 @@
     </row>
     <row r="125" spans="1:1" ht="34.5">
       <c r="A125" s="16" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="31.5">
@@ -24408,7 +24406,7 @@
     </row>
     <row r="127" spans="1:1" ht="17.25">
       <c r="A127" s="11" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -24426,12 +24424,12 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="11" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -24441,12 +24439,12 @@
     </row>
     <row r="134" spans="1:2" ht="48.75">
       <c r="A134" s="16" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -24464,12 +24462,12 @@
     </row>
     <row r="139" spans="1:2" ht="64.5">
       <c r="A139" s="16" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -24487,7 +24485,7 @@
     </row>
     <row r="144" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A144" s="10" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B144" s="22"/>
     </row>
@@ -24511,7 +24509,7 @@
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A149" s="10" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="B149" s="22"/>
     </row>
@@ -24527,12 +24525,12 @@
     </row>
     <row r="152" spans="1:2" ht="66">
       <c r="A152" s="10" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -24558,7 +24556,7 @@
     </row>
     <row r="159" spans="1:2" ht="66">
       <c r="A159" s="16" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="31.5">
@@ -24568,12 +24566,12 @@
     </row>
     <row r="161" spans="1:1" ht="83.25">
       <c r="A161" s="16" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -24599,22 +24597,22 @@
     </row>
     <row r="168" spans="1:1" ht="48.75">
       <c r="A168" s="16" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="51.75">
       <c r="A169" s="16" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17.25">
       <c r="A170" s="16" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17.25">
       <c r="A171" s="11" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -24632,12 +24630,12 @@
     </row>
     <row r="175" spans="1:1" ht="48.75">
       <c r="A175" s="10" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.25">
       <c r="A176" s="11" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="63">
@@ -24647,17 +24645,17 @@
     </row>
     <row r="178" spans="1:1" ht="33">
       <c r="A178" s="10" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17.25">
       <c r="A179" s="11" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17.25">
       <c r="A180" s="11" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -24696,7 +24694,7 @@
     </row>
     <row r="2" spans="1:5" ht="47.25">
       <c r="A2" s="10" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25">
@@ -24706,12 +24704,12 @@
     </row>
     <row r="4" spans="1:5" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="48.75">
       <c r="A5" s="10" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5">
@@ -24721,7 +24719,7 @@
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24739,7 +24737,7 @@
     </row>
     <row r="11" spans="1:5" ht="33">
       <c r="A11" s="10" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24753,7 +24751,7 @@
     </row>
     <row r="13" spans="1:5" ht="33">
       <c r="A13" s="10" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24766,12 +24764,12 @@
     </row>
     <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="10" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -24789,7 +24787,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="10" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="31.5">
@@ -24804,7 +24802,7 @@
     </row>
     <row r="24" spans="1:1" ht="51.75">
       <c r="A24" s="10" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -24814,7 +24812,7 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -24824,7 +24822,7 @@
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="63">
@@ -24834,7 +24832,7 @@
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -24847,7 +24845,7 @@
     </row>
     <row r="33" spans="1:2" ht="78.75">
       <c r="A33" s="10" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5">
@@ -24857,7 +24855,7 @@
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="11" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24875,7 +24873,7 @@
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="47.25">
@@ -24903,23 +24901,23 @@
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" ht="81.75">
       <c r="A45" s="10" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="11" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="11" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24937,7 +24935,7 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="63">
@@ -24947,7 +24945,7 @@
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -24965,7 +24963,7 @@
     </row>
     <row r="58" spans="1:1" ht="17.25">
       <c r="A58" s="11" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="47.25">
@@ -24993,12 +24991,12 @@
     </row>
     <row r="64" spans="1:1" ht="63">
       <c r="A64" s="10" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="48.75">
       <c r="A65" s="10" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="47.25">
@@ -25008,7 +25006,7 @@
     </row>
     <row r="67" spans="1:1" ht="66">
       <c r="A67" s="10" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="63">
@@ -25018,12 +25016,12 @@
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="47.25">
@@ -25051,7 +25049,7 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -25097,7 +25095,7 @@
     </row>
     <row r="86" spans="1:2" s="1" customFormat="1" ht="67.5">
       <c r="A86" s="10" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B86" s="22"/>
     </row>
@@ -25113,7 +25111,7 @@
     </row>
     <row r="89" spans="1:2" ht="17.25">
       <c r="A89" s="30" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.5">
@@ -25123,7 +25121,7 @@
     </row>
     <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="47.25">
@@ -25164,7 +25162,7 @@
     </row>
     <row r="100" spans="1:1" ht="17.25">
       <c r="A100" s="30" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="31.5">
@@ -25174,7 +25172,7 @@
     </row>
     <row r="102" spans="1:1" ht="17.25">
       <c r="A102" s="11" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="47.25">
@@ -25192,7 +25190,7 @@
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="10" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="47.25">
@@ -25215,12 +25213,12 @@
     </row>
     <row r="111" spans="1:1" ht="67.5">
       <c r="A111" s="10" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17.25">
       <c r="A112" s="10" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="47.25">
@@ -25253,7 +25251,7 @@
     </row>
     <row r="119" spans="1:1" ht="66">
       <c r="A119" s="10" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="63">
@@ -25276,7 +25274,7 @@
     </row>
     <row r="124" spans="1:1" ht="48.75">
       <c r="A124" s="10" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -25289,7 +25287,7 @@
     </row>
     <row r="127" spans="1:1" ht="33">
       <c r="A127" s="10" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="47.25">
@@ -25307,7 +25305,7 @@
     </row>
     <row r="131" spans="1:2" ht="50.25">
       <c r="A131" s="10" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="47.25">
@@ -25363,13 +25361,13 @@
     </row>
     <row r="143" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A143" s="12" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B143" s="22"/>
     </row>
     <row r="144" spans="1:2" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="31.5">
@@ -25379,7 +25377,7 @@
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -25445,7 +25443,7 @@
     </row>
     <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="10" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -25455,7 +25453,7 @@
     </row>
     <row r="4" spans="1:2" ht="31.5">
       <c r="A4" s="10" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -25465,7 +25463,7 @@
     </row>
     <row r="6" spans="1:2" ht="47.25">
       <c r="A6" s="10" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75">
@@ -25493,12 +25491,12 @@
     </row>
     <row r="12" spans="1:2" ht="33">
       <c r="A12" s="10" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="47.25">
       <c r="A13" s="10" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -25534,7 +25532,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="12" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -25544,7 +25542,7 @@
     </row>
     <row r="23" spans="1:1" ht="33">
       <c r="A23" s="31" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -25554,7 +25552,7 @@
     </row>
     <row r="25" spans="1:1" ht="47.25">
       <c r="A25" s="31" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -25564,7 +25562,7 @@
     </row>
     <row r="27" spans="1:1" ht="48.75">
       <c r="A27" s="31" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="31.5">
@@ -25653,7 +25651,7 @@
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A46" s="10" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B46" s="22"/>
     </row>
@@ -25710,7 +25708,7 @@
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B58" s="22"/>
     </row>
@@ -25760,12 +25758,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="31.5">
@@ -25834,7 +25832,7 @@
     </row>
     <row r="85" spans="1:1" ht="47.25">
       <c r="A85" s="10" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75">
@@ -25844,7 +25842,7 @@
     </row>
     <row r="87" spans="1:1" ht="51.75">
       <c r="A87" s="10" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="31.5">
@@ -25867,7 +25865,7 @@
     </row>
     <row r="92" spans="1:1" ht="64.5">
       <c r="A92" s="10" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="78.75">
@@ -25895,7 +25893,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="11" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="31.5">
@@ -25913,7 +25911,7 @@
     </row>
     <row r="102" spans="1:1" ht="50.25">
       <c r="A102" s="10" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="31.5">
@@ -25946,7 +25944,7 @@
     </row>
     <row r="109" spans="1:1" ht="48.75">
       <c r="A109" s="10" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="47.25">
@@ -25961,12 +25959,12 @@
     </row>
     <row r="112" spans="1:1" ht="48.75">
       <c r="A112" s="10" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="48.75">
       <c r="A113" s="10" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="31.5">
@@ -26040,7 +26038,7 @@
     </row>
     <row r="129" spans="1:1" ht="17.25">
       <c r="A129" s="11" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="47.25">
@@ -26058,7 +26056,7 @@
     </row>
     <row r="133" spans="1:1" ht="51.75">
       <c r="A133" s="10" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="63">

--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -5619,21 +5619,12 @@
     <t>3.2. Информационные модели</t>
   </si>
   <si>
-    <t>Следующая диаграмма суммирует три информационных модели. Полные стрелки обозначают оформление закономерностей, полые стрелки обозначают, что наследование, “1” и “*” обозначает "один" и "много" отношения. Сингл “+” обозначает подробности последовательного упорядочения, двойной “++” обозначает подробности представления.</t>
-  </si>
-  <si>
     <t>Рисунок 3.2. Информационные модели</t>
   </si>
   <si>
     <t>3.2.1. Граф представления</t>
   </si>
   <si>
-    <t>Представление YAML родной структуры данных - внедренный, подключенный, ориентированный граф теговых узлов. "Ориентированным графом" мы подразумеваем ряд узлов и дуг (стрелки), где каждый край подключает один узел с другим (см. формальное определение). Все узлы должны быть доступными от корневого узла через такие края. Отметьте, что граф YAML может включать циклы, и у узла может быть больше чем один входящий край.</t>
-  </si>
-  <si>
-    <t>Узлы, которые определены с точки зрения других узлов, являются коллекциями; узлы, которые независимы от любых других узлов, являются скалярами. YAML поддерживает два вида узлов коллекции: последовательности и отображения. Отображающие узлы являются несколько хитрыми, потому что их клавиши незаказаны и должны быть уникальными.</t>
-  </si>
-  <si>
     <t>Рисунок 3.3. Модель представления</t>
   </si>
   <si>
@@ -5781,28 +5772,7 @@
     <t>Два узла идентичны только, когда они представляют ту же самую родную структуру данных. Как правило, это соответствует единственному адресу памяти. Тождественность не должна быть перепутана с равенством; у двух равных узлов не должно быть той же самой тождественности. Процессор YAML может обработать равные скаляры, как будто они были идентичны. Напротив, отдельная тождественность двух отличных, но равных коллекций должна быть сохранена.</t>
   </si>
   <si>
-    <t>Различные схемы ТУРОВ могут определить различные правила для того, чтобы проверить равенство URIs. Так как процессор YAML, как могут разумно ожидать, не будет знать о них всех, он должен прибегнуть к простому познаковому сравнению тэгов, чтобы гарантировать последовательность. Это также, случается, метод сравнения, определенный “тэгом:” схема ТУРОВ. Тэги в потоке YAML должны поэтому быть представлены каноническим способом так, чтобы такое сравнение привело бы к правильным результатам.</t>
-  </si>
-  <si>
-    <t>У двух узлов должны быть тот же самый тэг и информационное наполнение, чтобы быть равными. Так как каждый тэг относится точно к одному виду, это подразумевает, что у этих двух узлов должен быть тот же самый вид, чтобы быть равными. Два скаляра равны только, когда их тэги и канонические формы равны познаковый. Равенство коллекций определено рекурсивно. Две последовательности равны только, когда у них есть тот же самый тэг и длина, и каждый узел в одной последовательности равен соответствующему узлу в другой последовательности. Два отображения равны только, когда у них есть тот же самый тэг и равный набор клавиш, и каждая клавиша в этом наборе связана с равными значениями в обоих отображениях.</t>
-  </si>
-  <si>
-    <t>YAML поддерживает потребность в скалярном равенстве, требуя, чтобы каждый скалярный тэг определил механизм для того, чтобы произвести каноническую форму любого отформатированного информационного наполнения. Эта форма - строка символов Уникода, которая также представляет то же самое информационное наполнение, и может использоваться для тестирования равенства. В то время как это требование более сильно чем хорошо определенный оператор равенства, у него есть другое использование, такое как продукция цифровых подписей.</t>
-  </si>
-  <si>
-    <t>Так как отображения YAML требуют ключевой уникальности, представления должны включать механизм для того, чтобы проверить равенство узлов. Это нетривиально, так как YAML позволяет различным способам форматировать скалярное информационное наполнение. Например, целое число одиннадцать может быть написано как “0o13” (восьмеричный) или (шестнадцатеричный) “0xB”. Если бы оба примечания используются как клавиши в том же самом отображении, только процессор YAML, который распознает, целочисленные форматы правильно пометили бы клавишу дублирования как ошибку.</t>
-  </si>
-  <si>
-    <t>Тэги YAML используются, чтобы связать мета информацию с каждым узлом. В частности каждый тэг должен определить ожидаемый вид узла (скаляр, последовательность, или отображающий). Скалярные тэги должны также обеспечить механизм для того, чтобы он преобразовал отформатированное информационное наполнение в каноническую форму для того, чтобы поддержать тестирование равенства. Кроме того, тэг может предоставить дополнительную информацию, такую как набор позволенных значений информационного наполнения для проверки правильности, механизма для разрешающей способности тэга, или любых других данных, которые применимы ко всем узлам тэга.</t>
-  </si>
-  <si>
-    <t>YAML не передает под мандат специальных отношений между различными тэгами, которые начинаются с той же самой подстроки. Тэги, заканчивающиеся фрагментами ТУРОВ (содержащий “#”), не являются никаким исключением; тэги, которые совместно используют тех же самых основных ТУРОВ, но отличаются по их части фрагмента, как полагают, являются различными, независимыми тэгами. В соответствии с соглашением, фрагменты используются, чтобы идентифицировать различные "варианты" тэга, в то время как “/” используется, чтобы определить вложенные иерархии "пространства имен" тэга. Однако, это - просто соглашение, и каждый тэг может использовать свои собственные правила. Например, тэги Языка Perl могут использовать “::”, чтобы выразить иерархии пространства имен, тэги Java могут использовать “.”, и т.д.</t>
-  </si>
-  <si>
     <t>YAML представляет информацию типа родных структур данных с простым идентификатором, названным тэгом. Глобальные тэги - URIs и следовательно глобально уникальный через все приложения. “Тэг:” схема ТУРОВ рекомендуется для всех глобальных тэгов YAML. Напротив, местные тэги являются определенными для единственного приложения. Местные тэги начинаются с “!”, не URIs и, как ожидают, не будет глобально уникален. YAML обеспечивает директиву "ТЭГА", чтобы сделать примечание тэга менее подробным; это также предлагает простую миграцию от местного до глобальных тэгов. Чтобы гарантировать этому, местные тэги ограничены кодировке ТУРОВ и используют выход символа URI.</t>
-  </si>
-  <si>
-    <t>Узел YAML представляет единственную родную структуру данных. У таких узлов есть информационное наполнение одного из трех видов: скаляр, последовательность, или отображение. Кроме того, у каждого узла есть тэг, который служит, чтобы ограничить набор возможных значений, которые может иметь информационное наполнение.</t>
   </si>
   <si>
     <t>Следующие главы формально определяют синтаксис потоков символа YAML, используя параметризовавшие продукции НОРМАЛЬНОЙ ФОРМЫ БЕКУСА-НАУРА. Каждую продукцию НОРМАЛЬНОЙ ФОРМЫ БЕКУСА-НАУРА и называют и пронумерована для простой справочной информации. Когда бы ни было возможно, базовые структуры определены перед более сложными структурами, используя их "восходящим" видом.</t>
@@ -18742,9 +18712,6 @@
     <t>Конечный входной процесс создает родные структуры данных из YAML представления. Конструкция должна базироваться только на информации, доступной в представлении, а не на дополнительных сериализациях или представлениях, таких как комментарии, директивы, сопоставления ключей, стили узла, скалярный формат контента, уровни отступов и т.д. Конструкция может терпеть неудачу из-за недоступности необходимых родных типов данных.</t>
   </si>
   <si>
-    <t>Этот раздел определяет формальные подробности результатов вышеупомянутых процессов. Чтобы данные были максимально портабельны между языками программирования и реализациями, пользователи YAML должны помнить различие между свойствами сериализации или представлением свойств и теми, которые являются частью представления YAML. Таким образом, в то время как наложение заказа относительно отображения клавиш необходимых для сглаживания YAML представлений передающей среде последовательного доступа, эти детали последовательного упорядочения не должны использоваться, чтобы передать информацию прикладного уровня. Подобным способом, в то время как стандартная методика и выбор стиля узла необходимы для человеческой удобочитаемости, подробности представления ни часть последовательного упорядочения YAML, ни представление YAML. Тщательно отделяя свойства, необходимые для сериализации и представления, представления YAML информации по применению будут непротиворечивыми и переносными между различными средами программирования.</t>
-  </si>
-  <si>
     <t>Информационное наполнение узла последовательности - это набор из нуля или большего количества узлов. В частности, последовательность может содержать один и тот же узел только один раз. Последовательность может даже содержать себя (прямо или косвенно).</t>
   </si>
   <si>
@@ -18754,7 +18721,74 @@
     <t>Информационное наполнение узла отображения - неупорядоченный набор пар "ключ: значение", с ограничением, что каждый ключ уникален. YAML не устанавливает других ограничений для узлов. В частности, ключи могут быть произвольными узлами, узел может использоваться как значение нескольких пар (составной ключ), и сопоставление может даже содержать себя как ключ или значение (прямо или косвенно).</t>
   </si>
   <si>
-    <t>Когда приспособлено, удобно рассмотривать последовательности и сопоставления вместе, как коллекции. В этом виде последовательности обработаны как сопоставления с целочисленными клавишами, начинающимися в нуле. Наличие объединенного представления коллекций для последовательностей и отображений полезно и для теоретического анализа и для того, чтобы создать практические инструментальные средства YAML и API. Эта стратегия также используется языком программирования Javascript.</t>
+    <t>Этот раздел определяет формальные подробности результатов вышеупомянутых процессов. Для максимальной портабельности данных между языками программирования и реализациями, пользователи YAML должны помнить различие между свойствами сериализации или представлением свойств и теми, которые являются частью представления YAML. Таким образом, в то время как упорядочивание по ключам отображения необходимо для сглаживания YAML представлений передающей среде последовательного доступа, эти детали сериализации не должны использоваться, чтобы передать информацию прикладного уровня. Подобным способом, в то время как стандартная методика и выбор стиля узла необходимы для удобочитаемости человеком, подробности представления ни часть сериализации YAML, ни представления YAML. Тщательно отделяя свойства, необходимые для сериализации и представления, YAML предоставляет информацию, которая будет непротиворечива и портабельна между различными средами программирования.</t>
+  </si>
+  <si>
+    <t>Следующая диаграмма суммирует три информационные модели. Полные стрелки обозначают композицию, полые стрелки обозначают наследование, “1” и “*” обозначает "один" и "много" связей. Единственный “+” обозначает подробности сериализации, двойной “++” обозначает подробности представления.</t>
+  </si>
+  <si>
+    <t>Представление YAML родной структуры данных - внедренный, подключенный, ориентированный граф теговых узлов. Под "ориентированным графом" мы подразумеваем набор узлов и ребер (стрелки), где каждое ребро соединяет один узел с другим (см. формальное определение). Все узлы должны быть доступными от корневого узла через такие ребра. Отметьте, что граф YAML может включать циклы, и узел может иметь больше, чем одно входящее ребро.</t>
+  </si>
+  <si>
+    <t>Узлы, которые определены с точки зрения других узлов, являются коллекциями; узлы, которые независимы от любых других узлов, являются скалярами. YAML поддерживает два вида узлов коллекции: последовательности и сопоставления. Узлы сосоставления являются несколько сложными, потому что их ключи неупорядоченны и должны быть уникальными.</t>
+  </si>
+  <si>
+    <t>Узел YAML представляет единственную родную структуру данных. У таких узлов есть информационное наполнение одного из трех видов: скаляр, последовательность или отображение. Кроме того, каждый узел имеет тэг, который служит, для ограничения набора возможных значений, которое может иметь контент.</t>
+  </si>
+  <si>
+    <t>Соответственно, удобно рассматривать последовательности и сопоставления вместе, как коллекции. В этом виде последовательности обработаны как сопоставления с целыми ключами, начинающимися с нуля. Наличие объединенного представления коллекций для последовательностей и отображений полезно и для теоретического анализа и для того, чтобы создать практические инструментальные средства YAML и API. Эта стратегия также используется языком программирования Javascript.</t>
+  </si>
+  <si>
+    <t>YAML не передает под мандат специальных отношений между различными тэгами, которые начинаются с той же самой подстроки. Тэги, заканчивающиеся фрагментами URI (содержащий “#”), не являются никаким исключением; тэги, которые совместно используют тех же самых основных URI, но отличаются по их части фрагмента, как полагают, являются различными, независимыми тэгами. В соответствии с соглашением, фрагменты используются, чтобы идентифицировать различные "варианты" тэга, в то время как “/” используется, чтобы определить вложенные иерархии "пространства имен" тэга. Однако, это - просто соглашение, и каждый тэг может использовать свои собственные правила. Например, тэги Языка Perl могут использовать “::”, чтобы выразить иерархии пространства имен, тэги Java могут использовать “.”, и т.д.</t>
+  </si>
+  <si>
+    <t>Тэги YAML используются, чтобы связать метаинформацию с каждым узлом. В частности, каждый тэг должен определить ожидаемый вид узла (скаляр, последовательность или сопоставление). Скалярные тэги должны также обеспечить механизм для того, чтобы он преобразовал отформатированный контент в каноническую форму для поддержания тестирования равенства. Кроме того, тэг может предоставить дополнительную информацию, такую как набор разрешенных значений контента для проверки правильности, механизм для разрешающей способности тэга, или любых других данных, которые применимы ко всем узлам тэга.</t>
+  </si>
+  <si>
+    <t>Так как сопоставления YAML требуют уникальности ключей, представления должны включать механизм для того, чтобы проверить равенство узлов. Это нетривиально, так как YAML позволяет различными способами форматировать скалярное наполнение. Например, целое число одиннадцать может быть написано как “0o13” (восьмеричный) или “0xB”  (шестнадцатеричный). Если бы оба примечания использовались как ключи в одном сопоставлении, только процессор YAML, который распознает целочисленные форматы, правильно пометил бы дублированные ключи как ошибку.</t>
+  </si>
+  <si>
+    <t>YAML поддерживает потребность в скалярном равенстве, требуя, чтобы каждый скалярный тэг определил механизм для того, чтобы произвести каноническую форму любого отформатированного информационного наполнения. Эта форма - строка символов Unicode, которая также представляет то же самое информационное наполнение, и может использоваться для тестирования равенства. В то время как это требование более сильно, чем хорошо определенный оператор равенства, у него есть другое использование, такое как продукция цифровых подписей.</t>
+  </si>
+  <si>
+    <t>Два узла должны иметь одинаковые тэги и содержание, чтобы быть равными. Так как каждый тэг относится точно к одному виду, это подразумевает, что у этих двух узлов должен быть тот же самый вид, чтобы быть равными. Два скаляра равны только, когда их тэги и канонические формы равны посимвольно. Равенство коллекций определено рекурсивно. Две последовательности равны только, когда у них есть тот же самый тэг и длина, и каждый узел в одной последовательности равен соответствующему узлу в другой последовательности. Два сопоставления равны только тогда, когда у них есть тот же самый тэг и равный набор ключей, и каждый ключ в этом наборе связан с равными значениями в обоих сопоставлениях.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Различные схемы URI могут определить различные правила для проверки равенства URI. Так как процессор YAML не может </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разумно ожидать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, не будет знать о них всех, он должен прибегнуть к простому посимвольному сравнению тэгов, чтобы гарантировать последовательность. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это также, случается, метод сравнения, определенный “тэгом:” схема URI. Тэги в потоке YAML должны поэтому быть представлены каноническим способом так, чтобы такое сравнение привело бы к правильным результатам.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -20159,7 +20193,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75">
@@ -20169,7 +20203,7 @@
     </row>
     <row r="5" spans="1:2" ht="63">
       <c r="A5" s="10" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -20179,7 +20213,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20197,27 +20231,27 @@
     </row>
     <row r="11" spans="1:2" ht="50.25">
       <c r="A11" s="10" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5">
       <c r="A12" s="10" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="50.25">
       <c r="A13" s="10" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
       <c r="A14" s="10" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5">
       <c r="A15" s="10" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20227,17 +20261,17 @@
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25">
       <c r="A18" s="11" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="47.25">
@@ -20260,7 +20294,7 @@
     </row>
     <row r="24" spans="1:1" ht="48.75">
       <c r="A24" s="10" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="47.25">
@@ -20288,7 +20322,7 @@
     </row>
     <row r="30" spans="1:1" ht="31.5">
       <c r="A30" s="10" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -20306,7 +20340,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.5">
@@ -20329,7 +20363,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="31.5">
@@ -20357,7 +20391,7 @@
     </row>
     <row r="45" spans="1:1" ht="34.5">
       <c r="A45" s="10" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -20425,7 +20459,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -20435,7 +20469,7 @@
     </row>
     <row r="4" spans="1:2" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -20480,7 +20514,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="7" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20523,7 +20557,7 @@
     </row>
     <row r="22" spans="1:1" ht="17.25">
       <c r="A22" s="7" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -20576,7 +20610,7 @@
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="7" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -20589,12 +20623,12 @@
     </row>
     <row r="36" spans="1:1" ht="50.25">
       <c r="A36" s="10" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="33">
       <c r="A37" s="10" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23.25">
@@ -20604,7 +20638,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75">
@@ -20649,7 +20683,7 @@
     </row>
     <row r="48" spans="1:1" ht="50.25">
       <c r="A48" s="16" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -20659,12 +20693,12 @@
     </row>
     <row r="50" spans="1:1" ht="17.25">
       <c r="A50" s="32" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17.25">
       <c r="A51" s="7" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -20712,12 +20746,12 @@
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="33" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="7" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -20775,12 +20809,12 @@
     </row>
     <row r="74" spans="1:1" ht="34.5">
       <c r="A74" s="16" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17.25">
       <c r="A75" s="7" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -20838,12 +20872,12 @@
     </row>
     <row r="87" spans="1:1" ht="34.5">
       <c r="A87" s="16" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="7" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -20861,17 +20895,17 @@
     </row>
     <row r="92" spans="1:1" ht="50.25">
       <c r="A92" s="10" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="34.5">
       <c r="A93" s="10" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="66">
       <c r="A94" s="10" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="94.5">
@@ -20894,7 +20928,7 @@
     </row>
     <row r="99" spans="1:1" ht="47.25">
       <c r="A99" s="10" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75">
@@ -20919,17 +20953,17 @@
     </row>
     <row r="104" spans="1:1" ht="50.25">
       <c r="A104" s="10" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="34.5">
       <c r="A105" s="10" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="50.25">
       <c r="A106" s="10" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="173.25">
@@ -20952,7 +20986,7 @@
     </row>
     <row r="111" spans="1:1" ht="48.75">
       <c r="A111" s="10" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="31.5">
@@ -20967,7 +21001,7 @@
     </row>
     <row r="114" spans="1:1" ht="63">
       <c r="A114" s="10" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="63">
@@ -21005,7 +21039,7 @@
         <v>340</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="126">
@@ -21013,7 +21047,7 @@
         <v>341</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="141.75">
@@ -21021,7 +21055,7 @@
         <v>342</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="110.25">
@@ -21029,7 +21063,7 @@
         <v>343</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -21037,7 +21071,7 @@
         <v>344</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21045,7 +21079,7 @@
         <v>345</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21053,7 +21087,7 @@
         <v>346</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21061,7 +21095,7 @@
         <v>347</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21069,7 +21103,7 @@
         <v>348</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5">
@@ -21077,7 +21111,7 @@
         <v>349</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21085,7 +21119,7 @@
         <v>350</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21093,7 +21127,7 @@
         <v>351</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21101,7 +21135,7 @@
         <v>352</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25">
@@ -21109,7 +21143,7 @@
         <v>353</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="63">
@@ -21117,7 +21151,7 @@
         <v>354</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
@@ -21125,7 +21159,7 @@
         <v>355</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63">
@@ -21133,7 +21167,7 @@
         <v>356</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="110.25">
@@ -21141,7 +21175,7 @@
         <v>357</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="78.75">
@@ -21149,7 +21183,7 @@
         <v>750</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="78.75">
@@ -21157,7 +21191,7 @@
         <v>358</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="78.75">
@@ -21165,7 +21199,7 @@
         <v>359</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="126">
@@ -21173,7 +21207,7 @@
         <v>360</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="66">
@@ -21181,7 +21215,7 @@
         <v>751</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25">
@@ -21189,7 +21223,7 @@
         <v>361</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="94.5">
@@ -21197,7 +21231,7 @@
         <v>362</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="94.5">
@@ -21205,7 +21239,7 @@
         <v>363</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="63">
@@ -21213,7 +21247,7 @@
         <v>364</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="78.75">
@@ -21221,7 +21255,7 @@
         <v>365</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="126">
@@ -21229,7 +21263,7 @@
         <v>366</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23.25">
@@ -21237,7 +21271,7 @@
         <v>367</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="47.25">
@@ -21245,7 +21279,7 @@
         <v>368</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="94.5">
@@ -21253,7 +21287,7 @@
         <v>369</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="63">
@@ -21261,7 +21295,7 @@
         <v>370</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25">
@@ -21269,7 +21303,7 @@
         <v>371</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="47.25">
@@ -21277,7 +21311,7 @@
         <v>372</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -21285,7 +21319,7 @@
         <v>373</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.5">
@@ -21293,7 +21327,7 @@
         <v>752</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -21301,7 +21335,7 @@
         <v>374</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="63">
@@ -21309,7 +21343,7 @@
         <v>753</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -21317,7 +21351,7 @@
         <v>375</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5">
@@ -21325,7 +21359,7 @@
         <v>754</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="78.75">
@@ -21333,7 +21367,7 @@
         <v>376</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -21582,7 +21616,7 @@
         <v>746</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
@@ -21734,7 +21768,7 @@
         <v>749</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
@@ -21790,7 +21824,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5">
@@ -21798,7 +21832,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75">
@@ -21835,8 +21869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -21858,7 +21892,7 @@
         <v>700</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="141.75">
@@ -21901,7 +21935,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75">
@@ -21973,7 +22007,7 @@
         <v>705</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75">
@@ -22005,7 +22039,7 @@
         <v>707</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -22013,7 +22047,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="63">
@@ -22021,7 +22055,7 @@
         <v>708</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -22037,7 +22071,7 @@
         <v>709</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
@@ -22048,20 +22082,20 @@
         <v>779</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="204.75">
+    <row r="27" spans="1:2" ht="189">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>1227</v>
+      <c r="B27" s="48" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="63">
       <c r="A28" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>780</v>
+      <c r="B28" s="49" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -22069,7 +22103,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75">
@@ -22077,23 +22111,23 @@
         <v>54</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="94.5">
       <c r="A32" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>783</v>
+      <c r="B32" s="49" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="63">
       <c r="A33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>784</v>
+      <c r="B33" s="49" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -22101,7 +22135,7 @@
         <v>56</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -22109,15 +22143,15 @@
         <v>57</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="63">
       <c r="A37" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>841</v>
+      <c r="B37" s="49" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -22125,7 +22159,7 @@
         <v>58</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="31.5">
@@ -22133,7 +22167,7 @@
         <v>713</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -22141,7 +22175,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="47.25">
@@ -22149,7 +22183,7 @@
         <v>714</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -22157,7 +22191,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="78.75">
@@ -22165,15 +22199,15 @@
         <v>715</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="94.5">
       <c r="A44" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>1231</v>
+      <c r="B44" s="49" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -22181,7 +22215,7 @@
         <v>61</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="126">
@@ -22189,7 +22223,7 @@
         <v>717</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="157.5">
@@ -22197,15 +22231,15 @@
         <v>718</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>839</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="126">
       <c r="A48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>838</v>
+      <c r="B48" s="49" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22213,15 +22247,15 @@
         <v>63</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="110.25">
       <c r="A50" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B50" s="36" t="s">
-        <v>837</v>
+      <c r="B50" s="49" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22229,7 +22263,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="110.25">
@@ -22237,7 +22271,7 @@
         <v>720</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>836</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22245,23 +22279,23 @@
         <v>65</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="141.75">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="126">
       <c r="A54" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>835</v>
+      <c r="B54" s="49" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="94.5">
       <c r="A55" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>834</v>
+      <c r="B55" s="49" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22269,15 +22303,15 @@
         <v>66</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="78.75">
       <c r="A57" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>833</v>
+      <c r="B57" s="49" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75">
@@ -22285,7 +22319,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="126">
@@ -22293,7 +22327,7 @@
         <v>724</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22301,7 +22335,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -22314,7 +22348,7 @@
         <v>725</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -22322,7 +22356,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="173.25">
@@ -22330,7 +22364,7 @@
         <v>726</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75">
@@ -22338,7 +22372,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="141.75">
@@ -22346,7 +22380,7 @@
         <v>727</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -22354,7 +22388,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -22362,7 +22396,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="63">
@@ -22370,7 +22404,7 @@
         <v>728</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="63">
@@ -22378,7 +22412,7 @@
         <v>729</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="94.5">
@@ -22386,7 +22420,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -22394,7 +22428,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -22405,7 +22439,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="94.5">
@@ -22413,7 +22447,7 @@
         <v>730</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -22421,7 +22455,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="94.5">
@@ -22429,7 +22463,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -22437,7 +22471,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="80.25">
@@ -22445,7 +22479,7 @@
         <v>731</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="23.25">
@@ -22453,7 +22487,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="78.75">
@@ -22461,7 +22495,7 @@
         <v>732</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="110.25">
@@ -22469,7 +22503,7 @@
         <v>733</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -22477,7 +22511,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18.75">
@@ -22485,7 +22519,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="110.25">
@@ -22493,7 +22527,7 @@
         <v>734</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18.75">
@@ -22507,7 +22541,7 @@
         <v>735</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="78.75">
@@ -22515,7 +22549,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="110.25">
@@ -22523,7 +22557,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="94.5">
@@ -22531,7 +22565,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="94.5">
@@ -22539,7 +22573,7 @@
         <v>736</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="126">
@@ -22547,7 +22581,7 @@
         <v>737</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="47.25">
@@ -22555,7 +22589,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="47.25">
@@ -22563,7 +22597,7 @@
         <v>738</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75">
@@ -22571,7 +22605,7 @@
         <v>88</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="126">
@@ -22579,7 +22613,7 @@
         <v>739</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18.75">
@@ -22587,7 +22621,7 @@
         <v>89</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="78.75">
@@ -22595,7 +22629,7 @@
         <v>740</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -22629,7 +22663,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="78.75">
@@ -22637,7 +22671,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25">
@@ -22645,7 +22679,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="47.25">
@@ -22653,7 +22687,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -22661,7 +22695,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="47.25">
@@ -22669,7 +22703,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="63">
@@ -22677,7 +22711,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -22685,15 +22719,15 @@
         <v>99</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="14" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="47.25">
@@ -22701,47 +22735,47 @@
         <v>100</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="14" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5">
       <c r="A13" s="16" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="64.5">
       <c r="A14" s="16" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
       <c r="A15" s="16" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="14" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
@@ -22749,7 +22783,7 @@
         <v>101</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
@@ -22757,7 +22791,7 @@
         <v>102</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
@@ -22765,15 +22799,15 @@
         <v>103</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="41" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
@@ -22781,15 +22815,15 @@
         <v>104</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="41" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
@@ -22797,15 +22831,15 @@
         <v>105</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="41" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
@@ -22813,15 +22847,15 @@
         <v>106</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="41" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
@@ -22829,15 +22863,15 @@
         <v>107</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="41" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
@@ -22845,15 +22879,15 @@
         <v>108</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="41" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
@@ -22861,15 +22895,15 @@
         <v>109</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
       <c r="A32" s="41" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
@@ -22877,39 +22911,39 @@
         <v>110</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="41" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="33">
       <c r="A35" s="16" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="41" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="33">
       <c r="A37" s="16" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -22944,7 +22978,7 @@
     </row>
     <row r="3" spans="1:2" ht="67.5">
       <c r="A3" s="10" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -22969,7 +23003,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.25">
@@ -22979,7 +23013,7 @@
     </row>
     <row r="10" spans="1:2" ht="48.75">
       <c r="A10" s="10" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -22994,7 +23028,7 @@
     </row>
     <row r="13" spans="1:2" ht="48.75">
       <c r="A13" s="10" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -23029,12 +23063,12 @@
     </row>
     <row r="20" spans="1:1" ht="17.25">
       <c r="A20" s="11" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25">
       <c r="A21" s="11" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -23060,37 +23094,37 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="30" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25">
       <c r="A29" s="11" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.25">
       <c r="A31" s="11" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17.25">
       <c r="A32" s="11" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="11" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -23103,52 +23137,52 @@
     </row>
     <row r="36" spans="1:1" ht="17.25">
       <c r="A36" s="11" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17.25">
       <c r="A37" s="11" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17.25">
       <c r="A41" s="11" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25">
       <c r="A43" s="11" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25">
       <c r="A44" s="11" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17.25">
       <c r="A45" s="11" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -23161,12 +23195,12 @@
     </row>
     <row r="48" spans="1:1" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25">
       <c r="A49" s="11" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -23179,32 +23213,32 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17.25">
       <c r="A53" s="11" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25">
       <c r="A55" s="11" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17.25">
       <c r="A56" s="11" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="48.75">
       <c r="A57" s="10" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -23217,22 +23251,22 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="11" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17.25">
       <c r="A63" s="11" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -23245,22 +23279,22 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17.25">
       <c r="A67" s="11" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17.25">
       <c r="A68" s="11" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -23273,12 +23307,12 @@
     </row>
     <row r="72" spans="1:1" ht="17.25">
       <c r="A72" s="11" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17.25">
       <c r="A73" s="11" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -23291,12 +23325,12 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.25">
       <c r="A77" s="11" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -23319,12 +23353,12 @@
     </row>
     <row r="82" spans="1:1" ht="48.75">
       <c r="A82" s="10" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17.25">
       <c r="A83" s="11" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="23.25">
@@ -23334,27 +23368,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="11" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="11" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="51.75">
       <c r="A89" s="10" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="78.75">
@@ -23364,7 +23398,7 @@
     </row>
     <row r="91" spans="1:1" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -23379,12 +23413,12 @@
     </row>
     <row r="94" spans="1:1" ht="47.25">
       <c r="A94" s="10" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17.25">
       <c r="A95" s="11" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -23394,7 +23428,7 @@
     </row>
     <row r="97" spans="1:1" ht="17.25">
       <c r="A97" s="11" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="31.5">
@@ -23404,7 +23438,7 @@
     </row>
     <row r="99" spans="1:1" ht="17.25">
       <c r="A99" s="10" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -23422,22 +23456,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="11" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.25">
       <c r="A104" s="11" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.25">
       <c r="A105" s="11" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="11" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -23447,12 +23481,12 @@
     </row>
     <row r="108" spans="1:1" ht="17.25">
       <c r="A108" s="11" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="34.5">
       <c r="A109" s="10" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -23475,12 +23509,12 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="11" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -23500,7 +23534,7 @@
     </row>
     <row r="119" spans="1:1" ht="17.25">
       <c r="A119" s="11" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -23510,17 +23544,17 @@
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="33">
       <c r="A122" s="16" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="64.5">
       <c r="A123" s="16" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="47.25">
@@ -23530,12 +23564,12 @@
     </row>
     <row r="125" spans="1:1" ht="50.25">
       <c r="A125" s="10" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.25">
       <c r="A126" s="11" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="23.25">
@@ -23545,17 +23579,17 @@
     </row>
     <row r="128" spans="1:1" ht="64.5">
       <c r="A128" s="10" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="33">
       <c r="A129" s="10" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.25">
       <c r="A130" s="11" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -23565,172 +23599,172 @@
     </row>
     <row r="132" spans="1:1" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17.25">
       <c r="A133" s="11" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17.25">
       <c r="A134" s="11" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17.25">
       <c r="A136" s="11" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17.25">
       <c r="A137" s="11" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17.25">
       <c r="A138" s="11" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="33">
       <c r="A139" s="10" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17.25">
       <c r="A141" s="11" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17.25">
       <c r="A142" s="11" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17.25">
       <c r="A143" s="11" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17.25">
       <c r="A145" s="11" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17.25">
       <c r="A147" s="11" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17.25">
       <c r="A148" s="11" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17.25">
       <c r="A149" s="11" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17.25">
       <c r="A150" s="11" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="33">
       <c r="A151" s="10" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17.25">
       <c r="A152" s="11" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17.25">
       <c r="A154" s="11" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17.25">
       <c r="A155" s="11" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17.25">
       <c r="A156" s="11" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17.25">
       <c r="A157" s="11" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17.25">
       <c r="A158" s="11" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.25">
       <c r="A159" s="11" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17.25">
       <c r="A160" s="11" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17.25">
       <c r="A161" s="11" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17.25">
       <c r="A163" s="11" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17.25">
       <c r="A164" s="11" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17.25">
       <c r="A165" s="11" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="31.5">
@@ -23821,7 +23855,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25">
@@ -23836,22 +23870,22 @@
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="11" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33">
       <c r="A7" s="10" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="11" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5">
@@ -23869,7 +23903,7 @@
     </row>
     <row r="13" spans="1:2" ht="33">
       <c r="A13" s="10" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -23887,7 +23921,7 @@
     </row>
     <row r="17" spans="1:1" ht="31.5">
       <c r="A17" s="10" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -23897,7 +23931,7 @@
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -23915,7 +23949,7 @@
     </row>
     <row r="23" spans="1:1" ht="47.25">
       <c r="A23" s="10" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -23930,12 +23964,12 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25">
       <c r="A27" s="11" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -23953,7 +23987,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="11" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="31.5">
@@ -23981,23 +24015,23 @@
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A37" s="12" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="10" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24007,7 +24041,7 @@
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24035,7 +24069,7 @@
     </row>
     <row r="48" spans="1:2" ht="31.5">
       <c r="A48" s="16" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24058,7 +24092,7 @@
     </row>
     <row r="53" spans="1:1" ht="47.25">
       <c r="A53" s="16" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="31.5">
@@ -24081,7 +24115,7 @@
     </row>
     <row r="58" spans="1:1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="63">
@@ -24091,12 +24125,12 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="31.5">
@@ -24119,7 +24153,7 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -24188,7 +24222,7 @@
     </row>
     <row r="81" spans="1:1" ht="50.25">
       <c r="A81" s="12" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -24203,7 +24237,7 @@
     </row>
     <row r="84" spans="1:1" ht="48.75">
       <c r="A84" s="10" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="31.5">
@@ -24213,12 +24247,12 @@
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -24231,22 +24265,22 @@
     </row>
     <row r="90" spans="1:1" ht="20.25">
       <c r="A90" s="18" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="34.5">
       <c r="A91" s="10" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="102">
       <c r="A92" s="10" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="80.25">
       <c r="A93" s="10" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="31.5">
@@ -24261,7 +24295,7 @@
     </row>
     <row r="96" spans="1:1" ht="17.25">
       <c r="A96" s="7" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24269,7 +24303,7 @@
     </row>
     <row r="98" spans="1:2" ht="33">
       <c r="A98" s="10" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24282,12 +24316,12 @@
     </row>
     <row r="101" spans="1:2" ht="20.25">
       <c r="A101" s="18" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A102" s="10" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B102" s="22"/>
     </row>
@@ -24298,7 +24332,7 @@
     </row>
     <row r="104" spans="1:2" ht="17.25">
       <c r="A104" s="7" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -24306,7 +24340,7 @@
     </row>
     <row r="106" spans="1:2" ht="33">
       <c r="A106" s="10" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -24324,7 +24358,7 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A110" s="10" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B110" s="22"/>
     </row>
@@ -24340,17 +24374,17 @@
     </row>
     <row r="113" spans="1:1" ht="50.25">
       <c r="A113" s="16" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="50.25">
       <c r="A114" s="16" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -24368,17 +24402,17 @@
     </row>
     <row r="119" spans="1:1" ht="50.25">
       <c r="A119" s="16" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="33">
       <c r="A120" s="16" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -24396,7 +24430,7 @@
     </row>
     <row r="125" spans="1:1" ht="34.5">
       <c r="A125" s="16" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="31.5">
@@ -24406,7 +24440,7 @@
     </row>
     <row r="127" spans="1:1" ht="17.25">
       <c r="A127" s="11" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -24424,12 +24458,12 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="11" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -24439,12 +24473,12 @@
     </row>
     <row r="134" spans="1:2" ht="48.75">
       <c r="A134" s="16" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -24462,12 +24496,12 @@
     </row>
     <row r="139" spans="1:2" ht="64.5">
       <c r="A139" s="16" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -24485,7 +24519,7 @@
     </row>
     <row r="144" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A144" s="10" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B144" s="22"/>
     </row>
@@ -24509,7 +24543,7 @@
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A149" s="10" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B149" s="22"/>
     </row>
@@ -24525,12 +24559,12 @@
     </row>
     <row r="152" spans="1:2" ht="66">
       <c r="A152" s="10" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -24556,7 +24590,7 @@
     </row>
     <row r="159" spans="1:2" ht="66">
       <c r="A159" s="16" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="31.5">
@@ -24566,12 +24600,12 @@
     </row>
     <row r="161" spans="1:1" ht="83.25">
       <c r="A161" s="16" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -24597,22 +24631,22 @@
     </row>
     <row r="168" spans="1:1" ht="48.75">
       <c r="A168" s="16" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="51.75">
       <c r="A169" s="16" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17.25">
       <c r="A170" s="16" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17.25">
       <c r="A171" s="11" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -24630,12 +24664,12 @@
     </row>
     <row r="175" spans="1:1" ht="48.75">
       <c r="A175" s="10" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.25">
       <c r="A176" s="11" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="63">
@@ -24645,17 +24679,17 @@
     </row>
     <row r="178" spans="1:1" ht="33">
       <c r="A178" s="10" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17.25">
       <c r="A179" s="11" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17.25">
       <c r="A180" s="11" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -24694,7 +24728,7 @@
     </row>
     <row r="2" spans="1:5" ht="47.25">
       <c r="A2" s="10" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25">
@@ -24704,12 +24738,12 @@
     </row>
     <row r="4" spans="1:5" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="48.75">
       <c r="A5" s="10" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5">
@@ -24719,7 +24753,7 @@
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24737,7 +24771,7 @@
     </row>
     <row r="11" spans="1:5" ht="33">
       <c r="A11" s="10" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24751,7 +24785,7 @@
     </row>
     <row r="13" spans="1:5" ht="33">
       <c r="A13" s="10" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24764,12 +24798,12 @@
     </row>
     <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="10" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -24787,7 +24821,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="10" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="31.5">
@@ -24802,7 +24836,7 @@
     </row>
     <row r="24" spans="1:1" ht="51.75">
       <c r="A24" s="10" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -24812,7 +24846,7 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -24822,7 +24856,7 @@
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="63">
@@ -24832,7 +24866,7 @@
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -24845,7 +24879,7 @@
     </row>
     <row r="33" spans="1:2" ht="78.75">
       <c r="A33" s="10" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5">
@@ -24855,7 +24889,7 @@
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="11" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24873,7 +24907,7 @@
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="47.25">
@@ -24901,23 +24935,23 @@
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" ht="81.75">
       <c r="A45" s="10" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="11" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="11" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24935,7 +24969,7 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="63">
@@ -24945,7 +24979,7 @@
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -24963,7 +24997,7 @@
     </row>
     <row r="58" spans="1:1" ht="17.25">
       <c r="A58" s="11" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="47.25">
@@ -24991,12 +25025,12 @@
     </row>
     <row r="64" spans="1:1" ht="63">
       <c r="A64" s="10" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="48.75">
       <c r="A65" s="10" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="47.25">
@@ -25006,7 +25040,7 @@
     </row>
     <row r="67" spans="1:1" ht="66">
       <c r="A67" s="10" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="63">
@@ -25016,12 +25050,12 @@
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="47.25">
@@ -25049,7 +25083,7 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -25095,7 +25129,7 @@
     </row>
     <row r="86" spans="1:2" s="1" customFormat="1" ht="67.5">
       <c r="A86" s="10" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="B86" s="22"/>
     </row>
@@ -25111,7 +25145,7 @@
     </row>
     <row r="89" spans="1:2" ht="17.25">
       <c r="A89" s="30" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.5">
@@ -25121,7 +25155,7 @@
     </row>
     <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="47.25">
@@ -25162,7 +25196,7 @@
     </row>
     <row r="100" spans="1:1" ht="17.25">
       <c r="A100" s="30" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="31.5">
@@ -25172,7 +25206,7 @@
     </row>
     <row r="102" spans="1:1" ht="17.25">
       <c r="A102" s="11" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="47.25">
@@ -25190,7 +25224,7 @@
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="10" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="47.25">
@@ -25213,12 +25247,12 @@
     </row>
     <row r="111" spans="1:1" ht="67.5">
       <c r="A111" s="10" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17.25">
       <c r="A112" s="10" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="47.25">
@@ -25251,7 +25285,7 @@
     </row>
     <row r="119" spans="1:1" ht="66">
       <c r="A119" s="10" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="63">
@@ -25274,7 +25308,7 @@
     </row>
     <row r="124" spans="1:1" ht="48.75">
       <c r="A124" s="10" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -25287,7 +25321,7 @@
     </row>
     <row r="127" spans="1:1" ht="33">
       <c r="A127" s="10" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="47.25">
@@ -25305,7 +25339,7 @@
     </row>
     <row r="131" spans="1:2" ht="50.25">
       <c r="A131" s="10" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="47.25">
@@ -25361,13 +25395,13 @@
     </row>
     <row r="143" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A143" s="12" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B143" s="22"/>
     </row>
     <row r="144" spans="1:2" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="31.5">
@@ -25377,7 +25411,7 @@
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -25443,7 +25477,7 @@
     </row>
     <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="10" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -25453,7 +25487,7 @@
     </row>
     <row r="4" spans="1:2" ht="31.5">
       <c r="A4" s="10" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -25463,7 +25497,7 @@
     </row>
     <row r="6" spans="1:2" ht="47.25">
       <c r="A6" s="10" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75">
@@ -25491,12 +25525,12 @@
     </row>
     <row r="12" spans="1:2" ht="33">
       <c r="A12" s="10" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="47.25">
       <c r="A13" s="10" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -25532,7 +25566,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="12" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -25542,7 +25576,7 @@
     </row>
     <row r="23" spans="1:1" ht="33">
       <c r="A23" s="31" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -25552,7 +25586,7 @@
     </row>
     <row r="25" spans="1:1" ht="47.25">
       <c r="A25" s="31" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -25562,7 +25596,7 @@
     </row>
     <row r="27" spans="1:1" ht="48.75">
       <c r="A27" s="31" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="31.5">
@@ -25651,7 +25685,7 @@
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A46" s="10" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="B46" s="22"/>
     </row>
@@ -25708,7 +25742,7 @@
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="B58" s="22"/>
     </row>
@@ -25758,12 +25792,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="31.5">
@@ -25832,7 +25866,7 @@
     </row>
     <row r="85" spans="1:1" ht="47.25">
       <c r="A85" s="10" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75">
@@ -25842,7 +25876,7 @@
     </row>
     <row r="87" spans="1:1" ht="51.75">
       <c r="A87" s="10" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="31.5">
@@ -25865,7 +25899,7 @@
     </row>
     <row r="92" spans="1:1" ht="64.5">
       <c r="A92" s="10" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="78.75">
@@ -25893,7 +25927,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="11" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="31.5">
@@ -25911,7 +25945,7 @@
     </row>
     <row r="102" spans="1:1" ht="50.25">
       <c r="A102" s="10" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="31.5">
@@ -25944,7 +25978,7 @@
     </row>
     <row r="109" spans="1:1" ht="48.75">
       <c r="A109" s="10" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="47.25">
@@ -25959,12 +25993,12 @@
     </row>
     <row r="112" spans="1:1" ht="48.75">
       <c r="A112" s="10" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="48.75">
       <c r="A113" s="10" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="31.5">
@@ -26038,7 +26072,7 @@
     </row>
     <row r="129" spans="1:1" ht="17.25">
       <c r="A129" s="11" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="47.25">
@@ -26056,7 +26090,7 @@
     </row>
     <row r="133" spans="1:1" ht="51.75">
       <c r="A133" s="10" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="63">

--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="10005" tabRatio="721" activeTab="3"/>
@@ -5760,15 +5760,6 @@
     <t>Представление YAML - поток символов Unicode, использующих стилей, скалярных форматов информационного наполнения, комментариев, директив и других подробностей представления, чтобы представить последовательное упорядочение YAML человеческим читаемым способом. Хотя процессор YAML может обеспечить их подробности, анализируя, они не должны быть отражены в получающемся последовательном упорядочении. YAML позволяет нескольким деревьям последовательного упорядочения содержаться в том же самом потоке символа YAML, как прогрессия документов, отделенных маркерами. Документы, появляющиеся в том же самом потоке, независимы; то есть, узел не должен появиться в больше чем одном дереве последовательного упорядочения или графе представления.</t>
   </si>
   <si>
-    <t>В графе представления узел может появиться в больше чем одной коллекции. Преобразовывая такие данные в последовательный режим, первое вхождение узла идентифицировано привязкой. Каждое последующее вхождение преобразовано в последовательный режим как узел псевдонима, который вернулся к этой привязке. Иначе, прикрепитесь, названия - детали последовательного упорядочения и отказаны, как только создание закончено. Составляя граф представления из преобразованных в последовательный режим событий, узел псевдонима обращается к новому узлу в последовательном упорядочении, имеющем указанную привязку. Поэтому, привязки не должны быть уникальными в пределах последовательного упорядочения. Кроме того, у привязки не должно быть узла псевдонима, обращающегося к этому. Это поэтому возможно, чтобы обеспечить привязку для всех узлов в последовательном упорядочении.</t>
-  </si>
-  <si>
-    <t>В модели представления у отображающих клавиш нет заказа. Чтобы преобразовать отображение в последовательный режим, необходимо наложить упорядочение на свои клавиши. Этот заказ - детали последовательного упорядочения и не должен использоваться, составляя граф представления (и следовательно для сохранения данных прикладной программы). В каждом случае, где заказ узла существенен, должна использоваться последовательность. Например, заказанное отображение может быть представлено как последовательность отображений, где каждое отображение - единственная клавиша: пара значения. YAML обеспечивает удобное компактное примечание для этого случая.</t>
-  </si>
-  <si>
-    <t>Чтобы выразить представление YAML, используя последовательный API, необходимо наложить заказ относительно отображения клавиш и использовать узлы псевдонима, чтобы указать последующее вхождение узла, с которым ранее сталкиваются. Результат этого процесса - дерево последовательного упорядочения, где у каждого узла есть заказанный набор дочерних записей. Это дерево может быть пересечено для последовательного основанного на случае API. Конструкция родных структур данных от последовательного интерфейса не должна использовать ключевой заказ или названия привязки для сохранения данных прикладной программы.</t>
-  </si>
-  <si>
     <t>Два узла идентичны только, когда они представляют ту же самую родную структуру данных. Как правило, это соответствует единственному адресу памяти. Тождественность не должна быть перепутана с равенством; у двух равных узлов не должно быть той же самой тождественности. Процессор YAML может обработать равные скаляры, как будто они были идентичны. Напротив, отдельная тождественность двух отличных, но равных коллекций должна быть сохранена.</t>
   </si>
   <si>
@@ -18789,6 +18780,38 @@
       </rPr>
       <t>Это также, случается, метод сравнения, определенный “тэгом:” схема URI. Тэги в потоке YAML должны поэтому быть представлены каноническим способом так, чтобы такое сравнение привело бы к правильным результатам.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Для выражения представления YAML используется последовательный API, необходимо упорядочить ключи соотношения и использовать псевдонимы узлов, чтобы указать последующее вхождение узла, с которым ранее сталкиваются. Результат этого процесса - дерево сериализации, где каждый узел имеет упорядоченный набор дочерних узлов. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это дерево может быть пересечено для последовательного основанного на событиях API.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Конструкция родных структур данных от последовательного интерфейса не должна использовать упорядоченные ключи или названия якорей для сохранения данных прикладной программы.</t>
+    </r>
+  </si>
+  <si>
+    <t>В модели представления ключи соотношения не имеют порядка. Для сериализации соотношения, необходимо упорядочить ключи. Этот порядок - детали сериализации и он не должен использоваться, когда составляется граф представления (и следовательно для сохранения данных прикладной программы). В каждом случае, где порядок узла важен, должна быть использована последовательность. Например, упорядоченное соотношение может быть представлено как последовательность соотношений, где каждое соотношение - единственный ключ: значение пара. YAML обеспечивает удобную компактную запись для этого случая.</t>
+  </si>
+  <si>
+    <t>В графе представления узел может появиться больше, чем в одной коллекции. Когда сериализуются такие данные, первое вхождение узла идентифицируется якорем. Каждое последующее вхождение сериализуется как узел псевдонима, который ссылается на якорь. Иначе, прикрепитесь, названия - детали последовательного упорядочения и отказаны, как только создание закончено. Составляя граф представления из преобразованных в последовательный режим событий, узел псевдонима обращается к новому узлу в последовательном упорядочении, имеющем указанную привязку. Поэтому, привязки не должны быть уникальными в пределах последовательного упорядочения. Кроме того, у привязки не должно быть узла псевдонима, обращающегося к этому. Это поэтому возможно, чтобы обеспечить привязку для всех узлов в последовательном упорядочении.</t>
   </si>
 </sst>
 </file>
@@ -20193,7 +20216,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75">
@@ -20203,7 +20226,7 @@
     </row>
     <row r="5" spans="1:2" ht="63">
       <c r="A5" s="10" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -20213,7 +20236,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20231,27 +20254,27 @@
     </row>
     <row r="11" spans="1:2" ht="50.25">
       <c r="A11" s="10" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5">
       <c r="A12" s="10" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="50.25">
       <c r="A13" s="10" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
       <c r="A14" s="10" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5">
       <c r="A15" s="10" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20261,17 +20284,17 @@
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25">
       <c r="A18" s="11" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="47.25">
@@ -20294,7 +20317,7 @@
     </row>
     <row r="24" spans="1:1" ht="48.75">
       <c r="A24" s="10" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="47.25">
@@ -20322,7 +20345,7 @@
     </row>
     <row r="30" spans="1:1" ht="31.5">
       <c r="A30" s="10" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -20340,7 +20363,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.5">
@@ -20363,7 +20386,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="31.5">
@@ -20391,7 +20414,7 @@
     </row>
     <row r="45" spans="1:1" ht="34.5">
       <c r="A45" s="10" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -20459,7 +20482,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -20469,7 +20492,7 @@
     </row>
     <row r="4" spans="1:2" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -20514,7 +20537,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20557,7 +20580,7 @@
     </row>
     <row r="22" spans="1:1" ht="17.25">
       <c r="A22" s="7" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -20610,7 +20633,7 @@
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="7" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -20623,12 +20646,12 @@
     </row>
     <row r="36" spans="1:1" ht="50.25">
       <c r="A36" s="10" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="33">
       <c r="A37" s="10" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23.25">
@@ -20638,7 +20661,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75">
@@ -20683,7 +20706,7 @@
     </row>
     <row r="48" spans="1:1" ht="50.25">
       <c r="A48" s="16" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -20693,12 +20716,12 @@
     </row>
     <row r="50" spans="1:1" ht="17.25">
       <c r="A50" s="32" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17.25">
       <c r="A51" s="7" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -20746,12 +20769,12 @@
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="33" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -20809,12 +20832,12 @@
     </row>
     <row r="74" spans="1:1" ht="34.5">
       <c r="A74" s="16" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17.25">
       <c r="A75" s="7" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -20872,12 +20895,12 @@
     </row>
     <row r="87" spans="1:1" ht="34.5">
       <c r="A87" s="16" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="7" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -20895,17 +20918,17 @@
     </row>
     <row r="92" spans="1:1" ht="50.25">
       <c r="A92" s="10" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="34.5">
       <c r="A93" s="10" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="66">
       <c r="A94" s="10" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="94.5">
@@ -20928,7 +20951,7 @@
     </row>
     <row r="99" spans="1:1" ht="47.25">
       <c r="A99" s="10" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75">
@@ -20953,17 +20976,17 @@
     </row>
     <row r="104" spans="1:1" ht="50.25">
       <c r="A104" s="10" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="34.5">
       <c r="A105" s="10" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="50.25">
       <c r="A106" s="10" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="173.25">
@@ -20986,7 +21009,7 @@
     </row>
     <row r="111" spans="1:1" ht="48.75">
       <c r="A111" s="10" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="31.5">
@@ -21001,7 +21024,7 @@
     </row>
     <row r="114" spans="1:1" ht="63">
       <c r="A114" s="10" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="63">
@@ -21039,7 +21062,7 @@
         <v>340</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="126">
@@ -21047,7 +21070,7 @@
         <v>341</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="141.75">
@@ -21055,7 +21078,7 @@
         <v>342</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="110.25">
@@ -21063,7 +21086,7 @@
         <v>343</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -21071,7 +21094,7 @@
         <v>344</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21079,7 +21102,7 @@
         <v>345</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21087,7 +21110,7 @@
         <v>346</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21095,7 +21118,7 @@
         <v>347</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21103,7 +21126,7 @@
         <v>348</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5">
@@ -21111,7 +21134,7 @@
         <v>349</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21119,7 +21142,7 @@
         <v>350</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21127,7 +21150,7 @@
         <v>351</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21135,7 +21158,7 @@
         <v>352</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25">
@@ -21143,7 +21166,7 @@
         <v>353</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="63">
@@ -21151,7 +21174,7 @@
         <v>354</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
@@ -21159,7 +21182,7 @@
         <v>355</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63">
@@ -21167,7 +21190,7 @@
         <v>356</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="110.25">
@@ -21175,7 +21198,7 @@
         <v>357</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="78.75">
@@ -21183,7 +21206,7 @@
         <v>750</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="78.75">
@@ -21191,7 +21214,7 @@
         <v>358</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="78.75">
@@ -21199,7 +21222,7 @@
         <v>359</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="126">
@@ -21207,7 +21230,7 @@
         <v>360</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="66">
@@ -21215,7 +21238,7 @@
         <v>751</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25">
@@ -21223,7 +21246,7 @@
         <v>361</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="94.5">
@@ -21231,7 +21254,7 @@
         <v>362</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="94.5">
@@ -21239,7 +21262,7 @@
         <v>363</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="63">
@@ -21247,7 +21270,7 @@
         <v>364</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="78.75">
@@ -21255,7 +21278,7 @@
         <v>365</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="126">
@@ -21263,7 +21286,7 @@
         <v>366</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23.25">
@@ -21271,7 +21294,7 @@
         <v>367</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="47.25">
@@ -21279,7 +21302,7 @@
         <v>368</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="94.5">
@@ -21287,7 +21310,7 @@
         <v>369</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="63">
@@ -21295,7 +21318,7 @@
         <v>370</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25">
@@ -21303,7 +21326,7 @@
         <v>371</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="47.25">
@@ -21311,7 +21334,7 @@
         <v>372</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -21319,7 +21342,7 @@
         <v>373</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.5">
@@ -21327,7 +21350,7 @@
         <v>752</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -21335,7 +21358,7 @@
         <v>374</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="63">
@@ -21343,7 +21366,7 @@
         <v>753</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -21351,7 +21374,7 @@
         <v>375</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5">
@@ -21359,7 +21382,7 @@
         <v>754</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="78.75">
@@ -21367,7 +21390,7 @@
         <v>376</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -21616,7 +21639,7 @@
         <v>746</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
@@ -21768,7 +21791,7 @@
         <v>749</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
@@ -21824,7 +21847,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5">
@@ -21832,7 +21855,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75">
@@ -21869,14 +21892,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -21892,7 +21915,7 @@
         <v>700</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="141.75">
@@ -21935,7 +21958,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75">
@@ -22007,7 +22030,7 @@
         <v>705</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75">
@@ -22039,7 +22062,7 @@
         <v>707</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -22047,7 +22070,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="63">
@@ -22055,7 +22078,7 @@
         <v>708</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -22071,7 +22094,7 @@
         <v>709</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
@@ -22087,7 +22110,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="63">
@@ -22095,7 +22118,7 @@
         <v>710</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -22119,7 +22142,7 @@
         <v>711</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="63">
@@ -22127,7 +22150,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -22151,7 +22174,7 @@
         <v>712</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -22167,7 +22190,7 @@
         <v>713</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -22183,7 +22206,7 @@
         <v>714</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -22199,7 +22222,7 @@
         <v>715</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="94.5">
@@ -22207,7 +22230,7 @@
         <v>716</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -22223,7 +22246,7 @@
         <v>717</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="157.5">
@@ -22231,7 +22254,7 @@
         <v>718</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="126">
@@ -22239,7 +22262,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22255,7 +22278,7 @@
         <v>719</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22271,7 +22294,7 @@
         <v>720</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22287,7 +22310,7 @@
         <v>721</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="94.5">
@@ -22295,7 +22318,7 @@
         <v>722</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22311,7 +22334,7 @@
         <v>723</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75">
@@ -22322,12 +22345,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="126">
+    <row r="59" spans="1:2" ht="141.75">
       <c r="A59" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>829</v>
+      <c r="B59" s="49" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22343,12 +22366,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="126">
+    <row r="63" spans="1:2" ht="141.75">
       <c r="A63" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>828</v>
+      <c r="B63" s="49" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -22359,12 +22382,12 @@
         <v>794</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="173.25">
+    <row r="65" spans="1:2" ht="189">
       <c r="A65" s="10" t="s">
         <v>726</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>827</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75">
@@ -22663,7 +22686,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="78.75">
@@ -22671,7 +22694,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25">
@@ -22679,7 +22702,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="47.25">
@@ -22687,7 +22710,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -22695,7 +22718,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="47.25">
@@ -22703,7 +22726,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="63">
@@ -22711,7 +22734,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -22719,15 +22742,15 @@
         <v>99</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="14" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="47.25">
@@ -22735,47 +22758,47 @@
         <v>100</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="14" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5">
       <c r="A13" s="16" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="64.5">
       <c r="A14" s="16" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
       <c r="A15" s="16" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="14" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
@@ -22783,7 +22806,7 @@
         <v>101</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
@@ -22791,7 +22814,7 @@
         <v>102</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
@@ -22799,15 +22822,15 @@
         <v>103</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="41" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
@@ -22815,15 +22838,15 @@
         <v>104</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="41" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
@@ -22831,15 +22854,15 @@
         <v>105</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="41" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
@@ -22847,15 +22870,15 @@
         <v>106</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="41" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
@@ -22863,15 +22886,15 @@
         <v>107</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="41" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
@@ -22879,15 +22902,15 @@
         <v>108</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="41" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
@@ -22895,15 +22918,15 @@
         <v>109</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
       <c r="A32" s="41" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
@@ -22911,39 +22934,39 @@
         <v>110</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="41" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="33">
       <c r="A35" s="16" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="41" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="33">
       <c r="A37" s="16" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -22978,7 +23001,7 @@
     </row>
     <row r="3" spans="1:2" ht="67.5">
       <c r="A3" s="10" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -23003,7 +23026,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.25">
@@ -23013,7 +23036,7 @@
     </row>
     <row r="10" spans="1:2" ht="48.75">
       <c r="A10" s="10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -23028,7 +23051,7 @@
     </row>
     <row r="13" spans="1:2" ht="48.75">
       <c r="A13" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -23063,12 +23086,12 @@
     </row>
     <row r="20" spans="1:1" ht="17.25">
       <c r="A20" s="11" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25">
       <c r="A21" s="11" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -23094,37 +23117,37 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="30" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25">
       <c r="A29" s="11" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.25">
       <c r="A31" s="11" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17.25">
       <c r="A32" s="11" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="11" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -23137,52 +23160,52 @@
     </row>
     <row r="36" spans="1:1" ht="17.25">
       <c r="A36" s="11" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17.25">
       <c r="A37" s="11" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17.25">
       <c r="A41" s="11" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25">
       <c r="A43" s="11" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25">
       <c r="A44" s="11" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17.25">
       <c r="A45" s="11" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -23195,12 +23218,12 @@
     </row>
     <row r="48" spans="1:1" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25">
       <c r="A49" s="11" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -23213,32 +23236,32 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17.25">
       <c r="A53" s="11" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25">
       <c r="A55" s="11" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17.25">
       <c r="A56" s="11" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="48.75">
       <c r="A57" s="10" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -23251,22 +23274,22 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="11" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17.25">
       <c r="A63" s="11" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -23279,22 +23302,22 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17.25">
       <c r="A67" s="11" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17.25">
       <c r="A68" s="11" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -23307,12 +23330,12 @@
     </row>
     <row r="72" spans="1:1" ht="17.25">
       <c r="A72" s="11" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17.25">
       <c r="A73" s="11" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -23325,12 +23348,12 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.25">
       <c r="A77" s="11" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -23353,12 +23376,12 @@
     </row>
     <row r="82" spans="1:1" ht="48.75">
       <c r="A82" s="10" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17.25">
       <c r="A83" s="11" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="23.25">
@@ -23368,27 +23391,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="11" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="11" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="51.75">
       <c r="A89" s="10" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="78.75">
@@ -23398,7 +23421,7 @@
     </row>
     <row r="91" spans="1:1" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -23413,12 +23436,12 @@
     </row>
     <row r="94" spans="1:1" ht="47.25">
       <c r="A94" s="10" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17.25">
       <c r="A95" s="11" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -23428,7 +23451,7 @@
     </row>
     <row r="97" spans="1:1" ht="17.25">
       <c r="A97" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="31.5">
@@ -23438,7 +23461,7 @@
     </row>
     <row r="99" spans="1:1" ht="17.25">
       <c r="A99" s="10" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -23456,22 +23479,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.25">
       <c r="A104" s="11" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.25">
       <c r="A105" s="11" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="11" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -23481,12 +23504,12 @@
     </row>
     <row r="108" spans="1:1" ht="17.25">
       <c r="A108" s="11" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="34.5">
       <c r="A109" s="10" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -23509,12 +23532,12 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="11" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -23534,7 +23557,7 @@
     </row>
     <row r="119" spans="1:1" ht="17.25">
       <c r="A119" s="11" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -23544,17 +23567,17 @@
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="33">
       <c r="A122" s="16" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="64.5">
       <c r="A123" s="16" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="47.25">
@@ -23564,12 +23587,12 @@
     </row>
     <row r="125" spans="1:1" ht="50.25">
       <c r="A125" s="10" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.25">
       <c r="A126" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="23.25">
@@ -23579,17 +23602,17 @@
     </row>
     <row r="128" spans="1:1" ht="64.5">
       <c r="A128" s="10" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="33">
       <c r="A129" s="10" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.25">
       <c r="A130" s="11" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -23599,172 +23622,172 @@
     </row>
     <row r="132" spans="1:1" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17.25">
       <c r="A133" s="11" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17.25">
       <c r="A134" s="11" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17.25">
       <c r="A136" s="11" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17.25">
       <c r="A137" s="11" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17.25">
       <c r="A138" s="11" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="33">
       <c r="A139" s="10" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17.25">
       <c r="A141" s="11" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17.25">
       <c r="A142" s="11" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17.25">
       <c r="A143" s="11" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17.25">
       <c r="A145" s="11" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17.25">
       <c r="A147" s="11" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17.25">
       <c r="A148" s="11" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17.25">
       <c r="A149" s="11" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17.25">
       <c r="A150" s="11" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="33">
       <c r="A151" s="10" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17.25">
       <c r="A152" s="11" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17.25">
       <c r="A154" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17.25">
       <c r="A155" s="11" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17.25">
       <c r="A156" s="11" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17.25">
       <c r="A157" s="11" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17.25">
       <c r="A158" s="11" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.25">
       <c r="A159" s="11" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17.25">
       <c r="A160" s="11" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17.25">
       <c r="A161" s="11" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17.25">
       <c r="A163" s="11" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17.25">
       <c r="A164" s="11" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17.25">
       <c r="A165" s="11" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="31.5">
@@ -23855,7 +23878,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25">
@@ -23870,22 +23893,22 @@
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="11" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33">
       <c r="A7" s="10" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5">
@@ -23903,7 +23926,7 @@
     </row>
     <row r="13" spans="1:2" ht="33">
       <c r="A13" s="10" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -23921,7 +23944,7 @@
     </row>
     <row r="17" spans="1:1" ht="31.5">
       <c r="A17" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -23931,7 +23954,7 @@
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -23949,7 +23972,7 @@
     </row>
     <row r="23" spans="1:1" ht="47.25">
       <c r="A23" s="10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -23964,12 +23987,12 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25">
       <c r="A27" s="11" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -23987,7 +24010,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="11" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="31.5">
@@ -24015,23 +24038,23 @@
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A37" s="12" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="10" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24041,7 +24064,7 @@
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24069,7 +24092,7 @@
     </row>
     <row r="48" spans="1:2" ht="31.5">
       <c r="A48" s="16" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24092,7 +24115,7 @@
     </row>
     <row r="53" spans="1:1" ht="47.25">
       <c r="A53" s="16" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="31.5">
@@ -24115,7 +24138,7 @@
     </row>
     <row r="58" spans="1:1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="63">
@@ -24125,12 +24148,12 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="31.5">
@@ -24153,7 +24176,7 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -24222,7 +24245,7 @@
     </row>
     <row r="81" spans="1:1" ht="50.25">
       <c r="A81" s="12" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -24237,7 +24260,7 @@
     </row>
     <row r="84" spans="1:1" ht="48.75">
       <c r="A84" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="31.5">
@@ -24247,12 +24270,12 @@
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -24265,22 +24288,22 @@
     </row>
     <row r="90" spans="1:1" ht="20.25">
       <c r="A90" s="18" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="34.5">
       <c r="A91" s="10" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="102">
       <c r="A92" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="80.25">
       <c r="A93" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="31.5">
@@ -24295,7 +24318,7 @@
     </row>
     <row r="96" spans="1:1" ht="17.25">
       <c r="A96" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24303,7 +24326,7 @@
     </row>
     <row r="98" spans="1:2" ht="33">
       <c r="A98" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24316,12 +24339,12 @@
     </row>
     <row r="101" spans="1:2" ht="20.25">
       <c r="A101" s="18" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A102" s="10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B102" s="22"/>
     </row>
@@ -24332,7 +24355,7 @@
     </row>
     <row r="104" spans="1:2" ht="17.25">
       <c r="A104" s="7" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -24340,7 +24363,7 @@
     </row>
     <row r="106" spans="1:2" ht="33">
       <c r="A106" s="10" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -24358,7 +24381,7 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A110" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B110" s="22"/>
     </row>
@@ -24374,17 +24397,17 @@
     </row>
     <row r="113" spans="1:1" ht="50.25">
       <c r="A113" s="16" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="50.25">
       <c r="A114" s="16" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -24402,17 +24425,17 @@
     </row>
     <row r="119" spans="1:1" ht="50.25">
       <c r="A119" s="16" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="33">
       <c r="A120" s="16" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -24430,7 +24453,7 @@
     </row>
     <row r="125" spans="1:1" ht="34.5">
       <c r="A125" s="16" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="31.5">
@@ -24440,7 +24463,7 @@
     </row>
     <row r="127" spans="1:1" ht="17.25">
       <c r="A127" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -24458,12 +24481,12 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="11" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -24473,12 +24496,12 @@
     </row>
     <row r="134" spans="1:2" ht="48.75">
       <c r="A134" s="16" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -24496,12 +24519,12 @@
     </row>
     <row r="139" spans="1:2" ht="64.5">
       <c r="A139" s="16" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -24519,7 +24542,7 @@
     </row>
     <row r="144" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A144" s="10" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B144" s="22"/>
     </row>
@@ -24543,7 +24566,7 @@
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A149" s="10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B149" s="22"/>
     </row>
@@ -24559,12 +24582,12 @@
     </row>
     <row r="152" spans="1:2" ht="66">
       <c r="A152" s="10" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -24590,7 +24613,7 @@
     </row>
     <row r="159" spans="1:2" ht="66">
       <c r="A159" s="16" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="31.5">
@@ -24600,12 +24623,12 @@
     </row>
     <row r="161" spans="1:1" ht="83.25">
       <c r="A161" s="16" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -24631,22 +24654,22 @@
     </row>
     <row r="168" spans="1:1" ht="48.75">
       <c r="A168" s="16" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="51.75">
       <c r="A169" s="16" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17.25">
       <c r="A170" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17.25">
       <c r="A171" s="11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -24664,12 +24687,12 @@
     </row>
     <row r="175" spans="1:1" ht="48.75">
       <c r="A175" s="10" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.25">
       <c r="A176" s="11" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="63">
@@ -24679,17 +24702,17 @@
     </row>
     <row r="178" spans="1:1" ht="33">
       <c r="A178" s="10" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17.25">
       <c r="A179" s="11" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17.25">
       <c r="A180" s="11" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -24728,7 +24751,7 @@
     </row>
     <row r="2" spans="1:5" ht="47.25">
       <c r="A2" s="10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25">
@@ -24738,12 +24761,12 @@
     </row>
     <row r="4" spans="1:5" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="48.75">
       <c r="A5" s="10" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5">
@@ -24753,7 +24776,7 @@
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24771,7 +24794,7 @@
     </row>
     <row r="11" spans="1:5" ht="33">
       <c r="A11" s="10" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24785,7 +24808,7 @@
     </row>
     <row r="13" spans="1:5" ht="33">
       <c r="A13" s="10" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24798,12 +24821,12 @@
     </row>
     <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="10" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -24821,7 +24844,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="10" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="31.5">
@@ -24836,7 +24859,7 @@
     </row>
     <row r="24" spans="1:1" ht="51.75">
       <c r="A24" s="10" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -24846,7 +24869,7 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -24856,7 +24879,7 @@
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="63">
@@ -24866,7 +24889,7 @@
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -24879,7 +24902,7 @@
     </row>
     <row r="33" spans="1:2" ht="78.75">
       <c r="A33" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5">
@@ -24889,7 +24912,7 @@
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="11" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24907,7 +24930,7 @@
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="47.25">
@@ -24935,23 +24958,23 @@
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" ht="81.75">
       <c r="A45" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="11" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="11" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24969,7 +24992,7 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="63">
@@ -24979,7 +25002,7 @@
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -24997,7 +25020,7 @@
     </row>
     <row r="58" spans="1:1" ht="17.25">
       <c r="A58" s="11" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="47.25">
@@ -25025,12 +25048,12 @@
     </row>
     <row r="64" spans="1:1" ht="63">
       <c r="A64" s="10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="48.75">
       <c r="A65" s="10" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="47.25">
@@ -25040,7 +25063,7 @@
     </row>
     <row r="67" spans="1:1" ht="66">
       <c r="A67" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="63">
@@ -25050,12 +25073,12 @@
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="47.25">
@@ -25083,7 +25106,7 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -25129,7 +25152,7 @@
     </row>
     <row r="86" spans="1:2" s="1" customFormat="1" ht="67.5">
       <c r="A86" s="10" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B86" s="22"/>
     </row>
@@ -25145,7 +25168,7 @@
     </row>
     <row r="89" spans="1:2" ht="17.25">
       <c r="A89" s="30" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.5">
@@ -25155,7 +25178,7 @@
     </row>
     <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="47.25">
@@ -25196,7 +25219,7 @@
     </row>
     <row r="100" spans="1:1" ht="17.25">
       <c r="A100" s="30" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="31.5">
@@ -25206,7 +25229,7 @@
     </row>
     <row r="102" spans="1:1" ht="17.25">
       <c r="A102" s="11" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="47.25">
@@ -25224,7 +25247,7 @@
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="10" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="47.25">
@@ -25247,12 +25270,12 @@
     </row>
     <row r="111" spans="1:1" ht="67.5">
       <c r="A111" s="10" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17.25">
       <c r="A112" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="47.25">
@@ -25285,7 +25308,7 @@
     </row>
     <row r="119" spans="1:1" ht="66">
       <c r="A119" s="10" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="63">
@@ -25308,7 +25331,7 @@
     </row>
     <row r="124" spans="1:1" ht="48.75">
       <c r="A124" s="10" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -25321,7 +25344,7 @@
     </row>
     <row r="127" spans="1:1" ht="33">
       <c r="A127" s="10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="47.25">
@@ -25339,7 +25362,7 @@
     </row>
     <row r="131" spans="1:2" ht="50.25">
       <c r="A131" s="10" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="47.25">
@@ -25395,13 +25418,13 @@
     </row>
     <row r="143" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A143" s="12" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B143" s="22"/>
     </row>
     <row r="144" spans="1:2" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="31.5">
@@ -25411,7 +25434,7 @@
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -25477,7 +25500,7 @@
     </row>
     <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="10" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -25487,7 +25510,7 @@
     </row>
     <row r="4" spans="1:2" ht="31.5">
       <c r="A4" s="10" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -25497,7 +25520,7 @@
     </row>
     <row r="6" spans="1:2" ht="47.25">
       <c r="A6" s="10" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75">
@@ -25525,12 +25548,12 @@
     </row>
     <row r="12" spans="1:2" ht="33">
       <c r="A12" s="10" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="47.25">
       <c r="A13" s="10" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -25566,7 +25589,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="12" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -25576,7 +25599,7 @@
     </row>
     <row r="23" spans="1:1" ht="33">
       <c r="A23" s="31" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -25586,7 +25609,7 @@
     </row>
     <row r="25" spans="1:1" ht="47.25">
       <c r="A25" s="31" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -25596,7 +25619,7 @@
     </row>
     <row r="27" spans="1:1" ht="48.75">
       <c r="A27" s="31" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="31.5">
@@ -25685,7 +25708,7 @@
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A46" s="10" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B46" s="22"/>
     </row>
@@ -25742,7 +25765,7 @@
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B58" s="22"/>
     </row>
@@ -25792,12 +25815,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="31.5">
@@ -25866,7 +25889,7 @@
     </row>
     <row r="85" spans="1:1" ht="47.25">
       <c r="A85" s="10" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75">
@@ -25876,7 +25899,7 @@
     </row>
     <row r="87" spans="1:1" ht="51.75">
       <c r="A87" s="10" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="31.5">
@@ -25899,7 +25922,7 @@
     </row>
     <row r="92" spans="1:1" ht="64.5">
       <c r="A92" s="10" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="78.75">
@@ -25927,7 +25950,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="11" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="31.5">
@@ -25945,7 +25968,7 @@
     </row>
     <row r="102" spans="1:1" ht="50.25">
       <c r="A102" s="10" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="31.5">
@@ -25978,7 +26001,7 @@
     </row>
     <row r="109" spans="1:1" ht="48.75">
       <c r="A109" s="10" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="47.25">
@@ -25993,12 +26016,12 @@
     </row>
     <row r="112" spans="1:1" ht="48.75">
       <c r="A112" s="10" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="48.75">
       <c r="A113" s="10" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="31.5">
@@ -26072,7 +26095,7 @@
     </row>
     <row r="129" spans="1:1" ht="17.25">
       <c r="A129" s="11" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="47.25">
@@ -26090,7 +26113,7 @@
     </row>
     <row r="133" spans="1:1" ht="51.75">
       <c r="A133" s="10" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="63">

--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="10005" tabRatio="721" activeTab="3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1233">
   <si>
     <t>This section provides a quick glimpse into the expressive power of YAML. It is not expected that the first-time reader grok all of the examples. Rather, these selections are used as motivation for the remainder of the specification.</t>
   </si>
@@ -5766,87 +5766,27 @@
     <t>YAML представляет информацию типа родных структур данных с простым идентификатором, названным тэгом. Глобальные тэги - URIs и следовательно глобально уникальный через все приложения. “Тэг:” схема ТУРОВ рекомендуется для всех глобальных тэгов YAML. Напротив, местные тэги являются определенными для единственного приложения. Местные тэги начинаются с “!”, не URIs и, как ожидают, не будет глобально уникален. YAML обеспечивает директиву "ТЭГА", чтобы сделать примечание тэга менее подробным; это также предлагает простую миграцию от местного до глобальных тэгов. Чтобы гарантировать этому, местные тэги ограничены кодировке ТУРОВ и используют выход символа URI.</t>
   </si>
   <si>
-    <t>Следующие главы формально определяют синтаксис потоков символа YAML, используя параметризовавшие продукции НОРМАЛЬНОЙ ФОРМЫ БЕКУСА-НАУРА. Каждую продукцию НОРМАЛЬНОЙ ФОРМЫ БЕКУСА-НАУРА и называют и пронумерована для простой справочной информации. Когда бы ни было возможно, базовые структуры определены перед более сложными структурами, используя их "восходящим" видом.</t>
-  </si>
-  <si>
-    <t>Заказ альтернатив в продукции существенен. Последующие альтернативы только рассматривают, когда предыдущие терпят неудачу. См. например продукцию b-разрыва. Кроме того, промышленное соответствие, как ожидают, будет жадным. Дополнительный (?), "нуль или больше" (*) и "один или более" (+) шаблоны, как всегда ожидают, будут соответствовать такому большому вводу насколько возможно.</t>
-  </si>
-  <si>
-    <t>Продукции сопровождаются примерами, которые даны бок о бок рядом с эквивалентным текстом YAML в объяснительном формате. Этот формат использует только коллекции потока, дважды - цитированные скаляры, и явные тэги для каждого узла.</t>
-  </si>
-  <si>
-    <t>Реализация справочной информации, используя продукции доступна как YamlReference Haskell пакет. Эта реализация справочной информации также доступна как интерактивное веб-приложение в http://dev.yaml.org/ypaste.</t>
-  </si>
-  <si>
     <t>4.1. Параметры производства</t>
   </si>
   <si>
-    <t>Синтаксис YAML проектирован для максимальной человеческой удобочитаемости. Это требует, чтобы синтаксический анализ зависел от окружающего текста. Для письменной компактности эта зависимость выражена, используя параметризовавшие продукции НОРМАЛЬНОЙ ФОРМЫ БЕКУСА-НАУРА.</t>
-  </si>
-  <si>
-    <t>Эта контекстная чувствительность - причина большей части сложности определения синтаксиса YAML. Это далее сложно, борясь с человеческой тенденцией предвидению, интерпретируя текст. Эти осложнения - конечно источник большей части мощности YAML представить данные очень человеческим читаемым способом.</t>
-  </si>
-  <si>
     <t>Продукции используют любой из следующих параметров:</t>
   </si>
   <si>
     <t>Сдвиг: n или m.</t>
   </si>
   <si>
-    <t>Много продукций используют явный стандартный параметр уровня. Это менее изящно чем "отступ" Питона и "смещать влево" концептуальные лексемы. Однако это обязано формально выражать стандартные правила YAML.</t>
-  </si>
-  <si>
     <t>Контекст: c</t>
   </si>
   <si>
-    <t>Этот параметр позволяет продукциям щипать свое поведение согласно их окружению. YAML поддерживает две группы контекстов, различая блочные стили и стили потока.</t>
-  </si>
-  <si>
-    <t>В блочных стилях сдвиг используется, чтобы очертить структуру. Чтобы фиксировать человеческое восприятие сдвига, правила требуют специального режима “-” символ, используемый в циклах сварки блоками. Следовательно в некоторых случаях продукции должны вести себя по-другому в циклах сварки блоками (блок - в контексте) и вне них (контекст пустотообразователя).</t>
-  </si>
-  <si>
-    <t>В стилях потока явные индикаторы используются, чтобы очертить структуру. Эти стили могут быть рассмотрены как естественное расширение JSON, чтобы покрыть отмеченные, единственно цитированные и простые скаляры. Так как у последних нет никаких индикаторов очерчивания, они подчинены некоторым ограничениям, чтобы избежать двусмысленностей. Эти ограничения зависят от того, где они появляются: как неявные клавиши непосредственно в отображении блока (ключ блокировки); как неявные клавиши в отображении потока (клавиша потока); как оценивает в коллекции потока (поток - в); или как значения вне каждый (вытекает).</t>
-  </si>
-  <si>
     <t>(Блочное) Чавкание: t</t>
   </si>
   <si>
-    <t>Блочные скаляры предлагают три возможных механизма для того, чтобы громко жевать любые концы строки перемещения: полоса, зажим и сохраняют. В отличие от предыдущих параметров, этой единственной интерпретации управлений; концы строки правильны во всех случаях.</t>
-  </si>
-  <si>
     <t>4.2. Промышленное соглашение наименования</t>
   </si>
   <si>
-    <t>Чтобы облегчить следовать за промышленными комбинациями, промышленные названия используют соглашение об именах венгерского стиля. Каждой продукции дают префикс, основанный на типе символов, которые это начинает и заканчивается.</t>
-  </si>
-  <si>
-    <t>Продукция, не соответствующая никаким символам.</t>
-  </si>
-  <si>
-    <t>Продукция, начальная и конечная со специальным символом.</t>
-  </si>
-  <si>
     <t>Продукция, соответствующая разрыву одиночной линии.</t>
   </si>
   <si>
-    <t>Продукция, начальная и конечная с несимволом прерывания.</t>
-  </si>
-  <si>
-    <t>Продукция, начальная и конечная с символом незаполненного пространства.</t>
-  </si>
-  <si>
-    <t>Продукция, начальная и конечная с непробелом.</t>
-  </si>
-  <si>
-    <t>Продукция, соответствующая законченной строке (ам).</t>
-  </si>
-  <si>
-    <t>Продукция, начинающаяся с символа X-и заканчивающаяся символом Y-, где X-и Y-любой из вышеупомянутых префиксов.</t>
-  </si>
-  <si>
-    <t>Продукция как выше, с дополнительным свойством, что согласованный уровень сдвига информационного наполнения больше чем указанный n параметр.</t>
-  </si>
-  <si>
     <r>
       <t>6.8.1. “</t>
     </r>
@@ -17661,20 +17601,1036 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Indentation: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Context: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This parameter allows productions to tweak their behavior according to their surrounding. YAML supports two groups of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contexts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, distinguishing between block styles and flow styles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In block styles, indentation is used to delineate structure. To capture human perception of indentation the rules require special treatment of the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” character, used in block sequences. Hence in some cases productions need to behave differently inside block sequences (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block-in context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and outside them (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block-out context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In flow styles, explicit indicators are used to delineate structure. These styles can be viewed as the natural extension of JSON to cover tagged, single-quoted and plain scalars. Since the latter have no delineating indicators, they are subject to some restrictions to avoid ambiguities. These restrictions depend on where they appear: as implicit keys directly inside a block mapping (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block-key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); as implicit keys inside a flow mapping (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow-key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); as values inside a flow collection (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow-in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); or as values outside one (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Block) Chomping: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>e-</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nb-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ns-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X-Y-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A production starting with an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> character and ending with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> character, where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are any of the above prefixes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>X-Y+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A production as above, with the additional property that the matched content indentation level is greater than the specified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML процессор не нужно подвергать сериализации или представлению этапов. Он может переводить непосредственно между родными структурами данных и символьным потоком (дамп и загрузка в диаграмме выше). Однако, такой прямой перевод должен иметь место так, чтобы родные структуры данных были созданы только из информации, доступной в представлении. В частности, порядок отображения ключей, комментарии, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FFFF7C80"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>и маркеры тэга не должны ссылаться во время оформления закономерностей.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Явное приведение типов обозначено тэгом, использующим символ восклицательного знака ("!").</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Глобальные тэги URI, могут быть определены в примечании стенографии тэга, используя маркер.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Специфические для приложения локальные тэги также могут использоваться.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.5. Полнометражные примеры</t>
+  </si>
+  <si>
+    <t>Ниже приведены два полнометражных примера на YAML. Слева пример типового счет; справа типовой лог-файл.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Скалярное наполнение может быть описано в блоке примечания, используя буквальный стиль (обозначенный как “|”), где важны все окончания строк. Альтернативно, они могут быть описаны со свернутым стилем (обозначенный как “&gt;”), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>где каждый конец строки свернут к пространству, если это не заканчивает пустое или более выровненную строку.</t>
+    </r>
+  </si>
+  <si>
+    <t>“YAML Не Язык Разметки” (сокращал YAML), язык последовательного упорядочения данных, проектированный, чтобы быть человечески-благоприятным и работа хорошо с современными языками программирования для общих каждодневных задач. Эта спецификация - и введение в язык YAML и понятия, поддерживающие это, и также законченная спецификация информации должна была разработать приложения для того, чтобы обработать YAML.</t>
+  </si>
+  <si>
+    <t>Откройтесь, взаимодействующие и с готовностью понятные инструментальные средства продвинули вычисление очень. YAML был проектирован от начала, чтобы быть полезным и дружить людям, работающим с данными. Это использует Уникод печатаемые символы, некоторые из которых предоставляют структурную информацию и остальных содержащих данные непосредственно. YAML достигает уникальной чистоты, сворачивая количество структурных символов и позволяя данные показать себе естественным и значимым способом. Например, сдвиг может использоваться для структуры, двоеточия отделяют клавишу: оцените пар, и черточки используются, чтобы создать списки "маркера".</t>
+  </si>
+  <si>
+    <t>Есть бесчисленные разновидности структур данных, но они могут все быть соответственно представлены с тремя основными примитивами: отображения (мешанины/словари), последовательности (массивы/списки) и скаляры (строки/числа). YAML усиливает эти примитивы, и добавляет простую систему типов и механизм ступенчатости, чтобы сформировать законченный язык для того, чтобы преобразовать любую родную структуру данных в последовательный режим. В то время как большинство языков программирования может использовать YAML для последовательного упорядочения данных, Excel YAML в работе с теми языками, которые существенно встроены вокруг трех основных примитивов. Они включают новую волну проворных языков, таких как Язык Perl, Питон, PHP, Рубин, и Javascript.</t>
+  </si>
+  <si>
+    <t>Есть сотни различных языков для того, чтобы запрограммировать, но только горстка языков для сохранения и передачи данных. Даже при том, что его потенциал фактически безграничен, YAML был определенно создан, чтобы работать хорошо для случаев обычного использования, таких как: файлы конфигурации, журналы регистрации, межпроцессорный обмен сообщениями, совместное использование поперечной лингвистической информации, возражают постоянству, и отладке сложных структур данных. Когда данные просты рассмотреть и понять, программирование становится более простой задачей.</t>
+  </si>
+  <si>
+    <t>1.1. Цели</t>
+  </si>
+  <si>
+    <t>Цели дизайна для YAML, в уменьшении приоритета:</t>
+  </si>
+  <si>
+    <t>1. YAML легко читаем людьми.</t>
+  </si>
+  <si>
+    <t>2. Данные YAML являются переносными между языками программирования.</t>
+  </si>
+  <si>
+    <t>3. YAML соответствует родным структурам данных проворных языков.</t>
+  </si>
+  <si>
+    <t>4. У YAML есть непротиворечивая модель, чтобы поддержать универсальные инструментальные средства.</t>
+  </si>
+  <si>
+    <t>5. YAML поддерживает однопроходную обработку.</t>
+  </si>
+  <si>
+    <t>6. YAML выразителен и расширяем.</t>
+  </si>
+  <si>
+    <t>7. YAML прост осуществить и использовать.</t>
+  </si>
+  <si>
+    <t>1.2. Предшествующее Искусство</t>
+  </si>
+  <si>
+    <t>Начальное руководство YAML было установлено по условию последовательное упорядочение и языковые обсуждения разметки среди участников SML-DEV. Позже, это непосредственно включило опыт от Ingy döt Данные модуля Языка Perl Сети:: Denter. С тех пор, YAML созрел через идеи и поддержку от ее пользовательского семейства.</t>
+  </si>
+  <si>
+    <t>YAML интегрирует и полагается на понятия, описанные C, Java, Языком Perl, Питоном, Рубином, RFC0822 (ПОЧТА), RFC1866 (HTML), RFC2045 (MIME), RFC2396 (ТУРЫ), XML, САКСОФОН, МЫЛО, и JSON.</t>
+  </si>
+  <si>
+    <t>Синтаксис YAML был мотивирован интернет-Почтой (RFC0822) и остается частично совместимым с тем стандартом. Далее, заимствуя от MIME (RFC2045), продукция YAML верхнего уровня - поток независимых документов, идеала для основанных на сообщении систем распределенной обработки.</t>
+  </si>
+  <si>
+    <t>Основанный на сдвиге обзор YAML подобен Питону (без двусмысленностей, вызванных позициями табуляции). Выровненные блоки облегчают простой осмотр структуры данных. Буквальный стиль YAML усиливает, это, допуская форматировало текст, чтобы быть чисто смешанным в пределах выровненной структуры без неприятного выхода. YAML также позволяет использование традиционного основанного на индикаторе обзора, подобного JSON’s и Языку Perl. Такое информационное наполнение потока может быть свободно вложено в выровненных блоках.</t>
+  </si>
+  <si>
+    <t>Двойной цитированный стиль YAML использует знакомые escape-последовательности C-стиля. Это допускает кодированию ASCII непечатаемых или 8-битовых (Международная организация по стандартизации 8859-1) символы, такие как “\x3B”. Непечатаемый 16-разрядный Уникод и 32-разрядный (ISO/IEC 10646) символы поддержан с escape-последовательностями, такими как “\u003B” и “\U0000003B”.</t>
+  </si>
+  <si>
+    <t>Мотивированный нормализацией конца строки HTML, перенос строк YAML использует интуитивный метод обработки концов строки. Разрыв одиночной линии свернут в единственное пространство, в то время как пустые строки интерпретируются как символы конца строки. Эта методика учитывает параграфы, которые будут обернуты словом, не затрагивая каноническую форму скалярного информационного наполнения.</t>
+  </si>
+  <si>
+    <t>Система типа ядра YAML основана на требованиях проворных языков, таких как Язык Perl, Питон, и Рубин. YAML непосредственно поддерживает обе коллекции (отображения, последовательности) и скаляры. Поддержка этих общих типов дает возможность программистам использовать родные структуры данных своего языка для манипуляции YAML, вместо того, чтобы требовать специальной объектной модели документов (ДОМ).</t>
+  </si>
+  <si>
+    <t>Как МЫЛО XML, поддержки YAML, преобразовывающие граф в последовательный режим родных данных, структурируют через механизм ступенчатости. Также как МЫЛО, YAML предусматривает определенные приложением типы. Это позволяет YAML представлять богатые структуры данных, требуемые для современных распределенных вычислений. YAML обеспечивает глобально уникальные названия типа, используя механизм пространства имен, вдохновленный основанным на сервере имен доменов соглашением об именах пакета Java и ОСНОВАННЫМИ НА ТУРАХ пространствами имен XML. Кроме того, YAML учитывает частные типы, определенные для единственного приложения.</t>
+  </si>
+  <si>
+    <t>YAML был проектирован, чтобы поддержать возрастающие интерфейсы, которые включают оба ввода (“getNextEvent ()”) и выводят (“sendNextEvent ()”) однопроходные интерфейсы. Вместе, они дают возможность YAML поддержать обработку больших документов (например, журналы транзакций) или непрерывные потоки (например, подачи от промышленной машины).</t>
+  </si>
+  <si>
+    <t>1.3. Отношение к JSON</t>
+  </si>
+  <si>
+    <t>И JSON и YAML стремятся быть человеческими читаемыми форматами обмена данными. Однако, у JSON и YAML есть различные приоритеты. Передовая цель дизайна JSON - простота и универсальность. Таким образом, JSON тривиален, чтобы генерировать и анализировать, за счет уменьшенной человеческой удобочитаемости. Это также использует информационную модель наименьшего общего знаменателя, гарантируя, что любые данные JSON могут быть легко обработаны каждой современной средой программирования.</t>
+  </si>
+  <si>
+    <t>Напротив, передовые цели дизайна YAML - человеческая удобочитаемость и поддержка преобразования в последовательную форму произвольных родных структур данных. Таким образом, YAML учитывает чрезвычайно читаемые файлы, но более сложен, чтобы генерировать и анализировать. Кроме того, YAML рискует вне типов данных наименьшего общего знаменателя, требуя более сложной обработки, пересекаясь между различными средами программирования.</t>
+  </si>
+  <si>
+    <t>YAML может поэтому быть рассмотрен как естественное надмножество JSON, предлагая улучшенную человеческую удобочитаемость и более законченную информационную модель. Это также имеет место практически; каждый файл JSON - также правильный файл YAML. Это облегчает перемещаться от JSON до YAML, если/когда дополнительные особенности требуются.</t>
+  </si>
+  <si>
+    <t>RFC4627 JSON требует, чтобы клавиши отображений просто были уникальны, в то время как YAML настаивает, чтобы они были. Технически, YAML поэтому выполняет спецификации JSON, хотя обрабатывать дубликаты как ошибку. Практически, так как JSON тих на семантике таких дубликатов, единственные переносные файлы JSON - те с уникальными клавишами, которые являются поэтому правильными файлами YAML.</t>
+  </si>
+  <si>
+    <t>Может быть полезно определить промежуточный формат между YAML и JSON. Такой формат был бы тривиален, чтобы анализировать (но не очень человеческий читаемый), как JSON. В то же самое время, это учло бы преобразование в последовательную форму произвольных родных структур данных, как YAML. Такой формат мог бы также служить "каноническим форматом YAML". Определение такого формата “YSON” (YSON - Преобразованное в последовательный режим Объектное Примечание) может быть сделано или увеличивая спецификацию JSON или ограничивая спецификацию YAML. Такое определение вне области видимости этой спецификации.</t>
+  </si>
+  <si>
+    <t>1.4. Отношение к XML</t>
+  </si>
+  <si>
+    <t>Вновь прибывшие к YAML часто ищут его корреляцию на расширяемый Язык Разметки (XML). Хотя эти два языка могут фактически конкурировать в нескольких прикладных областях, нет никакой прямой корреляции между ними.</t>
+  </si>
+  <si>
+    <t>YAML - прежде всего язык последовательного упорядочения данных. XML был проектирован, чтобы быть назад совместимым со Стандартным языком обобщенной разметки (SGML), который был проектирован, чтобы поддержать структурированную документацию. У XML поэтому было много ограничений дизайна, помещенных в это, что YAML не совместно использует. XML - пионер во многих доменах, YAML - результат уроков, изученных из XML и других технологий.</t>
+  </si>
+  <si>
+    <t>Нужно упомянуть, что есть продолжающиеся усилия определить стандартные отображения XML/YAML. Это вообще требует, чтобы подмножество каждого языка использовалось. Для получения дополнительной информации при использовании и XML и YAML, пожалуйста посетите http://yaml.org/xml.</t>
+  </si>
+  <si>
+    <t>1.5. Терминология</t>
+  </si>
+  <si>
+    <t>Эта спецификация использует ключевые слова, основанные на RFC2119, чтобы указать уровень требования. В частности следующие слова используются, чтобы описать действия процессора YAML:</t>
+  </si>
+  <si>
+    <t>Может</t>
+  </si>
+  <si>
+    <t>Слово, или дополнительное прилагательное, может означать, что приспосабливание к процессорам YAML разрешают, но не должны вести себя как описано.</t>
+  </si>
+  <si>
+    <t>Должен</t>
+  </si>
+  <si>
+    <t>Слово, или рекомендуемое прилагательное, должно означать, что могли быть причины для процессора YAML, чтобы отклониться от описанного поведения, но что такое отклонение могло повредить функциональную совместимость и должно поэтому рекламироваться с соответствующим примечанием.</t>
+  </si>
+  <si>
+    <t>Слово, или требуемый термин или должно быть, должен означать, что описанное поведение является абсолютным требованием спецификации.</t>
+  </si>
+  <si>
+    <t>Остальная часть этого документа упорядочена следующим образом. Глава 2 обеспечивает короткий предварительный просмотр основных особенностей YAML. Глава 3 описывает информационную модель YAML, и процессы для того, чтобы преобразовать от и до этой модели и формата текста YAML. Объем документа, главы 4 - 9, формально определяет этот текстовый формат. Наконец, глава 10 рекомендует основные схемы YAML.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML - это и текстовый формат и метод для того, чтобы представить любую родную структуру данных в этом формате. Поэтому, эта спецификация определяет два понятия: класс объектов данных под названием представления YAML, и синтаксис для того, чтобы представить представления YAML как прогрессию символов, названных потоком YAML. Процессор YAML - это инструмент для преобразования информации между этими </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>дополнительными обозрениями</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Предполагается, что процессор YAML делает свою работу от имени другого модуля, названного приложением.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Эта глава описывает информационные структуры, которые процессор YAML должен создавать или получать из приложения.</t>
+    </r>
+  </si>
+  <si>
+    <t>Конечный процесс вывода представляет сериализацию YAML как символьный поток в человекочитаемом формате. Чтобы достичь максимальной удобочитаемости для человека, YAML предлагает богатый набор стилистических опций, которые идут далеко вне минимальных функциональных потребностей простого хранения данных. Поэтому процессор YAML требует ввода различных подробностей представления, создавая поток, такой как выбор стилей узла, как форматировать скалярное информационное наполнение, количество отступов, которые отмечают маркеры, чтобы использовать, тэги узла, чтобы оставить неопределенным, набор директив, чтобы обеспечить и возможно даже что комментарии добавить. В то время как часть этого может быть сделана с помощью приложения, вообще этот процесс должен управляться персональными настройками пользователя.</t>
+  </si>
+  <si>
+    <t>Парсинг является обратным процессом представления, он берет поток символов и создает набор событий. Парсинг отказывается от всех подробностей, введенных в процессе представления, сообщая только о событиях последовательного упорядочения. Парсинг может потерпеть неудачу из-за плохо сформированного ввода.</t>
+  </si>
+  <si>
+    <t>Создание графа представления</t>
+  </si>
+  <si>
+    <t>Создание берет набор сериализованных событий и создает граф представления. Создание отказывается от всех подробностей, введенных в процессе сериализации, производя только граф представления. Создание может терпеть неудачу из-за любой из нескольких причин, детализированных ниже.</t>
+  </si>
+  <si>
+    <t>Конечный входной процесс создает родные структуры данных из YAML представления. Конструкция должна базироваться только на информации, доступной в представлении, а не на дополнительных сериализациях или представлениях, таких как комментарии, директивы, сопоставления ключей, стили узла, скалярный формат контента, уровни отступов и т.д. Конструкция может терпеть неудачу из-за недоступности необходимых родных типов данных.</t>
+  </si>
+  <si>
+    <t>Информационное наполнение узла последовательности - это набор из нуля или большего количества узлов. В частности, последовательность может содержать один и тот же узел только один раз. Последовательность может даже содержать себя (прямо или косвенно).</t>
+  </si>
+  <si>
+    <t>Информационное наполнение скалярного узла - непрозрачная данная величина, которая может быть представлена нулем или большим количеством символов Unicode.</t>
+  </si>
+  <si>
+    <t>Информационное наполнение узла отображения - неупорядоченный набор пар "ключ: значение", с ограничением, что каждый ключ уникален. YAML не устанавливает других ограничений для узлов. В частности, ключи могут быть произвольными узлами, узел может использоваться как значение нескольких пар (составной ключ), и сопоставление может даже содержать себя как ключ или значение (прямо или косвенно).</t>
+  </si>
+  <si>
+    <t>Этот раздел определяет формальные подробности результатов вышеупомянутых процессов. Для максимальной портабельности данных между языками программирования и реализациями, пользователи YAML должны помнить различие между свойствами сериализации или представлением свойств и теми, которые являются частью представления YAML. Таким образом, в то время как упорядочивание по ключам отображения необходимо для сглаживания YAML представлений передающей среде последовательного доступа, эти детали сериализации не должны использоваться, чтобы передать информацию прикладного уровня. Подобным способом, в то время как стандартная методика и выбор стиля узла необходимы для удобочитаемости человеком, подробности представления ни часть сериализации YAML, ни представления YAML. Тщательно отделяя свойства, необходимые для сериализации и представления, YAML предоставляет информацию, которая будет непротиворечива и портабельна между различными средами программирования.</t>
+  </si>
+  <si>
+    <t>Следующая диаграмма суммирует три информационные модели. Полные стрелки обозначают композицию, полые стрелки обозначают наследование, “1” и “*” обозначает "один" и "много" связей. Единственный “+” обозначает подробности сериализации, двойной “++” обозначает подробности представления.</t>
+  </si>
+  <si>
+    <t>Представление YAML родной структуры данных - внедренный, подключенный, ориентированный граф теговых узлов. Под "ориентированным графом" мы подразумеваем набор узлов и ребер (стрелки), где каждое ребро соединяет один узел с другим (см. формальное определение). Все узлы должны быть доступными от корневого узла через такие ребра. Отметьте, что граф YAML может включать циклы, и узел может иметь больше, чем одно входящее ребро.</t>
+  </si>
+  <si>
+    <t>Узлы, которые определены с точки зрения других узлов, являются коллекциями; узлы, которые независимы от любых других узлов, являются скалярами. YAML поддерживает два вида узлов коллекции: последовательности и сопоставления. Узлы сосоставления являются несколько сложными, потому что их ключи неупорядоченны и должны быть уникальными.</t>
+  </si>
+  <si>
+    <t>Узел YAML представляет единственную родную структуру данных. У таких узлов есть информационное наполнение одного из трех видов: скаляр, последовательность или отображение. Кроме того, каждый узел имеет тэг, который служит, для ограничения набора возможных значений, которое может иметь контент.</t>
+  </si>
+  <si>
+    <t>Соответственно, удобно рассматривать последовательности и сопоставления вместе, как коллекции. В этом виде последовательности обработаны как сопоставления с целыми ключами, начинающимися с нуля. Наличие объединенного представления коллекций для последовательностей и отображений полезно и для теоретического анализа и для того, чтобы создать практические инструментальные средства YAML и API. Эта стратегия также используется языком программирования Javascript.</t>
+  </si>
+  <si>
+    <t>YAML не передает под мандат специальных отношений между различными тэгами, которые начинаются с той же самой подстроки. Тэги, заканчивающиеся фрагментами URI (содержащий “#”), не являются никаким исключением; тэги, которые совместно используют тех же самых основных URI, но отличаются по их части фрагмента, как полагают, являются различными, независимыми тэгами. В соответствии с соглашением, фрагменты используются, чтобы идентифицировать различные "варианты" тэга, в то время как “/” используется, чтобы определить вложенные иерархии "пространства имен" тэга. Однако, это - просто соглашение, и каждый тэг может использовать свои собственные правила. Например, тэги Языка Perl могут использовать “::”, чтобы выразить иерархии пространства имен, тэги Java могут использовать “.”, и т.д.</t>
+  </si>
+  <si>
+    <t>Тэги YAML используются, чтобы связать метаинформацию с каждым узлом. В частности, каждый тэг должен определить ожидаемый вид узла (скаляр, последовательность или сопоставление). Скалярные тэги должны также обеспечить механизм для того, чтобы он преобразовал отформатированный контент в каноническую форму для поддержания тестирования равенства. Кроме того, тэг может предоставить дополнительную информацию, такую как набор разрешенных значений контента для проверки правильности, механизм для разрешающей способности тэга, или любых других данных, которые применимы ко всем узлам тэга.</t>
+  </si>
+  <si>
+    <t>Так как сопоставления YAML требуют уникальности ключей, представления должны включать механизм для того, чтобы проверить равенство узлов. Это нетривиально, так как YAML позволяет различными способами форматировать скалярное наполнение. Например, целое число одиннадцать может быть написано как “0o13” (восьмеричный) или “0xB”  (шестнадцатеричный). Если бы оба примечания использовались как ключи в одном сопоставлении, только процессор YAML, который распознает целочисленные форматы, правильно пометил бы дублированные ключи как ошибку.</t>
+  </si>
+  <si>
+    <t>YAML поддерживает потребность в скалярном равенстве, требуя, чтобы каждый скалярный тэг определил механизм для того, чтобы произвести каноническую форму любого отформатированного информационного наполнения. Эта форма - строка символов Unicode, которая также представляет то же самое информационное наполнение, и может использоваться для тестирования равенства. В то время как это требование более сильно, чем хорошо определенный оператор равенства, у него есть другое использование, такое как продукция цифровых подписей.</t>
+  </si>
+  <si>
+    <t>Два узла должны иметь одинаковые тэги и содержание, чтобы быть равными. Так как каждый тэг относится точно к одному виду, это подразумевает, что у этих двух узлов должен быть тот же самый вид, чтобы быть равными. Два скаляра равны только, когда их тэги и канонические формы равны посимвольно. Равенство коллекций определено рекурсивно. Две последовательности равны только, когда у них есть тот же самый тэг и длина, и каждый узел в одной последовательности равен соответствующему узлу в другой последовательности. Два сопоставления равны только тогда, когда у них есть тот же самый тэг и равный набор ключей, и каждый ключ в этом наборе связан с равными значениями в обоих сопоставлениях.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Различные схемы URI могут определить различные правила для проверки равенства URI. Так как процессор YAML не может </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разумно ожидать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, не будет знать о них всех, он должен прибегнуть к простому посимвольному сравнению тэгов, чтобы гарантировать последовательность. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это также, случается, метод сравнения, определенный “тэгом:” схема URI. Тэги в потоке YAML должны поэтому быть представлены каноническим способом так, чтобы такое сравнение привело бы к правильным результатам.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Для выражения представления YAML используется последовательный API, необходимо упорядочить ключи соотношения и использовать псевдонимы узлов, чтобы указать последующее вхождение узла, с которым ранее сталкиваются. Результат этого процесса - дерево сериализации, где каждый узел имеет упорядоченный набор дочерних узлов. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF7C80"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это дерево может быть пересечено для последовательного основанного на событиях API.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Конструкция родных структур данных от последовательного интерфейса не должна использовать упорядоченные ключи или названия якорей для сохранения данных прикладной программы.</t>
+    </r>
+  </si>
+  <si>
+    <t>В модели представления ключи соотношения не имеют порядка. Для сериализации соотношения, необходимо упорядочить ключи. Этот порядок - детали сериализации и он не должен использоваться, когда составляется граф представления (и следовательно для сохранения данных прикладной программы). В каждом случае, где порядок узла важен, должна быть использована последовательность. Например, упорядоченное соотношение может быть представлено как последовательность соотношений, где каждое соотношение - единственный ключ: значение пара. YAML обеспечивает удобную компактную запись для этого случая.</t>
+  </si>
+  <si>
+    <t>В графе представления узел может появиться больше, чем в одной коллекции. Когда сериализуются такие данные, первое вхождение узла идентифицируется якорем. Каждое последующее вхождение сериализуется как узел псевдонима, который ссылается на якорь. Иначе, прикрепитесь, названия - детали последовательного упорядочения и отказаны, как только создание закончено. Составляя граф представления из преобразованных в последовательный режим событий, узел псевдонима обращается к новому узлу в последовательном упорядочении, имеющем указанную привязку. Поэтому, привязки не должны быть уникальными в пределах последовательного упорядочения. Кроме того, у привязки не должно быть узла псевдонима, обращающегося к этому. Это поэтому возможно, чтобы обеспечить привязку для всех узлов в последовательном упорядочении.</t>
+  </si>
+  <si>
+    <t>Следующие главы дают формальное определение синтаксису потоков символов YAML, использующих параметризованные BNF продукции. Каждая BNF продукция - это одинаково названная и пронумерованая для простой ссылки. Когда бы ни было возможно, базовые структуры определены перед более сложными структурами, используя их "восходящим" образом.</t>
+  </si>
+  <si>
+    <t>Порядок альтернативной продукции существенен. Последующие альтернативы только рассматривают, когда предыдущие повреждены. См., например, продукцию b-break. Кроме того, промышленное соответствие, как ожидают, будет жадным. Дополнительный(Необязательный) (?), "нуль или больше" (*) и "один или более" (+) шаблоны всегда ожидают,  что будут соответствовать такому большому вводу насколько возможно.</t>
+  </si>
+  <si>
+    <t>Продукции сопровождаются примерами, которые даны бок о бок рядом с эквивалентным текстом YAML в объяснительном формате. Этот формат использует только коллекции потока, скаляры в двойных кавычках и явные тэги для каждого узла.</t>
+  </si>
+  <si>
+    <t>Ссылочная реализация использует продукции доступные как YamlReference Haskell пакета. Эта ссылочная реализация также доступна как интерактивное веб-приложение в http://dev.yaml.org/ypaste.</t>
+  </si>
+  <si>
+    <t>Синтаксис YAML проектирован для максимальной удобочитаемости человеком. Это требует, чтобы синтаксический анализ зависел от окружающего текста. Для письменной компактности эта зависимость выражена использованием параметризованной BNF продукции.</t>
+  </si>
+  <si>
+    <t>Эта контекстная чувствительность - причина большей части сложности определения синтаксиса YAML. Это еще более усугубляется с человеческой тенденцией к предвидению при интерпретации текста. Эти осложнения, конечно, источник значительной YAML энергии по представлению данных в самом человекочитаемом виде.</t>
+  </si>
+  <si>
+    <t>Много продукций используют явный стандартный параметр уровня. Это менее изящно чем "отступ" Питона и "смещать влево" концептуальных лексем. Однако это требуется для  формально выражения стандартных правил YAML.</t>
+  </si>
+  <si>
+    <t>Этот параметр позволяет продукциям настраивать свое поведение согласно их окружению. YAML поддерживает две группы контекстов, различая блочные стили и стили потока.</t>
+  </si>
+  <si>
+    <t>В блочных стилях сдвиг используется, чтобы обозначить структуру. Чтобы фиксировать человеческое восприятие сдвига, правила требуют специальной обработки “-” символа, используемого в блоке последовательностей. Следовательно в некоторых случаях продукции должны вести себя по-другому в блоках последовательностей (блок-в контексте) и вне них (блок-вне контекста).</t>
+  </si>
+  <si>
+    <t>В стилях потока явные индикаторы используются, чтобы обозначить структуру. Эти стили могут быть рассмотрены как естественное расширение JSON, чтобы покрыть отмеченные, однокавычные и простые скаляры. Так как у последних нет никаких индикаторов, они подчинены некоторым ограничениям, чтобы избежать двусмысленностей. Эти ограничения зависят от того, где они появляются: как неявные ключи непосредственно в блоке соответствия (блок-ключ (block-key)); как неявные ключи в потоке соответствия (поток-ключ (flow-key)); как значение в коллекции потока (в потоке (flow-in)); или как значения вне каждого (вне потока(flow-out)).</t>
+  </si>
+  <si>
+    <t>Блочные скаляры предлагают три возможных механизма для того, чтобы громко жевать любые концы строки перемещения: полоса, зажим и сохраняют. В отличие от предыдущих параметров, это единственная интерпретация; концы строки правильны во всех случаях.</t>
+  </si>
+  <si>
+    <t>Чтобы облегчить следовать за промышленными комбинациями, промышленные названия используют соглашение об именах венгерского стиля. Каждой продукции дают префикс, основанный на типе символов, с которого начинают и которым заканчивают.</t>
+  </si>
+  <si>
+    <r>
+      <t>e-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Продукция, не соответствующая символам.</t>
   </si>
   <si>
     <r>
@@ -17683,8 +18639,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17700,8 +18655,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17717,8 +18671,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17734,8 +18687,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17751,8 +18703,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17768,8 +18719,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17785,8 +18735,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17802,8 +18751,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17814,8 +18762,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17825,8 +18772,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF7C80"/>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -17836,989 +18782,35 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Indentation: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Context: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>c</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This parameter allows productions to tweak their behavior according to their surrounding. YAML supports two groups of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contexts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, distinguishing between block styles and flow styles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>In block styles, indentation is used to delineate structure. To capture human perception of indentation the rules require special treatment of the “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>” character, used in block sequences. Hence in some cases productions need to behave differently inside block sequences (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block-in context</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) and outside them (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block-out context</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>In flow styles, explicit indicators are used to delineate structure. These styles can be viewed as the natural extension of JSON to cover tagged, single-quoted and plain scalars. Since the latter have no delineating indicators, they are subject to some restrictions to avoid ambiguities. These restrictions depend on where they appear: as implicit keys directly inside a block mapping (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block-key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>); as implicit keys inside a flow mapping (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flow-key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>); as values inside a flow collection (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flow-in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>); or as values outside one (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flow-out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(Block) Chomping: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>t</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>e-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nb-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ns-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>X-Y-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A production starting with an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> character and ending with a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> character, where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are any of the above prefixes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>X+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>X-Y+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A production as above, with the additional property that the matched content indentation level is greater than the specified </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> parameter.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">YAML процессор не нужно подвергать сериализации или представлению этапов. Он может переводить непосредственно между родными структурами данных и символьным потоком (дамп и загрузка в диаграмме выше). Однако, такой прямой перевод должен иметь место так, чтобы родные структуры данных были созданы только из информации, доступной в представлении. В частности, порядок отображения ключей, комментарии, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и маркеры тэга не должны ссылаться во время оформления закономерностей.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Явное приведение типов обозначено тэгом, использующим символ восклицательного знака ("!").</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Глобальные тэги URI, могут быть определены в примечании стенографии тэга, используя маркер.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Специфические для приложения локальные тэги также могут использоваться.</t>
-    </r>
-  </si>
-  <si>
-    <t>2.5. Полнометражные примеры</t>
-  </si>
-  <si>
-    <t>Ниже приведены два полнометражных примера на YAML. Слева пример типового счет; справа типовой лог-файл.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Скалярное наполнение может быть описано в блоке примечания, используя буквальный стиль (обозначенный как “|”), где важны все окончания строк. Альтернативно, они могут быть описаны со свернутым стилем (обозначенный как “&gt;”), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>где каждый конец строки свернут к пространству, если это не заканчивает пустое или более выровненную строку.</t>
-    </r>
-  </si>
-  <si>
-    <t>“YAML Не Язык Разметки” (сокращал YAML), язык последовательного упорядочения данных, проектированный, чтобы быть человечески-благоприятным и работа хорошо с современными языками программирования для общих каждодневных задач. Эта спецификация - и введение в язык YAML и понятия, поддерживающие это, и также законченная спецификация информации должна была разработать приложения для того, чтобы обработать YAML.</t>
-  </si>
-  <si>
-    <t>Откройтесь, взаимодействующие и с готовностью понятные инструментальные средства продвинули вычисление очень. YAML был проектирован от начала, чтобы быть полезным и дружить людям, работающим с данными. Это использует Уникод печатаемые символы, некоторые из которых предоставляют структурную информацию и остальных содержащих данные непосредственно. YAML достигает уникальной чистоты, сворачивая количество структурных символов и позволяя данные показать себе естественным и значимым способом. Например, сдвиг может использоваться для структуры, двоеточия отделяют клавишу: оцените пар, и черточки используются, чтобы создать списки "маркера".</t>
-  </si>
-  <si>
-    <t>Есть бесчисленные разновидности структур данных, но они могут все быть соответственно представлены с тремя основными примитивами: отображения (мешанины/словари), последовательности (массивы/списки) и скаляры (строки/числа). YAML усиливает эти примитивы, и добавляет простую систему типов и механизм ступенчатости, чтобы сформировать законченный язык для того, чтобы преобразовать любую родную структуру данных в последовательный режим. В то время как большинство языков программирования может использовать YAML для последовательного упорядочения данных, Excel YAML в работе с теми языками, которые существенно встроены вокруг трех основных примитивов. Они включают новую волну проворных языков, таких как Язык Perl, Питон, PHP, Рубин, и Javascript.</t>
-  </si>
-  <si>
-    <t>Есть сотни различных языков для того, чтобы запрограммировать, но только горстка языков для сохранения и передачи данных. Даже при том, что его потенциал фактически безграничен, YAML был определенно создан, чтобы работать хорошо для случаев обычного использования, таких как: файлы конфигурации, журналы регистрации, межпроцессорный обмен сообщениями, совместное использование поперечной лингвистической информации, возражают постоянству, и отладке сложных структур данных. Когда данные просты рассмотреть и понять, программирование становится более простой задачей.</t>
-  </si>
-  <si>
-    <t>1.1. Цели</t>
-  </si>
-  <si>
-    <t>Цели дизайна для YAML, в уменьшении приоритета:</t>
-  </si>
-  <si>
-    <t>1. YAML легко читаем людьми.</t>
-  </si>
-  <si>
-    <t>2. Данные YAML являются переносными между языками программирования.</t>
-  </si>
-  <si>
-    <t>3. YAML соответствует родным структурам данных проворных языков.</t>
-  </si>
-  <si>
-    <t>4. У YAML есть непротиворечивая модель, чтобы поддержать универсальные инструментальные средства.</t>
-  </si>
-  <si>
-    <t>5. YAML поддерживает однопроходную обработку.</t>
-  </si>
-  <si>
-    <t>6. YAML выразителен и расширяем.</t>
-  </si>
-  <si>
-    <t>7. YAML прост осуществить и использовать.</t>
-  </si>
-  <si>
-    <t>1.2. Предшествующее Искусство</t>
-  </si>
-  <si>
-    <t>Начальное руководство YAML было установлено по условию последовательное упорядочение и языковые обсуждения разметки среди участников SML-DEV. Позже, это непосредственно включило опыт от Ingy döt Данные модуля Языка Perl Сети:: Denter. С тех пор, YAML созрел через идеи и поддержку от ее пользовательского семейства.</t>
-  </si>
-  <si>
-    <t>YAML интегрирует и полагается на понятия, описанные C, Java, Языком Perl, Питоном, Рубином, RFC0822 (ПОЧТА), RFC1866 (HTML), RFC2045 (MIME), RFC2396 (ТУРЫ), XML, САКСОФОН, МЫЛО, и JSON.</t>
-  </si>
-  <si>
-    <t>Синтаксис YAML был мотивирован интернет-Почтой (RFC0822) и остается частично совместимым с тем стандартом. Далее, заимствуя от MIME (RFC2045), продукция YAML верхнего уровня - поток независимых документов, идеала для основанных на сообщении систем распределенной обработки.</t>
-  </si>
-  <si>
-    <t>Основанный на сдвиге обзор YAML подобен Питону (без двусмысленностей, вызванных позициями табуляции). Выровненные блоки облегчают простой осмотр структуры данных. Буквальный стиль YAML усиливает, это, допуская форматировало текст, чтобы быть чисто смешанным в пределах выровненной структуры без неприятного выхода. YAML также позволяет использование традиционного основанного на индикаторе обзора, подобного JSON’s и Языку Perl. Такое информационное наполнение потока может быть свободно вложено в выровненных блоках.</t>
-  </si>
-  <si>
-    <t>Двойной цитированный стиль YAML использует знакомые escape-последовательности C-стиля. Это допускает кодированию ASCII непечатаемых или 8-битовых (Международная организация по стандартизации 8859-1) символы, такие как “\x3B”. Непечатаемый 16-разрядный Уникод и 32-разрядный (ISO/IEC 10646) символы поддержан с escape-последовательностями, такими как “\u003B” и “\U0000003B”.</t>
-  </si>
-  <si>
-    <t>Мотивированный нормализацией конца строки HTML, перенос строк YAML использует интуитивный метод обработки концов строки. Разрыв одиночной линии свернут в единственное пространство, в то время как пустые строки интерпретируются как символы конца строки. Эта методика учитывает параграфы, которые будут обернуты словом, не затрагивая каноническую форму скалярного информационного наполнения.</t>
-  </si>
-  <si>
-    <t>Система типа ядра YAML основана на требованиях проворных языков, таких как Язык Perl, Питон, и Рубин. YAML непосредственно поддерживает обе коллекции (отображения, последовательности) и скаляры. Поддержка этих общих типов дает возможность программистам использовать родные структуры данных своего языка для манипуляции YAML, вместо того, чтобы требовать специальной объектной модели документов (ДОМ).</t>
-  </si>
-  <si>
-    <t>Как МЫЛО XML, поддержки YAML, преобразовывающие граф в последовательный режим родных данных, структурируют через механизм ступенчатости. Также как МЫЛО, YAML предусматривает определенные приложением типы. Это позволяет YAML представлять богатые структуры данных, требуемые для современных распределенных вычислений. YAML обеспечивает глобально уникальные названия типа, используя механизм пространства имен, вдохновленный основанным на сервере имен доменов соглашением об именах пакета Java и ОСНОВАННЫМИ НА ТУРАХ пространствами имен XML. Кроме того, YAML учитывает частные типы, определенные для единственного приложения.</t>
-  </si>
-  <si>
-    <t>YAML был проектирован, чтобы поддержать возрастающие интерфейсы, которые включают оба ввода (“getNextEvent ()”) и выводят (“sendNextEvent ()”) однопроходные интерфейсы. Вместе, они дают возможность YAML поддержать обработку больших документов (например, журналы транзакций) или непрерывные потоки (например, подачи от промышленной машины).</t>
-  </si>
-  <si>
-    <t>1.3. Отношение к JSON</t>
-  </si>
-  <si>
-    <t>И JSON и YAML стремятся быть человеческими читаемыми форматами обмена данными. Однако, у JSON и YAML есть различные приоритеты. Передовая цель дизайна JSON - простота и универсальность. Таким образом, JSON тривиален, чтобы генерировать и анализировать, за счет уменьшенной человеческой удобочитаемости. Это также использует информационную модель наименьшего общего знаменателя, гарантируя, что любые данные JSON могут быть легко обработаны каждой современной средой программирования.</t>
-  </si>
-  <si>
-    <t>Напротив, передовые цели дизайна YAML - человеческая удобочитаемость и поддержка преобразования в последовательную форму произвольных родных структур данных. Таким образом, YAML учитывает чрезвычайно читаемые файлы, но более сложен, чтобы генерировать и анализировать. Кроме того, YAML рискует вне типов данных наименьшего общего знаменателя, требуя более сложной обработки, пересекаясь между различными средами программирования.</t>
-  </si>
-  <si>
-    <t>YAML может поэтому быть рассмотрен как естественное надмножество JSON, предлагая улучшенную человеческую удобочитаемость и более законченную информационную модель. Это также имеет место практически; каждый файл JSON - также правильный файл YAML. Это облегчает перемещаться от JSON до YAML, если/когда дополнительные особенности требуются.</t>
-  </si>
-  <si>
-    <t>RFC4627 JSON требует, чтобы клавиши отображений просто были уникальны, в то время как YAML настаивает, чтобы они были. Технически, YAML поэтому выполняет спецификации JSON, хотя обрабатывать дубликаты как ошибку. Практически, так как JSON тих на семантике таких дубликатов, единственные переносные файлы JSON - те с уникальными клавишами, которые являются поэтому правильными файлами YAML.</t>
-  </si>
-  <si>
-    <t>Может быть полезно определить промежуточный формат между YAML и JSON. Такой формат был бы тривиален, чтобы анализировать (но не очень человеческий читаемый), как JSON. В то же самое время, это учло бы преобразование в последовательную форму произвольных родных структур данных, как YAML. Такой формат мог бы также служить "каноническим форматом YAML". Определение такого формата “YSON” (YSON - Преобразованное в последовательный режим Объектное Примечание) может быть сделано или увеличивая спецификацию JSON или ограничивая спецификацию YAML. Такое определение вне области видимости этой спецификации.</t>
-  </si>
-  <si>
-    <t>1.4. Отношение к XML</t>
-  </si>
-  <si>
-    <t>Вновь прибывшие к YAML часто ищут его корреляцию на расширяемый Язык Разметки (XML). Хотя эти два языка могут фактически конкурировать в нескольких прикладных областях, нет никакой прямой корреляции между ними.</t>
-  </si>
-  <si>
-    <t>YAML - прежде всего язык последовательного упорядочения данных. XML был проектирован, чтобы быть назад совместимым со Стандартным языком обобщенной разметки (SGML), который был проектирован, чтобы поддержать структурированную документацию. У XML поэтому было много ограничений дизайна, помещенных в это, что YAML не совместно использует. XML - пионер во многих доменах, YAML - результат уроков, изученных из XML и других технологий.</t>
-  </si>
-  <si>
-    <t>Нужно упомянуть, что есть продолжающиеся усилия определить стандартные отображения XML/YAML. Это вообще требует, чтобы подмножество каждого языка использовалось. Для получения дополнительной информации при использовании и XML и YAML, пожалуйста посетите http://yaml.org/xml.</t>
-  </si>
-  <si>
-    <t>1.5. Терминология</t>
-  </si>
-  <si>
-    <t>Эта спецификация использует ключевые слова, основанные на RFC2119, чтобы указать уровень требования. В частности следующие слова используются, чтобы описать действия процессора YAML:</t>
-  </si>
-  <si>
-    <t>Может</t>
-  </si>
-  <si>
-    <t>Слово, или дополнительное прилагательное, может означать, что приспосабливание к процессорам YAML разрешают, но не должны вести себя как описано.</t>
-  </si>
-  <si>
-    <t>Должен</t>
-  </si>
-  <si>
-    <t>Слово, или рекомендуемое прилагательное, должно означать, что могли быть причины для процессора YAML, чтобы отклониться от описанного поведения, но что такое отклонение могло повредить функциональную совместимость и должно поэтому рекламироваться с соответствующим примечанием.</t>
-  </si>
-  <si>
-    <t>Слово, или требуемый термин или должно быть, должен означать, что описанное поведение является абсолютным требованием спецификации.</t>
-  </si>
-  <si>
-    <t>Остальная часть этого документа упорядочена следующим образом. Глава 2 обеспечивает короткий предварительный просмотр основных особенностей YAML. Глава 3 описывает информационную модель YAML, и процессы для того, чтобы преобразовать от и до этой модели и формата текста YAML. Объем документа, главы 4 - 9, формально определяет этот текстовый формат. Наконец, глава 10 рекомендует основные схемы YAML.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">YAML - это и текстовый формат и метод для того, чтобы представить любую родную структуру данных в этом формате. Поэтому, эта спецификация определяет два понятия: класс объектов данных под названием представления YAML, и синтаксис для того, чтобы представить представления YAML как прогрессию символов, названных потоком YAML. Процессор YAML - это инструмент для преобразования информации между этими </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>дополнительными обозрениями</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Предполагается, что процессор YAML делает свою работу от имени другого модуля, названного приложением.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Эта глава описывает информационные структуры, которые процессор YAML должен создавать или получать из приложения.</t>
-    </r>
-  </si>
-  <si>
-    <t>Конечный процесс вывода представляет сериализацию YAML как символьный поток в человекочитаемом формате. Чтобы достичь максимальной удобочитаемости для человека, YAML предлагает богатый набор стилистических опций, которые идут далеко вне минимальных функциональных потребностей простого хранения данных. Поэтому процессор YAML требует ввода различных подробностей представления, создавая поток, такой как выбор стилей узла, как форматировать скалярное информационное наполнение, количество отступов, которые отмечают маркеры, чтобы использовать, тэги узла, чтобы оставить неопределенным, набор директив, чтобы обеспечить и возможно даже что комментарии добавить. В то время как часть этого может быть сделана с помощью приложения, вообще этот процесс должен управляться персональными настройками пользователя.</t>
-  </si>
-  <si>
-    <t>Парсинг является обратным процессом представления, он берет поток символов и создает набор событий. Парсинг отказывается от всех подробностей, введенных в процессе представления, сообщая только о событиях последовательного упорядочения. Парсинг может потерпеть неудачу из-за плохо сформированного ввода.</t>
-  </si>
-  <si>
-    <t>Создание графа представления</t>
-  </si>
-  <si>
-    <t>Создание берет набор сериализованных событий и создает граф представления. Создание отказывается от всех подробностей, введенных в процессе сериализации, производя только граф представления. Создание может терпеть неудачу из-за любой из нескольких причин, детализированных ниже.</t>
-  </si>
-  <si>
-    <t>Конечный входной процесс создает родные структуры данных из YAML представления. Конструкция должна базироваться только на информации, доступной в представлении, а не на дополнительных сериализациях или представлениях, таких как комментарии, директивы, сопоставления ключей, стили узла, скалярный формат контента, уровни отступов и т.д. Конструкция может терпеть неудачу из-за недоступности необходимых родных типов данных.</t>
-  </si>
-  <si>
-    <t>Информационное наполнение узла последовательности - это набор из нуля или большего количества узлов. В частности, последовательность может содержать один и тот же узел только один раз. Последовательность может даже содержать себя (прямо или косвенно).</t>
-  </si>
-  <si>
-    <t>Информационное наполнение скалярного узла - непрозрачная данная величина, которая может быть представлена нулем или большим количеством символов Unicode.</t>
-  </si>
-  <si>
-    <t>Информационное наполнение узла отображения - неупорядоченный набор пар "ключ: значение", с ограничением, что каждый ключ уникален. YAML не устанавливает других ограничений для узлов. В частности, ключи могут быть произвольными узлами, узел может использоваться как значение нескольких пар (составной ключ), и сопоставление может даже содержать себя как ключ или значение (прямо или косвенно).</t>
-  </si>
-  <si>
-    <t>Этот раздел определяет формальные подробности результатов вышеупомянутых процессов. Для максимальной портабельности данных между языками программирования и реализациями, пользователи YAML должны помнить различие между свойствами сериализации или представлением свойств и теми, которые являются частью представления YAML. Таким образом, в то время как упорядочивание по ключам отображения необходимо для сглаживания YAML представлений передающей среде последовательного доступа, эти детали сериализации не должны использоваться, чтобы передать информацию прикладного уровня. Подобным способом, в то время как стандартная методика и выбор стиля узла необходимы для удобочитаемости человеком, подробности представления ни часть сериализации YAML, ни представления YAML. Тщательно отделяя свойства, необходимые для сериализации и представления, YAML предоставляет информацию, которая будет непротиворечива и портабельна между различными средами программирования.</t>
-  </si>
-  <si>
-    <t>Следующая диаграмма суммирует три информационные модели. Полные стрелки обозначают композицию, полые стрелки обозначают наследование, “1” и “*” обозначает "один" и "много" связей. Единственный “+” обозначает подробности сериализации, двойной “++” обозначает подробности представления.</t>
-  </si>
-  <si>
-    <t>Представление YAML родной структуры данных - внедренный, подключенный, ориентированный граф теговых узлов. Под "ориентированным графом" мы подразумеваем набор узлов и ребер (стрелки), где каждое ребро соединяет один узел с другим (см. формальное определение). Все узлы должны быть доступными от корневого узла через такие ребра. Отметьте, что граф YAML может включать циклы, и узел может иметь больше, чем одно входящее ребро.</t>
-  </si>
-  <si>
-    <t>Узлы, которые определены с точки зрения других узлов, являются коллекциями; узлы, которые независимы от любых других узлов, являются скалярами. YAML поддерживает два вида узлов коллекции: последовательности и сопоставления. Узлы сосоставления являются несколько сложными, потому что их ключи неупорядоченны и должны быть уникальными.</t>
-  </si>
-  <si>
-    <t>Узел YAML представляет единственную родную структуру данных. У таких узлов есть информационное наполнение одного из трех видов: скаляр, последовательность или отображение. Кроме того, каждый узел имеет тэг, который служит, для ограничения набора возможных значений, которое может иметь контент.</t>
-  </si>
-  <si>
-    <t>Соответственно, удобно рассматривать последовательности и сопоставления вместе, как коллекции. В этом виде последовательности обработаны как сопоставления с целыми ключами, начинающимися с нуля. Наличие объединенного представления коллекций для последовательностей и отображений полезно и для теоретического анализа и для того, чтобы создать практические инструментальные средства YAML и API. Эта стратегия также используется языком программирования Javascript.</t>
-  </si>
-  <si>
-    <t>YAML не передает под мандат специальных отношений между различными тэгами, которые начинаются с той же самой подстроки. Тэги, заканчивающиеся фрагментами URI (содержащий “#”), не являются никаким исключением; тэги, которые совместно используют тех же самых основных URI, но отличаются по их части фрагмента, как полагают, являются различными, независимыми тэгами. В соответствии с соглашением, фрагменты используются, чтобы идентифицировать различные "варианты" тэга, в то время как “/” используется, чтобы определить вложенные иерархии "пространства имен" тэга. Однако, это - просто соглашение, и каждый тэг может использовать свои собственные правила. Например, тэги Языка Perl могут использовать “::”, чтобы выразить иерархии пространства имен, тэги Java могут использовать “.”, и т.д.</t>
-  </si>
-  <si>
-    <t>Тэги YAML используются, чтобы связать метаинформацию с каждым узлом. В частности, каждый тэг должен определить ожидаемый вид узла (скаляр, последовательность или сопоставление). Скалярные тэги должны также обеспечить механизм для того, чтобы он преобразовал отформатированный контент в каноническую форму для поддержания тестирования равенства. Кроме того, тэг может предоставить дополнительную информацию, такую как набор разрешенных значений контента для проверки правильности, механизм для разрешающей способности тэга, или любых других данных, которые применимы ко всем узлам тэга.</t>
-  </si>
-  <si>
-    <t>Так как сопоставления YAML требуют уникальности ключей, представления должны включать механизм для того, чтобы проверить равенство узлов. Это нетривиально, так как YAML позволяет различными способами форматировать скалярное наполнение. Например, целое число одиннадцать может быть написано как “0o13” (восьмеричный) или “0xB”  (шестнадцатеричный). Если бы оба примечания использовались как ключи в одном сопоставлении, только процессор YAML, который распознает целочисленные форматы, правильно пометил бы дублированные ключи как ошибку.</t>
-  </si>
-  <si>
-    <t>YAML поддерживает потребность в скалярном равенстве, требуя, чтобы каждый скалярный тэг определил механизм для того, чтобы произвести каноническую форму любого отформатированного информационного наполнения. Эта форма - строка символов Unicode, которая также представляет то же самое информационное наполнение, и может использоваться для тестирования равенства. В то время как это требование более сильно, чем хорошо определенный оператор равенства, у него есть другое использование, такое как продукция цифровых подписей.</t>
-  </si>
-  <si>
-    <t>Два узла должны иметь одинаковые тэги и содержание, чтобы быть равными. Так как каждый тэг относится точно к одному виду, это подразумевает, что у этих двух узлов должен быть тот же самый вид, чтобы быть равными. Два скаляра равны только, когда их тэги и канонические формы равны посимвольно. Равенство коллекций определено рекурсивно. Две последовательности равны только, когда у них есть тот же самый тэг и длина, и каждый узел в одной последовательности равен соответствующему узлу в другой последовательности. Два сопоставления равны только тогда, когда у них есть тот же самый тэг и равный набор ключей, и каждый ключ в этом наборе связан с равными значениями в обоих сопоставлениях.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Различные схемы URI могут определить различные правила для проверки равенства URI. Так как процессор YAML не может </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>разумно ожидать</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, не будет знать о них всех, он должен прибегнуть к простому посимвольному сравнению тэгов, чтобы гарантировать последовательность. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Это также, случается, метод сравнения, определенный “тэгом:” схема URI. Тэги в потоке YAML должны поэтому быть представлены каноническим способом так, чтобы такое сравнение привело бы к правильным результатам.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Для выражения представления YAML используется последовательный API, необходимо упорядочить ключи соотношения и использовать псевдонимы узлов, чтобы указать последующее вхождение узла, с которым ранее сталкиваются. Результат этого процесса - дерево сериализации, где каждый узел имеет упорядоченный набор дочерних узлов. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF7C80"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Это дерево может быть пересечено для последовательного основанного на событиях API.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Конструкция родных структур данных от последовательного интерфейса не должна использовать упорядоченные ключи или названия якорей для сохранения данных прикладной программы.</t>
-    </r>
-  </si>
-  <si>
-    <t>В модели представления ключи соотношения не имеют порядка. Для сериализации соотношения, необходимо упорядочить ключи. Этот порядок - детали сериализации и он не должен использоваться, когда составляется граф представления (и следовательно для сохранения данных прикладной программы). В каждом случае, где порядок узла важен, должна быть использована последовательность. Например, упорядоченное соотношение может быть представлено как последовательность соотношений, где каждое соотношение - единственный ключ: значение пара. YAML обеспечивает удобную компактную запись для этого случая.</t>
-  </si>
-  <si>
-    <t>В графе представления узел может появиться больше, чем в одной коллекции. Когда сериализуются такие данные, первое вхождение узла идентифицируется якорем. Каждое последующее вхождение сериализуется как узел псевдонима, который ссылается на якорь. Иначе, прикрепитесь, названия - детали последовательного упорядочения и отказаны, как только создание закончено. Составляя граф представления из преобразованных в последовательный режим событий, узел псевдонима обращается к новому узлу в последовательном упорядочении, имеющем указанную привязку. Поэтому, привязки не должны быть уникальными в пределах последовательного упорядочения. Кроме того, у привязки не должно быть узла псевдонима, обращающегося к этому. Это поэтому возможно, чтобы обеспечить привязку для всех узлов в последовательном упорядочении.</t>
+    <t>Продукция, начинающаяся и заканчивающаяся со специальным символом.</t>
+  </si>
+  <si>
+    <t>Продукция, начинающаяся и заканчивающаяся не символом прерывания.</t>
+  </si>
+  <si>
+    <t>Продукция, начинающаяся и заканчивающаяся символом пробела.</t>
+  </si>
+  <si>
+    <t>Продукция, начинающаяся и заканчивающаяся не символом пробела.</t>
+  </si>
+  <si>
+    <t>Продукция, соответствующая законченной строке(ам).</t>
+  </si>
+  <si>
+    <t>Продукция, начинающаяся с символа X- и заканчивающаяся символом Y-, где X- и Y- любой из вышеупомянутых префиксов.</t>
+  </si>
+  <si>
+    <t>Продукция как и выше, с дополнительным свойством, который соответствует уровню сдвига контента больше, чем указанный n параметр.</t>
+  </si>
+  <si>
+    <t>5.1. Кодировка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19011,23 +19003,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF7C80"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF7C80"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -19041,6 +19016,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19067,7 +19049,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -19139,9 +19121,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -19175,18 +19154,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -19204,14 +19171,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19519,556 +19495,556 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="99.7109375" style="44" customWidth="1"/>
+    <col min="1" max="2" width="80.7109375" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="40" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="40" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="40" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="40" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="38" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="41" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="41" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="40" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="41" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="42" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="41" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="42" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="42" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="41" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="42" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="42" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="42" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="42" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="40" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="41" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="41" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="41" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="41" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="38" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="40" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="40" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="38" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="40" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="40" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="40" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="40" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="40" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="40" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="40" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="38" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="40" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="40" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="40" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="40" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="40" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="40" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="40" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="40" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="41" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="41" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="42" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="40" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="41" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="41" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="38" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="40" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="40" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="40" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="41" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="41" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="41" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="40" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="41" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="41" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="40" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="38" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="40" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="41" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="42" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="42" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="41" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="41" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="45" t="s">
+      <c r="A80" s="40" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="41" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="41" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="41" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="38" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="40" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="41" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="41" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="41" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="41" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="41" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="40" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="38" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="40" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="41" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="42" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="42" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="42" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="41" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="45" t="s">
+      <c r="A99" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="41" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="42" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="42" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="42" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="42" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="46" t="s">
+      <c r="A105" s="41" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="40" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="41" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="41" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="40" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="43" t="s">
+      <c r="A110" s="38" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20197,8 +20173,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -20216,7 +20192,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75">
@@ -20226,7 +20202,7 @@
     </row>
     <row r="5" spans="1:2" ht="63">
       <c r="A5" s="10" t="s">
-        <v>992</v>
+        <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -20236,7 +20212,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20254,27 +20230,27 @@
     </row>
     <row r="11" spans="1:2" ht="50.25">
       <c r="A11" s="10" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5">
       <c r="A12" s="10" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="50.25">
       <c r="A13" s="10" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
       <c r="A14" s="10" t="s">
-        <v>997</v>
+        <v>977</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5">
       <c r="A15" s="10" t="s">
-        <v>998</v>
+        <v>978</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20284,17 +20260,17 @@
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>999</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25">
       <c r="A18" s="11" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="47.25">
@@ -20317,7 +20293,7 @@
     </row>
     <row r="24" spans="1:1" ht="48.75">
       <c r="A24" s="10" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="47.25">
@@ -20345,7 +20321,7 @@
     </row>
     <row r="30" spans="1:1" ht="31.5">
       <c r="A30" s="10" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -20363,7 +20339,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.5">
@@ -20386,7 +20362,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="31.5">
@@ -20414,7 +20390,7 @@
     </row>
     <row r="45" spans="1:1" ht="34.5">
       <c r="A45" s="10" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -20468,8 +20444,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -20482,7 +20458,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -20492,7 +20468,7 @@
     </row>
     <row r="4" spans="1:2" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -20511,7 +20487,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>204</v>
       </c>
     </row>
@@ -20521,7 +20497,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>206</v>
       </c>
     </row>
@@ -20537,7 +20513,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="7" t="s">
-        <v>1009</v>
+        <v>989</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20554,7 +20530,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20564,7 +20540,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20580,7 +20556,7 @@
     </row>
     <row r="22" spans="1:1" ht="17.25">
       <c r="A22" s="7" t="s">
-        <v>1010</v>
+        <v>990</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -20597,7 +20573,7 @@
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>214</v>
       </c>
     </row>
@@ -20607,7 +20583,7 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20627,13 +20603,13 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="7" t="s">
-        <v>1011</v>
+        <v>991</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -20646,12 +20622,12 @@
     </row>
     <row r="36" spans="1:1" ht="50.25">
       <c r="A36" s="10" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="33">
       <c r="A37" s="10" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23.25">
@@ -20661,7 +20637,7 @@
     </row>
     <row r="39" spans="1:1" ht="47.25">
       <c r="A39" s="10" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75">
@@ -20685,7 +20661,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>224</v>
       </c>
     </row>
@@ -20695,7 +20671,7 @@
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20706,7 +20682,7 @@
     </row>
     <row r="48" spans="1:1" ht="50.25">
       <c r="A48" s="16" t="s">
-        <v>1015</v>
+        <v>995</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -20715,17 +20691,17 @@
       </c>
     </row>
     <row r="50" spans="1:1" ht="17.25">
-      <c r="A50" s="32" t="s">
-        <v>1016</v>
+      <c r="A50" s="31" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17.25">
       <c r="A51" s="7" t="s">
-        <v>1017</v>
+        <v>997</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="33"/>
+      <c r="A52" s="32"/>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
@@ -20738,7 +20714,7 @@
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="31" t="s">
         <v>226</v>
       </c>
     </row>
@@ -20748,7 +20724,7 @@
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20768,13 +20744,13 @@
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
-      <c r="A61" s="33" t="s">
-        <v>1018</v>
+      <c r="A61" s="32" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="7" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -20791,7 +20767,7 @@
       </c>
     </row>
     <row r="66" spans="1:1" ht="17.25">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="31" t="s">
         <v>229</v>
       </c>
     </row>
@@ -20801,7 +20777,7 @@
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20832,12 +20808,12 @@
     </row>
     <row r="74" spans="1:1" ht="34.5">
       <c r="A74" s="16" t="s">
-        <v>1020</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17.25">
       <c r="A75" s="7" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -20854,7 +20830,7 @@
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.25">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="31" t="s">
         <v>234</v>
       </c>
     </row>
@@ -20864,7 +20840,7 @@
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20895,12 +20871,12 @@
     </row>
     <row r="87" spans="1:1" ht="34.5">
       <c r="A87" s="16" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="7" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -20918,17 +20894,17 @@
     </row>
     <row r="92" spans="1:1" ht="50.25">
       <c r="A92" s="10" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="34.5">
       <c r="A93" s="10" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="66">
       <c r="A94" s="10" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="94.5">
@@ -20951,11 +20927,11 @@
     </row>
     <row r="99" spans="1:1" ht="47.25">
       <c r="A99" s="10" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="26" t="s">
         <v>243</v>
       </c>
     </row>
@@ -20965,7 +20941,7 @@
       </c>
     </row>
     <row r="102" spans="1:1" ht="18.75">
-      <c r="A102" s="27" t="s">
+      <c r="A102" s="26" t="s">
         <v>245</v>
       </c>
     </row>
@@ -20976,17 +20952,17 @@
     </row>
     <row r="104" spans="1:1" ht="50.25">
       <c r="A104" s="10" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="34.5">
       <c r="A105" s="10" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="50.25">
       <c r="A106" s="10" t="s">
-        <v>1027</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="173.25">
@@ -21009,7 +20985,7 @@
     </row>
     <row r="111" spans="1:1" ht="48.75">
       <c r="A111" s="10" t="s">
-        <v>1028</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="31.5">
@@ -21024,7 +21000,7 @@
     </row>
     <row r="114" spans="1:1" ht="63">
       <c r="A114" s="10" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="63">
@@ -21045,8 +21021,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -21061,32 +21037,32 @@
       <c r="A2" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>1167</v>
+      <c r="B2" s="35" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="126">
       <c r="A3" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>1168</v>
+      <c r="B3" s="35" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="141.75">
       <c r="A4" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>1169</v>
+      <c r="B4" s="35" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="110.25">
       <c r="A5" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>1170</v>
+      <c r="B5" s="35" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -21094,7 +21070,7 @@
         <v>344</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1171</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21102,7 +21078,7 @@
         <v>345</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1172</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21110,7 +21086,7 @@
         <v>346</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21118,7 +21094,7 @@
         <v>347</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1174</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21126,7 +21102,7 @@
         <v>348</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>1175</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5">
@@ -21134,7 +21110,7 @@
         <v>349</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>1176</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21142,7 +21118,7 @@
         <v>350</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>1177</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21150,7 +21126,7 @@
         <v>351</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>1178</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21158,7 +21134,7 @@
         <v>352</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1179</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25">
@@ -21166,15 +21142,15 @@
         <v>353</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1180</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="63">
       <c r="A16" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>1181</v>
+      <c r="B16" s="35" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
@@ -21182,63 +21158,63 @@
         <v>355</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1182</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63">
       <c r="A18" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>1183</v>
+      <c r="B18" s="35" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="110.25">
       <c r="A19" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>1184</v>
+      <c r="B19" s="35" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="78.75">
       <c r="A20" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>1185</v>
+      <c r="B20" s="35" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="78.75">
       <c r="A21" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>1186</v>
+      <c r="B21" s="35" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="78.75">
       <c r="A22" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>1187</v>
+      <c r="B22" s="35" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="126">
       <c r="A23" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>1188</v>
+      <c r="B23" s="35" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="66">
       <c r="A24" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>1189</v>
+      <c r="B24" s="35" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25">
@@ -21246,47 +21222,47 @@
         <v>361</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1190</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="94.5">
       <c r="A26" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>1191</v>
+      <c r="B26" s="35" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="94.5">
       <c r="A27" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>1192</v>
+      <c r="B27" s="35" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="63">
       <c r="A28" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>1193</v>
+      <c r="B28" s="35" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="78.75">
       <c r="A29" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>1194</v>
+      <c r="B29" s="35" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="126">
       <c r="A30" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>1195</v>
+      <c r="B30" s="35" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23.25">
@@ -21294,7 +21270,7 @@
         <v>367</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1196</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="47.25">
@@ -21302,23 +21278,23 @@
         <v>368</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>1197</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="94.5">
       <c r="A33" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>1198</v>
+      <c r="B33" s="35" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="63">
       <c r="A34" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>1199</v>
+      <c r="B34" s="35" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25">
@@ -21326,7 +21302,7 @@
         <v>371</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1200</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="47.25">
@@ -21334,7 +21310,7 @@
         <v>372</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1201</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -21342,7 +21318,7 @@
         <v>373</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1202</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.5">
@@ -21350,31 +21326,31 @@
         <v>752</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1203</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>1204</v>
+      <c r="B39" s="37" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="63">
       <c r="A40" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>1205</v>
+      <c r="B40" s="35" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>1204</v>
+      <c r="B41" s="28" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5">
@@ -21382,15 +21358,15 @@
         <v>754</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1206</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="78.75">
       <c r="A43" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>1207</v>
+      <c r="B43" s="35" t="s">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -21406,7 +21382,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="99.7109375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="80.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21639,7 +21615,7 @@
         <v>746</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1166</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
@@ -21670,7 +21646,7 @@
       <c r="A40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="37" t="s">
         <v>683</v>
       </c>
     </row>
@@ -21791,7 +21767,7 @@
         <v>749</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1163</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
@@ -21847,7 +21823,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1164</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5">
@@ -21855,7 +21831,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1165</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75">
@@ -21910,15 +21886,15 @@
         <v>699</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="126">
+    <row r="2" spans="1:2" ht="157.5">
       <c r="A2" s="10" t="s">
         <v>700</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="141.75">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="173.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -21934,7 +21910,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="47.25">
+    <row r="5" spans="1:2" ht="63">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -21953,12 +21929,12 @@
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:2" ht="94.5">
+    <row r="8" spans="1:2" ht="110.25">
       <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1162</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75">
@@ -21985,7 +21961,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="126">
+    <row r="12" spans="1:2" ht="157.5">
       <c r="A12" s="10" t="s">
         <v>702</v>
       </c>
@@ -21993,7 +21969,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="110.25">
+    <row r="13" spans="1:2" ht="141.75">
       <c r="A13" s="10" t="s">
         <v>703</v>
       </c>
@@ -22009,7 +21985,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="189">
+    <row r="15" spans="1:2" ht="220.5">
       <c r="A15" s="10" t="s">
         <v>704</v>
       </c>
@@ -22025,12 +22001,12 @@
         <v>766</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="157.5">
+    <row r="17" spans="1:2" ht="204.75">
       <c r="A17" s="10" t="s">
         <v>705</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1209</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75">
@@ -22057,12 +22033,12 @@
         <v>777</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63">
+    <row r="21" spans="1:2" ht="78.75">
       <c r="A21" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>1210</v>
+      <c r="B21" s="43" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -22070,15 +22046,15 @@
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="63">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="78.75">
       <c r="A23" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>1212</v>
+      <c r="B23" s="43" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -22089,12 +22065,12 @@
         <v>778</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="78.75">
+    <row r="25" spans="1:2" ht="110.25">
       <c r="A25" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>1213</v>
+      <c r="B25" s="44" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
@@ -22105,20 +22081,20 @@
         <v>779</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="189">
+    <row r="27" spans="1:2" ht="252">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="63">
+      <c r="B27" s="43" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="78.75">
       <c r="A28" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>1218</v>
+      <c r="B28" s="44" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -22137,20 +22113,20 @@
         <v>781</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="94.5">
+    <row r="32" spans="1:2" ht="110.25">
       <c r="A32" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="63">
+      <c r="B32" s="44" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="94.5">
       <c r="A33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>1220</v>
+      <c r="B33" s="44" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -22169,12 +22145,12 @@
         <v>783</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="63">
+    <row r="37" spans="1:2" ht="78.75">
       <c r="A37" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>1221</v>
+      <c r="B37" s="44" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -22185,28 +22161,28 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="31.5">
+    <row r="39" spans="1:2" ht="47.25">
       <c r="A39" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>1215</v>
+      <c r="B39" s="43" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="45" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="47.25">
+    <row r="41" spans="1:2" ht="63">
       <c r="A41" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>1214</v>
+      <c r="B41" s="43" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -22217,20 +22193,20 @@
         <v>786</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="78.75">
+    <row r="43" spans="1:2" ht="94.5">
       <c r="A43" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B43" s="49" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="94.5">
+      <c r="B43" s="44" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="110.25">
       <c r="A44" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="B44" s="49" t="s">
-        <v>1222</v>
+      <c r="B44" s="44" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -22241,28 +22217,28 @@
         <v>787</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="126">
+    <row r="46" spans="1:2" ht="157.5">
       <c r="A46" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="35" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="157.5">
+    <row r="47" spans="1:2" ht="189">
       <c r="A47" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="126">
+      <c r="B47" s="35" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="141.75">
       <c r="A48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="49" t="s">
-        <v>1224</v>
+      <c r="B48" s="44" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22273,12 +22249,12 @@
         <v>788</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="110.25">
+    <row r="50" spans="1:2" ht="141.75">
       <c r="A50" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B50" s="49" t="s">
-        <v>1225</v>
+      <c r="B50" s="44" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22289,12 +22265,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="110.25">
+    <row r="52" spans="1:2" ht="126">
       <c r="A52" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="B52" s="36" t="s">
-        <v>1226</v>
+      <c r="B52" s="35" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22305,20 +22281,20 @@
         <v>790</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="126">
+    <row r="54" spans="1:2" ht="157.5">
       <c r="A54" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B54" s="49" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="94.5">
+      <c r="B54" s="44" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="110.25">
       <c r="A55" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B55" s="49" t="s">
-        <v>1228</v>
+      <c r="B55" s="44" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22329,11 +22305,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="78.75">
+    <row r="57" spans="1:2" ht="110.25">
       <c r="A57" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="44" t="s">
         <v>827</v>
       </c>
     </row>
@@ -22349,8 +22325,8 @@
       <c r="A59" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B59" s="49" t="s">
-        <v>1229</v>
+      <c r="B59" s="44" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22370,8 +22346,8 @@
       <c r="A63" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B63" s="49" t="s">
-        <v>1230</v>
+      <c r="B63" s="44" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -22386,8 +22362,8 @@
       <c r="A65" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>1231</v>
+      <c r="B65" s="35" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75">
@@ -22398,11 +22374,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="141.75">
+    <row r="67" spans="1:2" ht="173.25">
       <c r="A67" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="35" t="s">
         <v>826</v>
       </c>
     </row>
@@ -22422,27 +22398,27 @@
         <v>797</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="63">
+    <row r="71" spans="1:2" ht="78.75">
       <c r="A71" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="35" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="63">
+    <row r="72" spans="1:2" ht="78.75">
       <c r="A72" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="35" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="94.5">
+    <row r="73" spans="1:2" ht="110.25">
       <c r="A73" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="35" t="s">
         <v>823</v>
       </c>
     </row>
@@ -22465,11 +22441,11 @@
         <v>799</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="94.5">
+    <row r="77" spans="1:2" ht="110.25">
       <c r="A77" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>822</v>
       </c>
     </row>
@@ -22481,11 +22457,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="94.5">
+    <row r="79" spans="1:2" ht="110.25">
       <c r="A79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="35" t="s">
         <v>821</v>
       </c>
     </row>
@@ -22497,11 +22473,11 @@
         <v>801</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="80.25">
+    <row r="81" spans="1:2" ht="96">
       <c r="A81" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="35" t="s">
         <v>820</v>
       </c>
     </row>
@@ -22513,19 +22489,19 @@
         <v>802</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="78.75">
+    <row r="83" spans="1:2" ht="110.25">
       <c r="A83" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="35" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="110.25">
+    <row r="84" spans="1:2" ht="141.75">
       <c r="A84" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="35" t="s">
         <v>818</v>
       </c>
     </row>
@@ -22545,11 +22521,11 @@
         <v>804</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="110.25">
+    <row r="88" spans="1:2" ht="141.75">
       <c r="A88" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="35" t="s">
         <v>817</v>
       </c>
     </row>
@@ -22557,57 +22533,57 @@
       <c r="A89" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="26"/>
-    </row>
-    <row r="90" spans="1:2" ht="78.75">
+      <c r="B89" s="25"/>
+    </row>
+    <row r="90" spans="1:2" ht="94.5">
       <c r="A90" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="35" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78.75">
+    <row r="91" spans="1:2" ht="94.5">
       <c r="A91" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="35" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="110.25">
+    <row r="92" spans="1:2" ht="141.75">
       <c r="A92" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="35" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="94.5">
+    <row r="93" spans="1:2" ht="110.25">
       <c r="A93" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="35" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="94.5">
+    <row r="94" spans="1:2" ht="116.25">
       <c r="A94" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="35" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="126">
+    <row r="95" spans="1:2" ht="141.75">
       <c r="A95" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="35" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="47.25">
+    <row r="96" spans="1:2" ht="63">
       <c r="A96" s="10" t="s">
         <v>87</v>
       </c>
@@ -22615,7 +22591,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="47.25">
+    <row r="97" spans="1:2" ht="63">
       <c r="A97" s="10" t="s">
         <v>738</v>
       </c>
@@ -22631,11 +22607,11 @@
         <v>805</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="126">
+    <row r="99" spans="1:2" ht="157.5">
       <c r="A99" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="35" t="s">
         <v>808</v>
       </c>
     </row>
@@ -22647,11 +22623,11 @@
         <v>806</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="78.75">
+    <row r="101" spans="1:2" ht="94.5">
       <c r="A101" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="35" t="s">
         <v>807</v>
       </c>
     </row>
@@ -22669,8 +22645,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -22685,32 +22661,32 @@
       <c r="A2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="78.75">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="44" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="94.5">
+      <c r="A3" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="47.25">
+      <c r="B3" s="44" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63">
       <c r="A4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>831</v>
+      <c r="B4" s="43" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="47.25">
       <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>832</v>
+      <c r="B5" s="43" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -22718,95 +22694,95 @@
         <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="47.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="63">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="63">
+      <c r="B7" s="43" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="78.75">
       <c r="A8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>835</v>
+      <c r="B8" s="44" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>836</v>
+      <c r="B9" s="46" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="14" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="47.25">
+        <v>1116</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="63">
       <c r="A11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>838</v>
+      <c r="B11" s="43" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="14" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="31.5">
+        <v>1117</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="47.25">
       <c r="A13" s="16" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="64.5">
+        <v>1118</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="94.5">
       <c r="A14" s="16" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="105">
+        <v>1119</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="141.75">
       <c r="A15" s="16" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>842</v>
+        <v>1120</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="14" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="47.25">
+        <v>1121</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63">
       <c r="A17" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>844</v>
+      <c r="B17" s="35" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
@@ -22814,163 +22790,164 @@
         <v>102</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="63">
       <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>846</v>
+      <c r="B19" s="43" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
-      <c r="A20" s="41" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>1136</v>
+      <c r="A20" s="36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>847</v>
+      <c r="B21" s="46" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>1137</v>
+      <c r="A22" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>848</v>
+      <c r="B23" s="46" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
-      <c r="A24" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>1138</v>
+      <c r="A24" s="36" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>849</v>
+      <c r="B25" s="46" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
-      <c r="A26" s="41" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>1139</v>
+      <c r="A26" s="36" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>850</v>
+      <c r="B27" s="46" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
-      <c r="A28" s="41" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>1140</v>
+      <c r="A28" s="36" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>851</v>
+      <c r="B29" s="46" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
-      <c r="A30" s="41" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>1141</v>
+      <c r="A30" s="36" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>852</v>
+      <c r="B31" s="46" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
-      <c r="A32" s="41" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>1142</v>
+      <c r="A32" s="36" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>853</v>
+      <c r="B33" s="46" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
-      <c r="A34" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="33">
+      <c r="A34" s="36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34.5">
       <c r="A35" s="16" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>854</v>
+        <v>1130</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
-      <c r="A36" s="41" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>1144</v>
+      <c r="A36" s="36" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="33">
       <c r="A37" s="16" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>855</v>
+        <v>1132</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22982,8 +22959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -22998,10 +22975,13 @@
       <c r="A2" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="67.5">
       <c r="A3" s="10" t="s">
-        <v>1030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -23026,7 +23006,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.25">
@@ -23036,7 +23016,7 @@
     </row>
     <row r="10" spans="1:2" ht="48.75">
       <c r="A10" s="10" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -23051,7 +23031,7 @@
     </row>
     <row r="13" spans="1:2" ht="48.75">
       <c r="A13" s="10" t="s">
-        <v>1033</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -23086,12 +23066,12 @@
     </row>
     <row r="20" spans="1:1" ht="17.25">
       <c r="A20" s="11" t="s">
-        <v>1034</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25">
       <c r="A21" s="11" t="s">
-        <v>1035</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -23100,7 +23080,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="17.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
@@ -23116,38 +23096,38 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="30" t="s">
-        <v>1036</v>
+      <c r="A27" s="29" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25">
       <c r="A29" s="11" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.25">
       <c r="A31" s="11" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17.25">
       <c r="A32" s="11" t="s">
-        <v>1041</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="11" t="s">
-        <v>1042</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -23160,52 +23140,52 @@
     </row>
     <row r="36" spans="1:1" ht="17.25">
       <c r="A36" s="11" t="s">
-        <v>1043</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17.25">
       <c r="A37" s="11" t="s">
-        <v>1044</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>1046</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>1047</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17.25">
       <c r="A41" s="11" t="s">
-        <v>1048</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>1049</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25">
       <c r="A43" s="11" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25">
       <c r="A44" s="11" t="s">
-        <v>1051</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17.25">
       <c r="A45" s="11" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -23218,12 +23198,12 @@
     </row>
     <row r="48" spans="1:1" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25">
       <c r="A49" s="11" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -23236,32 +23216,32 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>1055</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17.25">
       <c r="A53" s="11" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25">
       <c r="A55" s="11" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17.25">
       <c r="A56" s="11" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="48.75">
       <c r="A57" s="10" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -23274,22 +23254,22 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="11" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17.25">
       <c r="A63" s="11" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -23302,22 +23282,22 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17.25">
       <c r="A67" s="11" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17.25">
       <c r="A68" s="11" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -23330,12 +23310,12 @@
     </row>
     <row r="72" spans="1:1" ht="17.25">
       <c r="A72" s="11" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17.25">
       <c r="A73" s="11" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -23348,12 +23328,12 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.25">
       <c r="A77" s="11" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -23376,12 +23356,12 @@
     </row>
     <row r="82" spans="1:1" ht="48.75">
       <c r="A82" s="10" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17.25">
       <c r="A83" s="11" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="23.25">
@@ -23391,27 +23371,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="11" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="11" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="51.75">
       <c r="A89" s="10" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="78.75">
@@ -23421,7 +23401,7 @@
     </row>
     <row r="91" spans="1:1" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -23436,12 +23416,12 @@
     </row>
     <row r="94" spans="1:1" ht="47.25">
       <c r="A94" s="10" t="s">
-        <v>1081</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17.25">
       <c r="A95" s="11" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -23451,7 +23431,7 @@
     </row>
     <row r="97" spans="1:1" ht="17.25">
       <c r="A97" s="11" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="31.5">
@@ -23461,7 +23441,7 @@
     </row>
     <row r="99" spans="1:1" ht="17.25">
       <c r="A99" s="10" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -23479,22 +23459,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="11" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.25">
       <c r="A104" s="11" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.25">
       <c r="A105" s="11" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="11" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -23504,12 +23484,12 @@
     </row>
     <row r="108" spans="1:1" ht="17.25">
       <c r="A108" s="11" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="34.5">
       <c r="A109" s="10" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -23532,12 +23512,12 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="11" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -23551,13 +23531,13 @@
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="32" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17.25">
       <c r="A119" s="11" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -23567,17 +23547,17 @@
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>1094</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="33">
       <c r="A122" s="16" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="64.5">
       <c r="A123" s="16" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="47.25">
@@ -23587,12 +23567,12 @@
     </row>
     <row r="125" spans="1:1" ht="50.25">
       <c r="A125" s="10" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.25">
       <c r="A126" s="11" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="23.25">
@@ -23602,17 +23582,17 @@
     </row>
     <row r="128" spans="1:1" ht="64.5">
       <c r="A128" s="10" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="33">
       <c r="A129" s="10" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.25">
       <c r="A130" s="11" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -23622,172 +23602,172 @@
     </row>
     <row r="132" spans="1:1" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17.25">
       <c r="A133" s="11" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17.25">
       <c r="A134" s="11" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17.25">
       <c r="A136" s="11" t="s">
-        <v>1106</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17.25">
       <c r="A137" s="11" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17.25">
       <c r="A138" s="11" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="33">
       <c r="A139" s="10" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17.25">
       <c r="A141" s="11" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17.25">
       <c r="A142" s="11" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17.25">
       <c r="A143" s="11" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>1114</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17.25">
       <c r="A145" s="11" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17.25">
       <c r="A147" s="11" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17.25">
       <c r="A148" s="11" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17.25">
       <c r="A149" s="11" t="s">
-        <v>1119</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17.25">
       <c r="A150" s="11" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="33">
       <c r="A151" s="10" t="s">
-        <v>1121</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17.25">
       <c r="A152" s="11" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17.25">
       <c r="A154" s="11" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17.25">
       <c r="A155" s="11" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17.25">
       <c r="A156" s="11" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17.25">
       <c r="A157" s="11" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17.25">
       <c r="A158" s="11" t="s">
-        <v>1128</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.25">
       <c r="A159" s="11" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17.25">
       <c r="A160" s="11" t="s">
-        <v>1130</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17.25">
       <c r="A161" s="11" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17.25">
       <c r="A163" s="11" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17.25">
       <c r="A164" s="11" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17.25">
       <c r="A165" s="11" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="31.5">
@@ -23859,8 +23839,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -23878,7 +23858,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25">
@@ -23893,22 +23873,22 @@
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="11" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33">
       <c r="A7" s="10" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="11" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5">
@@ -23926,7 +23906,7 @@
     </row>
     <row r="13" spans="1:2" ht="33">
       <c r="A13" s="10" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -23944,7 +23924,7 @@
     </row>
     <row r="17" spans="1:1" ht="31.5">
       <c r="A17" s="10" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -23954,7 +23934,7 @@
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -23972,7 +23952,7 @@
     </row>
     <row r="23" spans="1:1" ht="47.25">
       <c r="A23" s="10" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -23987,12 +23967,12 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25">
       <c r="A27" s="11" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -24010,7 +23990,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="11" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="31.5">
@@ -24038,23 +24018,23 @@
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A37" s="12" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="10" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24064,7 +24044,7 @@
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24092,7 +24072,7 @@
     </row>
     <row r="48" spans="1:2" ht="31.5">
       <c r="A48" s="16" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24115,7 +24095,7 @@
     </row>
     <row r="53" spans="1:1" ht="47.25">
       <c r="A53" s="16" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="31.5">
@@ -24138,7 +24118,7 @@
     </row>
     <row r="58" spans="1:1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="63">
@@ -24148,12 +24128,12 @@
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="31.5">
@@ -24176,7 +24156,7 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -24245,7 +24225,7 @@
     </row>
     <row r="81" spans="1:1" ht="50.25">
       <c r="A81" s="12" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -24260,7 +24240,7 @@
     </row>
     <row r="84" spans="1:1" ht="48.75">
       <c r="A84" s="10" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="31.5">
@@ -24270,12 +24250,12 @@
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -24288,22 +24268,22 @@
     </row>
     <row r="90" spans="1:1" ht="20.25">
       <c r="A90" s="18" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="34.5">
       <c r="A91" s="10" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="102">
       <c r="A92" s="10" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="80.25">
       <c r="A93" s="10" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="31.5">
@@ -24318,7 +24298,7 @@
     </row>
     <row r="96" spans="1:1" ht="17.25">
       <c r="A96" s="7" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24326,7 +24306,7 @@
     </row>
     <row r="98" spans="1:2" ht="33">
       <c r="A98" s="10" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24339,12 +24319,12 @@
     </row>
     <row r="101" spans="1:2" ht="20.25">
       <c r="A101" s="18" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A102" s="10" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="B102" s="22"/>
     </row>
@@ -24355,7 +24335,7 @@
     </row>
     <row r="104" spans="1:2" ht="17.25">
       <c r="A104" s="7" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -24363,7 +24343,7 @@
     </row>
     <row r="106" spans="1:2" ht="33">
       <c r="A106" s="10" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -24381,7 +24361,7 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A110" s="10" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="B110" s="22"/>
     </row>
@@ -24397,17 +24377,17 @@
     </row>
     <row r="113" spans="1:1" ht="50.25">
       <c r="A113" s="16" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="50.25">
       <c r="A114" s="16" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -24425,17 +24405,17 @@
     </row>
     <row r="119" spans="1:1" ht="50.25">
       <c r="A119" s="16" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="33">
       <c r="A120" s="16" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -24453,7 +24433,7 @@
     </row>
     <row r="125" spans="1:1" ht="34.5">
       <c r="A125" s="16" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="31.5">
@@ -24463,7 +24443,7 @@
     </row>
     <row r="127" spans="1:1" ht="17.25">
       <c r="A127" s="11" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -24481,12 +24461,12 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="11" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -24496,12 +24476,12 @@
     </row>
     <row r="134" spans="1:2" ht="48.75">
       <c r="A134" s="16" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -24519,12 +24499,12 @@
     </row>
     <row r="139" spans="1:2" ht="64.5">
       <c r="A139" s="16" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -24542,7 +24522,7 @@
     </row>
     <row r="144" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A144" s="10" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="B144" s="22"/>
     </row>
@@ -24566,7 +24546,7 @@
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A149" s="10" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="B149" s="22"/>
     </row>
@@ -24582,12 +24562,12 @@
     </row>
     <row r="152" spans="1:2" ht="66">
       <c r="A152" s="10" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -24613,7 +24593,7 @@
     </row>
     <row r="159" spans="1:2" ht="66">
       <c r="A159" s="16" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="31.5">
@@ -24623,12 +24603,12 @@
     </row>
     <row r="161" spans="1:1" ht="83.25">
       <c r="A161" s="16" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -24654,22 +24634,22 @@
     </row>
     <row r="168" spans="1:1" ht="48.75">
       <c r="A168" s="16" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="51.75">
       <c r="A169" s="16" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17.25">
       <c r="A170" s="16" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17.25">
       <c r="A171" s="11" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -24687,12 +24667,12 @@
     </row>
     <row r="175" spans="1:1" ht="48.75">
       <c r="A175" s="10" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.25">
       <c r="A176" s="11" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="63">
@@ -24702,17 +24682,17 @@
     </row>
     <row r="178" spans="1:1" ht="33">
       <c r="A178" s="10" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17.25">
       <c r="A179" s="11" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17.25">
       <c r="A180" s="11" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -24737,8 +24717,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
@@ -24751,7 +24731,7 @@
     </row>
     <row r="2" spans="1:5" ht="47.25">
       <c r="A2" s="10" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25">
@@ -24761,12 +24741,12 @@
     </row>
     <row r="4" spans="1:5" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="48.75">
       <c r="A5" s="10" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5">
@@ -24776,7 +24756,7 @@
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24794,21 +24774,21 @@
     </row>
     <row r="11" spans="1:5" ht="33">
       <c r="A11" s="10" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="33">
       <c r="A13" s="10" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24821,12 +24801,12 @@
     </row>
     <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="10" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -24844,7 +24824,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="10" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="31.5">
@@ -24853,13 +24833,13 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="51.75">
       <c r="A24" s="10" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -24869,7 +24849,7 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -24879,7 +24859,7 @@
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="63">
@@ -24889,7 +24869,7 @@
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -24902,7 +24882,7 @@
     </row>
     <row r="33" spans="1:2" ht="78.75">
       <c r="A33" s="10" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5">
@@ -24912,7 +24892,7 @@
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="11" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24930,7 +24910,7 @@
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="47.25">
@@ -24958,23 +24938,23 @@
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" ht="81.75">
       <c r="A45" s="10" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="11" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="11" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24992,7 +24972,7 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="63">
@@ -25002,7 +24982,7 @@
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -25020,7 +25000,7 @@
     </row>
     <row r="58" spans="1:1" ht="17.25">
       <c r="A58" s="11" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="47.25">
@@ -25048,12 +25028,12 @@
     </row>
     <row r="64" spans="1:1" ht="63">
       <c r="A64" s="10" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="48.75">
       <c r="A65" s="10" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="47.25">
@@ -25063,7 +25043,7 @@
     </row>
     <row r="67" spans="1:1" ht="66">
       <c r="A67" s="10" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="63">
@@ -25073,12 +25053,12 @@
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="47.25">
@@ -25106,7 +25086,7 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -25152,7 +25132,7 @@
     </row>
     <row r="86" spans="1:2" s="1" customFormat="1" ht="67.5">
       <c r="A86" s="10" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="B86" s="22"/>
     </row>
@@ -25167,8 +25147,8 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25">
-      <c r="A89" s="30" t="s">
-        <v>954</v>
+      <c r="A89" s="29" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.5">
@@ -25178,7 +25158,7 @@
     </row>
     <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="47.25">
@@ -25218,8 +25198,8 @@
       </c>
     </row>
     <row r="100" spans="1:1" ht="17.25">
-      <c r="A100" s="30" t="s">
-        <v>956</v>
+      <c r="A100" s="29" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="31.5">
@@ -25229,7 +25209,7 @@
     </row>
     <row r="102" spans="1:1" ht="17.25">
       <c r="A102" s="11" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="47.25">
@@ -25247,7 +25227,7 @@
     </row>
     <row r="106" spans="1:1" ht="17.25">
       <c r="A106" s="10" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="47.25">
@@ -25270,12 +25250,12 @@
     </row>
     <row r="111" spans="1:1" ht="67.5">
       <c r="A111" s="10" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17.25">
       <c r="A112" s="10" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="47.25">
@@ -25308,7 +25288,7 @@
     </row>
     <row r="119" spans="1:1" ht="66">
       <c r="A119" s="10" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="63">
@@ -25331,7 +25311,7 @@
     </row>
     <row r="124" spans="1:1" ht="48.75">
       <c r="A124" s="10" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -25344,7 +25324,7 @@
     </row>
     <row r="127" spans="1:1" ht="33">
       <c r="A127" s="10" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="47.25">
@@ -25362,7 +25342,7 @@
     </row>
     <row r="131" spans="1:2" ht="50.25">
       <c r="A131" s="10" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="47.25">
@@ -25418,13 +25398,13 @@
     </row>
     <row r="143" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A143" s="12" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="B143" s="22"/>
     </row>
     <row r="144" spans="1:2" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="31.5">
@@ -25434,7 +25414,7 @@
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -25486,8 +25466,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -25500,7 +25480,7 @@
     </row>
     <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="10" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -25510,17 +25490,17 @@
     </row>
     <row r="4" spans="1:2" ht="31.5">
       <c r="A4" s="10" t="s">
-        <v>990</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25">
       <c r="A6" s="10" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75">
@@ -25548,12 +25528,12 @@
     </row>
     <row r="12" spans="1:2" ht="33">
       <c r="A12" s="10" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="47.25">
       <c r="A13" s="10" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
@@ -25589,7 +25569,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="12" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -25598,8 +25578,8 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="33">
-      <c r="A23" s="31" t="s">
-        <v>987</v>
+      <c r="A23" s="30" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -25608,8 +25588,8 @@
       </c>
     </row>
     <row r="25" spans="1:1" ht="47.25">
-      <c r="A25" s="31" t="s">
-        <v>988</v>
+      <c r="A25" s="30" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -25618,8 +25598,8 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="48.75">
-      <c r="A27" s="31" t="s">
-        <v>989</v>
+      <c r="A27" s="30" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="31.5">
@@ -25708,7 +25688,7 @@
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A46" s="10" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="B46" s="22"/>
     </row>
@@ -25765,7 +25745,7 @@
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="B58" s="22"/>
     </row>
@@ -25815,12 +25795,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="31.5">
@@ -25889,17 +25869,17 @@
     </row>
     <row r="85" spans="1:1" ht="47.25">
       <c r="A85" s="10" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="26" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="51.75">
       <c r="A87" s="10" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="31.5">
@@ -25922,7 +25902,7 @@
     </row>
     <row r="92" spans="1:1" ht="64.5">
       <c r="A92" s="10" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="78.75">
@@ -25950,7 +25930,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="11" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="31.5">
@@ -25968,7 +25948,7 @@
     </row>
     <row r="102" spans="1:1" ht="50.25">
       <c r="A102" s="10" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="31.5">
@@ -26001,7 +25981,7 @@
     </row>
     <row r="109" spans="1:1" ht="48.75">
       <c r="A109" s="10" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="47.25">
@@ -26016,12 +25996,12 @@
     </row>
     <row r="112" spans="1:1" ht="48.75">
       <c r="A112" s="10" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="48.75">
       <c r="A113" s="10" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="31.5">
@@ -26095,7 +26075,7 @@
     </row>
     <row r="129" spans="1:1" ht="17.25">
       <c r="A129" s="11" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="47.25">
@@ -26113,7 +26093,7 @@
     </row>
     <row r="133" spans="1:1" ht="51.75">
       <c r="A133" s="10" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="63">

--- a/trunk/YAMLSpec/YAML.xlsx
+++ b/trunk/YAMLSpec/YAML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="10005" tabRatio="721" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="10005" tabRatio="721" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1342">
   <si>
     <t>This section provides a quick glimpse into the expressive power of YAML. It is not expected that the first-time reader grok all of the examples. Rather, these selections are used as motivation for the remainder of the specification.</t>
   </si>
@@ -5748,18 +5748,6 @@
     <t>YAML позволяет скалярам быть представленными в нескольких форматах. Например, целое число “11” могло бы также быть написано как “0xB”. Тэги должны определить механизм для того, чтобы преобразовать отформатированное информационное наполнение в каноническую форму для использования в тестировании равенства. Как стиль узла, формат - детали представления и не отражен в дереве последовательного упорядочения и графе представления.</t>
   </si>
   <si>
-    <t>Обычно, циклы сварки блоками и отображения начинаются на следующей строке. В некоторых случаях, YAML также позволяет вложенным блочным коллекциям начинаться действующий для более компактного примечания. Кроме того, YAML обеспечивает компактное примечание для отображений потока с единственной клавишей: оцените пару, вложенную в последовательности потока. Они учитывают естественное “заказанное отображение” примечания.</t>
-  </si>
-  <si>
-    <t>YAML обеспечивает богатый набор скалярных стилей. Блочные скалярные стили включают буквальный стиль и свернутый стиль. Стили скаляра потока включают простой стиль и два цитированных стиля, единственно цитированный стиль и двойной цитированный стиль. Эти стили предлагают диапазон обменов между выразительной мощностью и удобочитаемостью.</t>
-  </si>
-  <si>
-    <t>Каждый узел представлен в некотором стиле, в зависимости от его вида. Стиль узла - детали представления и не отражен в дереве последовательного упорядочения или графе представления. Есть две группы стилей. Блочные стили используют сдвиг, чтобы обозначить структуру; Напротив, стили стилей потока полагаются на явные индикаторы.</t>
-  </si>
-  <si>
-    <t>Представление YAML - поток символов Unicode, использующих стилей, скалярных форматов информационного наполнения, комментариев, директив и других подробностей представления, чтобы представить последовательное упорядочение YAML человеческим читаемым способом. Хотя процессор YAML может обеспечить их подробности, анализируя, они не должны быть отражены в получающемся последовательном упорядочении. YAML позволяет нескольким деревьям последовательного упорядочения содержаться в том же самом потоке символа YAML, как прогрессия документов, отделенных маркерами. Документы, появляющиеся в том же самом потоке, независимы; то есть, узел не должен появиться в больше чем одном дереве последовательного упорядочения или графе представления.</t>
-  </si>
-  <si>
     <t>Два узла идентичны только, когда они представляют ту же самую родную структуру данных. Как правило, это соответствует единственному адресу памяти. Тождественность не должна быть перепутана с равенством; у двух равных узлов не должно быть той же самой тождественности. Процессор YAML может обработать равные скаляры, как будто они были идентичны. Напротив, отдельная тождественность двух отличных, но равных коллекций должна быть сохранена.</t>
   </si>
   <si>
@@ -18575,9 +18563,6 @@
     <t>В модели представления ключи соотношения не имеют порядка. Для сериализации соотношения, необходимо упорядочить ключи. Этот порядок - детали сериализации и он не должен использоваться, когда составляется граф представления (и следовательно для сохранения данных прикладной программы). В каждом случае, где порядок узла важен, должна быть использована последовательность. Например, упорядоченное соотношение может быть представлено как последовательность соотношений, где каждое соотношение - единственный ключ: значение пара. YAML обеспечивает удобную компактную запись для этого случая.</t>
   </si>
   <si>
-    <t>В графе представления узел может появиться больше, чем в одной коллекции. Когда сериализуются такие данные, первое вхождение узла идентифицируется якорем. Каждое последующее вхождение сериализуется как узел псевдонима, который ссылается на якорь. Иначе, прикрепитесь, названия - детали последовательного упорядочения и отказаны, как только создание закончено. Составляя граф представления из преобразованных в последовательный режим событий, узел псевдонима обращается к новому узлу в последовательном упорядочении, имеющем указанную привязку. Поэтому, привязки не должны быть уникальными в пределах последовательного упорядочения. Кроме того, у привязки не должно быть узла псевдонима, обращающегося к этому. Это поэтому возможно, чтобы обеспечить привязку для всех узлов в последовательном упорядочении.</t>
-  </si>
-  <si>
     <t>Следующие главы дают формальное определение синтаксису потоков символов YAML, использующих параметризованные BNF продукции. Каждая BNF продукция - это одинаково названная и пронумерованая для простой ссылки. Когда бы ни было возможно, базовые структуры определены перед более сложными структурами, используя их "восходящим" образом.</t>
   </si>
   <si>
@@ -18804,6 +18789,348 @@
   </si>
   <si>
     <t>5.1. Кодировка</t>
+  </si>
+  <si>
+    <t>В графе представления узел может появиться больше, чем в одной коллекции. Когда сериализуются такие данные, первое вхождение узла идентифицируется якорем. Каждое последующее вхождение сериализуется как узел псевдонима, который ссылается на якорь. Другими словами, названия якорей - это сериализация детали и отказа, как только создание закончено. Составляя граф представления из сериализованных событий, узел псевдонима ссылается на последний узел в сериализации, имеющей указанный якорь. Поэтому, якоря не должны быть уникальными в пределах сериализации. Кроме того, якорь не должен иметь узел псевдонима, ссылающегося на него. Именно поэтому возможно обеспечить привязку для всех узлов в сериализации.</t>
+  </si>
+  <si>
+    <t>Представление YAML - это поток символов Unicode, использующих стили, скалярные форматы контента, комментарии, директивы и другие детали представления, чтобы представить YAML-сериализацию в человекочитаемом виде. Несмотря на то, что (Хотя) процессор YAML может обеспечить эти подробности при парсинге, они не должны быть отражены в конечной  сериализации. YAML позволяет нескольким деревьям сериализации содержаться в том же самом потоке символов YAML, как набор документов, разделенных маркерами. Документы, находящиеся в одном и том же потоке, независимы; то есть, узел не должен появиться более, чем в одном дереве сериализации или графе представления.</t>
+  </si>
+  <si>
+    <t>Каждый узел представлен в некотором стиле, в зависимости от его вида. Стиль узла - это часть представления и не отражена в дереве сериализации или графе представления. Есть две группы стилей. Блочные стили используют сдвиг для обозначения структуры; потоки стилей полагаются на явные индикаторы.</t>
+  </si>
+  <si>
+    <t>YAML обеспечивает богатый набор скалярных стилей. Блочные скалярные стили включают буквальный стиль и свернутый стиль. Стили скаляра потока включают простой стиль и два цитированных стиля, одноцитированный стиль и двойной цитированный стиль. Эти стили предлагают диапазон обмена между выразительной мощностью и удобочитаемостью.</t>
+  </si>
+  <si>
+    <t>Обычно, блоки последовательности и соотношений начинаются на новой строке. В некоторых случаях, YAML также позволяет вложенным блочным коллекциям начинаться на этой же строке для более компактного примечания. Кроме того, YAML обеспечивает компактное примечание для потока соотношений с единственной парой ключ: значение, вложенную в поток последовательности. Они учитывают естественное "упорядоченное соотношение" примечания.</t>
+  </si>
+  <si>
+    <t>Чтобы гарантировать удобочитаемость, потоки YAML используют только печатаемое подмножество кодировки Уникода. Позволенный символьный диапазон явно исключает управляющий блок C0 7gn5dsx0-# x1F (за исключением ПОЗИЦИИ ТАБУЛЯЦИИ #X9, перевод строки #xA, и CR #xD, которые позволены), DEL #x7F, управляющий блок C1 7gn5dsx80-# x9F (за исключением НЭЛЯ #x85, который позволен), идентификатор объекта блокируют 7gn5dsxd800-# xDFFF, #xFFFE, и #xFFFF.</t>
+  </si>
+  <si>
+    <t>На вводе процессор YAML должен принять все символы Unicode кроме явно исключенных выше.</t>
+  </si>
+  <si>
+    <t>На выводе процессор YAML должен только произвести приемлемые символы. Любые исключенные символы должны быть представлены, используя escape-последовательности. Кроме того, любых позволенных символов, известных быть непечатаемыми, нужно также выйти. Это не принудительно, так как полная реализация потребовала бы обширных символьных таблиц свойства.</t>
+  </si>
+  <si>
+    <t>Чтобы гарантировать совместимость JSON, процессоры YAML должны позволить все неуправляющие символы в цитированных скалярах. Чтобы гарантировать удобочитаемость, непечатаемых символов нужно выйти на выводе, даже в таких скалярах. Отметьте, что JSON цитировал скаляры, не может охватить множественные строки или содержать позиции табуляции, но YAML, цитированные скаляры могут.</t>
+  </si>
+  <si>
+    <t>5.2. Символьное кодирование</t>
+  </si>
+  <si>
+    <t>Все символы, упомянутые в этой спецификации, являются пунктами кода Уникода. Каждый такой пункт кода написан как один или более байтов в зависимости от используемого кодирования символа. Отметьте, что в UTF-16, символы выше #xFFFF написаны как четыре байта, используя пару идентификатора объекта.</t>
+  </si>
+  <si>
+    <t>Символьное кодирование - детали представления и не должно использоваться, чтобы передать информацию информационного наполнения.</t>
+  </si>
+  <si>
+    <t>На вводе процессор YAML должен поддержать кодирование символа UTF-8 И UTF-16. Для совместимости JSON должно также быть поддержано кодирование UTF-32.</t>
+  </si>
+  <si>
+    <t>Если символьный поток начнется с метки порядка байтов, то символьное кодирование будет взято, чтобы быть как как обозначенным меткой порядка байтов. Иначе, поток должен начаться с символа ASCII. Это позволяет кодированию быть выведенным шаблоном пустого указателя (#x00) символы.</t>
+  </si>
+  <si>
+    <t>Чтобы облегчить связывать потоки, метки порядка байтов могут появиться в начале любого документа. Однако все документы в том же самом потоке должны использовать то же самое символьное кодирование.</t>
+  </si>
+  <si>
+    <t>Чтобы учесть совместимость JSON, меткам порядка байтов также позволяют внутренние цитированные скаляры. Для удобочитаемости таких меток порядка байтов информационного наполнения нужно выйти на выводе.</t>
+  </si>
+  <si>
+    <t>Кодирование может поэтому быть выведено, соответствуя первым немногим байтам потока со следующими строками таблицы в заказе:</t>
+  </si>
+  <si>
+    <t>Рекомендуемое кодирование вывода - UTF-8. Если другое кодирование используется, рекомендуется, чтобы явная метка порядка байтов использовалась, даже если первый потоковый символ - ASCII.</t>
+  </si>
+  <si>
+    <t>Для получения дополнительной информации о метке порядка байтов и схемах кодирования символа Unicode см. часто задаваемые вопросы Уникода.</t>
+  </si>
+  <si>
+    <t>В примерах символы метки порядка байтов отображены как “⇔”.</t>
+  </si>
+  <si>
+    <t>Пример 5.1. Метка Порядка байтов</t>
+  </si>
+  <si>
+    <t>Пример 5.2. Недопустимая Метка Порядка байтов</t>
+  </si>
+  <si>
+    <t>5.3. Индикаторы</t>
+  </si>
+  <si>
+    <t>Индикаторы - символы, у которых есть специальная семантика.</t>
+  </si>
+  <si>
+    <t>“-” (#x2D, дефис) обозначает вход цикла сварки блоками.</t>
+  </si>
+  <si>
+    <t>“?” (#x3F, вопросительный знак), обозначает клавишу отображения.</t>
+  </si>
+  <si>
+    <t>“:” (#x3A, двоеточие), обозначает значение отображения.</t>
+  </si>
+  <si>
+    <t>Пример 5.3. Индикаторы Блочной конструкции</t>
+  </si>
+  <si>
+    <t>(#x2C, запятая) заканчивает вход коллекции потока.</t>
+  </si>
+  <si>
+    <t>[] (#x5B, левая скобка) запускает последовательность потока.</t>
+  </si>
+  <si>
+    <t>“]” (#x5D, правая скобка) заканчивает последовательность потока.</t>
+  </si>
+  <si>
+    <t>{} (#x7B, оставленный скобу) запускает отображение потока.</t>
+  </si>
+  <si>
+    <t>“}” (#x7D, правая скоба) заканчивает отображение потока.</t>
+  </si>
+  <si>
+    <t>Пример 5.4. Индикаторы Коллекции Потока</t>
+  </si>
+  <si>
+    <t>Пример 5.5. Индикатор Комментария</t>
+  </si>
+  <si>
+    <t>“&amp;” (#x26, амперсанд) обозначает свойство привязки узла.</t>
+  </si>
+  <si>
+    <t>“*” (#x2A, звездочка) обозначает узел псевдонима.</t>
+  </si>
+  <si>
+    <t>“!” (#x21, восклицание), в большой степени перезагружен для того, чтобы определить тэги узла. Это используется, чтобы обозначить маркеры тэга, используемые в директивах тэга и свойствах тэга; обозначить местные тэги; и как неопределенный тэг для непростых скаляров.</t>
+  </si>
+  <si>
+    <t>Пример 5.6. Индикаторы Свойства Узла</t>
+  </si>
+  <si>
+    <t>“|” (7C, вертикальный штрих) обозначает буквальный блочный скаляр.</t>
+  </si>
+  <si>
+    <t>“&gt;” (#x3E, больше чем) обозначает свернутый блочный скаляр.</t>
+  </si>
+  <si>
+    <t>Пример 5.7. Блокируйте Скалярные Индикаторы</t>
+  </si>
+  <si>
+    <t>'' (#x27, апостроф, единственная кавычка) окружает единственно цитированный скаляр потока.</t>
+  </si>
+  <si>
+    <t>“" (#x22, двойная кавычка) окружает двойной цитированный скаляр потока.</t>
+  </si>
+  <si>
+    <t>Пример 5.8. Цитированные Скалярные Индикаторы</t>
+  </si>
+  <si>
+    <t>“%” (#x25, процент) обозначает направляющую строку.</t>
+  </si>
+  <si>
+    <t>Пример 5.9. Направляющий Индикатор</t>
+  </si>
+  <si>
+    <t>(#x40, в) и “`” (#x60, серьезный диакритический знак) зарезервированы для будущего использования.</t>
+  </si>
+  <si>
+    <t>Пример 5.10. Недопустимое использование Зарезервированных Индикаторов</t>
+  </si>
+  <si>
+    <t>Любой символ индикатора:</t>
+  </si>
+  <si>
+    <t>{} и,"" индикаторы обозначают структуру в коллекциях потока. Им поэтому запрещают в некоторых случаях, избежать двусмысленности в нескольких конструкциях. Это обработано в зависимости от конкретного случая соответствующими продукциями.</t>
+  </si>
+  <si>
+    <t>5.4. Символы конца строки</t>
+  </si>
+  <si>
+    <t>YAML распознает следующие символы конца строки ASCII.</t>
+  </si>
+  <si>
+    <t>Все другие символы, включая перевод страницы (#x0C), как полагают, являются несимволами прерывания. Отметьте, что они включают концы строки не-ASCII: следующая строка (#x85), выровняйте разделитель (#x2029) параграфа и разделитель (#x2028).</t>
+  </si>
+  <si>
+    <t>Версия 1.1 YAML действительно поддерживала вышеупомянутые символы конца строки не-ASCII; однако, JSON не делает. Следовательно, чтобы гарантировать совместимость JSON, YAML обрабатывает их как несимволы прерывания на версию 1.2. В теории это вызвало бы несовместимость с версией 1.1; практически эти символы редко были (если когда-либо), использовал. YAML 1.2 процессора, анализирующие документ версии 1.1, должен поэтому обработать эти концы строки как несимволы прерывания, с соответствующим предупреждением.</t>
+  </si>
+  <si>
+    <t>Концы строки интерпретируются по-другому различными системами, и имеют несколько широко используемых форматов.</t>
+  </si>
+  <si>
+    <t>Концы строки в скалярном информационном наполнении должны быть нормализованы процессором YAML. Каждый такой конец строки должен быть анализирован в символ подачи одиночной линии. Оригинальный формат конца строки - детали представления и не должен использоваться, чтобы передать информацию информационного наполнения.</t>
+  </si>
+  <si>
+    <t>Вне скалярного информационного наполнения YAML позволяет любому концу строки использоваться, чтобы закончить строки.</t>
+  </si>
+  <si>
+    <t>На выводе процессор YAML является бесплатным испустить концы строки, используя любое соглашение, является самым соответствующим.</t>
+  </si>
+  <si>
+    <t>В примерах концы строки иногда отображаются, используя “↓” глиф для ясности.</t>
+  </si>
+  <si>
+    <t>Пример 5.11. Символы Конца строки</t>
+  </si>
+  <si>
+    <t>5.5. Символы пустого пространства</t>
+  </si>
+  <si>
+    <t>YAML распознает два символа незаполненного пространства: пространство и позиция табуляции.</t>
+  </si>
+  <si>
+    <t>Остальная часть (печатаемых) несимволов прерывания, как полагают, является непробелами.</t>
+  </si>
+  <si>
+    <t>В примерах cимволы табуляции отображены как глиф “→”. Пробелы иногда отображаются как глиф “·” для ясности.</t>
+  </si>
+  <si>
+    <t>Пример 5.12. Позиции табуляции и Пространства</t>
+  </si>
+  <si>
+    <t>5.6. Разные Символы</t>
+  </si>
+  <si>
+    <t>Продукции синтаксиса YAML используют следующие дополнительные символьные классы:</t>
+  </si>
+  <si>
+    <t>• Десятичная цифра для чисел:</t>
+  </si>
+  <si>
+    <t>• Шестнадцатеричная цифра для escape-последовательностей:</t>
+  </si>
+  <si>
+    <t>• Символ ASCII (алфавитные) символы:</t>
+  </si>
+  <si>
+    <t>• Word (алфавитно-цифровые) символы для идентификаторов:</t>
+  </si>
+  <si>
+    <t>• Символы ТУРОВ для тэгов, как определено в RFC2396, с суммированием [и] для того, чтобы представить IPv6 обращаются как предложено в RFC2732.</t>
+  </si>
+  <si>
+    <t>В соответствии с соглашением, любые символы URI кроме позволенных печатаемых символов ASCII сначала закодированы в UTF-8, и затем каждого байта выходят, используя символ “%”. Процессор YAML не должен развернуть такие сбежавшие символы. Символы тэга должны быть сохранены и сравнены точно как представлено в потоке YAML, без любой обработки.</t>
+  </si>
+  <si>
+    <t>• “!” символ используется, чтобы указать конец названного маркера тэга; следовательно его использование в стенографиях тэга ограничено. Кроме того, такие стенографии не должны содержать,[],{} и,"" символы. Эти символы вызвали бы двусмысленность со структурами коллекции потока.</t>
+  </si>
+  <si>
+    <t>5.7. Экранированные символы</t>
+  </si>
+  <si>
+    <t>Нужно выйти всех непечатаемых символов. Escape-последовательности YAML используют “\” примечание, обычное для большинства современных машинных языков. Каждая escape-последовательность должна быть анализирована в соответствующий символ Unicode. Оригинальная escape-последовательность - детали представления и не должна использоваться, чтобы передать информацию информационного наполнения.</t>
+  </si>
+  <si>
+    <t>Отметьте, что escape-последовательности только интерпретируются в двойной цитированных скалярах. Во всех других скалярных стилях “\” у символа нет никакого специального значения, и непечатаемые символы не доступны.</t>
+  </si>
+  <si>
+    <t>Escape-последовательности YAML - надмножество escape-последовательностей К:</t>
+  </si>
+  <si>
+    <t>Сбежавший пустой указатель ASCII (#x0) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший ASCII Бэлл (#x7) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший возврат на один символ ASCII (#x8) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший ASCII горизонтальный символ позиции табуляции (#x9). Это полезно в начале или конец строки, чтобы вынудить межстрочный интервал или перемещение позиции табуляции стать частью информационного наполнения.</t>
+  </si>
+  <si>
+    <t>Сбежавший перевод строки ASCII (#xA) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший ASCII вертикальный символ позиции табуляции (#xB).</t>
+  </si>
+  <si>
+    <t>Сбежавший перевод страницы ASCII (#xC) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший перевод каретки ASCII (#xD) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший escape ASCII (#x1B) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший символ пространства (#x20) ASCII. Это полезно в начале или конец строки, чтобы вынудить межстрочный интервал или перемещение пространства стать частью информационного наполнения.</t>
+  </si>
+  <si>
+    <t>Сбежавший ASCII двойная кавычка (#x22).</t>
+  </si>
+  <si>
+    <t>Сбежавшая косая черта (#x2F) ASCII, для совместимости JSON.</t>
+  </si>
+  <si>
+    <t>Сбежавшая наклонная черта влево (#x5C) ASCII.</t>
+  </si>
+  <si>
+    <t>Сбежавший Уникод затем выравнивает (#x85) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший неразрываемый пробел Уникода (#xA0) символ.</t>
+  </si>
+  <si>
+    <t>Сбежавший символ разделителя (#x2028) строки Уникода.</t>
+  </si>
+  <si>
+    <t>Сбежавший символ разделителя (#x2029) параграфа Уникода.</t>
+  </si>
+  <si>
+    <t>Сбежавший 8-битовый символ Unicode.</t>
+  </si>
+  <si>
+    <t>Сбежавший 16-разрядный символ Unicode.</t>
+  </si>
+  <si>
+    <t>Сбежавший 32-разрядный символ Unicode.</t>
+  </si>
+  <si>
+    <t>Любой сбежавший характер:</t>
+  </si>
+  <si>
+    <t>Пример 5.13. Сбежавшие Символы</t>
+  </si>
+  <si>
+    <t>Пример 5.14. Недопустимые Сбежавшие Символы</t>
+  </si>
+  <si>
+    <t>6.1. Стандартные Пространства</t>
+  </si>
+  <si>
+    <t>В стилях блока YAML структура определена сдвигом. Вообще, сдвиг определен как нуль или больше пробелов в начале строки.</t>
+  </si>
+  <si>
+    <t>Чтобы поддержать мобильность, cимволы табуляции не должны использоваться в сдвиге, так как различные системы обрабатывают позиции табуляции по-другому. Отметьте, что самые современные редакторы могут быть конфигурированы так, чтобы нажим результатов клавиши табуляции во вставке соответствующего числа пространств.</t>
+  </si>
+  <si>
+    <t>Количество сдвига - детали представления и не должно использоваться, чтобы передать информацию информационного наполнения.</t>
+  </si>
+  <si>
+    <t>Блочная конструкция стиля закончена, сталкиваясь со строкой, которая менее выровнена чем конструкция. Продукции используют примечание “s-отступ (&lt;n)” и “s-отступ (≤n)”, чтобы выразить это.</t>
+  </si>
+  <si>
+    <t>Каждый узел должен быть выровнен далее чем его родительская вершина. Все вершины дерева с одной родительской вершиной должны использовать тот же самый стандартный уровень. Однако информационное наполнение каждого узла брата может быть далее выровнено независимо.</t>
+  </si>
+  <si>
+    <t>Пример 6.1. Стандартные Пространства</t>
+  </si>
+  <si>
+    <t>“-”, “?” и “:” символы имели обыкновение обозначать, что блочные входы коллекции, как воспринимают люди, являются частью сдвига. Это обработано в зависимости от конкретного случая соответствующими продукциями.</t>
+  </si>
+  <si>
+    <t>Пример 6.2. Стандартные Индикаторы</t>
+  </si>
+  <si>
+    <t>6.2. Пространства разделения</t>
+  </si>
+  <si>
+    <t>Вне стандартного и скалярного информационного наполнения YAML использует символы незаполненного пространства для разделения между лексемами в пределах строки. Отметьте, что такое незаполненное пространство может безопасно включать cимволы табуляции.</t>
+  </si>
+  <si>
+    <t>Пространства разделения - детали представления и не должны использоваться, чтобы передать информацию информационного наполнения.</t>
   </si>
 </sst>
 </file>
@@ -18938,15 +19265,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF7C80"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF7C80"/>
       <name val="Calibri"/>
@@ -19023,6 +19341,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19109,28 +19435,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19145,19 +19468,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -19171,23 +19494,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19495,556 +19821,556 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="80.7109375" style="39" customWidth="1"/>
+    <col min="1" max="2" width="80.7109375" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="41" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="41" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="41" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="41" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="41" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="41" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="40" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="39" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="39" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="37" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="39" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="39" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="39" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="40" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="40" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="41" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="41" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="40" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="37" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="39" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="40" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="40" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="40" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="40" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="40" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="39" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="37" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="39" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="40" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="41" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="41" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="40" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="39" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="40" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="40" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="39" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="40" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="40" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="40" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="39" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="37" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="39" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="40" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="41" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="41" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="41" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="40" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="39" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="41" t="s">
+      <c r="A100" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="41" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="41" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="41" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="41" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="40" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="39" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="40" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="40" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="40" t="s">
+      <c r="A109" s="39" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="37" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20174,7 +20500,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -20192,7 +20518,7 @@
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75">
@@ -20200,19 +20526,19 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="63">
+    <row r="5" spans="1:2" ht="78.75">
       <c r="A5" s="10" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5">
       <c r="A6" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20228,49 +20554,49 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="50.25">
+    <row r="11" spans="1:2" ht="66">
       <c r="A11" s="10" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5">
       <c r="A12" s="10" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="50.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="66">
       <c r="A13" s="10" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5">
       <c r="A14" s="10" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5">
       <c r="A15" s="10" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="31.5">
       <c r="A16" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25">
       <c r="A18" s="11" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="47.25">
@@ -20293,7 +20619,7 @@
     </row>
     <row r="24" spans="1:1" ht="48.75">
       <c r="A24" s="10" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="47.25">
@@ -20319,9 +20645,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="31.5">
+    <row r="30" spans="1:1" ht="47.25">
       <c r="A30" s="10" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -20337,9 +20663,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" ht="31.5">
       <c r="A34" s="10" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.5">
@@ -20360,9 +20686,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="47.25">
+    <row r="39" spans="1:1" ht="63">
       <c r="A39" s="10" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="31.5">
@@ -20388,9 +20714,9 @@
     <row r="44" spans="1:1">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:1" ht="34.5">
+    <row r="45" spans="1:1" ht="33">
       <c r="A45" s="10" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -20413,7 +20739,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="78.75">
+    <row r="50" spans="1:1" ht="94.5">
       <c r="A50" s="16" t="s">
         <v>196</v>
       </c>
@@ -20445,7 +20771,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -20456,9 +20782,9 @@
         <v>768</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="10" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -20468,7 +20794,7 @@
     </row>
     <row r="4" spans="1:2" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
@@ -20487,7 +20813,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>204</v>
       </c>
     </row>
@@ -20497,7 +20823,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>206</v>
       </c>
     </row>
@@ -20513,7 +20839,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="7" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20530,7 +20856,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20540,7 +20866,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20549,14 +20875,14 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="31.5">
+    <row r="21" spans="1:1" ht="47.25">
       <c r="A21" s="16" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17.25">
       <c r="A22" s="7" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -20573,7 +20899,7 @@
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>214</v>
       </c>
     </row>
@@ -20583,7 +20909,7 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20603,13 +20929,13 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25">
       <c r="A33" s="7" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -20620,14 +20946,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="50.25">
+    <row r="36" spans="1:1" ht="51.75">
       <c r="A36" s="10" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="33">
       <c r="A37" s="10" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23.25">
@@ -20635,9 +20961,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="47.25">
+    <row r="39" spans="1:1" ht="63">
       <c r="A39" s="10" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75">
@@ -20645,7 +20971,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" ht="31.5">
       <c r="A41" s="10" t="s">
         <v>222</v>
       </c>
@@ -20661,7 +20987,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>224</v>
       </c>
     </row>
@@ -20671,7 +20997,7 @@
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20680,9 +21006,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="50.25">
+    <row r="48" spans="1:1" ht="64.5">
       <c r="A48" s="16" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -20691,17 +21017,17 @@
       </c>
     </row>
     <row r="50" spans="1:1" ht="17.25">
-      <c r="A50" s="31" t="s">
-        <v>996</v>
+      <c r="A50" s="30" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17.25">
       <c r="A51" s="7" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="32"/>
+      <c r="A52" s="31"/>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
@@ -20714,7 +21040,7 @@
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>226</v>
       </c>
     </row>
@@ -20724,7 +21050,7 @@
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20744,13 +21070,13 @@
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
-      <c r="A61" s="32" t="s">
-        <v>998</v>
+      <c r="A61" s="31" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25">
       <c r="A62" s="7" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -20767,7 +21093,7 @@
       </c>
     </row>
     <row r="66" spans="1:1" ht="17.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>229</v>
       </c>
     </row>
@@ -20777,7 +21103,7 @@
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20791,12 +21117,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="31.5">
+    <row r="71" spans="1:1" ht="47.25">
       <c r="A71" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="63">
+    <row r="72" spans="1:1" ht="78.75">
       <c r="A72" s="16" t="s">
         <v>232</v>
       </c>
@@ -20808,12 +21134,12 @@
     </row>
     <row r="74" spans="1:1" ht="34.5">
       <c r="A74" s="16" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17.25">
       <c r="A75" s="7" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -20830,7 +21156,7 @@
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.25">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="30" t="s">
         <v>234</v>
       </c>
     </row>
@@ -20840,7 +21166,7 @@
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -20859,7 +21185,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="63">
+    <row r="85" spans="1:1" ht="78.75">
       <c r="A85" s="16" t="s">
         <v>237</v>
       </c>
@@ -20871,12 +21197,12 @@
     </row>
     <row r="87" spans="1:1" ht="34.5">
       <c r="A87" s="16" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25">
       <c r="A88" s="7" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -20887,24 +21213,24 @@
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" ht="31.5">
       <c r="A91" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="50.25">
+    <row r="92" spans="1:1" ht="51.75">
       <c r="A92" s="10" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="34.5">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="50.25">
       <c r="A93" s="10" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="66">
       <c r="A94" s="10" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="94.5">
@@ -20925,13 +21251,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="47.25">
+    <row r="99" spans="1:1" ht="63">
       <c r="A99" s="10" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="25" t="s">
         <v>243</v>
       </c>
     </row>
@@ -20941,7 +21267,7 @@
       </c>
     </row>
     <row r="102" spans="1:1" ht="18.75">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="25" t="s">
         <v>245</v>
       </c>
     </row>
@@ -20950,22 +21276,22 @@
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="50.25">
+    <row r="104" spans="1:1" ht="51.75">
       <c r="A104" s="10" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="34.5">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="50.25">
       <c r="A105" s="10" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="50.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="66">
       <c r="A106" s="10" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="173.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="189">
       <c r="A107" s="10" t="s">
         <v>247</v>
       </c>
@@ -20983,9 +21309,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="48.75">
+    <row r="111" spans="1:1" ht="64.5">
       <c r="A111" s="10" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="31.5">
@@ -20993,17 +21319,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="63">
+    <row r="113" spans="1:1" ht="78.75">
       <c r="A113" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="63">
+    <row r="114" spans="1:1" ht="78.75">
       <c r="A114" s="10" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="63">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="78.75">
       <c r="A115" s="10" t="s">
         <v>252</v>
       </c>
@@ -21022,7 +21348,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -21033,36 +21359,36 @@
         <v>755</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="78.75">
+    <row r="2" spans="1:2" ht="110.25">
       <c r="A2" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="126">
+      <c r="B2" s="34" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="157.5">
       <c r="A3" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="141.75">
+      <c r="B3" s="34" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="189">
       <c r="A4" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="110.25">
+      <c r="B4" s="34" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="141.75">
       <c r="A5" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>1141</v>
+      <c r="B5" s="34" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -21070,151 +21396,151 @@
         <v>344</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>1143</v>
+      <c r="B7" s="21" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>1144</v>
+      <c r="B8" s="21" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>1145</v>
+      <c r="B9" s="21" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>1146</v>
+      <c r="B10" s="21" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5">
       <c r="A11" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>1147</v>
+      <c r="B11" s="21" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>1148</v>
+      <c r="B12" s="21" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>1149</v>
+      <c r="B13" s="21" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>1150</v>
+      <c r="B14" s="21" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25">
       <c r="A15" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="63">
+      <c r="B15" s="22" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="78.75">
       <c r="A16" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>1152</v>
+      <c r="B16" s="34" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="47.25">
       <c r="A17" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="63">
+      <c r="B17" s="21" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="78.75">
       <c r="A18" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="110.25">
+      <c r="B18" s="34" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="126">
       <c r="A19" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="78.75">
+      <c r="B19" s="34" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="94.5">
       <c r="A20" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="78.75">
+      <c r="B20" s="34" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="94.5">
       <c r="A21" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="78.75">
+      <c r="B21" s="34" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="94.5">
       <c r="A22" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="126">
+      <c r="B22" s="34" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="157.5">
       <c r="A23" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="66">
+      <c r="B23" s="34" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="94.5">
       <c r="A24" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>1160</v>
+      <c r="B24" s="34" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25">
@@ -21222,47 +21548,47 @@
         <v>361</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="94.5">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="126">
       <c r="A26" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="94.5">
+      <c r="B26" s="34" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="110.25">
       <c r="A27" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="63">
+      <c r="B27" s="34" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="78.75">
       <c r="A28" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="78.75">
+      <c r="B28" s="34" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="94.5">
       <c r="A29" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="126">
+      <c r="B29" s="34" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="157.5">
       <c r="A30" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>1166</v>
+      <c r="B30" s="34" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23.25">
@@ -21270,31 +21596,31 @@
         <v>367</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="47.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="63">
       <c r="A32" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="94.5">
+      <c r="B32" s="21" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="110.25">
       <c r="A33" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>1169</v>
+      <c r="B33" s="34" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="63">
       <c r="A34" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>1170</v>
+      <c r="B34" s="34" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25">
@@ -21302,15 +21628,15 @@
         <v>371</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="47.25">
       <c r="A36" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>1172</v>
+      <c r="B36" s="21" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -21318,55 +21644,55 @@
         <v>373</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="31.5">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="47.25">
       <c r="A38" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>1174</v>
+      <c r="B38" s="21" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="63">
+      <c r="B39" s="36" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="78.75">
       <c r="A40" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>1176</v>
+      <c r="B40" s="34" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>1175</v>
+      <c r="B41" s="27" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5">
       <c r="A42" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="78.75">
+      <c r="B42" s="21" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="94.5">
       <c r="A43" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>1178</v>
+      <c r="B43" s="34" t="s">
+        <v>1174</v>
       </c>
     </row>
   </sheetData>
@@ -21394,7 +21720,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="47.25">
+    <row r="2" spans="1:2" ht="63">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -21506,7 +21832,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="50.25">
+    <row r="19" spans="1:2" ht="66">
       <c r="A19" s="10" t="s">
         <v>743</v>
       </c>
@@ -21538,7 +21864,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" ht="34.5">
+    <row r="24" spans="1:2" ht="48.75">
       <c r="A24" s="10" t="s">
         <v>744</v>
       </c>
@@ -21570,7 +21896,7 @@
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="47.25">
+    <row r="29" spans="1:2" ht="48.75">
       <c r="A29" s="10" t="s">
         <v>745</v>
       </c>
@@ -21610,12 +21936,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="63">
+    <row r="35" spans="1:2" ht="78.75">
       <c r="A35" s="10" t="s">
         <v>746</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
@@ -21642,11 +21968,11 @@
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:2" ht="15.75">
+    <row r="40" spans="1:2" ht="31.5">
       <c r="A40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>683</v>
       </c>
     </row>
@@ -21666,7 +21992,7 @@
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="1:2" ht="63">
+    <row r="44" spans="1:2" ht="78.75">
       <c r="A44" s="10" t="s">
         <v>21</v>
       </c>
@@ -21706,7 +22032,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="67.5">
+    <row r="50" spans="1:2" ht="84.75">
       <c r="A50" s="10" t="s">
         <v>747</v>
       </c>
@@ -21762,12 +22088,12 @@
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:2" ht="48.75">
+    <row r="59" spans="1:2" ht="63">
       <c r="A59" s="10" t="s">
         <v>749</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
@@ -21823,7 +22149,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5">
@@ -21831,7 +22157,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75">
@@ -21868,8 +22194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -21891,7 +22217,7 @@
         <v>700</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="173.25">
@@ -21934,7 +22260,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75">
@@ -21989,7 +22315,7 @@
       <c r="A15" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>767</v>
       </c>
     </row>
@@ -22005,8 +22331,8 @@
       <c r="A17" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>1180</v>
+      <c r="B17" s="21" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75">
@@ -22037,8 +22363,8 @@
       <c r="A21" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>1181</v>
+      <c r="B21" s="42" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -22046,15 +22372,15 @@
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="78.75">
       <c r="A23" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>1183</v>
+      <c r="B23" s="42" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -22069,8 +22395,8 @@
       <c r="A25" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>1184</v>
+      <c r="B25" s="43" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
@@ -22085,16 +22411,16 @@
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>1188</v>
+      <c r="B27" s="42" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="78.75">
       <c r="A28" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>1189</v>
+      <c r="B28" s="43" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -22117,16 +22443,16 @@
       <c r="A32" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>1190</v>
+      <c r="B32" s="43" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="94.5">
       <c r="A33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>1191</v>
+      <c r="B33" s="43" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -22149,8 +22475,8 @@
       <c r="A37" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B37" s="44" t="s">
-        <v>1192</v>
+      <c r="B37" s="43" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -22165,15 +22491,15 @@
       <c r="A39" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>1186</v>
+      <c r="B39" s="42" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>785</v>
       </c>
     </row>
@@ -22181,8 +22507,8 @@
       <c r="A41" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>1185</v>
+      <c r="B41" s="42" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -22197,16 +22523,16 @@
       <c r="A43" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>1187</v>
+      <c r="B43" s="43" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="110.25">
       <c r="A44" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>1193</v>
+      <c r="B44" s="43" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -22221,24 +22547,24 @@
       <c r="A46" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>828</v>
+      <c r="B46" s="34" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="189">
       <c r="A47" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B47" s="35" t="s">
-        <v>1194</v>
+      <c r="B47" s="34" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="141.75">
       <c r="A48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="44" t="s">
-        <v>1195</v>
+      <c r="B48" s="43" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22253,8 +22579,8 @@
       <c r="A50" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B50" s="44" t="s">
-        <v>1196</v>
+      <c r="B50" s="43" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22269,8 +22595,8 @@
       <c r="A52" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="B52" s="35" t="s">
-        <v>1197</v>
+      <c r="B52" s="34" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22285,16 +22611,16 @@
       <c r="A54" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B54" s="44" t="s">
-        <v>1198</v>
+      <c r="B54" s="43" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="110.25">
       <c r="A55" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B55" s="44" t="s">
-        <v>1199</v>
+      <c r="B55" s="43" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22309,8 +22635,8 @@
       <c r="A57" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B57" s="44" t="s">
-        <v>827</v>
+      <c r="B57" s="43" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75">
@@ -22325,8 +22651,8 @@
       <c r="A59" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B59" s="44" t="s">
-        <v>1200</v>
+      <c r="B59" s="43" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22346,8 +22672,8 @@
       <c r="A63" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B63" s="44" t="s">
-        <v>1201</v>
+      <c r="B63" s="43" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -22358,12 +22684,12 @@
         <v>794</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="189">
+    <row r="65" spans="1:2" ht="173.25">
       <c r="A65" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B65" s="35" t="s">
-        <v>1202</v>
+      <c r="B65" s="43" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75">
@@ -22374,12 +22700,12 @@
         <v>795</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="173.25">
+    <row r="67" spans="1:2" ht="157.5">
       <c r="A67" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B67" s="35" t="s">
-        <v>826</v>
+      <c r="B67" s="43" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -22402,24 +22728,24 @@
       <c r="A71" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="B71" s="35" t="s">
-        <v>825</v>
+      <c r="B71" s="43" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="78.75">
       <c r="A72" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="B72" s="35" t="s">
-        <v>824</v>
+      <c r="B72" s="43" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="110.25">
       <c r="A73" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="35" t="s">
-        <v>823</v>
+      <c r="B73" s="43" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -22445,7 +22771,7 @@
       <c r="A77" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="34" t="s">
         <v>822</v>
       </c>
     </row>
@@ -22461,7 +22787,7 @@
       <c r="A79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="34" t="s">
         <v>821</v>
       </c>
     </row>
@@ -22477,7 +22803,7 @@
       <c r="A81" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="34" t="s">
         <v>820</v>
       </c>
     </row>
@@ -22493,7 +22819,7 @@
       <c r="A83" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>819</v>
       </c>
     </row>
@@ -22501,7 +22827,7 @@
       <c r="A84" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="34" t="s">
         <v>818</v>
       </c>
     </row>
@@ -22525,7 +22851,7 @@
       <c r="A88" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="34" t="s">
         <v>817</v>
       </c>
     </row>
@@ -22533,13 +22859,13 @@
       <c r="A89" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="25"/>
+      <c r="B89" s="24"/>
     </row>
     <row r="90" spans="1:2" ht="94.5">
       <c r="A90" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="34" t="s">
         <v>816</v>
       </c>
     </row>
@@ -22547,7 +22873,7 @@
       <c r="A91" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="34" t="s">
         <v>815</v>
       </c>
     </row>
@@ -22555,7 +22881,7 @@
       <c r="A92" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="34" t="s">
         <v>814</v>
       </c>
     </row>
@@ -22563,7 +22889,7 @@
       <c r="A93" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="34" t="s">
         <v>813</v>
       </c>
     </row>
@@ -22571,7 +22897,7 @@
       <c r="A94" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="34" t="s">
         <v>812</v>
       </c>
     </row>
@@ -22579,7 +22905,7 @@
       <c r="A95" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="34" t="s">
         <v>811</v>
       </c>
     </row>
@@ -22587,7 +22913,7 @@
       <c r="A96" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>810</v>
       </c>
     </row>
@@ -22595,7 +22921,7 @@
       <c r="A97" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>809</v>
       </c>
     </row>
@@ -22611,7 +22937,7 @@
       <c r="A99" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="34" t="s">
         <v>808</v>
       </c>
     </row>
@@ -22627,7 +22953,7 @@
       <c r="A101" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="34" t="s">
         <v>807</v>
       </c>
     </row>
@@ -22646,7 +22972,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -22661,32 +22987,32 @@
       <c r="A2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>1203</v>
+      <c r="B2" s="43" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="94.5">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>1204</v>
+      <c r="B3" s="43" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63">
       <c r="A4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>1205</v>
+      <c r="B4" s="42" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="47.25">
       <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>1206</v>
+      <c r="B5" s="42" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -22694,95 +23020,95 @@
         <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="63">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>1207</v>
+      <c r="B7" s="42" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="78.75">
       <c r="A8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>1208</v>
+      <c r="B8" s="43" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>830</v>
+      <c r="B9" s="45" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="14" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>831</v>
+        <v>1112</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="63">
       <c r="A11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>1209</v>
+      <c r="B11" s="42" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="14" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>832</v>
+        <v>1113</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="47.25">
       <c r="A13" s="16" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>1210</v>
+        <v>1114</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="94.5">
       <c r="A14" s="16" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>1211</v>
+        <v>1115</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="141.75">
       <c r="A15" s="16" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>1212</v>
+        <v>1116</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="14" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>833</v>
+        <v>1117</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63">
       <c r="A17" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>1213</v>
+      <c r="B17" s="34" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
@@ -22790,159 +23116,159 @@
         <v>102</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63">
       <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>1214</v>
+      <c r="B19" s="42" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
-      <c r="A20" s="36" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>1215</v>
+      <c r="A20" s="35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>1216</v>
+      <c r="B21" s="45" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="36" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>1217</v>
+      <c r="A22" s="35" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>1225</v>
+      <c r="B23" s="45" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
-      <c r="A24" s="36" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>1218</v>
+      <c r="A24" s="35" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>835</v>
+      <c r="B25" s="45" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
-      <c r="A26" s="36" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>1219</v>
+      <c r="A26" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>1226</v>
+      <c r="B27" s="45" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
-      <c r="A28" s="36" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>1220</v>
+      <c r="A28" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>1227</v>
+      <c r="B29" s="45" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
-      <c r="A30" s="36" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>1221</v>
+      <c r="A30" s="35" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>1228</v>
+      <c r="B31" s="45" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
-      <c r="A32" s="36" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>1222</v>
+      <c r="A32" s="35" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="46" t="s">
-        <v>1229</v>
+      <c r="B33" s="45" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
-      <c r="A34" s="36" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>1223</v>
+      <c r="A34" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34.5">
       <c r="A35" s="16" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>1230</v>
+        <v>1126</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
-      <c r="A36" s="36" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>1224</v>
+      <c r="A36" s="35" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="33">
       <c r="A37" s="16" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>1231</v>
+        <v>1128</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>1226</v>
       </c>
     </row>
   </sheetData>
@@ -22960,7 +23286,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -22976,22 +23302,31 @@
         <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="67.5">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="110.25">
       <c r="A3" s="10" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5">
       <c r="A4" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="63">
+      <c r="B4" s="21" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="94.5">
       <c r="A5" s="10" t="s">
         <v>116</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25">
@@ -22999,828 +23334,1110 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="63">
+    <row r="7" spans="1:2" ht="94.5">
       <c r="A7" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="B7" s="34" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.25">
       <c r="A9" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="48.75">
+      <c r="B9" s="5" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="78.75">
       <c r="A10" s="10" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="47.25">
       <c r="A11" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="31.5">
+      <c r="B11" s="21" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="47.25">
       <c r="A12" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="48.75">
+      <c r="B12" s="21" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="78.75">
       <c r="A13" s="10" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31.5">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="47.25">
       <c r="A14" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="31.5">
+      <c r="B14" s="21" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="47.25">
       <c r="A15" s="10" t="s">
         <v>122</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="31.5">
       <c r="A16" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="173.25">
+      <c r="B16" s="21" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="173.25">
       <c r="A17" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="31.5">
+    <row r="18" spans="1:2" ht="47.25">
       <c r="A18" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="31.5">
+      <c r="B18" s="21" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="47.25">
       <c r="A19" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="17.25">
+      <c r="B19" s="21" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="11" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="17.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="11" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>1011</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="17.25">
-      <c r="A23" s="33"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B22" s="20" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25">
+      <c r="A23" s="32"/>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="20" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:1" ht="23.25">
+    <row r="26" spans="1:2" ht="23.25">
       <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="29" t="s">
+      <c r="B26" s="5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="28" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25">
+      <c r="A28" s="11" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25">
+      <c r="A29" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25">
+      <c r="A30" s="11" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25">
+      <c r="A31" s="11" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="17.25">
-      <c r="A28" s="11" t="s">
+      <c r="B31" s="20" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25">
+      <c r="A32" s="11" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.25">
-      <c r="A29" s="11" t="s">
+    <row r="33" spans="1:2" ht="17.25">
+      <c r="A33" s="11" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="17.25">
-      <c r="A30" s="11" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="17.25">
-      <c r="A31" s="11" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="17.25">
-      <c r="A32" s="11" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17.25">
-      <c r="A33" s="11" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="20" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:1" ht="17.25">
+    <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="11" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25">
+      <c r="A37" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25">
+      <c r="A38" s="11" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25">
+      <c r="A39" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25">
+      <c r="A40" s="11" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17.25">
-      <c r="A37" s="11" t="s">
+    <row r="41" spans="1:2" ht="17.25">
+      <c r="A41" s="11" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="17.25">
-      <c r="A38" s="11" t="s">
+      <c r="B41" s="20" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25">
+      <c r="A42" s="11" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17.25">
-      <c r="A39" s="11" t="s">
+    <row r="43" spans="1:2" ht="17.25">
+      <c r="A43" s="11" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="17.25">
-      <c r="A40" s="11" t="s">
+      <c r="B43" s="20" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25">
+      <c r="A44" s="11" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17.25">
-      <c r="A41" s="11" t="s">
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="11" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="17.25">
-      <c r="A42" s="11" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="17.25">
-      <c r="A43" s="11" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="17.25">
-      <c r="A44" s="11" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="17.25">
-      <c r="A45" s="11" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="20" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="20" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:1" ht="17.25">
+    <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="17.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25">
       <c r="A49" s="11" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="20" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" ht="17.25">
+    <row r="52" spans="1:2" ht="17.25">
       <c r="A52" s="11" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.25">
+      <c r="A53" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.25">
+      <c r="A54" s="11" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25">
+      <c r="A55" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25">
+      <c r="A56" s="11" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17.25">
-      <c r="A53" s="11" t="s">
+    <row r="57" spans="1:2" ht="63">
+      <c r="A57" s="10" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="17.25">
-      <c r="A54" s="11" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="17.25">
-      <c r="A55" s="11" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="17.25">
-      <c r="A56" s="11" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="48.75">
-      <c r="A57" s="10" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="34" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="20" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" ht="17.25">
+    <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="17.25">
+        <v>1038</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.25">
       <c r="A62" s="11" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="17.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="11" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>1040</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="20" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" ht="17.25">
+    <row r="66" spans="1:2" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="17.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="31.5">
       <c r="A67" s="11" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="17.25">
+        <v>1042</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.25">
       <c r="A68" s="11" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="17.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>1044</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="20" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" ht="17.25">
+    <row r="72" spans="1:2" ht="17.25">
       <c r="A72" s="11" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="17.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.25">
       <c r="A73" s="11" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>1046</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="20" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:1" ht="17.25">
+    <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="17.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="31.5">
       <c r="A77" s="11" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>1048</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="20" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:2">
       <c r="A80" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="47.25">
+      <c r="B80" s="20" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="47.25">
       <c r="A81" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="48.75">
+    <row r="82" spans="1:2" ht="63">
       <c r="A82" s="10" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="17.25">
+        <v>1049</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17.25">
       <c r="A83" s="11" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="23.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="23.25">
       <c r="A84" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="5" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17.25">
+      <c r="A86" s="11" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17.25">
+      <c r="A87" s="11" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17.25">
+      <c r="A88" s="11" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="63">
+      <c r="A89" s="10" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="17.25">
-      <c r="A86" s="11" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="17.25">
-      <c r="A87" s="11" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="17.25">
-      <c r="A88" s="11" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="51.75">
-      <c r="A89" s="10" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="78.75">
+      <c r="B89" s="21" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="126">
       <c r="A90" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="17.25">
+      <c r="B90" s="34" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="31.5">
       <c r="A92" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="47.25">
+      <c r="B92" s="21" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="47.25">
       <c r="A93" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="47.25">
+    <row r="94" spans="1:2" ht="78.75">
       <c r="A94" s="10" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="17.25">
+        <v>1057</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="17.25">
       <c r="A95" s="11" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="31.5">
       <c r="A96" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="17.25">
+      <c r="B96" s="21" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17.25">
       <c r="A97" s="11" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="31.5">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="31.5">
       <c r="A98" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="17.25">
+      <c r="B98" s="21" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="33">
       <c r="A99" s="10" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>1060</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="20" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="11"/>
     </row>
-    <row r="102" spans="1:1" ht="23.25">
+    <row r="102" spans="1:2" ht="23.25">
       <c r="A102" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="5" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="31.5">
       <c r="A103" s="11" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="17.25">
+        <v>1061</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17.25">
       <c r="A104" s="11" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="17.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17.25">
       <c r="A105" s="11" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="17.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17.25">
       <c r="A106" s="11" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="31.5">
       <c r="A107" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="17.25">
+      <c r="B107" s="21" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17.25">
       <c r="A108" s="11" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="34.5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="34.5">
       <c r="A109" s="10" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>1066</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="20" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="11"/>
     </row>
-    <row r="112" spans="1:1" ht="23.25">
+    <row r="112" spans="1:2" ht="23.25">
       <c r="A112" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="5" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="31.5">
       <c r="A113" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" s="21" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="11" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="17.25">
+        <v>1067</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="31.5">
+      <c r="B116" s="20" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="31.5">
       <c r="A117" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="32" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="31" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="17.25">
+      <c r="B118" s="20" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="17.25">
       <c r="A119" s="11" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="17.25">
+      <c r="B120" s="20" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="33">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="34.5">
       <c r="A122" s="16" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="64.5">
+        <v>1071</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="94.5">
       <c r="A123" s="16" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="47.25">
+        <v>1072</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="47.25">
       <c r="A124" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="50.25">
+    <row r="125" spans="1:2" ht="66">
       <c r="A125" s="10" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="17.25">
+        <v>1073</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="17.25">
       <c r="A126" s="11" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="23.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="23.25">
       <c r="A127" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="64.5">
+      <c r="B127" s="5" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="94.5">
       <c r="A128" s="10" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="33">
+        <v>1075</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="63">
       <c r="A129" s="10" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="17.25">
+        <v>1076</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17.25">
       <c r="A130" s="11" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="31.5">
       <c r="A131" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="17.25">
+      <c r="B131" s="21" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="17.25">
       <c r="A132" s="11" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="17.25">
+      <c r="A133" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17.25">
+      <c r="A134" s="11" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17.25">
+      <c r="A135" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17.25">
+      <c r="A136" s="11" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="17.25">
-      <c r="A133" s="11" t="s">
+    <row r="137" spans="1:2" ht="17.25">
+      <c r="A137" s="11" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="17.25">
-      <c r="A134" s="11" t="s">
+      <c r="B137" s="20" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="17.25">
+      <c r="A138" s="11" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="17.25">
-      <c r="A135" s="11" t="s">
+    <row r="139" spans="1:2" ht="63">
+      <c r="A139" s="10" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="17.25">
-      <c r="A136" s="11" t="s">
+      <c r="B139" s="21" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="17.25">
+      <c r="A140" s="11" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="17.25">
-      <c r="A137" s="11" t="s">
+    <row r="141" spans="1:2" ht="17.25">
+      <c r="A141" s="11" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="17.25">
-      <c r="A138" s="11" t="s">
+      <c r="B141" s="20" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="17.25">
+      <c r="A142" s="11" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="33">
-      <c r="A139" s="10" t="s">
+    <row r="143" spans="1:2" ht="17.25">
+      <c r="A143" s="11" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="17.25">
-      <c r="A140" s="11" t="s">
+      <c r="B143" s="20" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="17.25">
+      <c r="A144" s="11" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="17.25">
-      <c r="A141" s="11" t="s">
+    <row r="145" spans="1:2" ht="17.25">
+      <c r="A145" s="11" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="17.25">
-      <c r="A142" s="11" t="s">
+      <c r="B145" s="20" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17.25">
+      <c r="A146" s="11" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="17.25">
-      <c r="A143" s="11" t="s">
+    <row r="147" spans="1:2" ht="17.25">
+      <c r="A147" s="11" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="17.25">
-      <c r="A144" s="11" t="s">
+      <c r="B147" s="20" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="17.25">
+      <c r="A148" s="11" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="17.25">
-      <c r="A145" s="11" t="s">
+    <row r="149" spans="1:2" ht="17.25">
+      <c r="A149" s="11" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="17.25">
-      <c r="A146" s="11" t="s">
+      <c r="B149" s="20" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="17.25">
+      <c r="A150" s="11" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="17.25">
-      <c r="A147" s="11" t="s">
+    <row r="151" spans="1:2" ht="47.25">
+      <c r="A151" s="10" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="17.25">
-      <c r="A148" s="11" t="s">
+      <c r="B151" s="21" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="17.25">
+      <c r="A152" s="11" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="17.25">
-      <c r="A149" s="11" t="s">
+    <row r="153" spans="1:2" ht="17.25">
+      <c r="A153" s="11" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="17.25">
-      <c r="A150" s="11" t="s">
+      <c r="B153" s="20" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="17.25">
+      <c r="A154" s="11" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="33">
-      <c r="A151" s="10" t="s">
+    <row r="155" spans="1:2" ht="17.25">
+      <c r="A155" s="11" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="17.25">
-      <c r="A152" s="11" t="s">
+      <c r="B155" s="20" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="17.25">
+      <c r="A156" s="11" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="17.25">
-      <c r="A153" s="11" t="s">
+    <row r="157" spans="1:2" ht="17.25">
+      <c r="A157" s="11" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="17.25">
-      <c r="A154" s="11" t="s">
+      <c r="B157" s="20" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="17.25">
+      <c r="A158" s="11" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="17.25">
-      <c r="A155" s="11" t="s">
+    <row r="159" spans="1:2" ht="17.25">
+      <c r="A159" s="11" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="17.25">
-      <c r="A156" s="11" t="s">
+      <c r="B159" s="20" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="17.25">
+      <c r="A160" s="11" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="17.25">
-      <c r="A157" s="11" t="s">
+    <row r="161" spans="1:2" ht="17.25">
+      <c r="A161" s="11" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="17.25">
-      <c r="A158" s="11" t="s">
+      <c r="B161" s="20" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="17.25">
+      <c r="A162" s="11" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="17.25">
-      <c r="A159" s="11" t="s">
+    <row r="163" spans="1:2" ht="17.25">
+      <c r="A163" s="11" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="17.25">
-      <c r="A160" s="11" t="s">
+      <c r="B163" s="20" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="17.25">
+      <c r="A164" s="11" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="17.25">
-      <c r="A161" s="11" t="s">
+    <row r="165" spans="1:2" ht="17.25">
+      <c r="A165" s="11" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="17.25">
-      <c r="A162" s="11" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="17.25">
-      <c r="A163" s="11" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="17.25">
-      <c r="A164" s="11" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="17.25">
-      <c r="A165" s="11" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="31.5">
+      <c r="B165" s="20" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="31.5">
       <c r="A166" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:2">
       <c r="A167" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="31.5">
+      <c r="B167" s="20" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:2">
       <c r="A169" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="31.5">
+      <c r="B169" s="20" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="31.5">
       <c r="A170" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:2">
       <c r="A171" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" s="20" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="141.75">
+      <c r="B172" s="20" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="141.75">
       <c r="A173" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:2">
       <c r="A174" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" s="20" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" s="11"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:2">
       <c r="A176" s="7" t="s">
         <v>167</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -23835,19 +24452,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
       <c r="A1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="48" t="s">
         <v>772</v>
       </c>
     </row>
@@ -23855,64 +24474,91 @@
       <c r="A2" s="5" t="s">
         <v>253</v>
       </c>
+      <c r="B2" s="22" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="31.5">
       <c r="A3" s="10" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="47.25">
+        <v>834</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="78.75">
       <c r="A4" s="10" t="s">
         <v>254</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="10" t="s">
         <v>255</v>
       </c>
+      <c r="B5" s="21" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="33">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="50.25">
       <c r="A7" s="10" t="s">
-        <v>840</v>
+        <v>836</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="11" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="11" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.5">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="63">
       <c r="A10" s="10" t="s">
         <v>256</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>257</v>
       </c>
+      <c r="B11" s="20" t="s">
+        <v>1336</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="33">
+    <row r="13" spans="1:2" ht="63">
       <c r="A13" s="10" t="s">
-        <v>843</v>
+        <v>839</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
         <v>258</v>
       </c>
+      <c r="B14" s="20" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11"/>
@@ -23921,79 +24567,88 @@
       <c r="A16" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="31.5">
+      <c r="B16" s="5" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63">
       <c r="A17" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>840</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="47.25">
       <c r="A18" s="10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="17.25">
+      <c r="B18" s="21" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="11"/>
     </row>
-    <row r="22" spans="1:1" ht="23.25">
+    <row r="22" spans="1:2" ht="23.25">
       <c r="A22" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="47.25">
+    <row r="23" spans="1:2" ht="47.25">
       <c r="A23" s="10" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.5">
       <c r="A24" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="63">
+    <row r="25" spans="1:2" ht="63">
       <c r="A25" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.25">
+    <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="17.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25">
       <c r="A27" s="11" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" s="11"/>
     </row>
-    <row r="30" spans="1:1" ht="23.25">
+    <row r="30" spans="1:2" ht="23.25">
       <c r="A30" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="31.5">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="31.5">
       <c r="A32" s="10" t="s">
         <v>267</v>
       </c>
@@ -24018,23 +24673,23 @@
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A37" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="B37" s="22"/>
+        <v>846</v>
+      </c>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="33">
       <c r="A39" s="10" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24044,7 +24699,7 @@
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24070,9 +24725,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="31.5">
+    <row r="48" spans="1:2" ht="47.25">
       <c r="A48" s="16" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24088,14 +24743,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="63">
+    <row r="52" spans="1:1" ht="78.75">
       <c r="A52" s="16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="47.25">
       <c r="A53" s="16" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="31.5">
@@ -24118,22 +24773,22 @@
     </row>
     <row r="58" spans="1:1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="63">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="78.75">
       <c r="A59" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17.25">
       <c r="A60" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25">
       <c r="A61" s="11" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="31.5">
@@ -24156,7 +24811,7 @@
     </row>
     <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -24167,7 +24822,7 @@
     <row r="68" spans="1:1">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" ht="31.5">
+    <row r="69" spans="1:1" ht="47.25">
       <c r="A69" s="10" t="s">
         <v>287</v>
       </c>
@@ -24195,7 +24850,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="31.5">
+    <row r="75" spans="1:1" ht="47.25">
       <c r="A75" s="10" t="s">
         <v>292</v>
       </c>
@@ -24223,12 +24878,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="50.25">
+    <row r="81" spans="1:1" ht="48.75">
       <c r="A81" s="12" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="31.5">
       <c r="A82" s="10" t="s">
         <v>297</v>
       </c>
@@ -24238,9 +24893,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="48.75">
+    <row r="84" spans="1:1" ht="64.5">
       <c r="A84" s="10" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="31.5">
@@ -24250,12 +24905,12 @@
     </row>
     <row r="86" spans="1:1" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -24268,22 +24923,22 @@
     </row>
     <row r="90" spans="1:1" ht="20.25">
       <c r="A90" s="18" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="34.5">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="50.25">
       <c r="A91" s="10" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="102">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="117.75">
       <c r="A92" s="10" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="80.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="96">
       <c r="A93" s="10" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="31.5">
@@ -24298,7 +24953,7 @@
     </row>
     <row r="96" spans="1:1" ht="17.25">
       <c r="A96" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24306,7 +24961,7 @@
     </row>
     <row r="98" spans="1:2" ht="33">
       <c r="A98" s="10" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24319,14 +24974,14 @@
     </row>
     <row r="101" spans="1:2" ht="20.25">
       <c r="A101" s="18" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" ht="33">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="1" customFormat="1" ht="50.25">
       <c r="A102" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="B102" s="22"/>
+        <v>866</v>
+      </c>
+      <c r="B102" s="21"/>
     </row>
     <row r="103" spans="1:2" ht="47.25">
       <c r="A103" s="10" t="s">
@@ -24335,7 +24990,7 @@
     </row>
     <row r="104" spans="1:2" ht="17.25">
       <c r="A104" s="7" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -24343,7 +24998,7 @@
     </row>
     <row r="106" spans="1:2" ht="33">
       <c r="A106" s="10" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -24361,9 +25016,9 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="31.5">
       <c r="A110" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="B110" s="22"/>
+        <v>869</v>
+      </c>
+      <c r="B110" s="21"/>
     </row>
     <row r="111" spans="1:2" ht="47.25">
       <c r="A111" s="10" t="s">
@@ -24375,19 +25030,19 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="50.25">
+    <row r="113" spans="1:1" ht="66">
       <c r="A113" s="16" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="50.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="66">
       <c r="A114" s="16" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25">
       <c r="A115" s="11" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -24405,17 +25060,17 @@
     </row>
     <row r="119" spans="1:1" ht="50.25">
       <c r="A119" s="16" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="33">
       <c r="A120" s="16" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.25">
       <c r="A121" s="11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -24431,19 +25086,19 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="34.5">
+    <row r="125" spans="1:1" ht="50.25">
       <c r="A125" s="16" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="31.5">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="47.25">
       <c r="A126" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17.25">
       <c r="A127" s="11" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -24461,12 +25116,12 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="11" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25">
       <c r="A132" s="11" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -24474,14 +25129,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="48.75">
+    <row r="134" spans="1:2" ht="64.5">
       <c r="A134" s="16" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25">
       <c r="A135" s="11" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -24497,14 +25152,14 @@
         <v>318</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="64.5">
+    <row r="139" spans="1:2" ht="80.25">
       <c r="A139" s="16" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25">
       <c r="A140" s="11" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -24520,11 +25175,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="1" customFormat="1" ht="31.5">
+    <row r="144" spans="1:2" s="1" customFormat="1" ht="47.25">
       <c r="A144" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="B144" s="22"/>
+        <v>884</v>
+      </c>
+      <c r="B144" s="21"/>
     </row>
     <row r="145" spans="1:2" ht="63">
       <c r="A145" s="10" t="s">
@@ -24546,9 +25201,9 @@
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A149" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="B149" s="22"/>
+        <v>885</v>
+      </c>
+      <c r="B149" s="21"/>
     </row>
     <row r="150" spans="1:2" ht="47.25">
       <c r="A150" s="10" t="s">
@@ -24560,14 +25215,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="66">
+    <row r="152" spans="1:2" ht="81.75">
       <c r="A152" s="10" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25">
       <c r="A153" s="11" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -24593,22 +25248,22 @@
     </row>
     <row r="159" spans="1:2" ht="66">
       <c r="A159" s="16" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="31.5">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="47.25">
       <c r="A160" s="16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="83.25">
+    <row r="161" spans="1:1" ht="114.75">
       <c r="A161" s="16" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25">
       <c r="A162" s="11" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -24632,24 +25287,24 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="48.75">
+    <row r="168" spans="1:1" ht="64.5">
       <c r="A168" s="16" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="51.75">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="67.5">
       <c r="A169" s="16" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17.25">
       <c r="A170" s="16" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17.25">
       <c r="A171" s="11" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -24665,14 +25320,14 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="48.75">
+    <row r="175" spans="1:1" ht="64.5">
       <c r="A175" s="10" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.25">
       <c r="A176" s="11" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="63">
@@ -24682,17 +25337,17 @@
     </row>
     <row r="178" spans="1:1" ht="33">
       <c r="A178" s="10" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17.25">
       <c r="A179" s="11" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17.25">
       <c r="A180" s="11" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -24718,7 +25373,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
@@ -24729,9 +25384,9 @@
         <v>770</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.25">
+    <row r="2" spans="1:5" ht="63">
       <c r="A2" s="10" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25">
@@ -24741,12 +25396,12 @@
     </row>
     <row r="4" spans="1:5" ht="47.25">
       <c r="A4" s="10" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48.75">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="64.5">
       <c r="A5" s="10" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5">
@@ -24756,7 +25411,7 @@
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="11" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24772,23 +25427,23 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33">
+    <row r="11" spans="1:5" ht="48.75">
       <c r="A11" s="10" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="33">
+    <row r="13" spans="1:5" ht="48.75">
       <c r="A13" s="10" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24799,14 +25454,14 @@
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="31.5">
+    <row r="16" spans="1:5" ht="47.25">
       <c r="A16" s="10" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -24822,24 +25477,24 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="31.5">
+    <row r="21" spans="1:1" ht="47.25">
       <c r="A21" s="10" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="31.5">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="47.25">
       <c r="A22" s="10" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="51.75">
       <c r="A24" s="10" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -24849,17 +25504,17 @@
     </row>
     <row r="26" spans="1:1" ht="17.25">
       <c r="A26" s="11" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="31.5">
       <c r="A27" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25">
       <c r="A28" s="11" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="63">
@@ -24869,7 +25524,7 @@
     </row>
     <row r="30" spans="1:1" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -24880,9 +25535,9 @@
     <row r="32" spans="1:1">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="78.75">
+    <row r="33" spans="1:2" ht="94.5">
       <c r="A33" s="10" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5">
@@ -24892,7 +25547,7 @@
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="11" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24910,7 +25565,7 @@
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="47.25">
@@ -24936,25 +25591,25 @@
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" ht="81.75">
+    <row r="45" spans="1:2" s="1" customFormat="1" ht="97.5">
       <c r="A45" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="B45" s="22"/>
+        <v>904</v>
+      </c>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="11" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="11" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -24972,7 +25627,7 @@
     </row>
     <row r="52" spans="1:1" ht="17.25">
       <c r="A52" s="11" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="63">
@@ -24982,7 +25637,7 @@
     </row>
     <row r="54" spans="1:1" ht="17.25">
       <c r="A54" s="11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -25000,7 +25655,7 @@
     </row>
     <row r="58" spans="1:1" ht="17.25">
       <c r="A58" s="11" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="47.25">
@@ -25026,14 +25681,14 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="63">
+    <row r="64" spans="1:1" ht="78.75">
       <c r="A64" s="10" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="48.75">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="64.5">
       <c r="A65" s="10" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="47.25">
@@ -25041,9 +25696,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="66">
+    <row r="67" spans="1:1" ht="81.75">
       <c r="A67" s="10" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="63">
@@ -25053,12 +25708,12 @@
     </row>
     <row r="69" spans="1:1" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="47.25">
@@ -25086,7 +25741,7 @@
     </row>
     <row r="76" spans="1:1" ht="17.25">
       <c r="A76" s="11" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -25130,11 +25785,11 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="1" customFormat="1" ht="67.5">
+    <row r="86" spans="1:2" s="1" customFormat="1" ht="84.75">
       <c r="A86" s="10" t="s">
-        <v>933</v>
-      </c>
-      <c r="B86" s="22"/>
+        <v>929</v>
+      </c>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="1:2" ht="63">
       <c r="A87" s="10" t="s">
@@ -25147,8 +25802,8 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25">
-      <c r="A89" s="29" t="s">
-        <v>934</v>
+      <c r="A89" s="28" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.5">
@@ -25158,7 +25813,7 @@
     </row>
     <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="11" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="47.25">
@@ -25174,7 +25829,7 @@
     <row r="94" spans="1:2">
       <c r="A94" s="11"/>
     </row>
-    <row r="95" spans="1:2" ht="31.5">
+    <row r="95" spans="1:2" ht="47.25">
       <c r="A95" s="10" t="s">
         <v>533</v>
       </c>
@@ -25198,8 +25853,8 @@
       </c>
     </row>
     <row r="100" spans="1:1" ht="17.25">
-      <c r="A100" s="29" t="s">
-        <v>936</v>
+      <c r="A100" s="28" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="31.5">
@@ -25209,7 +25864,7 @@
     </row>
     <row r="102" spans="1:1" ht="17.25">
       <c r="A102" s="11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="47.25">
@@ -25225,9 +25880,9 @@
     <row r="105" spans="1:1">
       <c r="A105" s="11"/>
     </row>
-    <row r="106" spans="1:1" ht="17.25">
+    <row r="106" spans="1:1" ht="33">
       <c r="A106" s="10" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="47.25">
@@ -25248,14 +25903,14 @@
     <row r="110" spans="1:1">
       <c r="A110" s="11"/>
     </row>
-    <row r="111" spans="1:1" ht="67.5">
+    <row r="111" spans="1:1" ht="83.25">
       <c r="A111" s="10" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="17.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="33">
       <c r="A112" s="10" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="47.25">
@@ -25286,9 +25941,9 @@
     <row r="118" spans="1:1">
       <c r="A118" s="11"/>
     </row>
-    <row r="119" spans="1:1" ht="66">
+    <row r="119" spans="1:1" ht="81.75">
       <c r="A119" s="10" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="63">
@@ -25309,9 +25964,9 @@
     <row r="123" spans="1:1">
       <c r="A123" s="11"/>
     </row>
-    <row r="124" spans="1:1" ht="48.75">
+    <row r="124" spans="1:1" ht="64.5">
       <c r="A124" s="10" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -25324,7 +25979,7 @@
     </row>
     <row r="127" spans="1:1" ht="33">
       <c r="A127" s="10" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="47.25">
@@ -25340,9 +25995,9 @@
     <row r="130" spans="1:2">
       <c r="A130" s="11"/>
     </row>
-    <row r="131" spans="1:2" ht="50.25">
+    <row r="131" spans="1:2" ht="66">
       <c r="A131" s="10" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="47.25">
@@ -25365,7 +26020,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="31.5">
+    <row r="136" spans="1:2" ht="47.25">
       <c r="A136" s="10" t="s">
         <v>558</v>
       </c>
@@ -25396,25 +26051,25 @@
         <v>562</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="1" customFormat="1" ht="47.25">
+    <row r="143" spans="1:2" s="1" customFormat="1" ht="63">
       <c r="A143" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="B143" s="22"/>
+        <v>941</v>
+      </c>
+      <c r="B143" s="21"/>
     </row>
     <row r="144" spans="1:2" ht="17.25">
       <c r="A144" s="11" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="31.5">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="47.25">
       <c r="A145" s="10" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17.25">
       <c r="A146" s="11" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -25467,7 +26122,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="80.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
@@ -25480,7 +26135,7 @@
     </row>
     <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="10" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -25490,17 +26145,17 @@
     </row>
     <row r="4" spans="1:2" ht="31.5">
       <c r="A4" s="10" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="47.25">
+    <row r="6" spans="1:2" ht="63">
       <c r="A6" s="10" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75">
@@ -25521,22 +26176,22 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31.5">
+    <row r="11" spans="1:2" ht="47.25">
       <c r="A11" s="10" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33">
       <c r="A12" s="10" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="47.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="63">
       <c r="A13" s="10" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31.5">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="47.25">
       <c r="A14" s="10" t="s">
         <v>576</v>
       </c>
@@ -25569,7 +26224,7 @@
     </row>
     <row r="21" spans="1:1" ht="31.5">
       <c r="A21" s="12" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -25578,8 +26233,8 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="33">
-      <c r="A23" s="30" t="s">
-        <v>967</v>
+      <c r="A23" s="29" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -25588,8 +26243,8 @@
       </c>
     </row>
     <row r="25" spans="1:1" ht="47.25">
-      <c r="A25" s="30" t="s">
-        <v>968</v>
+      <c r="A25" s="29" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -25598,8 +26253,8 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="48.75">
-      <c r="A27" s="30" t="s">
-        <v>969</v>
+      <c r="A27" s="29" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="31.5">
@@ -25650,7 +26305,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="47.25">
+    <row r="38" spans="1:2" ht="63">
       <c r="A38" s="10" t="s">
         <v>593</v>
       </c>
@@ -25688,9 +26343,9 @@
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A46" s="10" t="s">
-        <v>962</v>
-      </c>
-      <c r="B46" s="22"/>
+        <v>958</v>
+      </c>
+      <c r="B46" s="21"/>
     </row>
     <row r="47" spans="1:2" ht="31.5">
       <c r="A47" s="10" t="s">
@@ -25705,7 +26360,7 @@
     <row r="49" spans="1:2">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:2" ht="47.25">
+    <row r="50" spans="1:2" ht="63">
       <c r="A50" s="10" t="s">
         <v>601</v>
       </c>
@@ -25745,9 +26400,9 @@
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" ht="33">
       <c r="A58" s="10" t="s">
-        <v>959</v>
-      </c>
-      <c r="B58" s="22"/>
+        <v>955</v>
+      </c>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="11"/>
@@ -25788,19 +26443,19 @@
     <row r="67" spans="1:1">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" ht="31.5">
       <c r="A68" s="10" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="31.5">
@@ -25821,7 +26476,7 @@
     <row r="74" spans="1:1">
       <c r="A74" s="11"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" ht="31.5">
       <c r="A75" s="10" t="s">
         <v>618</v>
       </c>
@@ -25844,7 +26499,7 @@
     <row r="79" spans="1:1">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" ht="31.5">
       <c r="A80" s="10" t="s">
         <v>622</v>
       </c>
@@ -25869,17 +26524,17 @@
     </row>
     <row r="85" spans="1:1" ht="47.25">
       <c r="A85" s="10" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="25" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="51.75">
+    <row r="87" spans="1:1" ht="69">
       <c r="A87" s="10" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="31.5">
@@ -25900,9 +26555,9 @@
     <row r="91" spans="1:1">
       <c r="A91" s="11"/>
     </row>
-    <row r="92" spans="1:1" ht="64.5">
+    <row r="92" spans="1:1" ht="96">
       <c r="A92" s="10" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="78.75">
@@ -25930,7 +26585,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="11" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="31.5">
@@ -25948,7 +26603,7 @@
     </row>
     <row r="102" spans="1:1" ht="50.25">
       <c r="A102" s="10" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="31.5">
@@ -25979,9 +26634,9 @@
     <row r="108" spans="1:1">
       <c r="A108" s="11"/>
     </row>
-    <row r="109" spans="1:1" ht="48.75">
+    <row r="109" spans="1:1" ht="64.5">
       <c r="A109" s="10" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="47.25">
@@ -25994,14 +26649,14 @@
         <v>642</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="48.75">
+    <row r="112" spans="1:1" ht="64.5">
       <c r="A112" s="10" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="48.75">
       <c r="A113" s="10" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="31.5">
@@ -26075,7 +26730,7 @@
     </row>
     <row r="129" spans="1:1" ht="17.25">
       <c r="A129" s="11" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="47.25">
@@ -26091,12 +26746,12 @@
     <row r="132" spans="1:1">
       <c r="A132" s="11"/>
     </row>
-    <row r="133" spans="1:1" ht="51.75">
+    <row r="133" spans="1:1" ht="50.25">
       <c r="A133" s="10" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="63">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="78.75">
       <c r="A134" s="10" t="s">
         <v>657</v>
       </c>
